--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EE6342-DB48-44BB-8B06-E4B05C205FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D7269-A1F7-4030-925F-42B5AF555793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1164" windowWidth="23040" windowHeight="12240" activeTab="1" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,7 +546,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -866,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
   <dimension ref="A1:Q233"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1255,18 +1254,20 @@
         <v>1</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
       <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -3164,7 +3165,7 @@
       <c r="O60" s="14"/>
       <c r="P60" s="7">
         <f>SUM(P2:P58)</f>
-        <v>18592</v>
+        <v>18676</v>
       </c>
       <c r="Q60" s="15">
         <f>SUM(Q2:Q58)</f>
@@ -3303,7 +3304,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6">
         <f>SUM(P2:P58)</f>
-        <v>18592</v>
+        <v>18676</v>
       </c>
       <c r="Q67" s="6"/>
     </row>
@@ -3355,15 +3356,15 @@
       </c>
       <c r="N68" s="9">
         <f>SUM(N2:N58)</f>
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O68" s="9">
         <f>SUM(O2:O58)</f>
-        <v>9296</v>
+        <v>9338</v>
       </c>
       <c r="P68" s="9">
         <f>2*O68</f>
-        <v>18592</v>
+        <v>18676</v>
       </c>
       <c r="Q68" s="6"/>
     </row>
@@ -5177,7 +5178,7 @@
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
-      <c r="P102" s="17">
+      <c r="P102" s="16">
         <f t="shared" si="14"/>
         <v>840</v>
       </c>
@@ -6715,50 +6716,50 @@
         <f>SUM(D137:L137)</f>
         <v>18174</v>
       </c>
-      <c r="O137" s="18">
+      <c r="O137" s="17">
         <f>N137/N68</f>
-        <v>140.88372093023256</v>
+        <v>139.80000000000001</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D138" s="19">
+      <c r="D138" s="18">
         <f>D137/D68</f>
         <v>150</v>
       </c>
-      <c r="E138" s="19">
+      <c r="E138" s="18">
         <f t="shared" ref="E138:L138" si="29">E137/E68</f>
         <v>89.2</v>
       </c>
-      <c r="F138" s="19">
+      <c r="F138" s="18">
         <f t="shared" si="29"/>
         <v>116.6</v>
       </c>
-      <c r="G138" s="19">
+      <c r="G138" s="18">
         <f t="shared" si="29"/>
         <v>114.375</v>
       </c>
-      <c r="H138" s="19">
+      <c r="H138" s="18">
         <f t="shared" si="29"/>
         <v>160.4</v>
       </c>
-      <c r="I138" s="19">
+      <c r="I138" s="18">
         <f t="shared" si="29"/>
         <v>138.45454545454547</v>
       </c>
-      <c r="J138" s="19">
+      <c r="J138" s="18">
         <f t="shared" si="29"/>
         <v>142.31578947368422</v>
       </c>
-      <c r="K138" s="19">
+      <c r="K138" s="18">
         <f t="shared" si="29"/>
         <v>172.74074074074073</v>
       </c>
-      <c r="L138" s="19">
+      <c r="L138" s="18">
         <f t="shared" si="29"/>
         <v>154.66666666666666</v>
       </c>
       <c r="M138" s="6"/>
-      <c r="N138" s="19">
+      <c r="N138" s="18">
         <f>N137/M68</f>
         <v>140.88372093023256</v>
       </c>
@@ -6838,11 +6839,11 @@
       </c>
       <c r="D212">
         <f>SUM(N8:N13)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E212">
         <f>SUM(P8:P13)</f>
-        <v>1280</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -7158,11 +7159,11 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1">
         <f>SUM(D209:D231)</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E233" s="1">
         <f>SUM(E209:E231)</f>
-        <v>17986</v>
+        <v>18070</v>
       </c>
     </row>
   </sheetData>
@@ -7175,7 +7176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB3AEAB-3835-4342-9FF8-FBE02F12A238}">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -7371,7 +7372,7 @@
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="6">
@@ -7708,7 +7709,7 @@
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="6">

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D7269-A1F7-4030-925F-42B5AF555793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A6D02-EF41-4472-B628-0E3330E31A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:Q233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,18 +1108,20 @@
       <c r="L6" s="8">
         <v>1</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>556</v>
+        <v>834</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
@@ -3165,7 +3167,7 @@
       <c r="O60" s="14"/>
       <c r="P60" s="7">
         <f>SUM(P2:P58)</f>
-        <v>18676</v>
+        <v>18954</v>
       </c>
       <c r="Q60" s="15">
         <f>SUM(Q2:Q58)</f>
@@ -3304,7 +3306,7 @@
       <c r="O67" s="6"/>
       <c r="P67" s="6">
         <f>SUM(P2:P58)</f>
-        <v>18676</v>
+        <v>18954</v>
       </c>
       <c r="Q67" s="6"/>
     </row>
@@ -3356,15 +3358,15 @@
       </c>
       <c r="N68" s="9">
         <f>SUM(N2:N58)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O68" s="9">
         <f>SUM(O2:O58)</f>
-        <v>9338</v>
+        <v>9477</v>
       </c>
       <c r="P68" s="9">
         <f>2*O68</f>
-        <v>18676</v>
+        <v>18954</v>
       </c>
       <c r="Q68" s="6"/>
     </row>
@@ -6718,7 +6720,7 @@
       </c>
       <c r="O137" s="17">
         <f>N137/N68</f>
-        <v>139.80000000000001</v>
+        <v>138.73282442748092</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
@@ -6823,11 +6825,11 @@
       </c>
       <c r="D211">
         <f>N6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E211">
         <f>SUM(P6:P7)</f>
-        <v>838</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -7159,11 +7161,11 @@
       <c r="C233" s="1"/>
       <c r="D233" s="1">
         <f>SUM(D209:D231)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E233" s="1">
         <f>SUM(E209:E231)</f>
-        <v>18070</v>
+        <v>18348</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62A6D02-EF41-4472-B628-0E3330E31A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118EAA71-5224-41AE-9E36-44AB1B39D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="1596" yWindow="864" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="121">
   <si>
     <t>Paikkakunta</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>paikkaa</t>
+  </si>
+  <si>
+    <t>Niemenrannan koulu</t>
+  </si>
+  <si>
+    <t>Oulu</t>
   </si>
 </sst>
 </file>
@@ -528,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -549,6 +555,8 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -863,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
-  <dimension ref="A1:Q233"/>
+  <dimension ref="A1:Q235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,11 +966,11 @@
         <v>2</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O58" si="0">C2*N2</f>
+        <f t="shared" ref="O2:O59" si="0">C2*N2</f>
         <v>16</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P58" si="1">2*O2</f>
+        <f t="shared" ref="P2:P59" si="1">2*O2</f>
         <v>32</v>
       </c>
       <c r="Q2" s="8"/>
@@ -992,7 +1000,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N58" si="2">SUM(D3:M3)</f>
+        <f t="shared" ref="N3:N59" si="2">SUM(D3:M3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="8">
@@ -1105,23 +1113,21 @@
       <c r="K6" s="8">
         <v>1</v>
       </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="8">
         <v>1</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>278</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>834</v>
+        <v>556</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
@@ -2207,217 +2213,213 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="C35" s="8">
-        <v>34</v>
+        <v>522</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>1</v>
-      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="8">
-        <v>2</v>
-      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="8">
-        <v>2</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8">
+        <v>1</v>
+      </c>
       <c r="N35" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O35" s="8">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="P35" s="8">
         <f t="shared" si="1"/>
-        <v>408</v>
+        <v>1044</v>
       </c>
       <c r="Q35" s="8"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="8">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8">
-        <v>1</v>
-      </c>
-      <c r="G36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
       <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="I36" s="8">
+        <v>2</v>
+      </c>
       <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="K36" s="8">
+        <v>2</v>
+      </c>
+      <c r="L36" s="8">
+        <v>1</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="37" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="16">
+        <v>45</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P37" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q37" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+    <row r="38" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C38" s="8">
         <v>132</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6">
-        <v>1</v>
-      </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O38" s="8">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P38" s="8">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="Q37" s="6"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C39" s="8">
         <v>131</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6">
-        <v>1</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O39" s="8">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P39" s="8">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="Q38" s="6"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C40" s="8">
         <v>131</v>
       </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6">
-        <v>1</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O39" s="6">
-        <f t="shared" si="0"/>
-        <v>262</v>
-      </c>
-      <c r="P39" s="6">
-        <f t="shared" si="1"/>
-        <v>524</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="8">
-        <v>136</v>
-      </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
-      <c r="J40" s="8">
-        <v>2</v>
-      </c>
+      <c r="J40" s="8"/>
       <c r="K40" s="8">
         <v>1</v>
       </c>
@@ -2425,773 +2427,794 @@
       <c r="M40" s="8"/>
       <c r="N40" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O40" s="8">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>262</v>
       </c>
       <c r="P40" s="8">
         <f t="shared" si="1"/>
+        <v>524</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="16">
+        <v>136</v>
+      </c>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16">
+        <v>2</v>
+      </c>
+      <c r="K41" s="16">
+        <v>1</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="P41" s="16">
+        <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="Q40" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="Q41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C42" s="8">
         <v>133</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6">
-        <v>1</v>
-      </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6">
-        <v>1</v>
-      </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O42" s="8">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P42" s="8">
         <f t="shared" si="1"/>
         <v>532</v>
       </c>
-      <c r="Q41" s="6"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C43" s="8">
         <v>152</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6">
-        <v>1</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O43" s="8">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P43" s="8">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="Q42" s="6"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C44" s="8">
         <v>127</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O44" s="8">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P44" s="8">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="Q43" s="6"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C45" s="8">
         <v>153</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6">
-        <v>1</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O44" s="6">
-        <f t="shared" si="0"/>
-        <v>153</v>
-      </c>
-      <c r="P44" s="6">
-        <f t="shared" si="1"/>
-        <v>306</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="8">
-        <v>62</v>
-      </c>
       <c r="D45" s="8"/>
-      <c r="E45" s="8">
-        <v>1</v>
-      </c>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8">
-        <v>2</v>
-      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O45" s="8">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="16">
+        <v>62</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16">
+        <v>1</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16">
+        <v>1</v>
+      </c>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16">
+        <v>2</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="P46" s="16">
+        <f t="shared" si="1"/>
         <v>496</v>
       </c>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C47" s="16">
         <v>65</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
         <v>2</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8">
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O47" s="16">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P47" s="16">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="Q46" s="8"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C48" s="16">
         <v>62</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8">
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16">
+        <v>1</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O48" s="16">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P48" s="16">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q48" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C49" s="8">
         <v>45</v>
       </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6">
-        <v>1</v>
-      </c>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8">
+        <v>1</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O49" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P49" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q48" s="6"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C50" s="8">
         <v>53</v>
       </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6">
+      <c r="D50" s="8">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O50" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P50" s="8">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="Q49" s="6"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="Q50" s="8"/>
+    </row>
+    <row r="51" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C51" s="8">
         <v>45</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P50" s="6">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="8">
-        <v>20</v>
-      </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8">
+        <v>1</v>
+      </c>
       <c r="F51" s="8"/>
-      <c r="G51" s="8">
-        <v>2</v>
-      </c>
+      <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="8">
-        <v>4</v>
-      </c>
-      <c r="J51" s="8">
-        <v>4</v>
-      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
       <c r="K51" s="8"/>
-      <c r="L51" s="8">
-        <v>1</v>
-      </c>
+      <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O51" s="8">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="16">
+        <v>20</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
+        <v>2</v>
+      </c>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16">
+        <v>4</v>
+      </c>
+      <c r="J52" s="16">
+        <v>4</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16">
+        <v>1</v>
+      </c>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="P52" s="16">
+        <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="Q52" s="16"/>
+    </row>
+    <row r="53" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="16">
         <v>17</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8">
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16">
         <v>4</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L53" s="16">
         <v>2</v>
       </c>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8">
+      <c r="M53" s="16"/>
+      <c r="N53" s="16">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O53" s="16">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P53" s="16">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="Q52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="Q53" s="16"/>
+    </row>
+    <row r="54" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C54" s="16">
         <v>17</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8">
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16">
+        <v>1</v>
+      </c>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O54" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P54" s="16">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q54" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C55" s="8">
         <v>124</v>
       </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8">
         <v>2</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="O54" s="6">
-        <f t="shared" si="0"/>
-        <v>620</v>
-      </c>
-      <c r="P54" s="6">
-        <f t="shared" si="1"/>
-        <v>1240</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="8">
-        <v>62</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8">
-        <v>1</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8">
-        <v>1</v>
-      </c>
+      <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>620</v>
       </c>
       <c r="P55" s="8">
         <f t="shared" si="1"/>
+        <v>1240</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="16">
+        <v>62</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>1</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16">
+        <v>1</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="P56" s="16">
+        <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="Q55" s="8"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
+      <c r="Q56" s="16"/>
+    </row>
+    <row r="57" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B57" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C57" s="16">
         <v>59</v>
       </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8">
+      <c r="D57" s="16">
+        <v>1</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O57" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P56" s="8">
+      <c r="P57" s="16">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="Q56" s="8"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="Q57" s="16"/>
+    </row>
+    <row r="58" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B58" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C58" s="16">
         <v>58</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8">
-        <v>1</v>
-      </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8">
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16">
+        <v>1</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O58" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P57" s="8">
+      <c r="P58" s="16">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q58" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C59" s="8">
         <v>69</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8">
         <f>K2*C2</f>
         <v>0</v>
       </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6">
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O59" s="8">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P59" s="8">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="Q58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6" t="s">
+      <c r="Q59" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="7">
-        <f>SUM(P2:P58)</f>
-        <v>18954</v>
-      </c>
-      <c r="Q60" s="15">
-        <f>SUM(Q2:Q58)</f>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="7">
+        <f>SUM(P2:P59)</f>
+        <v>19720</v>
+      </c>
+      <c r="Q61" s="15">
+        <f>SUM(Q2:Q59)</f>
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
@@ -3304,262 +3327,230 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="6">
-        <f>SUM(P2:P58)</f>
-        <v>18954</v>
-      </c>
+      <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6">
+        <f>SUM(P2:P59)</f>
+        <v>19720</v>
+      </c>
+      <c r="Q68" s="6"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9">
-        <f t="shared" ref="D68:L68" si="3">SUM(D2:D58)</f>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9">
+        <f t="shared" ref="D69:L69" si="3">SUM(D2:D59)</f>
         <v>5</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E69" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F69" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G69" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H69" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I69" s="9">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J69" s="9">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K68" s="9">
+      <c r="K69" s="9">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L69" s="9">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="M68" s="9">
-        <f>SUM(D68:L68)</f>
-        <v>129</v>
-      </c>
-      <c r="N68" s="9">
-        <f>SUM(N2:N58)</f>
+        <v>14</v>
+      </c>
+      <c r="M69" s="9">
+        <f>SUM(D69:L69)</f>
+        <v>128</v>
+      </c>
+      <c r="N69" s="9">
+        <f>SUM(N2:N59)</f>
         <v>131</v>
       </c>
-      <c r="O68" s="9">
-        <f>SUM(O2:O58)</f>
-        <v>9477</v>
-      </c>
-      <c r="P68" s="9">
-        <f>2*O68</f>
-        <v>18954</v>
-      </c>
-      <c r="Q68" s="6"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
+      <c r="O69" s="9">
+        <f>SUM(O2:O59)</f>
+        <v>9860</v>
+      </c>
+      <c r="P69" s="9">
+        <f>2*O69</f>
+        <v>19720</v>
+      </c>
       <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E72" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I72" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J72" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L72" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="8">
-        <f t="shared" ref="C72:C89" si="4">C2*2</f>
-        <v>16</v>
-      </c>
-      <c r="D72" s="8">
-        <f t="shared" ref="D72:D91" si="5">C72*D2</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="8">
-        <f t="shared" ref="E72:E91" si="6">C72*E2</f>
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <f t="shared" ref="F72:F91" si="7">C72*F2</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="8">
-        <f t="shared" ref="G72:G91" si="8">C72*G2</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="8">
-        <f t="shared" ref="H72:H91" si="9">C72*H2</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="8">
-        <f t="shared" ref="I72:I91" si="10">C72*I2</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <f t="shared" ref="J72:J91" si="11">C72*J2</f>
-        <v>16</v>
-      </c>
-      <c r="K72" s="8">
-        <f t="shared" ref="K72:K91" si="12">C72*K2</f>
-        <v>0</v>
-      </c>
-      <c r="L72" s="8">
-        <f t="shared" ref="L72:L91" si="13">C72*L2</f>
-        <v>16</v>
-      </c>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8">
-        <f>SUM(D72:M72)</f>
-        <v>32</v>
-      </c>
-      <c r="Q72" s="8"/>
+      <c r="M72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>C2*2</f>
+        <v>16</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="5"/>
+        <f>C73*D2</f>
         <v>0</v>
       </c>
       <c r="E73" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>C73*E2</f>
+        <v>0</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>C73*F2</f>
+        <v>0</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="8"/>
+        <f>C73*G2</f>
         <v>0</v>
       </c>
       <c r="H73" s="8">
-        <f t="shared" si="9"/>
+        <f>C73*H2</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f t="shared" si="10"/>
+        <f>C73*I2</f>
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>C73*J2</f>
+        <v>16</v>
       </c>
       <c r="K73" s="8">
-        <f t="shared" si="12"/>
+        <f>C73*K2</f>
         <v>0</v>
       </c>
       <c r="L73" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="8"/>
+        <f>C73*L2</f>
+        <v>16</v>
+      </c>
+      <c r="M73" s="8">
+        <f>C73*M2</f>
+        <v>0</v>
+      </c>
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
       <c r="P73" s="8">
-        <f t="shared" ref="P73:P128" si="14">SUM(D73:M73)</f>
-        <v>4</v>
+        <f>SUM(D73:M73)</f>
+        <v>32</v>
       </c>
       <c r="Q73" s="8"/>
     </row>
@@ -3568,334 +3559,352 @@
         <v>13</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>C3*2</f>
+        <v>2</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>C74*D3</f>
+        <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f>C74*E3</f>
+        <v>2</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f>C74*F3</f>
+        <v>2</v>
       </c>
       <c r="G74" s="8">
-        <f t="shared" si="8"/>
+        <f>C74*G3</f>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="9"/>
+        <f>C74*H3</f>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="10"/>
+        <f>C74*I3</f>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f t="shared" si="11"/>
+        <f>C74*J3</f>
         <v>0</v>
       </c>
       <c r="K74" s="8">
-        <f t="shared" si="12"/>
+        <f>C74*K3</f>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="8"/>
+        <f>C74*L3</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="8">
+        <f t="shared" ref="M74:M130" si="4">C74*M3</f>
+        <v>0</v>
+      </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="P74:P130" si="5">SUM(D74:M74)</f>
+        <v>4</v>
+      </c>
+      <c r="Q74" s="8"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="8">
+        <f>C4*2</f>
+        <v>16</v>
+      </c>
+      <c r="D75" s="8">
+        <f>C75*D4</f>
+        <v>16</v>
+      </c>
+      <c r="E75" s="8">
+        <f>C75*E4</f>
+        <v>48</v>
+      </c>
+      <c r="F75" s="8">
+        <f>C75*F4</f>
+        <v>16</v>
+      </c>
+      <c r="G75" s="8">
+        <f>C75*G4</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="8">
+        <f>C75*H4</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <f>C75*I4</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="8">
+        <f>C75*J4</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <f>C75*K4</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <f>C75*L4</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8">
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="Q74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C76" s="6">
+        <f>C5*2</f>
+        <v>564</v>
+      </c>
+      <c r="D76" s="6">
+        <f>C76*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <f>C76*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <f>C76*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <f>C76*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <f>C76*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <f>C76*I5</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <f>C76*J5</f>
+        <v>564</v>
+      </c>
+      <c r="K76" s="6">
+        <f>C76*K5</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
+        <f>C76*L5</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="16">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="16">
+        <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="D75" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" si="11"/>
-        <v>564</v>
-      </c>
-      <c r="K75" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="16">
-        <f t="shared" si="14"/>
-        <v>564</v>
-      </c>
-      <c r="Q75" s="6"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="8">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="D76" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="8">
-        <f t="shared" si="12"/>
-        <v>278</v>
-      </c>
-      <c r="L76" s="8">
-        <f t="shared" si="13"/>
-        <v>278</v>
-      </c>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8">
-        <f t="shared" si="14"/>
-        <v>556</v>
-      </c>
-      <c r="Q76" s="8"/>
+      <c r="Q76" s="6"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="8">
+        <f>C6*2</f>
+        <v>278</v>
+      </c>
+      <c r="D77" s="8">
+        <f>C77*D6</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <f>C77*E6</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <f>C77*F6</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <f>C77*G6</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <f>C77*H6</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <f>C77*I6</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
+        <f>C77*J6</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <f>C77*K6</f>
+        <v>278</v>
+      </c>
+      <c r="L77" s="8">
+        <f>C77*L6</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
         <f t="shared" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="10"/>
-        <v>282</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="8"/>
+        <v>278</v>
+      </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>556</v>
+      </c>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="8">
+        <f>C7*2</f>
         <v>282</v>
       </c>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="6">
+      <c r="D78" s="8">
+        <f>C78*D7</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="8">
+        <f>C78*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F78" s="8">
+        <f>C78*F7</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="8">
+        <f>C78*G7</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
+        <f>C78*H7</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <f>C78*I7</f>
+        <v>282</v>
+      </c>
+      <c r="J78" s="8">
+        <f>C78*J7</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <f>C78*K7</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <f>C78*L7</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
         <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="D78" s="6">
+        <v>0</v>
+      </c>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="6">
-        <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="L78" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="16">
-        <f t="shared" si="14"/>
-        <v>66</v>
-      </c>
-      <c r="Q78" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="Q78" s="8"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="6">
+        <f>C8*2</f>
+        <v>66</v>
+      </c>
+      <c r="D79" s="6">
+        <f>C79*D8</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <f>C79*E8</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <f>C79*F8</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <f>C79*G8</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <f>C79*H8</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <f>C79*I8</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <f>C79*J8</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <f>C79*K8</f>
+        <v>66</v>
+      </c>
+      <c r="L79" s="6">
+        <f>C79*L8</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="16">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="D79" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="6">
-        <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="H79" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="16">
-        <f t="shared" si="14"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>66</v>
       </c>
       <c r="Q79" s="6"/>
     </row>
@@ -3904,54 +3913,57 @@
         <v>22</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" s="6">
+        <f>C9*2</f>
+        <v>92</v>
+      </c>
+      <c r="D80" s="6">
+        <f>C80*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="6">
+        <f>C80*E9</f>
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <f>C80*F9</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <f>C80*G9</f>
+        <v>92</v>
+      </c>
+      <c r="H80" s="6">
+        <f>C80*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="6">
+        <f>C80*I9</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="6">
+        <f>C80*J9</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <f>C80*K9</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="6">
+        <f>C80*L9</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="16">
         <f t="shared" si="4"/>
-        <v>84</v>
-      </c>
-      <c r="D80" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="6">
-        <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="L80" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="16">
-        <f t="shared" si="14"/>
-        <v>84</v>
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="Q80" s="6"/>
     </row>
@@ -3960,54 +3972,57 @@
         <v>22</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C81" s="6">
+        <f>C10*2</f>
+        <v>84</v>
+      </c>
+      <c r="D81" s="6">
+        <f>C81*D10</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="6">
+        <f>C81*E10</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <f>C81*F10</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="6">
+        <f>C81*G10</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <f>C81*H10</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="6">
+        <f>C81*I10</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <f>C81*J10</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <f>C81*K10</f>
+        <v>84</v>
+      </c>
+      <c r="L81" s="6">
+        <f>C81*L10</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="16">
         <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="H81" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="6"/>
+        <v>84</v>
+      </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="16">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <f t="shared" si="5"/>
+        <v>168</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
@@ -4016,222 +4031,234 @@
         <v>22</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="6">
+        <f>C11*2</f>
+        <v>120</v>
+      </c>
+      <c r="D82" s="6">
+        <f>C82*D11</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="6">
+        <f>C82*E11</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <f>C82*F11</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <f>C82*G11</f>
+        <v>120</v>
+      </c>
+      <c r="H82" s="6">
+        <f>C82*H11</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="6">
+        <f>C82*I11</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <f>C82*J11</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <f>C82*K11</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="6">
+        <f>C82*L11</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="16">
         <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="D82" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="G82" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I82" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="6">
+        <f>C12*2</f>
         <v>86</v>
       </c>
-      <c r="Q82" s="6"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+      <c r="D83" s="6">
+        <f>C83*D12</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="6">
+        <f>C83*E12</f>
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <f>C83*F12</f>
+        <v>86</v>
+      </c>
+      <c r="G83" s="6">
+        <f>C83*G12</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <f>C83*H12</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <f>C83*I12</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <f>C83*J12</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f>C83*K12</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="6">
+        <f>C83*L12</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="16">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C84" s="8">
+        <f>C13*2</f>
+        <v>416</v>
+      </c>
+      <c r="D84" s="8">
+        <f>C84*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <f>C84*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <f>C84*F13</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <f>C84*G13</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="8">
+        <f>C84*H13</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <f>C84*I13</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
+        <f>C84*J13</f>
+        <v>416</v>
+      </c>
+      <c r="K84" s="8">
+        <f>C84*K13</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <f>C84*L13</f>
+        <v>416</v>
+      </c>
+      <c r="M84" s="8">
         <f t="shared" si="4"/>
-        <v>416</v>
-      </c>
-      <c r="D83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="8">
-        <f t="shared" si="11"/>
-        <v>416</v>
-      </c>
-      <c r="K83" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="8">
-        <f t="shared" si="13"/>
-        <v>416</v>
-      </c>
-      <c r="M83" s="8"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
-      <c r="P83" s="8">
-        <f t="shared" si="14"/>
         <v>832</v>
       </c>
-      <c r="Q83" s="8"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C84" s="6">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="D84" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="G84" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="16">
-        <f t="shared" si="14"/>
-        <v>220</v>
-      </c>
-      <c r="Q84" s="6"/>
+      <c r="Q84" s="8"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" s="6">
+        <f>C14*2</f>
+        <v>110</v>
+      </c>
+      <c r="D85" s="6">
+        <f>C85*D14</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="6">
+        <f>C85*E14</f>
+        <v>110</v>
+      </c>
+      <c r="F85" s="6">
+        <f>C85*F14</f>
+        <v>110</v>
+      </c>
+      <c r="G85" s="6">
+        <f>C85*G14</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="6">
+        <f>C85*H14</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="6">
+        <f>C85*I14</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <f>C85*J14</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <f>C85*K14</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="6">
+        <f>C85*L14</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="16">
         <f t="shared" si="4"/>
-        <v>108</v>
-      </c>
-      <c r="D85" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G85" s="6">
-        <f t="shared" si="8"/>
-        <v>108</v>
-      </c>
-      <c r="H85" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="16">
-        <f t="shared" si="14"/>
-        <v>108</v>
+        <f t="shared" si="5"/>
+        <v>220</v>
       </c>
       <c r="Q85" s="6"/>
     </row>
@@ -4240,54 +4267,57 @@
         <v>30</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C86" s="6">
+        <f>C15*2</f>
+        <v>108</v>
+      </c>
+      <c r="D86" s="6">
+        <f>C86*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <f>C86*E15</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <f>C86*F15</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <f>C86*G15</f>
+        <v>108</v>
+      </c>
+      <c r="H86" s="6">
+        <f>C86*H15</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <f>C86*I15</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <f>C86*J15</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f>C86*K15</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <f>C86*L15</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="16">
         <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="D86" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="16">
-        <f t="shared" si="14"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="Q86" s="6"/>
     </row>
@@ -4296,54 +4326,57 @@
         <v>30</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" s="6">
+        <f>C16*2</f>
+        <v>110</v>
+      </c>
+      <c r="D87" s="6">
+        <f>C87*D16</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="6">
+        <f>C87*E16</f>
+        <v>110</v>
+      </c>
+      <c r="F87" s="6">
+        <f>C87*F16</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="6">
+        <f>C87*G16</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="6">
+        <f>C87*H16</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="6">
+        <f>C87*I16</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <f>C87*J16</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <f>C87*K16</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="6">
+        <f>C87*L16</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="16">
         <f t="shared" si="4"/>
-        <v>92</v>
-      </c>
-      <c r="D87" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F87" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G87" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <f t="shared" si="11"/>
-        <v>92</v>
-      </c>
-      <c r="K87" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M87" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="16">
-        <f t="shared" si="14"/>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="Q87" s="6"/>
     </row>
@@ -4352,445 +4385,469 @@
         <v>30</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C88" s="6">
+        <f>C17*2</f>
+        <v>92</v>
+      </c>
+      <c r="D88" s="6">
+        <f>C88*D17</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="6">
+        <f>C88*E17</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="6">
+        <f>C88*F17</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="6">
+        <f>C88*G17</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="6">
+        <f>C88*H17</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="6">
+        <f>C88*I17</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="6">
+        <f>C88*J17</f>
+        <v>92</v>
+      </c>
+      <c r="K88" s="6">
+        <f>C88*K17</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="6">
+        <f>C88*L17</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="16">
         <f t="shared" si="4"/>
-        <v>94</v>
-      </c>
-      <c r="D88" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F88" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="6">
-        <f t="shared" si="9"/>
-        <v>94</v>
-      </c>
-      <c r="I88" s="6">
-        <f t="shared" si="10"/>
-        <v>188</v>
-      </c>
-      <c r="J88" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <f t="shared" si="12"/>
-        <v>94</v>
-      </c>
-      <c r="L88" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="6"/>
+        <v>0</v>
+      </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="6">
+        <f>C18*2</f>
+        <v>94</v>
+      </c>
+      <c r="D89" s="6">
+        <f>C89*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="6">
+        <f>C89*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="6">
+        <f>C89*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="6">
+        <f>C89*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="6">
+        <f>C89*H18</f>
+        <v>94</v>
+      </c>
+      <c r="I89" s="6">
+        <f>C89*I18</f>
+        <v>188</v>
+      </c>
+      <c r="J89" s="6">
+        <f>C89*J18</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <f>C89*K18</f>
+        <v>94</v>
+      </c>
+      <c r="L89" s="6">
+        <f>C89*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="16">
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
-      <c r="Q88" s="6"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C90" s="8">
+        <f>C19*2</f>
+        <v>800</v>
+      </c>
+      <c r="D90" s="8">
+        <f>C90*D19</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="8">
+        <f>C90*E19</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="8">
+        <f>C90*F19</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="8">
+        <f>C90*G19</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="8">
+        <f>C90*H19</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="8">
+        <f>C90*I19</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="8">
+        <f>C90*J19</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="8">
+        <f>C90*K19</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="8">
+        <f>C90*L19</f>
+        <v>800</v>
+      </c>
+      <c r="M90" s="8">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8">
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="D89" s="8">
+      <c r="Q90" s="8"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="6">
+        <f>C20*2</f>
+        <v>726</v>
+      </c>
+      <c r="D91" s="6">
+        <f>C91*D20</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <f>C91*E20</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <f>C91*F20</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
+        <f>C91*G20</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="6">
+        <f>C91*H20</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="6">
+        <f>C91*I20</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="6">
+        <f>C91*J20</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <f>C91*K20</f>
+        <v>726</v>
+      </c>
+      <c r="L91" s="6">
+        <f>C91*L20</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="8">
+        <v>726</v>
+      </c>
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" s="8">
+        <f>C21*2</f>
+        <v>186</v>
+      </c>
+      <c r="D92" s="8">
+        <f>C92*D21</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
+        <f>C92*E21</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
+        <f>C92*F21</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <f>C92*G21</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="8">
+        <f>C92*H21</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="8">
+        <f>C92*I21</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="8">
+        <f>C92*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="8">
+        <f>C92*K21</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="8">
+        <f>C92*L21</f>
+        <v>186</v>
+      </c>
+      <c r="M92" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+      <c r="Q92" s="8"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" s="6">
+        <v>209</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" ref="D93:K93" si="6">C93*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F89" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="8">
-        <f t="shared" si="13"/>
-        <v>800</v>
-      </c>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8">
-        <f t="shared" si="14"/>
-        <v>800</v>
-      </c>
-      <c r="Q89" s="8"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="6">
-        <f t="shared" ref="C90:C91" si="15">C20*2</f>
-        <v>726</v>
-      </c>
-      <c r="D90" s="6">
+      <c r="F93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <f t="shared" ref="L93" si="7">C93*L23</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E90" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <f t="shared" si="12"/>
-        <v>726</v>
-      </c>
-      <c r="L90" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="16">
-        <f t="shared" si="14"/>
-        <v>726</v>
-      </c>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" s="8">
-        <f t="shared" si="15"/>
-        <v>186</v>
-      </c>
-      <c r="D91" s="8">
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="8">
+        <f>C23*2</f>
+        <v>516</v>
+      </c>
+      <c r="D94" s="8">
+        <f>C94*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="8">
+        <f>C94*E23</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
+        <f>C94*F23</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
+        <f>C94*G23</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="8">
+        <f>C94*H23</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="8">
+        <f>C94*I23</f>
+        <v>516</v>
+      </c>
+      <c r="J94" s="8">
+        <f>C94*J23</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="8">
+        <f>C94*K23</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="8">
+        <f>C94*L23</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K91" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="8">
-        <f t="shared" si="13"/>
-        <v>186</v>
-      </c>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8">
-        <f t="shared" si="14"/>
-        <v>186</v>
-      </c>
-      <c r="Q91" s="8"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="6">
-        <v>209</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" ref="D92:K92" si="16">C92*D23</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="6">
-        <f t="shared" ref="L92" si="17">C92*L23</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q92" s="6"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="8">
-        <f t="shared" ref="C93:C128" si="18">C23*2</f>
         <v>516</v>
       </c>
-      <c r="D93" s="8">
-        <f t="shared" ref="D93:D122" si="19">C93*D23</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="8">
-        <f t="shared" ref="E93:E122" si="20">C93*E23</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
-        <f t="shared" ref="F93:F122" si="21">C93*F23</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" ref="G93:G122" si="22">C93*G23</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="8">
-        <f t="shared" ref="H93:H122" si="23">C93*H23</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="8">
-        <f t="shared" ref="I93:I122" si="24">C93*I23</f>
-        <v>516</v>
-      </c>
-      <c r="J93" s="8">
-        <f t="shared" ref="J93:J122" si="25">C93*J23</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="8">
-        <f t="shared" ref="K93:K122" si="26">C93*K23</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="8">
-        <f t="shared" ref="L93:L128" si="27">C93*L23</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="8"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8">
-        <f t="shared" si="14"/>
-        <v>516</v>
-      </c>
-      <c r="Q93" s="8"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C94" s="6">
-        <f t="shared" si="18"/>
-        <v>158</v>
-      </c>
-      <c r="D94" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <f t="shared" si="24"/>
-        <v>158</v>
-      </c>
-      <c r="J94" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="6">
-        <f t="shared" si="26"/>
-        <v>158</v>
-      </c>
-      <c r="L94" s="6">
-        <f t="shared" si="27"/>
-        <v>158</v>
-      </c>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="16">
-        <f t="shared" si="14"/>
-        <v>474</v>
-      </c>
-      <c r="Q94" s="6"/>
+      <c r="Q94" s="8"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" s="6">
-        <f t="shared" si="18"/>
-        <v>140</v>
+        <f>C24*2</f>
+        <v>158</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="19"/>
+        <f>C95*D24</f>
         <v>0</v>
       </c>
       <c r="E95" s="6">
-        <f t="shared" si="20"/>
+        <f>C95*E24</f>
         <v>0</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="21"/>
+        <f>C95*F24</f>
         <v>0</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="22"/>
+        <f>C95*G24</f>
         <v>0</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="23"/>
+        <f>C95*H24</f>
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <f t="shared" si="24"/>
-        <v>280</v>
+        <f>C95*I24</f>
+        <v>158</v>
       </c>
       <c r="J95" s="6">
-        <f t="shared" si="25"/>
+        <f>C95*J24</f>
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>C95*K24</f>
+        <v>158</v>
       </c>
       <c r="L95" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="6"/>
+        <f>C95*L24</f>
+        <v>158</v>
+      </c>
+      <c r="M95" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="16">
-        <f t="shared" si="14"/>
-        <v>280</v>
+        <f t="shared" si="5"/>
+        <v>474</v>
       </c>
       <c r="Q95" s="6"/>
     </row>
@@ -4799,166 +4856,175 @@
         <v>40</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C96" s="6">
-        <f t="shared" si="18"/>
-        <v>132</v>
+        <f>C25*2</f>
+        <v>140</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="19"/>
+        <f>C96*D25</f>
         <v>0</v>
       </c>
       <c r="E96" s="6">
-        <f t="shared" si="20"/>
+        <f>C96*E25</f>
         <v>0</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="21"/>
+        <f>C96*F25</f>
         <v>0</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="22"/>
+        <f>C96*G25</f>
         <v>0</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="23"/>
+        <f>C96*H25</f>
         <v>0</v>
       </c>
       <c r="I96" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>C96*I25</f>
+        <v>280</v>
       </c>
       <c r="J96" s="6">
-        <f t="shared" si="25"/>
-        <v>132</v>
+        <f>C96*J25</f>
+        <v>0</v>
       </c>
       <c r="K96" s="6">
-        <f t="shared" si="26"/>
-        <v>132</v>
+        <f>C96*K25</f>
+        <v>0</v>
       </c>
       <c r="L96" s="6">
-        <f t="shared" si="27"/>
-        <v>132</v>
-      </c>
-      <c r="M96" s="6"/>
+        <f>C96*L25</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="6">
+        <f>C26*2</f>
+        <v>132</v>
+      </c>
+      <c r="D97" s="6">
+        <f>C97*D26</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="6">
+        <f>C97*E26</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <f>C97*F26</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="6">
+        <f>C97*G26</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="6">
+        <f>C97*H26</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="6">
+        <f>C97*I26</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="6">
+        <f>C97*J26</f>
+        <v>132</v>
+      </c>
+      <c r="K97" s="6">
+        <f>C97*K26</f>
+        <v>132</v>
+      </c>
+      <c r="L97" s="6">
+        <f>C97*L26</f>
+        <v>132</v>
+      </c>
+      <c r="M97" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="16">
+        <f t="shared" si="5"/>
         <v>396</v>
       </c>
-      <c r="Q96" s="6"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="8">
-        <f t="shared" si="18"/>
-        <v>50</v>
-      </c>
-      <c r="D97" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="8">
-        <f t="shared" si="25"/>
-        <v>50</v>
-      </c>
-      <c r="K97" s="8">
-        <f t="shared" si="26"/>
-        <v>50</v>
-      </c>
-      <c r="L97" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="8"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8">
-        <f t="shared" si="14"/>
-        <v>100</v>
-      </c>
-      <c r="Q97" s="8"/>
+      <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C98" s="8">
-        <f t="shared" si="18"/>
-        <v>54</v>
+        <f>C27*2</f>
+        <v>50</v>
       </c>
       <c r="D98" s="8">
-        <f t="shared" si="19"/>
+        <f>C98*D27</f>
         <v>0</v>
       </c>
       <c r="E98" s="8">
-        <f t="shared" si="20"/>
+        <f>C98*E27</f>
         <v>0</v>
       </c>
       <c r="F98" s="8">
-        <f t="shared" si="21"/>
+        <f>C98*F27</f>
         <v>0</v>
       </c>
       <c r="G98" s="8">
-        <f t="shared" si="22"/>
-        <v>54</v>
+        <f>C98*G27</f>
+        <v>0</v>
       </c>
       <c r="H98" s="8">
-        <f t="shared" si="23"/>
+        <f>C98*H27</f>
         <v>0</v>
       </c>
       <c r="I98" s="8">
-        <f t="shared" si="24"/>
-        <v>54</v>
+        <f>C98*I27</f>
+        <v>0</v>
       </c>
       <c r="J98" s="8">
-        <f t="shared" si="25"/>
-        <v>108</v>
+        <f>C98*J27</f>
+        <v>50</v>
       </c>
       <c r="K98" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f>C98*K27</f>
+        <v>50</v>
       </c>
       <c r="L98" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
+        <f>C98*L27</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
       <c r="P98" s="8">
-        <f t="shared" si="14"/>
-        <v>216</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="Q98" s="8"/>
     </row>
@@ -4967,54 +5033,57 @@
         <v>44</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C99" s="8">
-        <f t="shared" si="18"/>
+        <f>C28*2</f>
         <v>54</v>
       </c>
       <c r="D99" s="8">
-        <f t="shared" si="19"/>
+        <f>C99*D28</f>
         <v>0</v>
       </c>
       <c r="E99" s="8">
-        <f t="shared" si="20"/>
+        <f>C99*E28</f>
         <v>0</v>
       </c>
       <c r="F99" s="8">
-        <f t="shared" si="21"/>
+        <f>C99*F28</f>
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>C99*G28</f>
+        <v>54</v>
       </c>
       <c r="H99" s="8">
-        <f t="shared" si="23"/>
+        <f>C99*H28</f>
         <v>0</v>
       </c>
       <c r="I99" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>C99*I28</f>
+        <v>54</v>
       </c>
       <c r="J99" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>C99*J28</f>
+        <v>108</v>
       </c>
       <c r="K99" s="8">
-        <f t="shared" si="26"/>
-        <v>54</v>
+        <f>C99*K28</f>
+        <v>0</v>
       </c>
       <c r="L99" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
+        <f>C99*L28</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
       <c r="P99" s="8">
-        <f t="shared" si="14"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>216</v>
       </c>
       <c r="Q99" s="8"/>
     </row>
@@ -5023,54 +5092,57 @@
         <v>44</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C100" s="8">
-        <f t="shared" si="18"/>
+        <f>C29*2</f>
         <v>54</v>
       </c>
       <c r="D100" s="8">
-        <f t="shared" si="19"/>
+        <f>C100*D29</f>
         <v>0</v>
       </c>
       <c r="E100" s="8">
-        <f t="shared" si="20"/>
+        <f>C100*E29</f>
         <v>0</v>
       </c>
       <c r="F100" s="8">
-        <f t="shared" si="21"/>
+        <f>C100*F29</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <f>C100*G29</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="8">
+        <f>C100*H29</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
+        <f>C100*I29</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="8">
+        <f>C100*J29</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="8">
+        <f>C100*K29</f>
         <v>54</v>
       </c>
-      <c r="G100" s="8">
-        <f t="shared" si="22"/>
-        <v>108</v>
-      </c>
-      <c r="H100" s="8">
-        <f t="shared" si="23"/>
-        <v>54</v>
-      </c>
-      <c r="I100" s="8">
-        <f t="shared" si="24"/>
-        <v>54</v>
-      </c>
-      <c r="J100" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="8">
-        <f t="shared" si="26"/>
-        <v>54</v>
-      </c>
       <c r="L100" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="8"/>
+        <f>C100*L29</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8">
-        <f t="shared" si="14"/>
-        <v>324</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="Q100" s="8"/>
     </row>
@@ -5079,2093 +5151,2295 @@
         <v>44</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C101" s="8">
-        <f t="shared" si="18"/>
-        <v>62</v>
+        <f>C30*2</f>
+        <v>54</v>
       </c>
       <c r="D101" s="8">
-        <f t="shared" si="19"/>
+        <f>C101*D30</f>
         <v>0</v>
       </c>
       <c r="E101" s="8">
-        <f t="shared" si="20"/>
+        <f>C101*E30</f>
         <v>0</v>
       </c>
       <c r="F101" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>C101*F30</f>
+        <v>54</v>
       </c>
       <c r="G101" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f>C101*G30</f>
+        <v>108</v>
       </c>
       <c r="H101" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f>C101*H30</f>
+        <v>54</v>
       </c>
       <c r="I101" s="8">
-        <f t="shared" si="24"/>
-        <v>62</v>
+        <f>C101*I30</f>
+        <v>54</v>
       </c>
       <c r="J101" s="8">
-        <f t="shared" si="25"/>
+        <f>C101*J30</f>
         <v>0</v>
       </c>
       <c r="K101" s="8">
-        <f t="shared" si="26"/>
-        <v>186</v>
+        <f>C101*K30</f>
+        <v>54</v>
       </c>
       <c r="L101" s="8">
-        <f t="shared" si="27"/>
-        <v>124</v>
-      </c>
-      <c r="M101" s="8"/>
+        <f>C101*L30</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="Q101" s="8"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="8">
+        <f>C31*2</f>
+        <v>62</v>
+      </c>
+      <c r="D102" s="8">
+        <f>C102*D31</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <f>C102*E31</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="8">
+        <f>C102*F31</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="8">
+        <f>C102*G31</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="8">
+        <f>C102*H31</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="8">
+        <f>C102*I31</f>
+        <v>62</v>
+      </c>
+      <c r="J102" s="8">
+        <f>C102*J31</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="8">
+        <f>C102*K31</f>
+        <v>186</v>
+      </c>
+      <c r="L102" s="8">
+        <f>C102*L31</f>
+        <v>124</v>
+      </c>
+      <c r="M102" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="8"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="8">
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="6" t="s">
+      <c r="Q102" s="8"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B103" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="6">
-        <f t="shared" si="18"/>
+      <c r="C103" s="6">
+        <f>C32*2</f>
         <v>840</v>
       </c>
-      <c r="D102" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <f t="shared" si="26"/>
+      <c r="D103" s="6">
+        <f>C103*D32</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="6">
+        <f>C103*E32</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <f>C103*F32</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="6">
+        <f>C103*G32</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="6">
+        <f>C103*H32</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="6">
+        <f>C103*I32</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="6">
+        <f>C103*J32</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f>C103*K32</f>
         <v>840</v>
       </c>
-      <c r="L102" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
-      <c r="O102" s="6"/>
-      <c r="P102" s="16">
-        <f t="shared" si="14"/>
+      <c r="L103" s="6">
+        <f>C103*L32</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="16">
+        <f t="shared" si="5"/>
         <v>840</v>
       </c>
-      <c r="Q102" s="6"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B104" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="8">
-        <f t="shared" si="18"/>
+      <c r="C104" s="8">
+        <f>C33*2</f>
         <v>282</v>
       </c>
-      <c r="D103" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="8">
-        <f t="shared" si="26"/>
+      <c r="D104" s="8">
+        <f>C104*D33</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="8">
+        <f>C104*E33</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="8">
+        <f>C104*F33</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="8">
+        <f>C104*G33</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="8">
+        <f>C104*H33</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="8">
+        <f>C104*I33</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="8">
+        <f>C104*J33</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="8">
+        <f>C104*K33</f>
         <v>282</v>
       </c>
-      <c r="L103" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="8"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8">
-        <f t="shared" si="14"/>
+      <c r="L104" s="8">
+        <f>C104*L33</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="8">
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
-      <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="Q104" s="8"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C104" s="6">
-        <f t="shared" si="18"/>
+      <c r="C105" s="6">
+        <f>C34*2</f>
         <v>160</v>
       </c>
-      <c r="D104" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="6">
-        <f t="shared" si="20"/>
+      <c r="D105" s="6">
+        <f>C105*D34</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="6">
+        <f>C105*E34</f>
         <v>160</v>
       </c>
-      <c r="F104" s="6">
-        <f t="shared" si="21"/>
+      <c r="F105" s="6">
+        <f>C105*F34</f>
         <v>160</v>
       </c>
-      <c r="G104" s="6">
-        <f t="shared" si="22"/>
+      <c r="G105" s="6">
+        <f>C105*G34</f>
         <v>320</v>
       </c>
-      <c r="H104" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="6">
-        <f t="shared" si="24"/>
+      <c r="H105" s="6">
+        <f>C105*H34</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="6">
+        <f>C105*I34</f>
         <v>480</v>
       </c>
-      <c r="J104" s="6">
-        <f t="shared" si="25"/>
+      <c r="J105" s="6">
+        <f>C105*J34</f>
         <v>160</v>
       </c>
-      <c r="K104" s="6">
-        <f t="shared" si="26"/>
+      <c r="K105" s="6">
+        <f>C105*K34</f>
         <v>160</v>
       </c>
-      <c r="L104" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="16">
-        <f t="shared" si="14"/>
+      <c r="L105" s="6">
+        <f>C105*L34</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="16">
+        <f t="shared" si="5"/>
         <v>1440</v>
       </c>
-      <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C105" s="8">
-        <f t="shared" si="18"/>
-        <v>68</v>
-      </c>
-      <c r="D105" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E105" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="8">
-        <f t="shared" si="22"/>
-        <v>68</v>
-      </c>
-      <c r="H105" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="8">
-        <f t="shared" si="24"/>
-        <v>136</v>
-      </c>
-      <c r="J105" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="8">
-        <f t="shared" si="26"/>
-        <v>136</v>
-      </c>
-      <c r="L105" s="8">
-        <f t="shared" si="27"/>
-        <v>68</v>
-      </c>
-      <c r="M105" s="8"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8">
-        <f t="shared" si="14"/>
-        <v>408</v>
-      </c>
-      <c r="Q105" s="8"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C106" s="8">
-        <f t="shared" si="18"/>
-        <v>90</v>
+        <f>C35*2</f>
+        <v>1044</v>
       </c>
       <c r="D106" s="8">
-        <f t="shared" si="19"/>
+        <f>C106*D35</f>
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f t="shared" si="20"/>
+        <f>C106*E35</f>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" si="21"/>
-        <v>90</v>
+        <f>C106*F35</f>
+        <v>0</v>
       </c>
       <c r="G106" s="8">
-        <f t="shared" si="22"/>
+        <f>C106*G35</f>
         <v>0</v>
       </c>
       <c r="H106" s="8">
-        <f t="shared" si="23"/>
+        <f>C106*H35</f>
         <v>0</v>
       </c>
       <c r="I106" s="8">
-        <f t="shared" si="24"/>
+        <f>C106*I35</f>
         <v>0</v>
       </c>
       <c r="J106" s="8">
-        <f t="shared" si="25"/>
+        <f>C106*J35</f>
         <v>0</v>
       </c>
       <c r="K106" s="8">
-        <f t="shared" si="26"/>
+        <f>C106*K35</f>
         <v>0</v>
       </c>
       <c r="L106" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="8"/>
+        <f>C106*L35</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>1044</v>
+      </c>
+      <c r="Q106" s="8"/>
+    </row>
+    <row r="107" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="16">
+        <f>C36*2</f>
+        <v>68</v>
+      </c>
+      <c r="D107" s="16">
+        <f>C107*D36</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="16">
+        <f>C107*E36</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="16">
+        <f>C107*F36</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="16">
+        <f>C107*G36</f>
+        <v>68</v>
+      </c>
+      <c r="H107" s="16">
+        <f>C107*H36</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="16">
+        <f>C107*I36</f>
+        <v>136</v>
+      </c>
+      <c r="J107" s="16">
+        <f>C107*J36</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="16">
+        <f>C107*K36</f>
+        <v>136</v>
+      </c>
+      <c r="L107" s="16">
+        <f>C107*L36</f>
+        <v>68</v>
+      </c>
+      <c r="M107" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16">
+        <f t="shared" si="5"/>
+        <v>408</v>
+      </c>
+      <c r="Q107" s="16"/>
+    </row>
+    <row r="108" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B108" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C108" s="16">
+        <f>C37*2</f>
         <v>90</v>
       </c>
-      <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
+      <c r="D108" s="16">
+        <f>C108*D37</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="16">
+        <f>C108*E37</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="16">
+        <f>C108*F37</f>
+        <v>90</v>
+      </c>
+      <c r="G108" s="16">
+        <f>C108*G37</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="16">
+        <f>C108*H37</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="16">
+        <f>C108*I37</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="16">
+        <f>C108*J37</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="16">
+        <f>C108*K37</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="16">
+        <f>C108*L37</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Q108" s="16"/>
+    </row>
+    <row r="109" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B109" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="6">
-        <f t="shared" si="18"/>
+      <c r="C109" s="8">
+        <f>C38*2</f>
         <v>264</v>
       </c>
-      <c r="D107" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="6">
-        <f t="shared" si="23"/>
+      <c r="D109" s="8">
+        <f>C109*D38</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="8">
+        <f>C109*E38</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="8">
+        <f>C109*F38</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="8">
+        <f>C109*G38</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="8">
+        <f>C109*H38</f>
         <v>264</v>
       </c>
-      <c r="I107" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="16">
-        <f t="shared" si="14"/>
+      <c r="I109" s="8">
+        <f>C109*I38</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="8">
+        <f>C109*J38</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="8">
+        <f>C109*K38</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="8">
+        <f>C109*L38</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N109" s="8"/>
+      <c r="O109" s="8"/>
+      <c r="P109" s="8">
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
-      <c r="Q107" s="6"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="6" t="s">
+      <c r="Q109" s="8"/>
+    </row>
+    <row r="110" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B110" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C108" s="6">
-        <f t="shared" si="18"/>
+      <c r="C110" s="8">
+        <f>C39*2</f>
         <v>262</v>
       </c>
-      <c r="D108" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="6">
-        <f t="shared" si="21"/>
+      <c r="D110" s="8">
+        <f>C110*D39</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
+        <f>C110*E39</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
+        <f>C110*F39</f>
         <v>262</v>
       </c>
-      <c r="G108" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L108" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="16">
-        <f t="shared" si="14"/>
-        <v>262</v>
-      </c>
-      <c r="Q108" s="6"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="6">
-        <f t="shared" si="18"/>
-        <v>262</v>
-      </c>
-      <c r="D109" s="6">
-        <f t="shared" si="19"/>
-        <v>262</v>
-      </c>
-      <c r="E109" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G109" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="6">
-        <f t="shared" si="26"/>
-        <v>262</v>
-      </c>
-      <c r="L109" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="16">
-        <f t="shared" si="14"/>
-        <v>524</v>
-      </c>
-      <c r="Q109" s="6"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C110" s="8">
-        <f t="shared" si="18"/>
-        <v>272</v>
-      </c>
-      <c r="D110" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
       <c r="G110" s="8">
-        <f t="shared" si="22"/>
+        <f>C110*G39</f>
         <v>0</v>
       </c>
       <c r="H110" s="8">
-        <f t="shared" si="23"/>
+        <f>C110*H39</f>
         <v>0</v>
       </c>
       <c r="I110" s="8">
-        <f t="shared" si="24"/>
+        <f>C110*I39</f>
         <v>0</v>
       </c>
       <c r="J110" s="8">
-        <f t="shared" si="25"/>
-        <v>544</v>
+        <f>C110*J39</f>
+        <v>0</v>
       </c>
       <c r="K110" s="8">
-        <f t="shared" si="26"/>
-        <v>272</v>
+        <f>C110*K39</f>
+        <v>0</v>
       </c>
       <c r="L110" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M110" s="8"/>
+        <f>C110*L39</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="Q110" s="8"/>
+    </row>
+    <row r="111" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="8">
+        <f>C40*2</f>
+        <v>262</v>
+      </c>
+      <c r="D111" s="8">
+        <f>C111*D40</f>
+        <v>262</v>
+      </c>
+      <c r="E111" s="8">
+        <f>C111*E40</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="8">
+        <f>C111*F40</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="8">
+        <f>C111*G40</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <f>C111*H40</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <f>C111*I40</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="8">
+        <f>C111*J40</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="8">
+        <f>C111*K40</f>
+        <v>262</v>
+      </c>
+      <c r="L111" s="8">
+        <f>C111*L40</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="8">
+        <f t="shared" si="5"/>
+        <v>524</v>
+      </c>
+      <c r="Q111" s="8"/>
+    </row>
+    <row r="112" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="16">
+        <f>C41*2</f>
+        <v>272</v>
+      </c>
+      <c r="D112" s="16">
+        <f>C112*D41</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="16">
+        <f>C112*E41</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="16">
+        <f>C112*F41</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="16">
+        <f>C112*G41</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="16">
+        <f>C112*H41</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="16">
+        <f>C112*I41</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="16">
+        <f>C112*J41</f>
+        <v>544</v>
+      </c>
+      <c r="K112" s="16">
+        <f>C112*K41</f>
+        <v>272</v>
+      </c>
+      <c r="L112" s="16">
+        <f>C112*L41</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="16"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="16">
+        <f t="shared" si="5"/>
         <v>816</v>
       </c>
-      <c r="Q110" s="8"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="6" t="s">
+      <c r="Q112" s="16"/>
+    </row>
+    <row r="113" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B113" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C111" s="6">
-        <f t="shared" si="18"/>
+      <c r="C113" s="8">
+        <f>C42*2</f>
         <v>266</v>
       </c>
-      <c r="D111" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G111" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <f t="shared" si="23"/>
+      <c r="D113" s="8">
+        <f>C113*D42</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <f>C113*E42</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
+        <f>C113*F42</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <f>C113*G42</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="8">
+        <f>C113*H42</f>
         <v>266</v>
       </c>
-      <c r="I111" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="6">
-        <f t="shared" si="26"/>
+      <c r="I113" s="8">
+        <f>C113*I42</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="8">
+        <f>C113*J42</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="8">
+        <f>C113*K42</f>
         <v>266</v>
       </c>
-      <c r="L111" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="16">
-        <f t="shared" si="14"/>
+      <c r="L113" s="8">
+        <f>C113*L42</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8">
+        <f t="shared" si="5"/>
         <v>532</v>
       </c>
-      <c r="Q111" s="6"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="Q113" s="8"/>
+    </row>
+    <row r="114" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B114" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C112" s="6">
-        <f t="shared" si="18"/>
+      <c r="C114" s="8">
+        <f>C43*2</f>
         <v>304</v>
       </c>
-      <c r="D112" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E112" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F112" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G112" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K112" s="6">
-        <f t="shared" si="26"/>
+      <c r="D114" s="8">
+        <f>C114*D43</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <f>C114*E43</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
+        <f>C114*F43</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <f>C114*G43</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <f>C114*H43</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="8">
+        <f>C114*I43</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="8">
+        <f>C114*J43</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="8">
+        <f>C114*K43</f>
         <v>304</v>
       </c>
-      <c r="L112" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="16">
-        <f t="shared" si="14"/>
+      <c r="L114" s="8">
+        <f>C114*L43</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8">
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
-      <c r="Q112" s="6"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+      <c r="Q114" s="8"/>
+    </row>
+    <row r="115" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C113" s="6">
-        <f t="shared" si="18"/>
+      <c r="C115" s="8">
+        <f>C44*2</f>
         <v>254</v>
       </c>
-      <c r="D113" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="6">
-        <f t="shared" si="24"/>
+      <c r="D115" s="8">
+        <f>C115*D44</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <f>C115*E44</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <f>C115*F44</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <f>C115*G44</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <f>C115*H44</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <f>C115*I44</f>
         <v>254</v>
       </c>
-      <c r="J113" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="16">
-        <f t="shared" si="14"/>
-        <v>254</v>
-      </c>
-      <c r="Q113" s="6"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" s="6">
-        <f t="shared" si="18"/>
-        <v>306</v>
-      </c>
-      <c r="D114" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="6">
-        <f t="shared" si="24"/>
-        <v>306</v>
-      </c>
-      <c r="J114" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="16">
-        <f t="shared" si="14"/>
-        <v>306</v>
-      </c>
-      <c r="Q114" s="6"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C115" s="8">
-        <f t="shared" si="18"/>
-        <v>124</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E115" s="8">
-        <f t="shared" si="20"/>
-        <v>124</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="8">
-        <f t="shared" si="23"/>
-        <v>124</v>
-      </c>
-      <c r="I115" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
       <c r="J115" s="8">
-        <f t="shared" si="25"/>
-        <v>248</v>
+        <f>C115*J44</f>
+        <v>0</v>
       </c>
       <c r="K115" s="8">
-        <f t="shared" si="26"/>
+        <f>C115*K44</f>
         <v>0</v>
       </c>
       <c r="L115" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="8"/>
+        <f>C115*L44</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8">
-        <f t="shared" si="14"/>
-        <v>496</v>
+        <f t="shared" si="5"/>
+        <v>254</v>
       </c>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C116" s="8">
-        <f t="shared" si="18"/>
-        <v>130</v>
+        <f>C45*2</f>
+        <v>306</v>
       </c>
       <c r="D116" s="8">
-        <f t="shared" si="19"/>
+        <f>C116*D45</f>
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f t="shared" si="20"/>
+        <f>C116*E45</f>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="21"/>
+        <f>C116*F45</f>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f t="shared" si="22"/>
-        <v>260</v>
+        <f>C116*G45</f>
+        <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" si="23"/>
+        <f>C116*H45</f>
         <v>0</v>
       </c>
       <c r="I116" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>C116*I45</f>
+        <v>306</v>
       </c>
       <c r="J116" s="8">
-        <f t="shared" si="25"/>
+        <f>C116*J45</f>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f t="shared" si="26"/>
+        <f>C116*K45</f>
         <v>0</v>
       </c>
       <c r="L116" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="8"/>
+        <f>C116*L45</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="Q116" s="8"/>
+    </row>
+    <row r="117" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B117" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="16">
+        <f>C46*2</f>
+        <v>124</v>
+      </c>
+      <c r="D117" s="16">
+        <f>C117*D46</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="16">
+        <f>C117*E46</f>
+        <v>124</v>
+      </c>
+      <c r="F117" s="16">
+        <f>C117*F46</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="16">
+        <f>C117*G46</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="16">
+        <f>C117*H46</f>
+        <v>124</v>
+      </c>
+      <c r="I117" s="16">
+        <f>C117*I46</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="16">
+        <f>C117*J46</f>
+        <v>248</v>
+      </c>
+      <c r="K117" s="16">
+        <f>C117*K46</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="16">
+        <f>C117*L46</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="16"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="16">
+        <f t="shared" si="5"/>
+        <v>496</v>
+      </c>
+      <c r="Q117" s="16"/>
+    </row>
+    <row r="118" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="16">
+        <f>C47*2</f>
+        <v>130</v>
+      </c>
+      <c r="D118" s="16">
+        <f>C118*D47</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="16">
+        <f>C118*E47</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="16">
+        <f>C118*F47</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="16">
+        <f>C118*G47</f>
         <v>260</v>
       </c>
-      <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+      <c r="H118" s="16">
+        <f>C118*H47</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="16">
+        <f>C118*I47</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="16">
+        <f>C118*J47</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <f>C118*K47</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="16">
+        <f>C118*L47</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N118" s="16"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="16">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="Q118" s="16"/>
+    </row>
+    <row r="119" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B119" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C117" s="8">
-        <f t="shared" si="18"/>
+      <c r="C119" s="16">
+        <f>C48*2</f>
         <v>124</v>
       </c>
-      <c r="D117" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="8">
-        <f t="shared" si="26"/>
+      <c r="D119" s="16">
+        <f>C119*D48</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="16">
+        <f>C119*E48</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="16">
+        <f>C119*F48</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="16">
+        <f>C119*G48</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="16">
+        <f>C119*H48</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="16">
+        <f>C119*I48</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="16">
+        <f>C119*J48</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="16">
+        <f>C119*K48</f>
         <v>124</v>
       </c>
-      <c r="L117" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8">
-        <f t="shared" si="14"/>
+      <c r="L119" s="16">
+        <f>C119*L48</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N119" s="16"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="16">
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="Q117" s="8"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+      <c r="Q119" s="16"/>
+    </row>
+    <row r="120" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B120" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C118" s="6">
-        <f t="shared" si="18"/>
+      <c r="C120" s="8">
+        <f>C49*2</f>
         <v>90</v>
       </c>
-      <c r="D118" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F118" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="6">
-        <f t="shared" si="25"/>
+      <c r="D120" s="8">
+        <f>C120*D49</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="8">
+        <f>C120*E49</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="8">
+        <f>C120*F49</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="8">
+        <f>C120*G49</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="8">
+        <f>C120*H49</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="8">
+        <f>C120*I49</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="8">
+        <f>C120*J49</f>
         <v>90</v>
       </c>
-      <c r="K118" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="16">
-        <f t="shared" si="14"/>
+      <c r="K120" s="8">
+        <f>C120*K49</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="8">
+        <f>C120*L49</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="8"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="8">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="Q118" s="6"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+      <c r="Q120" s="8"/>
+    </row>
+    <row r="121" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B121" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="6">
-        <f t="shared" si="18"/>
+      <c r="C121" s="8">
+        <f>C50*2</f>
         <v>106</v>
       </c>
-      <c r="D119" s="6">
-        <f t="shared" si="19"/>
+      <c r="D121" s="8">
+        <f>C121*D50</f>
         <v>106</v>
       </c>
-      <c r="E119" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="16">
-        <f t="shared" si="14"/>
-        <v>106</v>
-      </c>
-      <c r="Q119" s="6"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C120" s="6">
-        <f t="shared" si="18"/>
-        <v>90</v>
-      </c>
-      <c r="D120" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E120" s="6">
-        <f t="shared" si="20"/>
-        <v>90</v>
-      </c>
-      <c r="F120" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L120" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="16">
-        <f t="shared" si="14"/>
-        <v>90</v>
-      </c>
-      <c r="Q120" s="6"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="8">
-        <f t="shared" si="18"/>
-        <v>40</v>
-      </c>
-      <c r="D121" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
       <c r="E121" s="8">
-        <f t="shared" si="20"/>
+        <f>C121*E50</f>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="21"/>
+        <f>C121*F50</f>
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f t="shared" si="22"/>
-        <v>80</v>
+        <f>C121*G50</f>
+        <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" si="23"/>
+        <f>C121*H50</f>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="24"/>
-        <v>160</v>
+        <f>C121*I50</f>
+        <v>0</v>
       </c>
       <c r="J121" s="8">
-        <f t="shared" si="25"/>
-        <v>160</v>
+        <f>C121*J50</f>
+        <v>0</v>
       </c>
       <c r="K121" s="8">
-        <f t="shared" si="26"/>
+        <f>C121*K50</f>
         <v>0</v>
       </c>
       <c r="L121" s="8">
-        <f t="shared" si="27"/>
-        <v>40</v>
-      </c>
-      <c r="M121" s="8"/>
+        <f>C121*L50</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8">
-        <f t="shared" si="14"/>
-        <v>440</v>
+        <f t="shared" si="5"/>
+        <v>106</v>
       </c>
       <c r="Q121" s="8"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C122" s="8">
-        <f t="shared" si="18"/>
-        <v>34</v>
+        <f>C51*2</f>
+        <v>90</v>
       </c>
       <c r="D122" s="8">
-        <f t="shared" si="19"/>
+        <f>C122*D51</f>
         <v>0</v>
       </c>
       <c r="E122" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <f>C122*E51</f>
+        <v>90</v>
       </c>
       <c r="F122" s="8">
-        <f t="shared" si="21"/>
+        <f>C122*F51</f>
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f t="shared" si="22"/>
+        <f>C122*G51</f>
         <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f t="shared" si="23"/>
+        <f>C122*H51</f>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f t="shared" si="24"/>
+        <f>C122*I51</f>
         <v>0</v>
       </c>
       <c r="J122" s="8">
-        <f t="shared" si="25"/>
+        <f>C122*J51</f>
         <v>0</v>
       </c>
       <c r="K122" s="8">
-        <f t="shared" si="26"/>
-        <v>136</v>
+        <f>C122*K51</f>
+        <v>0</v>
       </c>
       <c r="L122" s="8">
-        <f t="shared" si="27"/>
-        <v>68</v>
-      </c>
-      <c r="M122" s="8"/>
+        <f>C122*L51</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Q122" s="8"/>
+    </row>
+    <row r="123" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B123" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="16">
+        <f>C52*2</f>
+        <v>40</v>
+      </c>
+      <c r="D123" s="16">
+        <f>C123*D52</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="16">
+        <f>C123*E52</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="16">
+        <f>C123*F52</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="16">
+        <f>C123*G52</f>
+        <v>80</v>
+      </c>
+      <c r="H123" s="16">
+        <f>C123*H52</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="16">
+        <f>C123*I52</f>
+        <v>160</v>
+      </c>
+      <c r="J123" s="16">
+        <f>C123*J52</f>
+        <v>160</v>
+      </c>
+      <c r="K123" s="16">
+        <f>C123*K52</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="16">
+        <f>C123*L52</f>
+        <v>40</v>
+      </c>
+      <c r="M123" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="16"/>
+      <c r="O123" s="16"/>
+      <c r="P123" s="16">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="Q123" s="16"/>
+    </row>
+    <row r="124" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C124" s="16">
+        <f>C53*2</f>
+        <v>34</v>
+      </c>
+      <c r="D124" s="16">
+        <f>C124*D53</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="16">
+        <f>C124*E53</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="16">
+        <f>C124*F53</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="16">
+        <f>C124*G53</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="16">
+        <f>C124*H53</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="16">
+        <f>C124*I53</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="16">
+        <f>C124*J53</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="16">
+        <f>C124*K53</f>
+        <v>136</v>
+      </c>
+      <c r="L124" s="16">
+        <f>C124*L53</f>
+        <v>68</v>
+      </c>
+      <c r="M124" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="16"/>
+      <c r="O124" s="16"/>
+      <c r="P124" s="16">
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
-      <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+      <c r="Q124" s="16"/>
+    </row>
+    <row r="125" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B125" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C123" s="8">
-        <f t="shared" si="18"/>
+      <c r="C125" s="16">
+        <f>C54*2</f>
         <v>34</v>
       </c>
-      <c r="D123" s="8">
-        <v>0</v>
-      </c>
-      <c r="E123" s="8">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
-        <v>0</v>
-      </c>
-      <c r="H123" s="8">
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <v>0</v>
-      </c>
-      <c r="J123" s="8">
-        <v>0</v>
-      </c>
-      <c r="K123" s="8">
-        <v>0</v>
-      </c>
-      <c r="L123" s="8">
-        <f t="shared" si="27"/>
+      <c r="D125" s="16">
+        <v>0</v>
+      </c>
+      <c r="E125" s="16">
+        <v>0</v>
+      </c>
+      <c r="F125" s="16">
+        <v>0</v>
+      </c>
+      <c r="G125" s="16">
+        <v>0</v>
+      </c>
+      <c r="H125" s="16">
+        <v>0</v>
+      </c>
+      <c r="I125" s="16">
+        <v>0</v>
+      </c>
+      <c r="J125" s="16">
+        <v>0</v>
+      </c>
+      <c r="K125" s="16">
+        <v>0</v>
+      </c>
+      <c r="L125" s="16">
+        <f>C125*L54</f>
         <v>34</v>
       </c>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8">
-        <f t="shared" si="14"/>
+      <c r="M125" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="16"/>
+      <c r="O125" s="16"/>
+      <c r="P125" s="16">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="Q123" s="8"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A124" s="6" t="s">
+      <c r="Q125" s="16"/>
+    </row>
+    <row r="126" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B126" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C124" s="6">
-        <f t="shared" si="18"/>
+      <c r="C126" s="8">
+        <f>C55*2</f>
         <v>248</v>
       </c>
-      <c r="D124" s="6">
-        <f>C124*D54</f>
+      <c r="D126" s="8">
+        <f>C126*D55</f>
         <v>248</v>
       </c>
-      <c r="E124" s="6">
-        <f>C124*E54</f>
+      <c r="E126" s="8">
+        <f>C126*E55</f>
         <v>248</v>
       </c>
-      <c r="F124" s="6">
-        <f>C124*F54</f>
+      <c r="F126" s="8">
+        <f>C126*F55</f>
         <v>248</v>
       </c>
-      <c r="G124" s="6">
-        <f>C124*G54</f>
+      <c r="G126" s="8">
+        <f>C126*G55</f>
         <v>496</v>
       </c>
-      <c r="H124" s="6">
-        <f>C124*H54</f>
-        <v>0</v>
-      </c>
-      <c r="I124" s="6">
-        <f>C124*I54</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="6">
-        <f>C124*J54</f>
-        <v>0</v>
-      </c>
-      <c r="K124" s="6">
-        <f>C124*K54</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="16">
-        <f t="shared" si="14"/>
-        <v>1240</v>
-      </c>
-      <c r="Q124" s="6"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" s="8">
-        <f t="shared" si="18"/>
-        <v>124</v>
-      </c>
-      <c r="D125" s="8">
-        <f>C125*D55</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="8">
-        <f>C125*E55</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="8">
-        <f>C125*F55</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="8">
-        <f>C125*G55</f>
-        <v>124</v>
-      </c>
-      <c r="H125" s="8">
-        <f>C125*H55</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="8">
-        <f>C125*I55</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="8">
-        <f>C125*J55</f>
-        <v>124</v>
-      </c>
-      <c r="K125" s="8">
-        <f>C125*K55</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8">
-        <f t="shared" si="14"/>
-        <v>248</v>
-      </c>
-      <c r="Q125" s="8"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C126" s="8">
-        <f t="shared" si="18"/>
-        <v>118</v>
-      </c>
-      <c r="D126" s="8">
-        <f>C126*D56</f>
-        <v>118</v>
-      </c>
-      <c r="E126" s="8">
-        <f>C126*E56</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
-        <f>C126*F56</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="8">
-        <f>C126*G56</f>
-        <v>0</v>
-      </c>
       <c r="H126" s="8">
-        <f>C126*H56</f>
+        <f>C126*H55</f>
         <v>0</v>
       </c>
       <c r="I126" s="8">
-        <f>C126*I56</f>
+        <f>C126*I55</f>
         <v>0</v>
       </c>
       <c r="J126" s="8">
-        <f>C126*J56</f>
+        <f>C126*J55</f>
         <v>0</v>
       </c>
       <c r="K126" s="8">
-        <f>C126*K56</f>
+        <f>C126*K55</f>
         <v>0</v>
       </c>
       <c r="L126" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="8"/>
+        <f>C126*L55</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
+        <v>1240</v>
+      </c>
+      <c r="Q126" s="8"/>
+    </row>
+    <row r="127" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="16">
+        <f>C56*2</f>
+        <v>124</v>
+      </c>
+      <c r="D127" s="16">
+        <f>C127*D56</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="16">
+        <f>C127*E56</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="16">
+        <f>C127*F56</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="16">
+        <f>C127*G56</f>
+        <v>124</v>
+      </c>
+      <c r="H127" s="16">
+        <f>C127*H56</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="16">
+        <f>C127*I56</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="16">
+        <f>C127*J56</f>
+        <v>124</v>
+      </c>
+      <c r="K127" s="16">
+        <f>C127*K56</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="16">
+        <f>C127*L56</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="16"/>
+      <c r="O127" s="16"/>
+      <c r="P127" s="16">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="Q127" s="16"/>
+    </row>
+    <row r="128" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="16">
+        <f>C57*2</f>
         <v>118</v>
       </c>
-      <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+      <c r="D128" s="16">
+        <f>C128*D57</f>
+        <v>118</v>
+      </c>
+      <c r="E128" s="16">
+        <f>C128*E57</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="16">
+        <f>C128*F57</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="16">
+        <f>C128*G57</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="16">
+        <f>C128*H57</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="16">
+        <f>C128*I57</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="16">
+        <f>C128*J57</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="16">
+        <f>C128*K57</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="16">
+        <f>C128*L57</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="16"/>
+      <c r="O128" s="16"/>
+      <c r="P128" s="16">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="Q128" s="16"/>
+    </row>
+    <row r="129" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B129" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C127" s="8">
-        <f t="shared" si="18"/>
+      <c r="C129" s="16">
+        <f>C58*2</f>
         <v>116</v>
       </c>
-      <c r="D127" s="8">
-        <f>C127*D57</f>
-        <v>0</v>
-      </c>
-      <c r="E127" s="8">
-        <f>C127*E57</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="8">
-        <f>C127*F57</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="8">
-        <f>C127*G57</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="8">
-        <f>C127*H57</f>
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <f>C127*I57</f>
+      <c r="D129" s="16">
+        <f>C129*D58</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="16">
+        <f>C129*E58</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="16">
+        <f>C129*F58</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="16">
+        <f>C129*G58</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="16">
+        <f>C129*H58</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="16">
+        <f>C129*I58</f>
         <v>116</v>
       </c>
-      <c r="J127" s="8">
-        <f>C127*J57</f>
-        <v>0</v>
-      </c>
-      <c r="K127" s="8">
-        <f>C127*K57</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8">
-        <f t="shared" si="14"/>
+      <c r="J129" s="16">
+        <f>C129*J58</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="16">
+        <f>C129*K58</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="16">
+        <f>C129*L58</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="16">
+        <f t="shared" si="5"/>
         <v>116</v>
       </c>
-      <c r="Q127" s="8"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="6" t="s">
+      <c r="Q129" s="16"/>
+    </row>
+    <row r="130" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B130" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C128" s="6">
-        <f t="shared" si="18"/>
+      <c r="C130" s="8">
+        <f>C59*2</f>
         <v>138</v>
       </c>
-      <c r="D128" s="6">
-        <f>C128*D58</f>
-        <v>0</v>
-      </c>
-      <c r="E128" s="6">
-        <f>C128*E58</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="6">
-        <f>C128*F58</f>
+      <c r="D130" s="8">
+        <f>C130*D59</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="8">
+        <f>C130*E59</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <f>C130*F59</f>
         <v>138</v>
       </c>
-      <c r="G128" s="6">
-        <f>C128*G58</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="6">
-        <f>C128*H58</f>
-        <v>0</v>
-      </c>
-      <c r="I128" s="6">
-        <f>C128*I58</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="6">
-        <f>C128*J58</f>
-        <v>0</v>
-      </c>
-      <c r="K128" s="6">
-        <f>C128*K58</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="16">
-        <f t="shared" si="14"/>
+      <c r="G130" s="8">
+        <f>C130*G59</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="8">
+        <f>C130*H59</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <f>C130*I59</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <f>C130*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="8">
+        <f>C130*K59</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="8">
+        <f>C130*L59</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8">
+        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="Q128" s="6"/>
-    </row>
-    <row r="133" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="P133" s="13">
-        <f>SUM(P72:P128)</f>
-        <v>18174</v>
-      </c>
-    </row>
-    <row r="136" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D136" s="7" t="s">
+      <c r="Q130" s="8"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P135" s="13">
+        <f>SUM(P73:P130)</f>
+        <v>19302</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D138" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="7" t="s">
+      <c r="E138" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F138" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G136" s="7" t="s">
+      <c r="G138" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H138" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I136" s="7" t="s">
+      <c r="I138" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J136" s="7" t="s">
+      <c r="J138" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K136" s="7" t="s">
+      <c r="K138" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L136" s="7" t="s">
+      <c r="L138" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M136" s="9"/>
-      <c r="N136" s="9" t="s">
+      <c r="M138" s="9"/>
+      <c r="N138" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O136" s="9" t="s">
+      <c r="O138" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D137" s="8">
-        <f t="shared" ref="D137:L137" si="28">SUM(D72:D128)</f>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D139" s="8">
+        <f t="shared" ref="D139:L139" si="8">SUM(D73:D130)</f>
         <v>750</v>
       </c>
-      <c r="E137" s="8">
-        <f t="shared" si="28"/>
+      <c r="E139" s="8">
+        <f t="shared" si="8"/>
         <v>892</v>
       </c>
-      <c r="F137" s="8">
-        <f t="shared" si="28"/>
+      <c r="F139" s="8">
+        <f t="shared" si="8"/>
         <v>1166</v>
       </c>
-      <c r="G137" s="8">
-        <f t="shared" si="28"/>
+      <c r="G139" s="8">
+        <f t="shared" si="8"/>
         <v>1830</v>
       </c>
-      <c r="H137" s="8">
-        <f t="shared" si="28"/>
+      <c r="H139" s="8">
+        <f t="shared" si="8"/>
         <v>802</v>
       </c>
-      <c r="I137" s="8">
-        <f t="shared" si="28"/>
+      <c r="I139" s="8">
+        <f t="shared" si="8"/>
         <v>3046</v>
       </c>
-      <c r="J137" s="8">
-        <f t="shared" si="28"/>
+      <c r="J139" s="8">
+        <f t="shared" si="8"/>
         <v>2704</v>
       </c>
-      <c r="K137" s="8">
-        <f t="shared" si="28"/>
+      <c r="K139" s="8">
+        <f t="shared" si="8"/>
         <v>4664</v>
       </c>
-      <c r="L137" s="8">
-        <f t="shared" si="28"/>
-        <v>2320</v>
-      </c>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8">
-        <f>SUM(D137:L137)</f>
-        <v>18174</v>
-      </c>
-      <c r="O137" s="17">
-        <f>N137/N68</f>
-        <v>138.73282442748092</v>
-      </c>
-    </row>
-    <row r="138" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D138" s="18">
-        <f>D137/D68</f>
+      <c r="L139" s="8">
+        <f t="shared" si="8"/>
+        <v>2042</v>
+      </c>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8">
+        <f>SUM(D139:L139)</f>
+        <v>17896</v>
+      </c>
+      <c r="O139" s="17">
+        <f>N139/N69</f>
+        <v>136.61068702290078</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D140" s="18">
+        <f>D139/D69</f>
         <v>150</v>
       </c>
-      <c r="E138" s="18">
-        <f t="shared" ref="E138:L138" si="29">E137/E68</f>
+      <c r="E140" s="18">
+        <f t="shared" ref="E140:L140" si="9">E139/E69</f>
         <v>89.2</v>
       </c>
-      <c r="F138" s="18">
-        <f t="shared" si="29"/>
+      <c r="F140" s="18">
+        <f t="shared" si="9"/>
         <v>116.6</v>
       </c>
-      <c r="G138" s="18">
-        <f t="shared" si="29"/>
+      <c r="G140" s="18">
+        <f t="shared" si="9"/>
         <v>114.375</v>
       </c>
-      <c r="H138" s="18">
-        <f t="shared" si="29"/>
+      <c r="H140" s="18">
+        <f t="shared" si="9"/>
         <v>160.4</v>
       </c>
-      <c r="I138" s="18">
-        <f t="shared" si="29"/>
+      <c r="I140" s="18">
+        <f t="shared" si="9"/>
         <v>138.45454545454547</v>
       </c>
-      <c r="J138" s="18">
-        <f t="shared" si="29"/>
+      <c r="J140" s="18">
+        <f t="shared" si="9"/>
         <v>142.31578947368422</v>
       </c>
-      <c r="K138" s="18">
-        <f t="shared" si="29"/>
+      <c r="K140" s="18">
+        <f t="shared" si="9"/>
         <v>172.74074074074073</v>
       </c>
-      <c r="L138" s="18">
-        <f t="shared" si="29"/>
-        <v>154.66666666666666</v>
-      </c>
-      <c r="M138" s="6"/>
-      <c r="N138" s="18">
-        <f>N137/M68</f>
-        <v>140.88372093023256</v>
-      </c>
-      <c r="O138" s="6" t="s">
+      <c r="L140" s="18">
+        <f t="shared" si="9"/>
+        <v>145.85714285714286</v>
+      </c>
+      <c r="M140" s="6"/>
+      <c r="N140" s="18">
+        <f>N139/M69</f>
+        <v>139.8125</v>
+      </c>
+      <c r="O140" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1" t="s">
+      <c r="C210" s="1"/>
+      <c r="D210" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>13</v>
       </c>
-      <c r="B209">
+      <c r="B211">
         <v>3</v>
       </c>
-      <c r="D209">
+      <c r="D211">
         <f>SUM(N2:N4)</f>
         <v>9</v>
       </c>
-      <c r="E209">
+      <c r="E211">
         <f>SUM(P2:P4)</f>
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>17</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-      <c r="D210">
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="D212">
         <f>N5</f>
         <v>1</v>
       </c>
-      <c r="E210">
+      <c r="E212">
         <f>P5</f>
         <v>564</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>19</v>
       </c>
-      <c r="B211">
+      <c r="B213">
         <v>2</v>
       </c>
-      <c r="D211">
+      <c r="D213">
         <f>N6</f>
-        <v>3</v>
-      </c>
-      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="E213">
         <f>SUM(P6:P7)</f>
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>22</v>
       </c>
-      <c r="B212">
+      <c r="B214">
         <v>5</v>
       </c>
-      <c r="D212">
+      <c r="D214">
         <f>SUM(N8:N13)</f>
         <v>8</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <f>SUM(P8:P13)</f>
         <v>1364</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>28</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="D213">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="D215">
         <f>N13</f>
         <v>2</v>
       </c>
-      <c r="E213">
+      <c r="E215">
         <f>SUM(P13)</f>
         <v>832</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>30</v>
       </c>
-      <c r="B214">
+      <c r="B216">
         <v>5</v>
       </c>
-      <c r="D214">
+      <c r="D216">
         <f>SUM(N14:N18)</f>
         <v>9</v>
       </c>
-      <c r="E214">
+      <c r="E216">
         <f>SUM(P14:P18)</f>
         <v>906</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>36</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="D215">
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="D217">
         <f>N20</f>
         <v>1</v>
       </c>
-      <c r="E215">
+      <c r="E217">
         <f>P20</f>
         <v>726</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>38</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="D216">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="D218">
         <f>N23</f>
         <v>1</v>
       </c>
-      <c r="E216">
+      <c r="E218">
         <f>P23</f>
         <v>516</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>40</v>
       </c>
-      <c r="B217">
+      <c r="B219">
         <v>3</v>
       </c>
-      <c r="D217">
+      <c r="D219">
         <f>SUM(N24:N26)</f>
         <v>8</v>
       </c>
-      <c r="E217">
+      <c r="E219">
         <f>SUM(P24:P26)</f>
         <v>1150</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>44</v>
       </c>
-      <c r="B218">
+      <c r="B220">
         <v>5</v>
       </c>
-      <c r="D218">
+      <c r="D220">
         <f>SUM(N27:N31)</f>
         <v>19</v>
       </c>
-      <c r="E218">
+      <c r="E220">
         <f>SUM(P27:P31)</f>
         <v>1066</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>50</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="D219">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="D221">
         <f>N32</f>
         <v>1</v>
       </c>
-      <c r="E219">
+      <c r="E221">
         <f>P32</f>
         <v>840</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>52</v>
       </c>
-      <c r="B220">
-        <v>1</v>
-      </c>
-      <c r="D220">
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="D222">
         <f>N33</f>
         <v>1</v>
       </c>
-      <c r="E220">
+      <c r="E222">
         <f>P33</f>
         <v>282</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>91</v>
       </c>
-      <c r="B221">
-        <v>1</v>
-      </c>
-      <c r="D221">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="D223">
         <f>N34</f>
         <v>9</v>
       </c>
-      <c r="E221">
+      <c r="E223">
         <f>P34</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>56</v>
-      </c>
-      <c r="B222">
-        <v>2</v>
-      </c>
-      <c r="D222">
-        <f>SUM(N35:N36)</f>
-        <v>7</v>
-      </c>
-      <c r="E222">
-        <f>SUM(P35:P36)</f>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>59</v>
-      </c>
-      <c r="B223">
-        <v>3</v>
-      </c>
-      <c r="D223">
-        <f>SUM(N37:N39)</f>
-        <v>4</v>
-      </c>
-      <c r="E223">
-        <f>SUM(P37:P39)</f>
-        <v>1050</v>
-      </c>
-    </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <f>SUM(N40)</f>
-        <v>3</v>
+        <f>SUM(N36:N37)</f>
+        <v>7</v>
       </c>
       <c r="E224">
-        <f>P40</f>
-        <v>816</v>
+        <f>SUM(P36:P37)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="D225">
+        <f>SUM(N38:N40)</f>
         <v>4</v>
       </c>
-      <c r="D225">
-        <f>SUM(N41:N44)</f>
-        <v>5</v>
-      </c>
       <c r="E225">
-        <f>SUM(P41:P44)</f>
-        <v>1396</v>
+        <f>SUM(P38:P40)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="D226">
+        <f>SUM(N41)</f>
         <v>3</v>
       </c>
-      <c r="D226">
-        <f>SUM(N45:N47)</f>
-        <v>7</v>
-      </c>
       <c r="E226">
-        <f>SUM(P45:P47)</f>
-        <v>880</v>
+        <f>P41</f>
+        <v>816</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D227">
-        <f>SUM(N48:N50)</f>
-        <v>3</v>
+        <f>SUM(N42:N45)</f>
+        <v>5</v>
       </c>
       <c r="E227">
-        <f>SUM(P48:P50)</f>
-        <v>286</v>
+        <f>SUM(P42:P45)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <f>SUM(N51:N52)</f>
-        <v>17</v>
+        <f>SUM(N46:N48)</f>
+        <v>7</v>
       </c>
       <c r="E228">
-        <f>SUM(P51:P52)</f>
-        <v>644</v>
+        <f>SUM(P46:P48)</f>
+        <v>880</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <f>SUM(N54)</f>
-        <v>5</v>
+        <f>SUM(N49:N51)</f>
+        <v>3</v>
       </c>
       <c r="E229">
-        <f>P54</f>
-        <v>1240</v>
+        <f>SUM(P49:P51)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D230">
-        <f>SUM(N55:N57)</f>
-        <v>4</v>
+        <f>SUM(N52:N53)</f>
+        <v>17</v>
       </c>
       <c r="E230">
-        <f>SUM(P55:P57)</f>
-        <v>482</v>
+        <f>SUM(P52:P53)</f>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>81</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <f>SUM(N55)</f>
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <f>P55</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>83</v>
+      </c>
+      <c r="B232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <f>SUM(N56:N58)</f>
+        <v>4</v>
+      </c>
+      <c r="E232">
+        <f>SUM(P56:P58)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
         <v>87</v>
       </c>
-      <c r="B231">
-        <v>1</v>
-      </c>
-      <c r="D231">
-        <f>N58</f>
-        <v>1</v>
-      </c>
-      <c r="E231">
-        <f>P58</f>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <f>N59</f>
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <f>P59</f>
         <v>138</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1">
-        <f>SUM(B209:B231)</f>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1">
+        <f>SUM(B211:B233)</f>
         <v>53</v>
       </c>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1">
-        <f>SUM(D209:D231)</f>
-        <v>128</v>
-      </c>
-      <c r="E233" s="1">
-        <f>SUM(E209:E231)</f>
-        <v>18348</v>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1">
+        <f>SUM(D211:D233)</f>
+        <v>127</v>
+      </c>
+      <c r="E235" s="1">
+        <f>SUM(E211:E233)</f>
+        <v>18070</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118EAA71-5224-41AE-9E36-44AB1B39D8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA625847-34B4-470F-BA1E-895DEE6513D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="864" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="122">
   <si>
     <t>Paikkakunta</t>
   </si>
@@ -399,7 +399,10 @@
     <t>Niemenrannan koulu</t>
   </si>
   <si>
-    <t>Oulu</t>
+    <t>Oulunsalo</t>
+  </si>
+  <si>
+    <t>Gradia Viitaniemi</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -555,8 +558,9 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Q237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,11 +970,11 @@
         <v>2</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O59" si="0">C2*N2</f>
+        <f t="shared" ref="O2:O60" si="0">C2*N2</f>
         <v>16</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P59" si="1">2*O2</f>
+        <f t="shared" ref="P2:P60" si="1">2*O2</f>
         <v>32</v>
       </c>
       <c r="Q2" s="8"/>
@@ -1000,7 +1004,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N59" si="2">SUM(D3:M3)</f>
+        <f t="shared" ref="N3:N60" si="2">SUM(D3:M3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="8">
@@ -1358,10 +1362,10 @@
         <v>28</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="C13" s="8">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1369,9 +1373,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
+      <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8">
         <v>1</v>
@@ -1379,74 +1381,76 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O13" s="8">
         <f t="shared" si="0"/>
-        <v>416</v>
+        <v>185</v>
       </c>
       <c r="P13" s="8">
         <f t="shared" si="1"/>
-        <v>832</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>1</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
+      <c r="A14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8">
+        <v>208</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="8">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="P14" s="6">
+        <v>416</v>
+      </c>
+      <c r="P14" s="8">
         <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="Q14" s="6"/>
+        <v>832</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1455,15 +1459,15 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="P15" s="6">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="Q15" s="6"/>
     </row>
@@ -1472,17 +1476,17 @@
         <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1495,11 +1499,11 @@
       </c>
       <c r="O16" s="6">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P16" s="6">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="6"/>
     </row>
@@ -1508,20 +1512,20 @@
         <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="6">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -1531,11 +1535,11 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
@@ -1544,282 +1548,278 @@
         <v>30</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>2</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="P18" s="6">
         <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="6">
+        <v>47</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="1"/>
         <v>376</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q19" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C20" s="8">
         <v>400</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O20" s="8">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P20" s="8">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="Q19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C21" s="6">
         <v>363</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O21" s="6">
         <f t="shared" si="0"/>
         <v>363</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P21" s="6">
         <f t="shared" si="1"/>
         <v>726</v>
       </c>
-      <c r="Q20" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C22" s="8">
         <v>93</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O22" s="8">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P22" s="8">
         <f t="shared" si="1"/>
         <v>186</v>
       </c>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C23" s="6">
         <v>209</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
+        <v>1</v>
+      </c>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O23" s="6">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P23" s="6">
         <f t="shared" si="1"/>
         <v>418</v>
       </c>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C24" s="8">
         <v>258</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O24" s="8">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P24" s="8">
         <f t="shared" si="1"/>
         <v>516</v>
       </c>
-      <c r="Q23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="6">
-        <v>79</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O24" s="6">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="P24" s="6">
-        <f t="shared" si="1"/>
-        <v>474</v>
-      </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="6">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
@@ -1827,23 +1827,27 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>474</v>
       </c>
       <c r="Q25" s="6"/>
     </row>
@@ -1852,118 +1856,114 @@
         <v>40</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
+      <c r="I26" s="6">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O26" s="6">
         <f t="shared" si="0"/>
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6">
+        <v>66</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6">
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
+        <v>1</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q27" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="8">
-        <v>25</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O27" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="P27" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="8">
-        <v>2</v>
-      </c>
-      <c r="K28" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1</v>
+      </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="8"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>44</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="8">
         <v>27</v>
@@ -1980,26 +1980,30 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
       <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8">
-        <v>1</v>
-      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>2</v>
+      </c>
+      <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="Q29" s="8"/>
     </row>
@@ -2008,25 +2012,17 @@
         <v>44</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="8">
         <v>27</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8">
-        <v>1</v>
-      </c>
-      <c r="G30" s="8">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8">
         <v>1</v>
@@ -2035,15 +2031,15 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O30" s="8">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="P30" s="8">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="8"/>
     </row>
@@ -2052,488 +2048,500 @@
         <v>44</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
       <c r="I31" s="8">
         <v>1</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="8">
+        <v>31</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8">
+        <v>3</v>
+      </c>
+      <c r="L32" s="8">
+        <v>2</v>
+      </c>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O32" s="8">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="P32" s="8">
+        <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="Q32" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C33" s="6">
         <v>420</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O33" s="6">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="P32" s="6">
+      <c r="P33" s="6">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="Q32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C34" s="8">
         <v>141</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8">
-        <v>1</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O34" s="8">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P34" s="8">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="Q33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="Q34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="6">
         <v>80</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
         <v>2</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
         <v>3</v>
       </c>
-      <c r="J34" s="6">
-        <v>1</v>
-      </c>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6">
+      <c r="J35" s="6">
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>1</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O35" s="6">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="P34" s="6">
+      <c r="P35" s="6">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="Q34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="Q35" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C36" s="8">
         <v>522</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8">
-        <v>1</v>
-      </c>
-      <c r="N35" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="8">
-        <f t="shared" si="0"/>
-        <v>522</v>
-      </c>
-      <c r="P35" s="8">
-        <f t="shared" si="1"/>
-        <v>1044</v>
-      </c>
-      <c r="Q35" s="8"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="8">
-        <v>34</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="8">
-        <v>2</v>
-      </c>
+      <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="8">
-        <v>2</v>
-      </c>
-      <c r="L36" s="8">
-        <v>1</v>
-      </c>
-      <c r="M36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8">
+        <v>1</v>
+      </c>
       <c r="N36" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>522</v>
       </c>
       <c r="P36" s="8">
         <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="Q36" s="8"/>
-    </row>
-    <row r="37" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="16">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="16">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
+        <v>1</v>
+      </c>
       <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
+      <c r="I37" s="16">
+        <v>2</v>
+      </c>
       <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+      <c r="K37" s="16">
+        <v>2</v>
+      </c>
+      <c r="L37" s="16">
+        <v>1</v>
+      </c>
       <c r="M37" s="16"/>
       <c r="N37" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O37" s="16">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="P37" s="16">
         <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="16">
+        <v>45</v>
+      </c>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P38" s="16">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q37" s="16">
+      <c r="Q38" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="39" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="21">
         <v>132</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8">
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21">
+        <v>1</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O39" s="21">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P39" s="21">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="Q38" s="8"/>
-    </row>
-    <row r="39" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+      <c r="Q39" s="21"/>
+    </row>
+    <row r="40" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C40" s="21">
         <v>131</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8">
-        <v>1</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O40" s="21">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P40" s="21">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="Q40" s="21"/>
+    </row>
+    <row r="41" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C41" s="21">
         <v>131</v>
       </c>
-      <c r="D40" s="8">
-        <v>1</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8">
-        <v>1</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8">
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21">
+        <v>1</v>
+      </c>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O41" s="21">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P41" s="21">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q41" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B42" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C42" s="16">
         <v>136</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16">
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16">
         <v>2</v>
       </c>
-      <c r="K41" s="16">
-        <v>1</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16">
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O41" s="16">
+      <c r="O42" s="16">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="P41" s="16">
+      <c r="P42" s="16">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="Q41" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="8">
-        <v>133</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8">
-        <v>1</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O42" s="8">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="P42" s="8">
-        <f t="shared" si="1"/>
-        <v>532</v>
-      </c>
-      <c r="Q42" s="8"/>
+      <c r="Q42" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="8">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="8">
+        <v>1</v>
+      </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8">
@@ -2543,15 +2551,15 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>532</v>
       </c>
       <c r="Q43" s="8"/>
     </row>
@@ -2560,21 +2568,21 @@
         <v>65</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="8">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="8">
-        <v>1</v>
-      </c>
+      <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8">
@@ -2583,11 +2591,11 @@
       </c>
       <c r="O44" s="8">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="8"/>
     </row>
@@ -2596,10 +2604,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="8">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2619,185 +2627,185 @@
       </c>
       <c r="O45" s="8">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="8">
+        <v>153</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8">
+        <v>1</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="8">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="P46" s="8">
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q46" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="16">
-        <v>62</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16">
-        <v>1</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
-        <v>2</v>
-      </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O46" s="16">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="P46" s="16">
-        <f t="shared" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="Q46" s="16"/>
-    </row>
-    <row r="47" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="16">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="E47" s="16">
+        <v>1</v>
+      </c>
       <c r="F47" s="16"/>
-      <c r="G47" s="16">
+      <c r="G47" s="16"/>
+      <c r="H47" s="16">
+        <v>1</v>
+      </c>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16">
         <v>2</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
       <c r="K47" s="16"/>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
       <c r="N47" s="16">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O47" s="16">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="P47" s="16">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="Q47" s="16"/>
     </row>
-    <row r="48" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" s="16">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="16">
+        <v>2</v>
+      </c>
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="16">
-        <v>1</v>
-      </c>
+      <c r="K48" s="16"/>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
       <c r="N48" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O48" s="16">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="P48" s="16">
         <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="16">
+        <v>62</v>
+      </c>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16">
+        <v>1</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P49" s="16">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Q48" s="16">
+      <c r="Q49" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8">
-        <v>1</v>
-      </c>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="8">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P49" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="8">
-        <v>53</v>
-      </c>
-      <c r="D50" s="8">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
+      <c r="J50" s="8">
+        <v>1</v>
+      </c>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -2807,11 +2815,11 @@
       </c>
       <c r="O50" s="8">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="Q50" s="8"/>
     </row>
@@ -2820,15 +2828,15 @@
         <v>74</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="8">
-        <v>45</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D51" s="8">
+        <v>1</v>
+      </c>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -2843,102 +2851,100 @@
       </c>
       <c r="O51" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="Q51" s="8"/>
+    </row>
+    <row r="52" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="8">
+        <v>45</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P52" s="8">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q52" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="16">
-        <v>20</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16">
-        <v>2</v>
-      </c>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16">
-        <v>4</v>
-      </c>
-      <c r="J52" s="16">
-        <v>4</v>
-      </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16">
-        <v>1</v>
-      </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O52" s="16">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="P52" s="16">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="Q52" s="16"/>
-    </row>
-    <row r="53" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="16">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="16">
+        <v>2</v>
+      </c>
       <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16">
+      <c r="I53" s="16">
         <v>4</v>
       </c>
+      <c r="J53" s="16">
+        <v>4</v>
+      </c>
+      <c r="K53" s="16"/>
       <c r="L53" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="16"/>
       <c r="N53" s="16">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O53" s="16">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="P53" s="16">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="Q53" s="16"/>
     </row>
-    <row r="54" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C54" s="16">
         <v>17</v>
@@ -2950,163 +2956,165 @@
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
+      <c r="K54" s="16">
+        <v>4</v>
+      </c>
       <c r="L54" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="16"/>
       <c r="N54" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O54" s="16">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="P54" s="16">
         <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="Q54" s="16"/>
+    </row>
+    <row r="55" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="16">
+        <v>17</v>
+      </c>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16">
+        <v>1</v>
+      </c>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="P55" s="16">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="Q54" s="16">
+      <c r="Q55" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
+    <row r="56" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C56" s="8">
         <v>124</v>
       </c>
-      <c r="D55" s="8">
-        <v>1</v>
-      </c>
-      <c r="E55" s="8">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8">
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>1</v>
+      </c>
+      <c r="F56" s="8">
+        <v>1</v>
+      </c>
+      <c r="G56" s="8">
         <v>2</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8">
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O56" s="8">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="P55" s="8">
+      <c r="P56" s="8">
         <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="Q55" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="16">
-        <v>62</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
-        <v>1</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
-        <v>1</v>
-      </c>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O56" s="16">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="P56" s="16">
-        <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-      <c r="Q56" s="16"/>
-    </row>
-    <row r="57" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q56" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="16">
-        <v>59</v>
-      </c>
-      <c r="D57" s="16">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D57" s="16"/>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
       <c r="H57" s="16"/>
       <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="J57" s="16">
+        <v>1</v>
+      </c>
       <c r="K57" s="16"/>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
       <c r="N57" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" s="16">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="P57" s="16">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="Q57" s="16"/>
     </row>
-    <row r="58" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="16">
-        <v>58</v>
-      </c>
-      <c r="D58" s="16"/>
+        <v>59</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1</v>
+      </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
-      <c r="I58" s="16">
-        <v>1</v>
-      </c>
+      <c r="I58" s="16"/>
       <c r="J58" s="16"/>
       <c r="K58" s="16"/>
       <c r="L58" s="16"/>
@@ -3117,123 +3125,140 @@
       </c>
       <c r="O58" s="16">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P58" s="16">
         <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="Q58" s="16"/>
+    </row>
+    <row r="59" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="16">
+        <v>58</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16">
+        <v>1</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="16">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="P59" s="16">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="Q58" s="16">
+      <c r="Q59" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C60" s="8">
         <v>69</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8">
+        <v>1</v>
+      </c>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8">
         <f>K2*C2</f>
         <v>0</v>
       </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8">
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O60" s="8">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="P59" s="8">
+      <c r="P60" s="8">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="Q59" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6" t="s">
+      <c r="Q60" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="7">
-        <f>SUM(P2:P59)</f>
-        <v>19720</v>
-      </c>
-      <c r="Q61" s="15">
-        <f>SUM(Q2:Q59)</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="7">
+        <f>SUM(P2:P60)</f>
+        <v>20144</v>
+      </c>
+      <c r="Q62" s="15">
+        <f>SUM(Q2:Q60)</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
@@ -3346,683 +3371,655 @@
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="6">
-        <f>SUM(P2:P59)</f>
-        <v>19720</v>
-      </c>
+      <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6">
+        <f>SUM(P2:P60)</f>
+        <v>20144</v>
+      </c>
+      <c r="Q69" s="6"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9">
-        <f t="shared" ref="D69:L69" si="3">SUM(D2:D59)</f>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9">
+        <f t="shared" ref="D70:L70" si="3">SUM(D2:D60)</f>
         <v>5</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E70" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F70" s="9">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G70" s="9">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H70" s="9">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I70" s="9">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J70" s="9">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K69" s="9">
+      <c r="K70" s="9">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L70" s="9">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="M69" s="9">
-        <f>SUM(D69:L69)</f>
-        <v>128</v>
-      </c>
-      <c r="N69" s="9">
-        <f>SUM(N2:N59)</f>
-        <v>131</v>
-      </c>
-      <c r="O69" s="9">
-        <f>SUM(O2:O59)</f>
-        <v>9860</v>
-      </c>
-      <c r="P69" s="9">
-        <f>2*O69</f>
-        <v>19720</v>
-      </c>
-      <c r="Q69" s="6"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="M70" s="9">
+        <f>SUM(D70:L70)</f>
+        <v>130</v>
+      </c>
+      <c r="N70" s="9">
+        <f>SUM(N2:N60)</f>
+        <v>133</v>
+      </c>
+      <c r="O70" s="9">
+        <f>SUM(O2:O60)</f>
+        <v>10072</v>
+      </c>
+      <c r="P70" s="9">
+        <f>2*O70</f>
+        <v>20144</v>
+      </c>
       <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L73" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M73" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="8">
-        <f>C2*2</f>
-        <v>16</v>
-      </c>
-      <c r="D73" s="8">
-        <f>C73*D2</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="8">
-        <f>C73*E2</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <f>C73*F2</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <f>C73*G2</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="8">
-        <f>C73*H2</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
-        <f>C73*I2</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <f>C73*J2</f>
-        <v>16</v>
-      </c>
-      <c r="K73" s="8">
-        <f>C73*K2</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="8">
-        <f>C73*L2</f>
-        <v>16</v>
-      </c>
-      <c r="M73" s="8">
-        <f>C73*M2</f>
-        <v>0</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8">
-        <f>SUM(D73:M73)</f>
-        <v>32</v>
-      </c>
-      <c r="Q73" s="8"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="8">
-        <f>C3*2</f>
-        <v>2</v>
+        <f>C2*2</f>
+        <v>16</v>
       </c>
       <c r="D74" s="8">
-        <f>C74*D3</f>
+        <f>C74*D2</f>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>C74*E3</f>
-        <v>2</v>
+        <f>C74*E2</f>
+        <v>0</v>
       </c>
       <c r="F74" s="8">
-        <f>C74*F3</f>
-        <v>2</v>
+        <f>C74*F2</f>
+        <v>0</v>
       </c>
       <c r="G74" s="8">
-        <f>C74*G3</f>
+        <f>C74*G2</f>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f>C74*H3</f>
+        <f>C74*H2</f>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f>C74*I3</f>
+        <f>C74*I2</f>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f>C74*J3</f>
-        <v>0</v>
+        <f>C74*J2</f>
+        <v>16</v>
       </c>
       <c r="K74" s="8">
-        <f>C74*K3</f>
+        <f>C74*K2</f>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f>C74*L3</f>
-        <v>0</v>
+        <f>C74*L2</f>
+        <v>16</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" ref="M74:M130" si="4">C74*M3</f>
+        <f>C74*M2</f>
         <v>0</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8">
-        <f t="shared" ref="P74:P130" si="5">SUM(D74:M74)</f>
-        <v>4</v>
-      </c>
-      <c r="Q74" s="8"/>
+        <f>SUM(D74:M74)</f>
+        <v>32</v>
+      </c>
+      <c r="Q74" s="8">
+        <f>SUM(P74:P76)</f>
+        <v>116</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="8">
-        <f>C4*2</f>
-        <v>16</v>
+        <f>C3*2</f>
+        <v>2</v>
       </c>
       <c r="D75" s="8">
-        <f>C75*D4</f>
-        <v>16</v>
+        <f>C75*D3</f>
+        <v>0</v>
       </c>
       <c r="E75" s="8">
-        <f>C75*E4</f>
-        <v>48</v>
+        <f>C75*E3</f>
+        <v>2</v>
       </c>
       <c r="F75" s="8">
-        <f>C75*F4</f>
-        <v>16</v>
+        <f>C75*F3</f>
+        <v>2</v>
       </c>
       <c r="G75" s="8">
-        <f>C75*G4</f>
+        <f>C75*G3</f>
         <v>0</v>
       </c>
       <c r="H75" s="8">
-        <f>C75*H4</f>
+        <f>C75*H3</f>
         <v>0</v>
       </c>
       <c r="I75" s="8">
-        <f>C75*I4</f>
+        <f>C75*I3</f>
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <f>C75*J4</f>
+        <f>C75*J3</f>
         <v>0</v>
       </c>
       <c r="K75" s="8">
-        <f>C75*K4</f>
+        <f>C75*K3</f>
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <f>C75*L4</f>
+        <f>C75*L3</f>
         <v>0</v>
       </c>
       <c r="M75" s="8">
-        <f t="shared" si="4"/>
+        <f>C75*M3</f>
         <v>0</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P75:P132" si="4">SUM(D75:M75)</f>
+        <v>4</v>
+      </c>
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="8">
+        <f>C4*2</f>
+        <v>16</v>
+      </c>
+      <c r="D76" s="8">
+        <f>C76*D4</f>
+        <v>16</v>
+      </c>
+      <c r="E76" s="8">
+        <f>C76*E4</f>
+        <v>48</v>
+      </c>
+      <c r="F76" s="8">
+        <f>C76*F4</f>
+        <v>16</v>
+      </c>
+      <c r="G76" s="8">
+        <f>C76*G4</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
+        <f>C76*H4</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <f>C76*I4</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f>C76*J4</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <f>C76*K4</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <f>C76*L4</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <f>C76*M4</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C77" s="6">
         <f>C5*2</f>
         <v>564</v>
       </c>
-      <c r="D76" s="6">
-        <f>C76*D5</f>
-        <v>0</v>
-      </c>
-      <c r="E76" s="6">
-        <f>C76*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F76" s="6">
-        <f>C76*F5</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="6">
-        <f>C76*G5</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="6">
-        <f>C76*H5</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <f>C76*I5</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <f>C76*J5</f>
+      <c r="D77" s="6">
+        <f>C77*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="6">
+        <f>C77*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <f>C77*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="6">
+        <f>C77*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <f>C77*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="6">
+        <f>C77*I5</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="6">
+        <f>C77*J5</f>
         <v>564</v>
       </c>
-      <c r="K76" s="6">
-        <f>C76*K5</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="6">
-        <f>C76*L5</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="16">
+      <c r="K77" s="6">
+        <f>C77*K5</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="6">
+        <f>C77*L5</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="16">
+        <f>C77*M5</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="16">
-        <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="Q76" s="6"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="8">
-        <f>C6*2</f>
-        <v>278</v>
-      </c>
-      <c r="D77" s="8">
-        <f>C77*D6</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <f>C77*E6</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <f>C77*F6</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <f>C77*G6</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <f>C77*H6</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <f>C77*I6</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <f>C77*J6</f>
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <f>C77*K6</f>
-        <v>278</v>
-      </c>
-      <c r="L77" s="8">
-        <f>C77*L6</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8">
-        <f t="shared" si="5"/>
-        <v>556</v>
-      </c>
-      <c r="Q77" s="8"/>
+      <c r="Q77" s="6">
+        <f>SUM(P77)</f>
+        <v>564</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="8">
-        <f>C7*2</f>
-        <v>282</v>
+        <f>C6*2</f>
+        <v>278</v>
       </c>
       <c r="D78" s="8">
-        <f>C78*D7</f>
+        <f>C78*D6</f>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f>C78*E7</f>
+        <f>C78*E6</f>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>C78*F7</f>
+        <f>C78*F6</f>
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f>C78*G7</f>
+        <f>C78*G6</f>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f>C78*H7</f>
+        <f>C78*H6</f>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>C78*I7</f>
-        <v>282</v>
+        <f>C78*I6</f>
+        <v>0</v>
       </c>
       <c r="J78" s="8">
-        <f>C78*J7</f>
+        <f>C78*J6</f>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f>C78*K7</f>
-        <v>0</v>
+        <f>C78*K6</f>
+        <v>278</v>
       </c>
       <c r="L78" s="8">
-        <f>C78*L7</f>
+        <f>C78*L6</f>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>C78*M6</f>
+        <v>278</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>556</v>
+      </c>
+      <c r="Q78" s="8">
+        <f>SUM(P78:P79)</f>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="8">
+        <f>C7*2</f>
         <v>282</v>
       </c>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="6">
-        <f>C8*2</f>
-        <v>66</v>
-      </c>
-      <c r="D79" s="6">
-        <f>C79*D8</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="6">
-        <f>C79*E8</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="6">
-        <f>C79*F8</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="6">
-        <f>C79*G8</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="6">
-        <f>C79*H8</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <f>C79*I8</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <f>C79*J8</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <f>C79*K8</f>
-        <v>66</v>
-      </c>
-      <c r="L79" s="6">
-        <f>C79*L8</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="16">
+      <c r="D79" s="8">
+        <f>C79*D7</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="8">
+        <f>C79*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="8">
+        <f>C79*F7</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="8">
+        <f>C79*G7</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="8">
+        <f>C79*H7</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="8">
+        <f>C79*I7</f>
+        <v>282</v>
+      </c>
+      <c r="J79" s="8">
+        <f>C79*J7</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="8">
+        <f>C79*K7</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="8">
+        <f>C79*L7</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="8">
+        <f>C79*M7</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="16">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="Q79" s="6"/>
+        <v>282</v>
+      </c>
+      <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="6">
-        <f>C9*2</f>
-        <v>92</v>
+        <f>C8*2</f>
+        <v>66</v>
       </c>
       <c r="D80" s="6">
-        <f>C80*D9</f>
+        <f>C80*D8</f>
         <v>0</v>
       </c>
       <c r="E80" s="6">
-        <f>C80*E9</f>
+        <f>C80*E8</f>
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <f>C80*F9</f>
+        <f>C80*F8</f>
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <f>C80*G9</f>
-        <v>92</v>
+        <f>C80*G8</f>
+        <v>0</v>
       </c>
       <c r="H80" s="6">
-        <f>C80*H9</f>
+        <f>C80*H8</f>
         <v>0</v>
       </c>
       <c r="I80" s="6">
-        <f>C80*I9</f>
+        <f>C80*I8</f>
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <f>C80*J9</f>
+        <f>C80*J8</f>
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f>C80*K9</f>
-        <v>0</v>
+        <f>C80*K8</f>
+        <v>66</v>
       </c>
       <c r="L80" s="6">
-        <f>C80*L9</f>
+        <f>C80*L8</f>
         <v>0</v>
       </c>
       <c r="M80" s="16">
-        <f t="shared" si="4"/>
+        <f>C80*M8</f>
         <v>0</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="16">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="Q80" s="6"/>
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="Q80" s="6">
+        <f>SUM(P80:P84)</f>
+        <v>532</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="6">
-        <f>C10*2</f>
-        <v>84</v>
+        <f>C9*2</f>
+        <v>92</v>
       </c>
       <c r="D81" s="6">
-        <f>C81*D10</f>
+        <f>C81*D9</f>
         <v>0</v>
       </c>
       <c r="E81" s="6">
-        <f>C81*E10</f>
+        <f>C81*E9</f>
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f>C81*F10</f>
+        <f>C81*F9</f>
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f>C81*G10</f>
-        <v>0</v>
+        <f>C81*G9</f>
+        <v>92</v>
       </c>
       <c r="H81" s="6">
-        <f>C81*H10</f>
+        <f>C81*H9</f>
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <f>C81*I10</f>
+        <f>C81*I9</f>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>C81*J10</f>
+        <f>C81*J9</f>
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>C81*K10</f>
-        <v>84</v>
+        <f>C81*K9</f>
+        <v>0</v>
       </c>
       <c r="L81" s="6">
-        <f>C81*L10</f>
+        <f>C81*L9</f>
         <v>0</v>
       </c>
       <c r="M81" s="16">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f>C81*M9</f>
+        <v>0</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="16">
-        <f t="shared" si="5"/>
-        <v>168</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
@@ -4031,57 +4028,57 @@
         <v>22</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82" s="6">
-        <f>C11*2</f>
-        <v>120</v>
+        <f>C10*2</f>
+        <v>84</v>
       </c>
       <c r="D82" s="6">
-        <f>C82*D11</f>
+        <f>C82*D10</f>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f>C82*E11</f>
+        <f>C82*E10</f>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f>C82*F11</f>
+        <f>C82*F10</f>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f>C82*G11</f>
-        <v>120</v>
+        <f>C82*G10</f>
+        <v>0</v>
       </c>
       <c r="H82" s="6">
-        <f>C82*H11</f>
+        <f>C82*H10</f>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>C82*I11</f>
+        <f>C82*I10</f>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>C82*J11</f>
+        <f>C82*J10</f>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>C82*K11</f>
-        <v>0</v>
+        <f>C82*K10</f>
+        <v>84</v>
       </c>
       <c r="L82" s="6">
-        <f>C82*L11</f>
+        <f>C82*L10</f>
         <v>0</v>
       </c>
       <c r="M82" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>C82*M10</f>
+        <v>84</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="16">
-        <f t="shared" si="5"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>168</v>
       </c>
       <c r="Q82" s="6"/>
     </row>
@@ -4090,352 +4087,358 @@
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="6">
-        <f>C12*2</f>
-        <v>86</v>
+        <f>C11*2</f>
+        <v>120</v>
       </c>
       <c r="D83" s="6">
-        <f>C83*D12</f>
+        <f>C83*D11</f>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f>C83*E12</f>
+        <f>C83*E11</f>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f>C83*F12</f>
-        <v>86</v>
+        <f>C83*F11</f>
+        <v>0</v>
       </c>
       <c r="G83" s="6">
-        <f>C83*G12</f>
-        <v>0</v>
+        <f>C83*G11</f>
+        <v>120</v>
       </c>
       <c r="H83" s="6">
-        <f>C83*H12</f>
+        <f>C83*H11</f>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>C83*I12</f>
+        <f>C83*I11</f>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>C83*J12</f>
+        <f>C83*J11</f>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>C83*K12</f>
+        <f>C83*K11</f>
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f>C83*L12</f>
+        <f>C83*L11</f>
         <v>0</v>
       </c>
       <c r="M83" s="16">
-        <f t="shared" si="4"/>
+        <f>C83*M11</f>
         <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="16">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="6">
+        <f>C12*2</f>
+        <v>86</v>
+      </c>
+      <c r="D84" s="6">
+        <f>C84*D12</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <f>C84*E12</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <f>C84*F12</f>
+        <v>86</v>
+      </c>
+      <c r="G84" s="6">
+        <f>C84*G12</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <f>C84*H12</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <f>C84*I12</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <f>C84*J12</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <f>C84*K12</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <f>C84*L12</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="16">
+        <f>C84*M12</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="16">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" ref="C85:C94" si="5">C13*2</f>
+        <v>370</v>
+      </c>
+      <c r="D85" s="8">
+        <f>C85*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="8">
+        <f>C85*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="8">
+        <f>C85*F13</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="8">
+        <f>C85*G13</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="8">
+        <f>D85*H13</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="8">
+        <f>C85*I13</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="8">
+        <f>C85*J13</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <f>C85*K13</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="8">
+        <f>C85*L13</f>
+        <v>370</v>
+      </c>
+      <c r="M85" s="8">
+        <f>C85*M13</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="Q85" s="8">
+        <f>SUM(P85:P86)</f>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="8">
         <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="8">
-        <f>C13*2</f>
         <v>416</v>
       </c>
-      <c r="D84" s="8">
-        <f>C84*D13</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="8">
-        <f>C84*E13</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <f>C84*F13</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
-        <f>C84*G13</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="8">
-        <f>C84*H13</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="8">
-        <f>C84*I13</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
-        <f>C84*J13</f>
+      <c r="D86" s="8">
+        <f>C86*D14</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
+        <f>C86*E14</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <f>C86*F14</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <f>C86*G14</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
+        <f>D86*H14</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <f>C86*I14</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
+        <f>C86*J14</f>
         <v>416</v>
       </c>
-      <c r="K84" s="8">
-        <f>C84*K13</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="8">
-        <f>C84*L13</f>
+      <c r="K86" s="8">
+        <f>C86*K14</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="8">
+        <f>C86*L14</f>
         <v>416</v>
       </c>
-      <c r="M84" s="8">
+      <c r="M86" s="8">
+        <f>C86*M14</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8">
-        <f t="shared" si="5"/>
         <v>832</v>
       </c>
-      <c r="Q84" s="8"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="6">
-        <f>C14*2</f>
-        <v>110</v>
-      </c>
-      <c r="D85" s="6">
-        <f>C85*D14</f>
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <f>C85*E14</f>
-        <v>110</v>
-      </c>
-      <c r="F85" s="6">
-        <f>C85*F14</f>
-        <v>110</v>
-      </c>
-      <c r="G85" s="6">
-        <f>C85*G14</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
-        <f>C85*H14</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="6">
-        <f>C85*I14</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <f>C85*J14</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <f>C85*K14</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
-        <f>C85*L14</f>
-        <v>0</v>
-      </c>
-      <c r="M85" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="16">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="6">
-        <f>C15*2</f>
-        <v>108</v>
-      </c>
-      <c r="D86" s="6">
-        <f>C86*D15</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
-        <f>C86*E15</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="6">
-        <f>C86*F15</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="6">
-        <f>C86*G15</f>
-        <v>108</v>
-      </c>
-      <c r="H86" s="6">
-        <f>C86*H15</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <f>C86*I15</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <f>C86*J15</f>
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <f>C86*K15</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <f>C86*L15</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="16">
-        <f t="shared" si="5"/>
-        <v>108</v>
-      </c>
-      <c r="Q86" s="6"/>
+      <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C87" s="6">
-        <f>C16*2</f>
+        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="D87" s="6">
-        <f>C87*D16</f>
+        <f>C87*D15</f>
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <f>C87*E16</f>
+        <f>C87*E15</f>
         <v>110</v>
       </c>
       <c r="F87" s="6">
-        <f>C87*F16</f>
-        <v>0</v>
+        <f>C87*F15</f>
+        <v>110</v>
       </c>
       <c r="G87" s="6">
-        <f>C87*G16</f>
+        <f>C87*G15</f>
         <v>0</v>
       </c>
       <c r="H87" s="6">
-        <f>C87*H16</f>
+        <f>C87*H15</f>
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <f>C87*I16</f>
+        <f>C87*I15</f>
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <f>C87*J16</f>
+        <f>C87*J15</f>
         <v>0</v>
       </c>
       <c r="K87" s="6">
-        <f>C87*K16</f>
+        <f>C87*K15</f>
         <v>0</v>
       </c>
       <c r="L87" s="6">
-        <f>C87*L16</f>
+        <f>C87*L15</f>
         <v>0</v>
       </c>
       <c r="M87" s="16">
-        <f t="shared" si="4"/>
+        <f>C87*M15</f>
         <v>0</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="16">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="Q87" s="6"/>
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="Q87" s="6">
+        <f>SUM(P87:P91)</f>
+        <v>906</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C88" s="6">
-        <f>C17*2</f>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>108</v>
       </c>
       <c r="D88" s="6">
-        <f>C88*D17</f>
+        <f>C88*D16</f>
         <v>0</v>
       </c>
       <c r="E88" s="6">
-        <f>C88*E17</f>
+        <f>C88*E16</f>
         <v>0</v>
       </c>
       <c r="F88" s="6">
-        <f>C88*F17</f>
+        <f>C88*F16</f>
         <v>0</v>
       </c>
       <c r="G88" s="6">
-        <f>C88*G17</f>
-        <v>0</v>
+        <f>C88*G16</f>
+        <v>108</v>
       </c>
       <c r="H88" s="6">
-        <f>C88*H17</f>
+        <f>C88*H16</f>
         <v>0</v>
       </c>
       <c r="I88" s="6">
-        <f>C88*I17</f>
+        <f>C88*I16</f>
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <f>C88*J17</f>
-        <v>92</v>
+        <f>C88*J16</f>
+        <v>0</v>
       </c>
       <c r="K88" s="6">
-        <f>C88*K17</f>
+        <f>C88*K16</f>
         <v>0</v>
       </c>
       <c r="L88" s="6">
-        <f>C88*L17</f>
+        <f>C88*L16</f>
         <v>0</v>
       </c>
       <c r="M88" s="16">
-        <f t="shared" si="4"/>
+        <f>C88*M16</f>
         <v>0</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="16">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="Q88" s="6"/>
     </row>
@@ -4444,764 +4447,786 @@
         <v>30</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6">
-        <f>C18*2</f>
-        <v>94</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="D89" s="6">
-        <f>C89*D18</f>
+        <f>C89*D17</f>
         <v>0</v>
       </c>
       <c r="E89" s="6">
-        <f>C89*E18</f>
-        <v>0</v>
+        <f>C89*E17</f>
+        <v>110</v>
       </c>
       <c r="F89" s="6">
-        <f>C89*F18</f>
+        <f>C89*F17</f>
         <v>0</v>
       </c>
       <c r="G89" s="6">
-        <f>C89*G18</f>
+        <f>C89*G17</f>
         <v>0</v>
       </c>
       <c r="H89" s="6">
-        <f>C89*H18</f>
-        <v>94</v>
+        <f>C89*H17</f>
+        <v>0</v>
       </c>
       <c r="I89" s="6">
-        <f>C89*I18</f>
-        <v>188</v>
+        <f>C89*I17</f>
+        <v>0</v>
       </c>
       <c r="J89" s="6">
-        <f>C89*J18</f>
+        <f>C89*J17</f>
         <v>0</v>
       </c>
       <c r="K89" s="6">
-        <f>C89*K18</f>
-        <v>94</v>
+        <f>C89*K17</f>
+        <v>0</v>
       </c>
       <c r="L89" s="6">
-        <f>C89*L18</f>
+        <f>C89*L17</f>
         <v>0</v>
       </c>
       <c r="M89" s="16">
-        <f t="shared" si="4"/>
+        <f>C89*M17</f>
         <v>0</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="16">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="6">
         <f t="shared" si="5"/>
-        <v>376</v>
-      </c>
-      <c r="Q89" s="6"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="8">
-        <f>C19*2</f>
-        <v>800</v>
-      </c>
-      <c r="D90" s="8">
-        <f>C90*D19</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="8">
-        <f>C90*E19</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
-        <f>C90*F19</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="8">
-        <f>C90*G19</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="8">
-        <f>C90*H19</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="8">
-        <f>C90*I19</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="8">
-        <f>C90*J19</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="8">
-        <f>C90*K19</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="8">
-        <f>C90*L19</f>
-        <v>800</v>
-      </c>
-      <c r="M90" s="8">
+        <v>92</v>
+      </c>
+      <c r="D90" s="6">
+        <f>C90*D18</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <f>C90*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <f>C90*F18</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
+        <f>C90*G18</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <f>C90*H18</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <f>C90*I18</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <f>C90*J18</f>
+        <v>92</v>
+      </c>
+      <c r="K90" s="6">
+        <f>C90*K18</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
+        <f>C90*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="16">
+        <f>C90*M18</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8">
-        <f t="shared" si="5"/>
-        <v>800</v>
-      </c>
-      <c r="Q90" s="8"/>
+        <v>92</v>
+      </c>
+      <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C91" s="6">
-        <f>C20*2</f>
-        <v>726</v>
+        <f t="shared" si="5"/>
+        <v>94</v>
       </c>
       <c r="D91" s="6">
-        <f>C91*D20</f>
+        <f>C91*D19</f>
         <v>0</v>
       </c>
       <c r="E91" s="6">
-        <f>C91*E20</f>
+        <f>C91*E19</f>
         <v>0</v>
       </c>
       <c r="F91" s="6">
-        <f>C91*F20</f>
+        <f>C91*F19</f>
         <v>0</v>
       </c>
       <c r="G91" s="6">
-        <f>C91*G20</f>
+        <f>C91*G19</f>
         <v>0</v>
       </c>
       <c r="H91" s="6">
-        <f>C91*H20</f>
-        <v>0</v>
+        <f>C91*H19</f>
+        <v>94</v>
       </c>
       <c r="I91" s="6">
-        <f>C91*I20</f>
-        <v>0</v>
+        <f>C91*I19</f>
+        <v>188</v>
       </c>
       <c r="J91" s="6">
-        <f>C91*J20</f>
+        <f>C91*J19</f>
         <v>0</v>
       </c>
       <c r="K91" s="6">
-        <f>C91*K20</f>
-        <v>726</v>
+        <f>C91*K19</f>
+        <v>94</v>
       </c>
       <c r="L91" s="6">
-        <f>C91*L20</f>
+        <f>C91*L19</f>
         <v>0</v>
       </c>
       <c r="M91" s="16">
-        <f t="shared" si="4"/>
+        <f>C91*M19</f>
         <v>0</v>
       </c>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="16">
-        <f t="shared" si="5"/>
-        <v>726</v>
+        <f t="shared" si="4"/>
+        <v>376</v>
       </c>
       <c r="Q91" s="6"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C92" s="8">
-        <f>C21*2</f>
-        <v>186</v>
+        <f t="shared" si="5"/>
+        <v>800</v>
       </c>
       <c r="D92" s="8">
-        <f>C92*D21</f>
+        <f>C92*D20</f>
         <v>0</v>
       </c>
       <c r="E92" s="8">
-        <f>C92*E21</f>
+        <f>C92*E20</f>
         <v>0</v>
       </c>
       <c r="F92" s="8">
-        <f>C92*F21</f>
+        <f>C92*F20</f>
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <f>C92*G21</f>
+        <f>C92*G20</f>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f>C92*H21</f>
+        <f>C92*H20</f>
         <v>0</v>
       </c>
       <c r="I92" s="8">
-        <f>C92*I21</f>
+        <f>C92*I20</f>
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <f>C92*J21</f>
+        <f>C92*J20</f>
         <v>0</v>
       </c>
       <c r="K92" s="8">
-        <f>C92*K21</f>
+        <f>C92*K20</f>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f>C92*L21</f>
-        <v>186</v>
+        <f>C92*L20</f>
+        <v>800</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" si="4"/>
+        <f>C92*M20</f>
         <v>0</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8">
-        <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-      <c r="Q92" s="8"/>
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="Q92" s="8">
+        <f>P92</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="C93" s="6">
-        <v>209</v>
+        <f t="shared" si="5"/>
+        <v>726</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" ref="D93:K93" si="6">C93*D23</f>
+        <f>C93*D21</f>
         <v>0</v>
       </c>
       <c r="E93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*E21</f>
         <v>0</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*F21</f>
         <v>0</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*G21</f>
         <v>0</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*H21</f>
         <v>0</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*I21</f>
         <v>0</v>
       </c>
       <c r="J93" s="6">
-        <f t="shared" si="6"/>
+        <f>C93*J21</f>
         <v>0</v>
       </c>
       <c r="K93" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>C93*K21</f>
+        <v>726</v>
       </c>
       <c r="L93" s="6">
-        <f t="shared" ref="L93" si="7">C93*L23</f>
+        <f>C93*L21</f>
         <v>0</v>
       </c>
       <c r="M93" s="16">
-        <f t="shared" si="4"/>
+        <f>C93*M21</f>
         <v>0</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="6"/>
+        <f t="shared" si="4"/>
+        <v>726</v>
+      </c>
+      <c r="Q93" s="6">
+        <f>P93</f>
+        <v>726</v>
+      </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C94" s="8">
-        <f>C23*2</f>
-        <v>516</v>
+        <f t="shared" si="5"/>
+        <v>186</v>
       </c>
       <c r="D94" s="8">
-        <f>C94*D23</f>
+        <f>C94*D22</f>
         <v>0</v>
       </c>
       <c r="E94" s="8">
-        <f>C94*E23</f>
+        <f>C94*E22</f>
         <v>0</v>
       </c>
       <c r="F94" s="8">
-        <f>C94*F23</f>
+        <f>C94*F22</f>
         <v>0</v>
       </c>
       <c r="G94" s="8">
-        <f>C94*G23</f>
+        <f>C94*G22</f>
         <v>0</v>
       </c>
       <c r="H94" s="8">
-        <f>C94*H23</f>
+        <f>C94*H22</f>
         <v>0</v>
       </c>
       <c r="I94" s="8">
-        <f>C94*I23</f>
-        <v>516</v>
+        <f>C94*I22</f>
+        <v>0</v>
       </c>
       <c r="J94" s="8">
-        <f>C94*J23</f>
+        <f>C94*J22</f>
         <v>0</v>
       </c>
       <c r="K94" s="8">
-        <f>C94*K23</f>
+        <f>C94*K22</f>
         <v>0</v>
       </c>
       <c r="L94" s="8">
-        <f>C94*L23</f>
-        <v>0</v>
+        <f>C94*L22</f>
+        <v>186</v>
       </c>
       <c r="M94" s="8">
-        <f t="shared" si="4"/>
+        <f>C94*M22</f>
         <v>0</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8">
-        <f t="shared" si="5"/>
-        <v>516</v>
-      </c>
-      <c r="Q94" s="8"/>
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="Q94" s="8">
+        <f>P94</f>
+        <v>186</v>
+      </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C95" s="6">
-        <f>C24*2</f>
-        <v>158</v>
+        <f>209*2</f>
+        <v>418</v>
       </c>
       <c r="D95" s="6">
-        <f>C95*D24</f>
+        <f t="shared" ref="D95:K95" si="6">C95*D24</f>
         <v>0</v>
       </c>
       <c r="E95" s="6">
-        <f>C95*E24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F95" s="6">
-        <f>C95*F24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G95" s="6">
-        <f>C95*G24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H95" s="6">
-        <f>C95*H24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I95" s="6">
-        <f>C95*I24</f>
-        <v>158</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="J95" s="6">
-        <f>C95*J24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K95" s="6">
-        <f>C95*K24</f>
-        <v>158</v>
-      </c>
-      <c r="L95" s="6">
-        <f>C95*L24</f>
-        <v>158</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L95" s="22">
+        <f>C95*L23</f>
+        <v>418</v>
       </c>
       <c r="M95" s="16">
-        <f t="shared" si="4"/>
+        <f>C95*M23</f>
         <v>0</v>
       </c>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="16">
-        <f t="shared" si="5"/>
-        <v>474</v>
-      </c>
-      <c r="Q95" s="6"/>
+        <f t="shared" si="4"/>
+        <v>418</v>
+      </c>
+      <c r="Q95" s="6">
+        <f>P95</f>
+        <v>418</v>
+      </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="6">
-        <f>C25*2</f>
-        <v>140</v>
-      </c>
-      <c r="D96" s="6">
-        <f>C96*D25</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="6">
-        <f>C96*E25</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="6">
-        <f>C96*F25</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="6">
-        <f>C96*G25</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <f>C96*H25</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <f>C96*I25</f>
-        <v>280</v>
-      </c>
-      <c r="J96" s="6">
-        <f>C96*J25</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <f>C96*K25</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="6">
-        <f>C96*L25</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="16">
+      <c r="A96" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="8">
+        <f t="shared" ref="C96:C132" si="7">C24*2</f>
+        <v>516</v>
+      </c>
+      <c r="D96" s="8">
+        <f>C96*D24</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
+        <f>C96*E24</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
+        <f>C96*F24</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
+        <f>C96*G24</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="8">
+        <f>C96*H24</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
+        <f>C96*I24</f>
+        <v>516</v>
+      </c>
+      <c r="J96" s="8">
+        <f>C96*J24</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="8">
+        <f>C96*K24</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="8">
+        <f>C96*L24</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
+        <f>C96*M24</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="16">
-        <f t="shared" si="5"/>
-        <v>280</v>
-      </c>
-      <c r="Q96" s="6"/>
+        <v>516</v>
+      </c>
+      <c r="Q96" s="8">
+        <f>P96</f>
+        <v>516</v>
+      </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C97" s="6">
-        <f>C26*2</f>
-        <v>132</v>
+        <f t="shared" si="7"/>
+        <v>158</v>
       </c>
       <c r="D97" s="6">
-        <f>C97*D26</f>
+        <f>C97*D25</f>
         <v>0</v>
       </c>
       <c r="E97" s="6">
-        <f>C97*E26</f>
+        <f>C97*E25</f>
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <f>C97*F26</f>
+        <f>C97*F25</f>
         <v>0</v>
       </c>
       <c r="G97" s="6">
-        <f>C97*G26</f>
+        <f>C97*G25</f>
         <v>0</v>
       </c>
       <c r="H97" s="6">
-        <f>C97*H26</f>
+        <f>C97*H25</f>
         <v>0</v>
       </c>
       <c r="I97" s="6">
-        <f>C97*I26</f>
-        <v>0</v>
+        <f>C97*I25</f>
+        <v>158</v>
       </c>
       <c r="J97" s="6">
-        <f>C97*J26</f>
-        <v>132</v>
+        <f>C97*J25</f>
+        <v>0</v>
       </c>
       <c r="K97" s="6">
-        <f>C97*K26</f>
-        <v>132</v>
+        <f>C97*K25</f>
+        <v>158</v>
       </c>
       <c r="L97" s="6">
-        <f>C97*L26</f>
-        <v>132</v>
+        <f>C97*L25</f>
+        <v>158</v>
       </c>
       <c r="M97" s="16">
-        <f t="shared" si="4"/>
+        <f>C97*M25</f>
         <v>0</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="Q97" s="6">
+        <f>SUM(P97:P99)</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C98" s="6">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="D98" s="6">
+        <f>C98*D26</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="6">
+        <f>C98*E26</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <f>C98*F26</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="6">
+        <f>C98*G26</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="6">
+        <f>C98*H26</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="6">
+        <f>C98*I26</f>
+        <v>280</v>
+      </c>
+      <c r="J98" s="6">
+        <f>C98*J26</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <f>C98*K26</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <f>C98*L26</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="16">
+        <f>C98*M26</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="16">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="6">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="D99" s="6">
+        <f>C99*D27</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="6">
+        <f>C99*E27</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <f>C99*F27</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="6">
+        <f>C99*G27</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="6">
+        <f>C99*H27</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="6">
+        <f>C99*I27</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <f>C99*J27</f>
+        <v>132</v>
+      </c>
+      <c r="K99" s="6">
+        <f>C99*K27</f>
+        <v>132</v>
+      </c>
+      <c r="L99" s="6">
+        <f>C99*L27</f>
+        <v>132</v>
+      </c>
+      <c r="M99" s="16">
+        <f>C99*M27</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="16">
+        <f t="shared" si="4"/>
         <v>396</v>
       </c>
-      <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="8">
-        <f>C27*2</f>
-        <v>50</v>
-      </c>
-      <c r="D98" s="8">
-        <f>C98*D27</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="8">
-        <f>C98*E27</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="8">
-        <f>C98*F27</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
-        <f>C98*G27</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="8">
-        <f>C98*H27</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="8">
-        <f>C98*I27</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="8">
-        <f>C98*J27</f>
-        <v>50</v>
-      </c>
-      <c r="K98" s="8">
-        <f>C98*K27</f>
-        <v>50</v>
-      </c>
-      <c r="L98" s="8">
-        <f>C98*L27</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="Q98" s="8"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C99" s="8">
-        <f>C28*2</f>
-        <v>54</v>
-      </c>
-      <c r="D99" s="8">
-        <f>C99*D28</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
-        <f>C99*E28</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <f>C99*F28</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
-        <f>C99*G28</f>
-        <v>54</v>
-      </c>
-      <c r="H99" s="8">
-        <f>C99*H28</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="8">
-        <f>C99*I28</f>
-        <v>54</v>
-      </c>
-      <c r="J99" s="8">
-        <f>C99*J28</f>
-        <v>108</v>
-      </c>
-      <c r="K99" s="8">
-        <f>C99*K28</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="8">
-        <f>C99*L28</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
-      <c r="P99" s="8">
-        <f t="shared" si="5"/>
-        <v>216</v>
-      </c>
-      <c r="Q99" s="8"/>
+      <c r="Q99" s="6"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C100" s="8">
-        <f>C29*2</f>
-        <v>54</v>
+        <f t="shared" si="7"/>
+        <v>50</v>
       </c>
       <c r="D100" s="8">
-        <f>C100*D29</f>
+        <f>C100*D28</f>
         <v>0</v>
       </c>
       <c r="E100" s="8">
-        <f>C100*E29</f>
+        <f>C100*E28</f>
         <v>0</v>
       </c>
       <c r="F100" s="8">
-        <f>C100*F29</f>
+        <f>C100*F28</f>
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <f>C100*G29</f>
+        <f>C100*G28</f>
         <v>0</v>
       </c>
       <c r="H100" s="8">
-        <f>C100*H29</f>
+        <f>C100*H28</f>
         <v>0</v>
       </c>
       <c r="I100" s="8">
-        <f>C100*I29</f>
+        <f>C100*I28</f>
         <v>0</v>
       </c>
       <c r="J100" s="8">
-        <f>C100*J29</f>
-        <v>0</v>
+        <f>C100*J28</f>
+        <v>50</v>
       </c>
       <c r="K100" s="8">
-        <f>C100*K29</f>
-        <v>54</v>
+        <f>C100*K28</f>
+        <v>50</v>
       </c>
       <c r="L100" s="8">
-        <f>C100*L29</f>
+        <f>C100*L28</f>
         <v>0</v>
       </c>
       <c r="M100" s="8">
-        <f t="shared" si="4"/>
+        <f>C100*M28</f>
         <v>0</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="Q100" s="8"/>
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Q100" s="8">
+        <f>SUM(P100:P104)</f>
+        <v>1120</v>
+      </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C101" s="8">
-        <f>C30*2</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D101" s="8">
-        <f>C101*D30</f>
+        <f>C101*D29</f>
         <v>0</v>
       </c>
       <c r="E101" s="8">
-        <f>C101*E30</f>
+        <f>C101*E29</f>
         <v>0</v>
       </c>
       <c r="F101" s="8">
-        <f>C101*F30</f>
+        <f>C101*F29</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="8">
+        <f>C101*G29</f>
         <v>54</v>
       </c>
-      <c r="G101" s="8">
-        <f>C101*G30</f>
+      <c r="H101" s="8">
+        <f>C101*H29</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="8">
+        <f>C101*I29</f>
+        <v>54</v>
+      </c>
+      <c r="J101" s="8">
+        <f>C101*J29</f>
         <v>108</v>
       </c>
-      <c r="H101" s="8">
-        <f>C101*H30</f>
-        <v>54</v>
-      </c>
-      <c r="I101" s="8">
-        <f>C101*I30</f>
-        <v>54</v>
-      </c>
-      <c r="J101" s="8">
-        <f>C101*J30</f>
-        <v>0</v>
-      </c>
       <c r="K101" s="8">
-        <f>C101*K30</f>
-        <v>54</v>
+        <f>C101*K29</f>
+        <v>0</v>
       </c>
       <c r="L101" s="8">
-        <f>C101*L30</f>
+        <f>C101*L29</f>
         <v>0</v>
       </c>
       <c r="M101" s="8">
+        <f>C101*M29</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8">
-        <f t="shared" si="5"/>
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="Q101" s="8"/>
     </row>
@@ -5210,2236 +5235,2396 @@
         <v>44</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C102" s="8">
-        <f>C31*2</f>
-        <v>62</v>
+        <f t="shared" si="7"/>
+        <v>54</v>
       </c>
       <c r="D102" s="8">
-        <f>C102*D31</f>
+        <f>C102*D30</f>
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f>C102*E31</f>
+        <f>C102*E30</f>
         <v>0</v>
       </c>
       <c r="F102" s="8">
-        <f>C102*F31</f>
+        <f>C102*F30</f>
         <v>0</v>
       </c>
       <c r="G102" s="8">
-        <f>C102*G31</f>
+        <f>C102*G30</f>
         <v>0</v>
       </c>
       <c r="H102" s="8">
-        <f>C102*H31</f>
+        <f>C102*H30</f>
         <v>0</v>
       </c>
       <c r="I102" s="8">
-        <f>C102*I31</f>
-        <v>62</v>
+        <f>C102*I30</f>
+        <v>0</v>
       </c>
       <c r="J102" s="8">
-        <f>C102*J31</f>
+        <f>C102*J30</f>
         <v>0</v>
       </c>
       <c r="K102" s="8">
-        <f>C102*K31</f>
-        <v>186</v>
+        <f>C102*K30</f>
+        <v>54</v>
       </c>
       <c r="L102" s="8">
-        <f>C102*L31</f>
-        <v>124</v>
+        <f>C102*L30</f>
+        <v>0</v>
       </c>
       <c r="M102" s="8">
-        <f t="shared" si="4"/>
+        <f>C102*M30</f>
         <v>0</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8">
-        <f t="shared" si="5"/>
-        <v>372</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="Q102" s="8"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" s="6">
-        <f>C32*2</f>
-        <v>840</v>
-      </c>
-      <c r="D103" s="6">
-        <f>C103*D32</f>
-        <v>0</v>
-      </c>
-      <c r="E103" s="6">
-        <f>C103*E32</f>
-        <v>0</v>
-      </c>
-      <c r="F103" s="6">
-        <f>C103*F32</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="6">
-        <f>C103*G32</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="6">
-        <f>C103*H32</f>
-        <v>0</v>
-      </c>
-      <c r="I103" s="6">
-        <f>C103*I32</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <f>C103*J32</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="6">
-        <f>C103*K32</f>
-        <v>840</v>
-      </c>
-      <c r="L103" s="6">
-        <f>C103*L32</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="16">
+      <c r="A103" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="8">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="D103" s="8">
+        <f>C103*D31</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="8">
+        <f>C103*E31</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="8">
+        <f>C103*F31</f>
+        <v>54</v>
+      </c>
+      <c r="G103" s="8">
+        <f>C103*G31</f>
+        <v>108</v>
+      </c>
+      <c r="H103" s="8">
+        <f>C103*H31</f>
+        <v>54</v>
+      </c>
+      <c r="I103" s="8">
+        <f>C103*I31</f>
+        <v>54</v>
+      </c>
+      <c r="J103" s="8">
+        <f>C103*J31</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="8">
+        <f>C103*K31</f>
+        <v>54</v>
+      </c>
+      <c r="L103" s="8">
+        <f>C103*L31</f>
+        <v>54</v>
+      </c>
+      <c r="M103" s="8">
+        <f>C103*M31</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="6"/>
-      <c r="O103" s="6"/>
-      <c r="P103" s="16">
-        <f t="shared" si="5"/>
-        <v>840</v>
-      </c>
-      <c r="Q103" s="6"/>
+        <v>378</v>
+      </c>
+      <c r="Q103" s="8"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C104" s="8">
-        <f>C33*2</f>
-        <v>282</v>
+        <f t="shared" si="7"/>
+        <v>62</v>
       </c>
       <c r="D104" s="8">
-        <f>C104*D33</f>
+        <f>C104*D32</f>
         <v>0</v>
       </c>
       <c r="E104" s="8">
-        <f>C104*E33</f>
+        <f>C104*E32</f>
         <v>0</v>
       </c>
       <c r="F104" s="8">
-        <f>C104*F33</f>
+        <f>C104*F32</f>
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <f>C104*G33</f>
+        <f>C104*G32</f>
         <v>0</v>
       </c>
       <c r="H104" s="8">
-        <f>C104*H33</f>
+        <f>C104*H32</f>
         <v>0</v>
       </c>
       <c r="I104" s="8">
-        <f>C104*I33</f>
-        <v>0</v>
+        <f>C104*I32</f>
+        <v>62</v>
       </c>
       <c r="J104" s="8">
-        <f>C104*J33</f>
+        <f>C104*J32</f>
         <v>0</v>
       </c>
       <c r="K104" s="8">
-        <f>C104*K33</f>
-        <v>282</v>
+        <f>C104*K32</f>
+        <v>186</v>
       </c>
       <c r="L104" s="8">
-        <f>C104*L33</f>
-        <v>0</v>
+        <f>C104*L32</f>
+        <v>124</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" si="4"/>
+        <f>C104*M32</f>
         <v>0</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8">
-        <f t="shared" si="5"/>
-        <v>282</v>
+        <f t="shared" si="4"/>
+        <v>372</v>
       </c>
       <c r="Q104" s="8"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C105" s="6">
-        <f>C34*2</f>
-        <v>160</v>
+        <f t="shared" si="7"/>
+        <v>840</v>
       </c>
       <c r="D105" s="6">
-        <f>C105*D34</f>
+        <f>C105*D33</f>
         <v>0</v>
       </c>
       <c r="E105" s="6">
-        <f>C105*E34</f>
-        <v>160</v>
+        <f>C105*E33</f>
+        <v>0</v>
       </c>
       <c r="F105" s="6">
-        <f>C105*F34</f>
-        <v>160</v>
+        <f>C105*F33</f>
+        <v>0</v>
       </c>
       <c r="G105" s="6">
-        <f>C105*G34</f>
-        <v>320</v>
+        <f>C105*G33</f>
+        <v>0</v>
       </c>
       <c r="H105" s="6">
-        <f>C105*H34</f>
+        <f>C105*H33</f>
         <v>0</v>
       </c>
       <c r="I105" s="6">
-        <f>C105*I34</f>
-        <v>480</v>
+        <f>C105*I33</f>
+        <v>0</v>
       </c>
       <c r="J105" s="6">
-        <f>C105*J34</f>
-        <v>160</v>
+        <f>C105*J33</f>
+        <v>0</v>
       </c>
       <c r="K105" s="6">
-        <f>C105*K34</f>
-        <v>160</v>
+        <f>C105*K33</f>
+        <v>840</v>
       </c>
       <c r="L105" s="6">
-        <f>C105*L34</f>
+        <f>C105*L33</f>
         <v>0</v>
       </c>
       <c r="M105" s="16">
-        <f t="shared" si="4"/>
+        <f>C105*M33</f>
         <v>0</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="16">
-        <f t="shared" si="5"/>
-        <v>1440</v>
-      </c>
-      <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>840</v>
+      </c>
+      <c r="Q105" s="6">
+        <f>P105</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C106" s="8">
-        <f>C35*2</f>
-        <v>1044</v>
+        <f t="shared" si="7"/>
+        <v>282</v>
       </c>
       <c r="D106" s="8">
-        <f>C106*D35</f>
+        <f>C106*D34</f>
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f>C106*E35</f>
+        <f>C106*E34</f>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f>C106*F35</f>
+        <f>C106*F34</f>
         <v>0</v>
       </c>
       <c r="G106" s="8">
-        <f>C106*G35</f>
+        <f>C106*G34</f>
         <v>0</v>
       </c>
       <c r="H106" s="8">
-        <f>C106*H35</f>
+        <f>C106*H34</f>
         <v>0</v>
       </c>
       <c r="I106" s="8">
-        <f>C106*I35</f>
+        <f>C106*I34</f>
         <v>0</v>
       </c>
       <c r="J106" s="8">
-        <f>C106*J35</f>
+        <f>C106*J34</f>
         <v>0</v>
       </c>
       <c r="K106" s="8">
-        <f>C106*K35</f>
-        <v>0</v>
+        <f>C106*K34</f>
+        <v>282</v>
       </c>
       <c r="L106" s="8">
-        <f>C106*L35</f>
+        <f>C106*L34</f>
         <v>0</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" si="4"/>
-        <v>1044</v>
+        <f>C106*M34</f>
+        <v>0</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="Q106" s="8">
+        <f>P106</f>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C107" s="6">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="D107" s="6">
+        <f>C107*D35</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="6">
+        <f>C107*E35</f>
+        <v>160</v>
+      </c>
+      <c r="F107" s="6">
+        <f>C107*F35</f>
+        <v>160</v>
+      </c>
+      <c r="G107" s="6">
+        <f>C107*G35</f>
+        <v>320</v>
+      </c>
+      <c r="H107" s="6">
+        <f>C107*H35</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="6">
+        <f>C107*I35</f>
+        <v>480</v>
+      </c>
+      <c r="J107" s="6">
+        <f>C107*J35</f>
+        <v>160</v>
+      </c>
+      <c r="K107" s="6">
+        <f>C107*K35</f>
+        <v>160</v>
+      </c>
+      <c r="L107" s="6">
+        <f>C107*L35</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="16">
+        <f>C107*M35</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="6"/>
+      <c r="O107" s="6"/>
+      <c r="P107" s="16">
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="Q107" s="6">
+        <f>P107</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="8">
+        <f t="shared" si="7"/>
         <v>1044</v>
       </c>
-      <c r="Q106" s="8"/>
-    </row>
-    <row r="107" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
+      <c r="D108" s="8">
+        <f>C108*D36</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="8">
+        <f>C108*E36</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
+        <f>C108*F36</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="8">
+        <f>C108*G36</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="8">
+        <f>C108*H36</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="8">
+        <f>C108*I36</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="8">
+        <f>C108*J36</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="8">
+        <f>C108*K36</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="8">
+        <f>C108*L36</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="8">
+        <f>C108*M36</f>
+        <v>1044</v>
+      </c>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="Q108" s="8">
+        <f>P108</f>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B109" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="16">
-        <f>C36*2</f>
+      <c r="C109" s="16">
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
-      <c r="D107" s="16">
-        <f>C107*D36</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="16">
-        <f>C107*E36</f>
-        <v>0</v>
-      </c>
-      <c r="F107" s="16">
-        <f>C107*F36</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="16">
-        <f>C107*G36</f>
+      <c r="D109" s="16">
+        <f>C109*D37</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="16">
+        <f>C109*E37</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="16">
+        <f>C109*F37</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="16">
+        <f>C109*G37</f>
         <v>68</v>
       </c>
-      <c r="H107" s="16">
-        <f>C107*H36</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="16">
-        <f>C107*I36</f>
+      <c r="H109" s="16">
+        <f>C109*H37</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="16">
+        <f>C109*I37</f>
         <v>136</v>
       </c>
-      <c r="J107" s="16">
-        <f>C107*J36</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="16">
-        <f>C107*K36</f>
+      <c r="J109" s="16">
+        <f>C109*J37</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="16">
+        <f>C109*K37</f>
         <v>136</v>
       </c>
-      <c r="L107" s="16">
-        <f>C107*L36</f>
+      <c r="L109" s="16">
+        <f>C109*L37</f>
         <v>68</v>
       </c>
-      <c r="M107" s="16">
+      <c r="M109" s="16">
+        <f>C109*M37</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N107" s="16"/>
-      <c r="O107" s="16"/>
-      <c r="P107" s="16">
-        <f t="shared" si="5"/>
         <v>408</v>
       </c>
-      <c r="Q107" s="16"/>
-    </row>
-    <row r="108" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+      <c r="Q109" s="16">
+        <f>SUM(P109:P110)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="16">
-        <f>C37*2</f>
+      <c r="C110" s="16">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="D108" s="16">
-        <f>C108*D37</f>
-        <v>0</v>
-      </c>
-      <c r="E108" s="16">
-        <f>C108*E37</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="16">
-        <f>C108*F37</f>
+      <c r="D110" s="16">
+        <f>C110*D38</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="16">
+        <f>C110*E38</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="16">
+        <f>C110*F38</f>
         <v>90</v>
       </c>
-      <c r="G108" s="16">
-        <f>C108*G37</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="16">
-        <f>C108*H37</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="16">
-        <f>C108*I37</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="16">
-        <f>C108*J37</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="16">
-        <f>C108*K37</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="16">
-        <f>C108*L37</f>
-        <v>0</v>
-      </c>
-      <c r="M108" s="16">
+      <c r="G110" s="16">
+        <f>C110*G38</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="16">
+        <f>C110*H38</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="16">
+        <f>C110*I38</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="16">
+        <f>C110*J38</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="16">
+        <f>C110*K38</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="16">
+        <f>C110*L38</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="16">
+        <f>C110*M38</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="16"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="16"/>
-      <c r="O108" s="16"/>
-      <c r="P108" s="16">
-        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="Q108" s="16"/>
-    </row>
-    <row r="109" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="8">
-        <f>C38*2</f>
-        <v>264</v>
-      </c>
-      <c r="D109" s="8">
-        <f>C109*D38</f>
-        <v>0</v>
-      </c>
-      <c r="E109" s="8">
-        <f>C109*E38</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="8">
-        <f>C109*F38</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="8">
-        <f>C109*G38</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="8">
-        <f>C109*H38</f>
-        <v>264</v>
-      </c>
-      <c r="I109" s="8">
-        <f>C109*I38</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="8">
-        <f>C109*J38</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="8">
-        <f>C109*K38</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="8">
-        <f>C109*L38</f>
-        <v>0</v>
-      </c>
-      <c r="M109" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
-      <c r="P109" s="8">
-        <f t="shared" si="5"/>
-        <v>264</v>
-      </c>
-      <c r="Q109" s="8"/>
-    </row>
-    <row r="110" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C110" s="8">
-        <f>C39*2</f>
-        <v>262</v>
-      </c>
-      <c r="D110" s="8">
-        <f>C110*D39</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="8">
-        <f>C110*E39</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <f>C110*F39</f>
-        <v>262</v>
-      </c>
-      <c r="G110" s="8">
-        <f>C110*G39</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="8">
-        <f>C110*H39</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="8">
-        <f>C110*I39</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="8">
-        <f>C110*J39</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="8">
-        <f>C110*K39</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="8">
-        <f>C110*L39</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
-      <c r="P110" s="8">
-        <f t="shared" si="5"/>
-        <v>262</v>
-      </c>
-      <c r="Q110" s="8"/>
+      <c r="Q110" s="16"/>
     </row>
     <row r="111" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C111" s="8">
-        <f>C40*2</f>
-        <v>262</v>
+        <f t="shared" si="7"/>
+        <v>264</v>
       </c>
       <c r="D111" s="8">
-        <f>C111*D40</f>
-        <v>262</v>
+        <f>C111*D39</f>
+        <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f>C111*E40</f>
+        <f>C111*E39</f>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>C111*F40</f>
+        <f>C111*F39</f>
         <v>0</v>
       </c>
       <c r="G111" s="8">
-        <f>C111*G40</f>
+        <f>C111*G39</f>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f>C111*H40</f>
-        <v>0</v>
+        <f>C111*H39</f>
+        <v>264</v>
       </c>
       <c r="I111" s="8">
-        <f>C111*I40</f>
+        <f>C111*I39</f>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f>C111*J40</f>
+        <f>C111*J39</f>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f>C111*K40</f>
-        <v>262</v>
+        <f>C111*K39</f>
+        <v>0</v>
       </c>
       <c r="L111" s="8">
-        <f>C111*L40</f>
+        <f>C111*L39</f>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f t="shared" si="4"/>
+        <f>C111*M39</f>
         <v>0</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="5"/>
-        <v>524</v>
-      </c>
-      <c r="Q111" s="8"/>
-    </row>
-    <row r="112" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B112" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="16">
-        <f>C41*2</f>
-        <v>272</v>
-      </c>
-      <c r="D112" s="16">
-        <f>C112*D41</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="16">
-        <f>C112*E41</f>
-        <v>0</v>
-      </c>
-      <c r="F112" s="16">
-        <f>C112*F41</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="16">
-        <f>C112*G41</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="16">
-        <f>C112*H41</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="16">
-        <f>C112*I41</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="16">
-        <f>C112*J41</f>
-        <v>544</v>
-      </c>
-      <c r="K112" s="16">
-        <f>C112*K41</f>
-        <v>272</v>
-      </c>
-      <c r="L112" s="16">
-        <f>C112*L41</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N112" s="16"/>
-      <c r="O112" s="16"/>
-      <c r="P112" s="16">
-        <f t="shared" si="5"/>
-        <v>816</v>
-      </c>
-      <c r="Q112" s="16"/>
+        <v>264</v>
+      </c>
+      <c r="Q111" s="8">
+        <f>SUM(P111:P113)</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="8">
+        <f t="shared" si="7"/>
+        <v>262</v>
+      </c>
+      <c r="D112" s="8">
+        <f>C112*D40</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <f>C112*E40</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="8">
+        <f>C112*F40</f>
+        <v>262</v>
+      </c>
+      <c r="G112" s="8">
+        <f>C112*G40</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="8">
+        <f>C112*H40</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <f>C112*I40</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="8">
+        <f>C112*J40</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="8">
+        <f>C112*K40</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="8">
+        <f>C112*L40</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="8">
+        <f>C112*M40</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="8"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="8">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="Q112" s="8"/>
     </row>
     <row r="113" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C113" s="8">
-        <f>C42*2</f>
-        <v>266</v>
+        <f t="shared" si="7"/>
+        <v>262</v>
       </c>
       <c r="D113" s="8">
-        <f>C113*D42</f>
-        <v>0</v>
+        <f>C113*D41</f>
+        <v>262</v>
       </c>
       <c r="E113" s="8">
-        <f>C113*E42</f>
+        <f>C113*E41</f>
         <v>0</v>
       </c>
       <c r="F113" s="8">
-        <f>C113*F42</f>
+        <f>C113*F41</f>
         <v>0</v>
       </c>
       <c r="G113" s="8">
-        <f>C113*G42</f>
+        <f>C113*G41</f>
         <v>0</v>
       </c>
       <c r="H113" s="8">
-        <f>C113*H42</f>
-        <v>266</v>
+        <f>C113*H41</f>
+        <v>0</v>
       </c>
       <c r="I113" s="8">
-        <f>C113*I42</f>
+        <f>C113*I41</f>
         <v>0</v>
       </c>
       <c r="J113" s="8">
-        <f>C113*J42</f>
+        <f>C113*J41</f>
         <v>0</v>
       </c>
       <c r="K113" s="8">
-        <f>C113*K42</f>
-        <v>266</v>
+        <f>C113*K41</f>
+        <v>262</v>
       </c>
       <c r="L113" s="8">
-        <f>C113*L42</f>
+        <f>C113*L41</f>
         <v>0</v>
       </c>
       <c r="M113" s="8">
-        <f t="shared" si="4"/>
+        <f>C113*M41</f>
         <v>0</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8">
-        <f t="shared" si="5"/>
-        <v>532</v>
+        <f t="shared" si="4"/>
+        <v>524</v>
       </c>
       <c r="Q113" s="8"/>
     </row>
     <row r="114" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="8">
-        <f>C43*2</f>
-        <v>304</v>
-      </c>
-      <c r="D114" s="8">
-        <f>C114*D43</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8">
-        <f>C114*E43</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
-        <f>C114*F43</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
-        <f>C114*G43</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="8">
-        <f>C114*H43</f>
-        <v>0</v>
-      </c>
-      <c r="I114" s="8">
-        <f>C114*I43</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="8">
-        <f>C114*J43</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="8">
-        <f>C114*K43</f>
-        <v>304</v>
-      </c>
-      <c r="L114" s="8">
-        <f>C114*L43</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="8">
+      <c r="A114" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="16">
+        <f t="shared" si="7"/>
+        <v>272</v>
+      </c>
+      <c r="D114" s="16">
+        <f>C114*D42</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="16">
+        <f>C114*E42</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="16">
+        <f>C114*F42</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="16">
+        <f>C114*G42</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="16">
+        <f>C114*H42</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="16">
+        <f>C114*I42</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="16">
+        <f>C114*J42</f>
+        <v>544</v>
+      </c>
+      <c r="K114" s="16">
+        <f>C114*K42</f>
+        <v>272</v>
+      </c>
+      <c r="L114" s="16">
+        <f>C114*L42</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="16">
+        <f>C114*M42</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="16"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8">
-        <f t="shared" si="5"/>
-        <v>304</v>
-      </c>
-      <c r="Q114" s="8"/>
+        <v>816</v>
+      </c>
+      <c r="Q114" s="16">
+        <f>P114</f>
+        <v>816</v>
+      </c>
     </row>
     <row r="115" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C115" s="8">
-        <f>C44*2</f>
-        <v>254</v>
+        <f t="shared" si="7"/>
+        <v>266</v>
       </c>
       <c r="D115" s="8">
-        <f>C115*D44</f>
+        <f>C115*D43</f>
         <v>0</v>
       </c>
       <c r="E115" s="8">
-        <f>C115*E44</f>
+        <f>C115*E43</f>
         <v>0</v>
       </c>
       <c r="F115" s="8">
-        <f>C115*F44</f>
+        <f>C115*F43</f>
         <v>0</v>
       </c>
       <c r="G115" s="8">
-        <f>C115*G44</f>
+        <f>C115*G43</f>
         <v>0</v>
       </c>
       <c r="H115" s="8">
-        <f>C115*H44</f>
-        <v>0</v>
+        <f>C115*H43</f>
+        <v>266</v>
       </c>
       <c r="I115" s="8">
-        <f>C115*I44</f>
-        <v>254</v>
+        <f>C115*I43</f>
+        <v>0</v>
       </c>
       <c r="J115" s="8">
-        <f>C115*J44</f>
+        <f>C115*J43</f>
         <v>0</v>
       </c>
       <c r="K115" s="8">
-        <f>C115*K44</f>
-        <v>0</v>
+        <f>C115*K43</f>
+        <v>266</v>
       </c>
       <c r="L115" s="8">
-        <f>C115*L44</f>
+        <f>C115*L43</f>
         <v>0</v>
       </c>
       <c r="M115" s="8">
-        <f t="shared" si="4"/>
+        <f>C115*M43</f>
         <v>0</v>
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8">
-        <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>532</v>
+      </c>
+      <c r="Q115" s="8">
+        <f>SUM(P115:P118)</f>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C116" s="8">
-        <f>C45*2</f>
-        <v>306</v>
+        <f t="shared" si="7"/>
+        <v>304</v>
       </c>
       <c r="D116" s="8">
-        <f>C116*D45</f>
+        <f>C116*D44</f>
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f>C116*E45</f>
+        <f>C116*E44</f>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f>C116*F45</f>
+        <f>C116*F44</f>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f>C116*G45</f>
+        <f>C116*G44</f>
         <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f>C116*H45</f>
+        <f>C116*H44</f>
         <v>0</v>
       </c>
       <c r="I116" s="8">
-        <f>C116*I45</f>
-        <v>306</v>
+        <f>C116*I44</f>
+        <v>0</v>
       </c>
       <c r="J116" s="8">
-        <f>C116*J45</f>
+        <f>C116*J44</f>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f>C116*K45</f>
-        <v>0</v>
+        <f>C116*K44</f>
+        <v>304</v>
       </c>
       <c r="L116" s="8">
-        <f>C116*L45</f>
+        <f>C116*L44</f>
         <v>0</v>
       </c>
       <c r="M116" s="8">
-        <f t="shared" si="4"/>
+        <f>C116*M44</f>
         <v>0</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="Q116" s="8"/>
+    </row>
+    <row r="117" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="8">
+        <f t="shared" si="7"/>
+        <v>254</v>
+      </c>
+      <c r="D117" s="8">
+        <f>C117*D45</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="8">
+        <f>C117*E45</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
+        <f>C117*F45</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="8">
+        <f>C117*G45</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
+        <f>C117*H45</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <f>C117*I45</f>
+        <v>254</v>
+      </c>
+      <c r="J117" s="8">
+        <f>C117*J45</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="8">
+        <f>C117*K45</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="8">
+        <f>C117*L45</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="8">
+        <f>C117*M45</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="Q117" s="8"/>
+    </row>
+    <row r="118" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C118" s="8">
+        <f t="shared" si="7"/>
         <v>306</v>
       </c>
-      <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C117" s="16">
-        <f>C46*2</f>
-        <v>124</v>
-      </c>
-      <c r="D117" s="16">
-        <f>C117*D46</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="16">
-        <f>C117*E46</f>
-        <v>124</v>
-      </c>
-      <c r="F117" s="16">
-        <f>C117*F46</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="16">
-        <f>C117*G46</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="16">
-        <f>C117*H46</f>
-        <v>124</v>
-      </c>
-      <c r="I117" s="16">
-        <f>C117*I46</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="16">
-        <f>C117*J46</f>
-        <v>248</v>
-      </c>
-      <c r="K117" s="16">
-        <f>C117*K46</f>
-        <v>0</v>
-      </c>
-      <c r="L117" s="16">
-        <f>C117*L46</f>
-        <v>0</v>
-      </c>
-      <c r="M117" s="16">
+      <c r="D118" s="8">
+        <f>C118*D46</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="8">
+        <f>C118*E46</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <f>C118*F46</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="8">
+        <f>C118*G46</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="8">
+        <f>C118*H46</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="8">
+        <f>C118*I46</f>
+        <v>306</v>
+      </c>
+      <c r="J118" s="8">
+        <f>C118*J46</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="8">
+        <f>C118*K46</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="8">
+        <f>C118*L46</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="8">
+        <f>C118*M46</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="8"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="16"/>
-      <c r="O117" s="16"/>
-      <c r="P117" s="16">
-        <f t="shared" si="5"/>
-        <v>496</v>
-      </c>
-      <c r="Q117" s="16"/>
-    </row>
-    <row r="118" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C118" s="16">
-        <f>C47*2</f>
-        <v>130</v>
-      </c>
-      <c r="D118" s="16">
-        <f>C118*D47</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="16">
-        <f>C118*E47</f>
-        <v>0</v>
-      </c>
-      <c r="F118" s="16">
-        <f>C118*F47</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="16">
-        <f>C118*G47</f>
-        <v>260</v>
-      </c>
-      <c r="H118" s="16">
-        <f>C118*H47</f>
-        <v>0</v>
-      </c>
-      <c r="I118" s="16">
-        <f>C118*I47</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="16">
-        <f>C118*J47</f>
-        <v>0</v>
-      </c>
-      <c r="K118" s="16">
-        <f>C118*K47</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="16">
-        <f>C118*L47</f>
-        <v>0</v>
-      </c>
-      <c r="M118" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N118" s="16"/>
-      <c r="O118" s="16"/>
-      <c r="P118" s="16">
-        <f t="shared" si="5"/>
-        <v>260</v>
-      </c>
-      <c r="Q118" s="16"/>
-    </row>
-    <row r="119" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="Q118" s="8"/>
+    </row>
+    <row r="119" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C119" s="16">
-        <f>C48*2</f>
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
       <c r="D119" s="16">
-        <f>C119*D48</f>
+        <f>C119*D47</f>
         <v>0</v>
       </c>
       <c r="E119" s="16">
-        <f>C119*E48</f>
-        <v>0</v>
+        <f>C119*E47</f>
+        <v>124</v>
       </c>
       <c r="F119" s="16">
-        <f>C119*F48</f>
+        <f>C119*F47</f>
         <v>0</v>
       </c>
       <c r="G119" s="16">
-        <f>C119*G48</f>
+        <f>C119*G47</f>
         <v>0</v>
       </c>
       <c r="H119" s="16">
-        <f>C119*H48</f>
-        <v>0</v>
+        <f>C119*H47</f>
+        <v>124</v>
       </c>
       <c r="I119" s="16">
-        <f>C119*I48</f>
+        <f>C119*I47</f>
         <v>0</v>
       </c>
       <c r="J119" s="16">
-        <f>C119*J48</f>
-        <v>0</v>
+        <f>C119*J47</f>
+        <v>248</v>
       </c>
       <c r="K119" s="16">
-        <f>C119*K48</f>
-        <v>124</v>
+        <f>C119*K47</f>
+        <v>0</v>
       </c>
       <c r="L119" s="16">
-        <f>C119*L48</f>
+        <f>C119*L47</f>
         <v>0</v>
       </c>
       <c r="M119" s="16">
-        <f t="shared" si="4"/>
+        <f>C119*M47</f>
         <v>0</v>
       </c>
       <c r="N119" s="16"/>
       <c r="O119" s="16"/>
       <c r="P119" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="Q119" s="16">
+        <f>SUM(P119:P121)</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120" s="16">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="D120" s="16">
+        <f>C120*D48</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="16">
+        <f>C120*E48</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="16">
+        <f>C120*F48</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="16">
+        <f>C120*G48</f>
+        <v>260</v>
+      </c>
+      <c r="H120" s="16">
+        <f>C120*H48</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="16">
+        <f>C120*I48</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="16">
+        <f>C120*J48</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <f>C120*K48</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="16">
+        <f>C120*L48</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="16">
+        <f>C120*M48</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="16"/>
+      <c r="O120" s="16"/>
+      <c r="P120" s="16">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="Q120" s="16"/>
+    </row>
+    <row r="121" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="16">
+        <f t="shared" si="7"/>
         <v>124</v>
       </c>
-      <c r="Q119" s="16"/>
-    </row>
-    <row r="120" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C120" s="8">
-        <f>C49*2</f>
-        <v>90</v>
-      </c>
-      <c r="D120" s="8">
-        <f>C120*D49</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="8">
-        <f>C120*E49</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="8">
-        <f>C120*F49</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
-        <f>C120*G49</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="8">
-        <f>C120*H49</f>
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <f>C120*I49</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="8">
-        <f>C120*J49</f>
-        <v>90</v>
-      </c>
-      <c r="K120" s="8">
-        <f>C120*K49</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="8">
-        <f>C120*L49</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="8">
+      <c r="D121" s="16">
+        <f>C121*D49</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="16">
+        <f>C121*E49</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="16">
+        <f>C121*F49</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="16">
+        <f>C121*G49</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="16">
+        <f>C121*H49</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="16">
+        <f>C121*I49</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="16">
+        <f>C121*J49</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="16">
+        <f>C121*K49</f>
+        <v>124</v>
+      </c>
+      <c r="L121" s="16">
+        <f>C121*L49</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="16">
+        <f>C121*M49</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="16"/>
+      <c r="O121" s="16"/>
+      <c r="P121" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N120" s="8"/>
-      <c r="O120" s="8"/>
-      <c r="P120" s="8">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C121" s="8">
-        <f>C50*2</f>
-        <v>106</v>
-      </c>
-      <c r="D121" s="8">
-        <f>C121*D50</f>
-        <v>106</v>
-      </c>
-      <c r="E121" s="8">
-        <f>C121*E50</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
-        <f>C121*F50</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
-        <f>C121*G50</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="8">
-        <f>C121*H50</f>
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <f>C121*I50</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="8">
-        <f>C121*J50</f>
-        <v>0</v>
-      </c>
-      <c r="K121" s="8">
-        <f>C121*K50</f>
-        <v>0</v>
-      </c>
-      <c r="L121" s="8">
-        <f>C121*L50</f>
-        <v>0</v>
-      </c>
-      <c r="M121" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="Q121" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="Q121" s="16"/>
     </row>
     <row r="122" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C122" s="8">
-        <f>C51*2</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*D51</f>
+        <f>C122*D50</f>
         <v>0</v>
       </c>
       <c r="E122" s="8">
-        <f>C122*E51</f>
+        <f>C122*E50</f>
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
+        <f>C122*F50</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <f>C122*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
+        <f>C122*H50</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <f>C122*I50</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="8">
+        <f>C122*J50</f>
         <v>90</v>
       </c>
-      <c r="F122" s="8">
-        <f>C122*F51</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
-        <f>C122*G51</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="8">
-        <f>C122*H51</f>
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <f>C122*I51</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="8">
-        <f>C122*J51</f>
-        <v>0</v>
-      </c>
       <c r="K122" s="8">
-        <f>C122*K51</f>
+        <f>C122*K50</f>
         <v>0</v>
       </c>
       <c r="L122" s="8">
-        <f>C122*L51</f>
+        <f>C122*L50</f>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f t="shared" si="4"/>
+        <f>C122*M50</f>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="Q122" s="8"/>
-    </row>
-    <row r="123" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B123" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C123" s="16">
-        <f>C52*2</f>
-        <v>40</v>
-      </c>
-      <c r="D123" s="16">
-        <f>C123*D52</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="16">
-        <f>C123*E52</f>
-        <v>0</v>
-      </c>
-      <c r="F123" s="16">
-        <f>C123*F52</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="16">
-        <f>C123*G52</f>
-        <v>80</v>
-      </c>
-      <c r="H123" s="16">
-        <f>C123*H52</f>
-        <v>0</v>
-      </c>
-      <c r="I123" s="16">
-        <f>C123*I52</f>
-        <v>160</v>
-      </c>
-      <c r="J123" s="16">
-        <f>C123*J52</f>
-        <v>160</v>
-      </c>
-      <c r="K123" s="16">
-        <f>C123*K52</f>
-        <v>0</v>
-      </c>
-      <c r="L123" s="16">
-        <f>C123*L52</f>
-        <v>40</v>
-      </c>
-      <c r="M123" s="16">
+      <c r="Q122" s="8">
+        <f>SUM(P122:P124)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C123" s="8">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="D123" s="8">
+        <f>C123*D51</f>
+        <v>106</v>
+      </c>
+      <c r="E123" s="8">
+        <f>C123*E51</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="8">
+        <f>C123*F51</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
+        <f>C123*G51</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <f>C123*H51</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
+        <f>C123*I51</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="8">
+        <f>C123*J51</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="8">
+        <f>C123*K51</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="8">
+        <f>C123*L51</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="8">
+        <f>C123*M51</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="16"/>
-      <c r="O123" s="16"/>
-      <c r="P123" s="16">
-        <f t="shared" si="5"/>
-        <v>440</v>
-      </c>
-      <c r="Q123" s="16"/>
-    </row>
-    <row r="124" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" s="16">
-        <f>C53*2</f>
-        <v>34</v>
-      </c>
-      <c r="D124" s="16">
-        <f>C124*D53</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="16">
-        <f>C124*E53</f>
-        <v>0</v>
-      </c>
-      <c r="F124" s="16">
-        <f>C124*F53</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="16">
-        <f>C124*G53</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="16">
-        <f>C124*H53</f>
-        <v>0</v>
-      </c>
-      <c r="I124" s="16">
-        <f>C124*I53</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="16">
-        <f>C124*J53</f>
-        <v>0</v>
-      </c>
-      <c r="K124" s="16">
-        <f>C124*K53</f>
-        <v>136</v>
-      </c>
-      <c r="L124" s="16">
-        <f>C124*L53</f>
-        <v>68</v>
-      </c>
-      <c r="M124" s="16">
+        <v>106</v>
+      </c>
+      <c r="Q123" s="8"/>
+    </row>
+    <row r="124" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="8">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="D124" s="8">
+        <f>C124*D52</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="8">
+        <f>C124*E52</f>
+        <v>90</v>
+      </c>
+      <c r="F124" s="8">
+        <f>C124*F52</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="8">
+        <f>C124*G52</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="8">
+        <f>C124*H52</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="8">
+        <f>C124*I52</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="8">
+        <f>C124*J52</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="8">
+        <f>C124*K52</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="8">
+        <f>C124*L52</f>
+        <v>0</v>
+      </c>
+      <c r="M124" s="8">
+        <f>C124*M52</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N124" s="16"/>
-      <c r="O124" s="16"/>
-      <c r="P124" s="16">
-        <f t="shared" si="5"/>
-        <v>204</v>
-      </c>
-      <c r="Q124" s="16"/>
-    </row>
-    <row r="125" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="Q124" s="8"/>
+    </row>
+    <row r="125" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C125" s="16">
-        <f>C54*2</f>
-        <v>34</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="D125" s="16">
+        <f>C125*D53</f>
         <v>0</v>
       </c>
       <c r="E125" s="16">
+        <f>C125*E53</f>
         <v>0</v>
       </c>
       <c r="F125" s="16">
+        <f>C125*F53</f>
         <v>0</v>
       </c>
       <c r="G125" s="16">
-        <v>0</v>
+        <f>C125*G53</f>
+        <v>80</v>
       </c>
       <c r="H125" s="16">
+        <f>C125*H53</f>
         <v>0</v>
       </c>
       <c r="I125" s="16">
-        <v>0</v>
+        <f>C125*I53</f>
+        <v>160</v>
       </c>
       <c r="J125" s="16">
-        <v>0</v>
+        <f>C125*J53</f>
+        <v>160</v>
       </c>
       <c r="K125" s="16">
+        <f>C125*K53</f>
         <v>0</v>
       </c>
       <c r="L125" s="16">
-        <f>C125*L54</f>
-        <v>34</v>
+        <f>C125*L53</f>
+        <v>40</v>
       </c>
       <c r="M125" s="16">
-        <f t="shared" si="4"/>
+        <f>C125*M53</f>
         <v>0</v>
       </c>
       <c r="N125" s="16"/>
       <c r="O125" s="16"/>
       <c r="P125" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="Q125" s="16">
+        <f>SUM(P125:P127)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C126" s="16">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="Q125" s="16"/>
-    </row>
-    <row r="126" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="8">
-        <f>C55*2</f>
-        <v>248</v>
-      </c>
-      <c r="D126" s="8">
-        <f>C126*D55</f>
-        <v>248</v>
-      </c>
-      <c r="E126" s="8">
-        <f>C126*E55</f>
-        <v>248</v>
-      </c>
-      <c r="F126" s="8">
-        <f>C126*F55</f>
-        <v>248</v>
-      </c>
-      <c r="G126" s="8">
-        <f>C126*G55</f>
-        <v>496</v>
-      </c>
-      <c r="H126" s="8">
-        <f>C126*H55</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <f>C126*I55</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="8">
-        <f>C126*J55</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="8">
-        <f>C126*K55</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="8">
-        <f>C126*L55</f>
-        <v>0</v>
-      </c>
-      <c r="M126" s="8">
+      <c r="D126" s="16">
+        <f>C126*D54</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="16">
+        <f>C126*E54</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="16">
+        <f>C126*F54</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="16">
+        <f>C126*G54</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="16">
+        <f>C126*H54</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="16">
+        <f>C126*I54</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="16">
+        <f>C126*J54</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="16">
+        <f>C126*K54</f>
+        <v>136</v>
+      </c>
+      <c r="L126" s="16">
+        <f>C126*L54</f>
+        <v>68</v>
+      </c>
+      <c r="M126" s="16">
+        <f>C126*M54</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="16"/>
+      <c r="O126" s="16"/>
+      <c r="P126" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8">
-        <f t="shared" si="5"/>
-        <v>1240</v>
-      </c>
-      <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+      <c r="Q126" s="16"/>
+    </row>
+    <row r="127" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C127" s="16">
-        <f>C56*2</f>
-        <v>124</v>
+        <f t="shared" si="7"/>
+        <v>34</v>
       </c>
       <c r="D127" s="16">
-        <f>C127*D56</f>
         <v>0</v>
       </c>
       <c r="E127" s="16">
-        <f>C127*E56</f>
         <v>0</v>
       </c>
       <c r="F127" s="16">
-        <f>C127*F56</f>
         <v>0</v>
       </c>
       <c r="G127" s="16">
-        <f>C127*G56</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="H127" s="16">
-        <f>C127*H56</f>
         <v>0</v>
       </c>
       <c r="I127" s="16">
-        <f>C127*I56</f>
         <v>0</v>
       </c>
       <c r="J127" s="16">
-        <f>C127*J56</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="K127" s="16">
-        <f>C127*K56</f>
         <v>0</v>
       </c>
       <c r="L127" s="16">
-        <f>C127*L56</f>
-        <v>0</v>
+        <f>C127*L55</f>
+        <v>34</v>
       </c>
       <c r="M127" s="16">
-        <f t="shared" si="4"/>
+        <f>C127*M55</f>
         <v>0</v>
       </c>
       <c r="N127" s="16"/>
       <c r="O127" s="16"/>
       <c r="P127" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="Q127" s="16"/>
+    </row>
+    <row r="128" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="8">
+        <f t="shared" si="7"/>
         <v>248</v>
       </c>
-      <c r="Q127" s="16"/>
-    </row>
-    <row r="128" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C128" s="16">
-        <f>C57*2</f>
-        <v>118</v>
-      </c>
-      <c r="D128" s="16">
-        <f>C128*D57</f>
-        <v>118</v>
-      </c>
-      <c r="E128" s="16">
-        <f>C128*E57</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="16">
-        <f>C128*F57</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="16">
-        <f>C128*G57</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="16">
-        <f>C128*H57</f>
-        <v>0</v>
-      </c>
-      <c r="I128" s="16">
-        <f>C128*I57</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="16">
-        <f>C128*J57</f>
-        <v>0</v>
-      </c>
-      <c r="K128" s="16">
-        <f>C128*K57</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="16">
-        <f>C128*L57</f>
-        <v>0</v>
-      </c>
-      <c r="M128" s="16">
+      <c r="D128" s="8">
+        <f>C128*D56</f>
+        <v>248</v>
+      </c>
+      <c r="E128" s="8">
+        <f>C128*E56</f>
+        <v>248</v>
+      </c>
+      <c r="F128" s="8">
+        <f>C128*F56</f>
+        <v>248</v>
+      </c>
+      <c r="G128" s="8">
+        <f>C128*G56</f>
+        <v>496</v>
+      </c>
+      <c r="H128" s="8">
+        <f>C128*H56</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <f>C128*I56</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="8">
+        <f>C128*J56</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="8">
+        <f>C128*K56</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="8">
+        <f>C128*L56</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="8">
+        <f>C128*M56</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="16"/>
-      <c r="O128" s="16"/>
-      <c r="P128" s="16">
-        <f t="shared" si="5"/>
-        <v>118</v>
-      </c>
-      <c r="Q128" s="16"/>
-    </row>
-    <row r="129" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+      <c r="Q128" s="8">
+        <f>SUM(P128)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C129" s="16">
-        <f>C58*2</f>
-        <v>116</v>
+        <f t="shared" si="7"/>
+        <v>124</v>
       </c>
       <c r="D129" s="16">
-        <f>C129*D58</f>
+        <f>C129*D57</f>
         <v>0</v>
       </c>
       <c r="E129" s="16">
-        <f>C129*E58</f>
+        <f>C129*E57</f>
         <v>0</v>
       </c>
       <c r="F129" s="16">
-        <f>C129*F58</f>
+        <f>C129*F57</f>
         <v>0</v>
       </c>
       <c r="G129" s="16">
-        <f>C129*G58</f>
-        <v>0</v>
+        <f>C129*G57</f>
+        <v>124</v>
       </c>
       <c r="H129" s="16">
-        <f>C129*H58</f>
+        <f>C129*H57</f>
         <v>0</v>
       </c>
       <c r="I129" s="16">
-        <f>C129*I58</f>
-        <v>116</v>
+        <f>C129*I57</f>
+        <v>0</v>
       </c>
       <c r="J129" s="16">
-        <f>C129*J58</f>
-        <v>0</v>
+        <f>C129*J57</f>
+        <v>124</v>
       </c>
       <c r="K129" s="16">
-        <f>C129*K58</f>
+        <f>C129*K57</f>
         <v>0</v>
       </c>
       <c r="L129" s="16">
-        <f>C129*L58</f>
+        <f>C129*L57</f>
         <v>0</v>
       </c>
       <c r="M129" s="16">
-        <f t="shared" si="4"/>
+        <f>C129*M57</f>
         <v>0</v>
       </c>
       <c r="N129" s="16"/>
       <c r="O129" s="16"/>
       <c r="P129" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="Q129" s="16">
+        <f>SUM(P129:P131)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C130" s="16">
+        <f t="shared" si="7"/>
+        <v>118</v>
+      </c>
+      <c r="D130" s="16">
+        <f>C130*D58</f>
+        <v>118</v>
+      </c>
+      <c r="E130" s="16">
+        <f>C130*E58</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="16">
+        <f>C130*F58</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="16">
+        <f>C130*G58</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="16">
+        <f>C130*H58</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="16">
+        <f>C130*I58</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="16">
+        <f>C130*J58</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="16">
+        <f>C130*K58</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="16">
+        <f>C130*L58</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="16">
+        <f>C130*M58</f>
+        <v>0</v>
+      </c>
+      <c r="N130" s="16"/>
+      <c r="O130" s="16"/>
+      <c r="P130" s="16">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="Q130" s="16"/>
+    </row>
+    <row r="131" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C131" s="16">
+        <f t="shared" si="7"/>
         <v>116</v>
       </c>
-      <c r="Q129" s="16"/>
-    </row>
-    <row r="130" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+      <c r="D131" s="16">
+        <f>C131*D59</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="16">
+        <f>C131*E59</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="16">
+        <f>C131*F59</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="16">
+        <f>C131*G59</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="16">
+        <f>C131*H59</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="16">
+        <f>C131*I59</f>
+        <v>116</v>
+      </c>
+      <c r="J131" s="16">
+        <f>C131*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="16">
+        <f>C131*K59</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="16">
+        <f>C131*L59</f>
+        <v>0</v>
+      </c>
+      <c r="M131" s="16">
+        <f>C131*M59</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="16"/>
+      <c r="O131" s="16"/>
+      <c r="P131" s="16">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="Q131" s="16"/>
+    </row>
+    <row r="132" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="8">
-        <f>C59*2</f>
+      <c r="C132" s="8">
+        <f t="shared" si="7"/>
         <v>138</v>
       </c>
-      <c r="D130" s="8">
-        <f>C130*D59</f>
-        <v>0</v>
-      </c>
-      <c r="E130" s="8">
-        <f>C130*E59</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="8">
-        <f>C130*F59</f>
+      <c r="D132" s="8">
+        <f>C132*D60</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="8">
+        <f>C132*E60</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
+        <f>C132*F60</f>
         <v>138</v>
       </c>
-      <c r="G130" s="8">
-        <f>C130*G59</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="8">
-        <f>C130*H59</f>
-        <v>0</v>
-      </c>
-      <c r="I130" s="8">
-        <f>C130*I59</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="8">
-        <f>C130*J59</f>
-        <v>0</v>
-      </c>
-      <c r="K130" s="8">
-        <f>C130*K59</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="8">
-        <f>C130*L59</f>
-        <v>0</v>
-      </c>
-      <c r="M130" s="8">
+      <c r="G132" s="8">
+        <f>C132*G60</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <f>C132*H60</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <f>C132*I60</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="8">
+        <f>C132*J60</f>
+        <v>0</v>
+      </c>
+      <c r="K132" s="8">
+        <f>C132*K60</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="8">
+        <f>C132*L60</f>
+        <v>0</v>
+      </c>
+      <c r="M132" s="8">
+        <f>C132*M60</f>
+        <v>0</v>
+      </c>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8">
-        <f t="shared" si="5"/>
         <v>138</v>
       </c>
-      <c r="Q130" s="8"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P135" s="13">
-        <f>SUM(P73:P130)</f>
-        <v>19302</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D138" s="7" t="s">
+      <c r="Q132" s="8">
+        <f>P132</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P137" s="13">
+        <f>SUM(P74:P132)</f>
+        <v>20144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D140" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="7" t="s">
+      <c r="E140" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F140" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G138" s="7" t="s">
+      <c r="G140" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H140" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I138" s="7" t="s">
+      <c r="I140" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J138" s="7" t="s">
+      <c r="J140" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K138" s="7" t="s">
+      <c r="K140" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L138" s="7" t="s">
+      <c r="L140" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M138" s="9"/>
-      <c r="N138" s="9" t="s">
+      <c r="M140" s="9"/>
+      <c r="N140" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O138" s="9" t="s">
+      <c r="O140" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D139" s="8">
-        <f t="shared" ref="D139:L139" si="8">SUM(D73:D130)</f>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D141" s="8">
+        <f t="shared" ref="D141:L141" si="8">SUM(D74:D132)</f>
         <v>750</v>
       </c>
-      <c r="E139" s="8">
+      <c r="E141" s="8">
         <f t="shared" si="8"/>
         <v>892</v>
       </c>
-      <c r="F139" s="8">
+      <c r="F141" s="8">
         <f t="shared" si="8"/>
         <v>1166</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G141" s="8">
         <f t="shared" si="8"/>
         <v>1830</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H141" s="8">
         <f t="shared" si="8"/>
         <v>802</v>
       </c>
-      <c r="I139" s="8">
+      <c r="I141" s="8">
         <f t="shared" si="8"/>
         <v>3046</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J141" s="8">
         <f t="shared" si="8"/>
         <v>2704</v>
       </c>
-      <c r="K139" s="8">
+      <c r="K141" s="8">
         <f t="shared" si="8"/>
         <v>4664</v>
       </c>
-      <c r="L139" s="8">
+      <c r="L141" s="8">
         <f t="shared" si="8"/>
-        <v>2042</v>
-      </c>
-      <c r="M139" s="8"/>
-      <c r="N139" s="8">
-        <f>SUM(D139:L139)</f>
-        <v>17896</v>
-      </c>
-      <c r="O139" s="17">
-        <f>N139/N69</f>
-        <v>136.61068702290078</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D140" s="18">
-        <f>D139/D69</f>
+        <v>2884</v>
+      </c>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8">
+        <f>SUM(D141:L141)</f>
+        <v>18738</v>
+      </c>
+      <c r="O141" s="17">
+        <f>N141/N70</f>
+        <v>140.88721804511277</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D142" s="18">
+        <f>D141/D70</f>
         <v>150</v>
       </c>
-      <c r="E140" s="18">
-        <f t="shared" ref="E140:L140" si="9">E139/E69</f>
+      <c r="E142" s="18">
+        <f t="shared" ref="E142:L142" si="9">E141/E70</f>
         <v>89.2</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F142" s="18">
         <f t="shared" si="9"/>
         <v>116.6</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G142" s="18">
         <f t="shared" si="9"/>
         <v>114.375</v>
       </c>
-      <c r="H140" s="18">
+      <c r="H142" s="18">
         <f t="shared" si="9"/>
         <v>160.4</v>
       </c>
-      <c r="I140" s="18">
+      <c r="I142" s="18">
         <f t="shared" si="9"/>
         <v>138.45454545454547</v>
       </c>
-      <c r="J140" s="18">
+      <c r="J142" s="18">
         <f t="shared" si="9"/>
         <v>142.31578947368422</v>
       </c>
-      <c r="K140" s="18">
+      <c r="K142" s="18">
         <f t="shared" si="9"/>
         <v>172.74074074074073</v>
       </c>
-      <c r="L140" s="18">
+      <c r="L142" s="18">
         <f t="shared" si="9"/>
-        <v>145.85714285714286</v>
-      </c>
-      <c r="M140" s="6"/>
-      <c r="N140" s="18">
-        <f>N139/M69</f>
-        <v>139.8125</v>
-      </c>
-      <c r="O140" s="6" t="s">
+        <v>180.25</v>
+      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" s="18">
+        <f>N141/M70</f>
+        <v>144.13846153846154</v>
+      </c>
+      <c r="O142" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1" t="s">
+      <c r="C212" s="1"/>
+      <c r="D212" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>13</v>
       </c>
-      <c r="B211">
+      <c r="B213">
         <v>3</v>
       </c>
-      <c r="D211">
+      <c r="D213">
         <f>SUM(N2:N4)</f>
         <v>9</v>
       </c>
-      <c r="E211">
+      <c r="E213">
         <f>SUM(P2:P4)</f>
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>17</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="D212">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="D214">
         <f>N5</f>
         <v>1</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <f>P5</f>
         <v>564</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>19</v>
       </c>
-      <c r="B213">
+      <c r="B215">
         <v>2</v>
       </c>
-      <c r="D213">
+      <c r="D215">
         <f>N6</f>
         <v>2</v>
       </c>
-      <c r="E213">
+      <c r="E215">
         <f>SUM(P6:P7)</f>
         <v>838</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>22</v>
-      </c>
-      <c r="B214">
-        <v>5</v>
-      </c>
-      <c r="D214">
-        <f>SUM(N8:N13)</f>
-        <v>8</v>
-      </c>
-      <c r="E214">
-        <f>SUM(P8:P13)</f>
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>28</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <f>N13</f>
-        <v>2</v>
-      </c>
-      <c r="E215">
-        <f>SUM(P13)</f>
-        <v>832</v>
-      </c>
-    </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B216">
         <v>5</v>
       </c>
       <c r="D216">
-        <f>SUM(N14:N18)</f>
+        <f>SUM(N8:N14)</f>
         <v>9</v>
       </c>
       <c r="E216">
-        <f>SUM(P14:P18)</f>
-        <v>906</v>
+        <f>SUM(P8:P14)</f>
+        <v>1734</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="D217">
-        <f>N20</f>
-        <v>1</v>
+        <f>N14</f>
+        <v>2</v>
       </c>
       <c r="E217">
-        <f>P20</f>
-        <v>726</v>
+        <f>SUM(P14)</f>
+        <v>832</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D218">
-        <f>N23</f>
-        <v>1</v>
+        <f>SUM(N15:N19)</f>
+        <v>9</v>
       </c>
       <c r="E218">
-        <f>P23</f>
-        <v>516</v>
+        <f>SUM(P15:P19)</f>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <f>SUM(N24:N26)</f>
-        <v>8</v>
+        <f>N21</f>
+        <v>1</v>
       </c>
       <c r="E219">
-        <f>SUM(P24:P26)</f>
-        <v>1150</v>
+        <f>P21</f>
+        <v>726</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B220">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <f>SUM(N27:N31)</f>
-        <v>19</v>
+        <f>N24</f>
+        <v>1</v>
       </c>
       <c r="E220">
-        <f>SUM(P27:P31)</f>
-        <v>1066</v>
+        <f>P24</f>
+        <v>516</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D221">
-        <f>N32</f>
-        <v>1</v>
+        <f>SUM(N25:N27)</f>
+        <v>8</v>
       </c>
       <c r="E221">
-        <f>P32</f>
-        <v>840</v>
+        <f>SUM(P25:P27)</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D222">
-        <f>N33</f>
-        <v>1</v>
+        <f>SUM(N28:N32)</f>
+        <v>20</v>
       </c>
       <c r="E222">
-        <f>P33</f>
-        <v>282</v>
+        <f>SUM(P28:P32)</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="D223">
-        <f>N34</f>
-        <v>9</v>
+        <f>N33</f>
+        <v>1</v>
       </c>
       <c r="E223">
-        <f>P34</f>
-        <v>1440</v>
+        <f>P33</f>
+        <v>840</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <f>SUM(N36:N37)</f>
-        <v>7</v>
+        <f>N34</f>
+        <v>1</v>
       </c>
       <c r="E224">
-        <f>SUM(P36:P37)</f>
-        <v>498</v>
+        <f>P34</f>
+        <v>282</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <f>SUM(N38:N40)</f>
-        <v>4</v>
+        <f>N35</f>
+        <v>9</v>
       </c>
       <c r="E225">
-        <f>SUM(P38:P40)</f>
-        <v>1050</v>
+        <f>P35</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226">
-        <f>SUM(N41)</f>
-        <v>3</v>
+        <f>SUM(N37:N38)</f>
+        <v>7</v>
       </c>
       <c r="E226">
-        <f>P41</f>
-        <v>816</v>
+        <f>SUM(P37:P38)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <f>SUM(N39:N41)</f>
         <v>4</v>
       </c>
-      <c r="D227">
-        <f>SUM(N42:N45)</f>
-        <v>5</v>
-      </c>
       <c r="E227">
-        <f>SUM(P42:P45)</f>
-        <v>1396</v>
+        <f>SUM(P39:P41)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="D228">
+        <f>SUM(N42)</f>
         <v>3</v>
       </c>
-      <c r="D228">
-        <f>SUM(N46:N48)</f>
-        <v>7</v>
-      </c>
       <c r="E228">
-        <f>SUM(P46:P48)</f>
-        <v>880</v>
+        <f>P42</f>
+        <v>816</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D229">
-        <f>SUM(N49:N51)</f>
-        <v>3</v>
+        <f>SUM(N43:N46)</f>
+        <v>5</v>
       </c>
       <c r="E229">
-        <f>SUM(P49:P51)</f>
-        <v>286</v>
+        <f>SUM(P43:P46)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D230">
-        <f>SUM(N52:N53)</f>
-        <v>17</v>
+        <f>SUM(N47:N49)</f>
+        <v>7</v>
       </c>
       <c r="E230">
-        <f>SUM(P52:P53)</f>
-        <v>644</v>
+        <f>SUM(P47:P49)</f>
+        <v>880</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <f>SUM(N55)</f>
-        <v>5</v>
+        <f>SUM(N50:N52)</f>
+        <v>3</v>
       </c>
       <c r="E231">
-        <f>P55</f>
-        <v>1240</v>
+        <f>SUM(P50:P52)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B232">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D232">
-        <f>SUM(N56:N58)</f>
-        <v>4</v>
+        <f>SUM(N53:N54)</f>
+        <v>17</v>
       </c>
       <c r="E232">
-        <f>SUM(P56:P58)</f>
-        <v>482</v>
+        <f>SUM(P53:P54)</f>
+        <v>644</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
+        <v>81</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="D233">
+        <f>SUM(N56)</f>
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <f>P56</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>83</v>
+      </c>
+      <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="D234">
+        <f>SUM(N57:N59)</f>
+        <v>4</v>
+      </c>
+      <c r="E234">
+        <f>SUM(P57:P59)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
         <v>87</v>
       </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <f>N59</f>
-        <v>1</v>
-      </c>
-      <c r="E233">
-        <f>P59</f>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="D235">
+        <f>N60</f>
+        <v>1</v>
+      </c>
+      <c r="E235">
+        <f>P60</f>
         <v>138</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1">
-        <f>SUM(B211:B233)</f>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1">
+        <f>SUM(B213:B235)</f>
         <v>53</v>
       </c>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1">
-        <f>SUM(D211:D233)</f>
-        <v>127</v>
-      </c>
-      <c r="E235" s="1">
-        <f>SUM(E211:E233)</f>
-        <v>18070</v>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1">
+        <f>SUM(D213:D235)</f>
+        <v>129</v>
+      </c>
+      <c r="E237" s="1">
+        <f>SUM(E213:E235)</f>
+        <v>18494</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA625847-34B4-470F-BA1E-895DEE6513D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDF236-53B4-4A21-BF15-12321A36CC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
   <si>
     <t>Paikkakunta</t>
   </si>
@@ -409,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,14 +445,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,22 +537,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
-  <dimension ref="A1:Q237"/>
+  <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,18 +953,20 @@
       <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="8">
+        <v>1</v>
+      </c>
       <c r="N2" s="8">
         <f>SUM(D2:M2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ref="O2:O60" si="0">C2*N2</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:P60" si="1">2*O2</f>
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
@@ -1375,10 +1366,10 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
       <c r="N13" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -2255,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>120</v>
       </c>
@@ -2294,238 +2285,238 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>34</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15">
         <v>2</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16">
+      <c r="J37" s="15"/>
+      <c r="K37" s="15">
         <v>2</v>
       </c>
-      <c r="L37" s="16">
-        <v>1</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16">
+      <c r="L37" s="15">
+        <v>1</v>
+      </c>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O37" s="16">
+      <c r="O37" s="15">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="P37" s="16">
+      <c r="P37" s="15">
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
-      <c r="Q37" s="16"/>
-    </row>
-    <row r="38" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+      <c r="Q37" s="15"/>
+    </row>
+    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>45</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38" s="16">
+      <c r="O38" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P38" s="16">
+      <c r="P38" s="15">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q38" s="16">
+      <c r="Q38" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="21">
+      <c r="C39" s="8">
         <v>132</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21">
-        <v>1</v>
-      </c>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O39" s="21">
+      <c r="O39" s="8">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="P39" s="21">
+      <c r="P39" s="8">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="Q39" s="8"/>
+    </row>
+    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40" s="8">
         <v>131</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21">
-        <v>1</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40" s="21">
+      <c r="O40" s="8">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="P40" s="21">
+      <c r="P40" s="8">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="Q40" s="8"/>
+    </row>
+    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41" s="8">
         <v>131</v>
       </c>
-      <c r="D41" s="21">
-        <v>1</v>
-      </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21">
-        <v>1</v>
-      </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21">
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O41" s="21">
+      <c r="O41" s="8">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="P41" s="21">
+      <c r="P41" s="8">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="Q41" s="21">
+      <c r="Q41" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>136</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
         <v>2</v>
       </c>
-      <c r="K42" s="16">
-        <v>1</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16">
+      <c r="K42" s="15">
+        <v>1</v>
+      </c>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O42" s="16">
+      <c r="O42" s="15">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="P42" s="16">
+      <c r="P42" s="15">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="Q42" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q42" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
@@ -2563,7 +2554,7 @@
       </c>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>65</v>
       </c>
@@ -2599,7 +2590,7 @@
       </c>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>65</v>
       </c>
@@ -2635,7 +2626,7 @@
       </c>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
@@ -2673,121 +2664,121 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="15">
         <v>62</v>
       </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16">
-        <v>1</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
+      <c r="D47" s="15"/>
+      <c r="E47" s="15">
+        <v>1</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15">
+        <v>1</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
         <v>2</v>
       </c>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O47" s="16">
+      <c r="O47" s="15">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="P47" s="16">
+      <c r="P47" s="15">
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
-      <c r="Q47" s="16"/>
-    </row>
-    <row r="48" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+      <c r="Q47" s="15"/>
+    </row>
+    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="15">
         <v>65</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16">
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15">
         <v>2</v>
       </c>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16">
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O48" s="16">
+      <c r="O48" s="15">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="P48" s="16">
+      <c r="P48" s="15">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="Q48" s="15"/>
+    </row>
+    <row r="49" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>62</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16">
-        <v>1</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15">
+        <v>1</v>
+      </c>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O49" s="16">
+      <c r="O49" s="15">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="P49" s="16">
+      <c r="P49" s="15">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Q49" s="16">
+      <c r="Q49" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
@@ -2823,7 +2814,7 @@
       </c>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>74</v>
       </c>
@@ -2859,7 +2850,7 @@
       </c>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>74</v>
       </c>
@@ -2897,125 +2888,125 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="53" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="15">
         <v>20</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16">
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15">
         <v>2</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15">
         <v>4</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="15">
         <v>4</v>
       </c>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16">
-        <v>1</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16">
+      <c r="K53" s="15"/>
+      <c r="L53" s="15">
+        <v>1</v>
+      </c>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O53" s="16">
+      <c r="O53" s="15">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="15">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="Q53" s="16"/>
-    </row>
-    <row r="54" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+      <c r="Q53" s="15"/>
+    </row>
+    <row r="54" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="15">
         <v>17</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15">
         <v>4</v>
       </c>
-      <c r="L54" s="16">
+      <c r="L54" s="15">
         <v>2</v>
       </c>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16">
+      <c r="M54" s="15"/>
+      <c r="N54" s="15">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O54" s="16">
+      <c r="O54" s="15">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P54" s="16">
+      <c r="P54" s="15">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="Q54" s="16"/>
-    </row>
-    <row r="55" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+      <c r="Q54" s="15"/>
+    </row>
+    <row r="55" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>17</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16">
-        <v>1</v>
-      </c>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15">
+        <v>1</v>
+      </c>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O55" s="16">
+      <c r="O55" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="P55" s="16">
+      <c r="P55" s="15">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="Q55" s="16">
+      <c r="Q55" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>81</v>
       </c>
@@ -3059,119 +3050,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="15">
         <v>62</v>
       </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16">
-        <v>1</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16">
-        <v>1</v>
-      </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16">
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15">
+        <v>1</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O57" s="16">
+      <c r="O57" s="15">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="P57" s="16">
+      <c r="P57" s="15">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="Q57" s="16"/>
-    </row>
-    <row r="58" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="Q57" s="15"/>
+    </row>
+    <row r="58" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>59</v>
       </c>
-      <c r="D58" s="16">
-        <v>1</v>
-      </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16">
+      <c r="D58" s="15">
+        <v>1</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O58" s="16">
+      <c r="O58" s="15">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P58" s="16">
+      <c r="P58" s="15">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="Q58" s="16"/>
-    </row>
-    <row r="59" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+      <c r="Q58" s="15"/>
+    </row>
+    <row r="59" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="15">
         <v>58</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16">
-        <v>1</v>
-      </c>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16">
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15">
+        <v>1</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O59" s="16">
+      <c r="O59" s="15">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="P59" s="16">
+      <c r="P59" s="15">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="Q59" s="16">
+      <c r="Q59" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>87</v>
       </c>
@@ -3234,28 +3225,61 @@
       <c r="Q61" s="6"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13">
+        <f>SUM(D2:D60)</f>
+        <v>5</v>
+      </c>
+      <c r="E62" s="13">
+        <f t="shared" ref="E62:M62" si="3">SUM(E2:E60)</f>
+        <v>10</v>
+      </c>
+      <c r="F62" s="13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H62" s="13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I62" s="13">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="J62" s="13">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K62" s="13">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="L62" s="13">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M62" s="13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N62" s="13">
+        <f>SUM(D62:M62)</f>
+        <v>134</v>
+      </c>
+      <c r="O62" s="13"/>
       <c r="P62" s="7">
         <f>SUM(P2:P60)</f>
-        <v>20144</v>
-      </c>
-      <c r="Q62" s="15">
+        <v>20160</v>
+      </c>
+      <c r="Q62" s="14">
         <f>SUM(Q2:Q60)</f>
         <v>59</v>
       </c>
@@ -3390,395 +3414,394 @@
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
-      <c r="P69" s="6">
-        <f>SUM(P2:P60)</f>
-        <v>20144</v>
-      </c>
+      <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9">
-        <f t="shared" ref="D70:L70" si="3">SUM(D2:D60)</f>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="6"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="9">
-        <f t="shared" si="3"/>
+      <c r="G72" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="G70" s="9">
-        <f t="shared" si="3"/>
+      <c r="L72" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73:C83" si="4">C2*2</f>
         <v>16</v>
       </c>
-      <c r="H70" s="9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I70" s="9">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="J70" s="9">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="K70" s="9">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="L70" s="9">
-        <f t="shared" si="3"/>
+      <c r="D73" s="8">
+        <f>C73*D2</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="8">
+        <f>C73*E2</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="8">
+        <f>C73*F2</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="8">
+        <f>C73*G2</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="8">
+        <f>C73*H2</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>C73*I2</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="8">
+        <f>C73*J2</f>
         <v>16</v>
       </c>
-      <c r="M70" s="9">
-        <f>SUM(D70:L70)</f>
-        <v>130</v>
-      </c>
-      <c r="N70" s="9">
-        <f>SUM(N2:N60)</f>
-        <v>133</v>
-      </c>
-      <c r="O70" s="9">
-        <f>SUM(O2:O60)</f>
-        <v>10072</v>
-      </c>
-      <c r="P70" s="9">
-        <f>2*O70</f>
-        <v>20144</v>
-      </c>
-      <c r="Q70" s="6"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="6"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L73" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
+      <c r="K73" s="8">
+        <f>C73*K2</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <f>C73*L2</f>
+        <v>16</v>
+      </c>
+      <c r="M73" s="8">
+        <f>C73*M2</f>
+        <v>16</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8">
+        <f>SUM(D73:M73)</f>
+        <v>48</v>
+      </c>
+      <c r="Q73" s="8">
+        <f>SUM(P73:P75)</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" s="8">
-        <f>C2*2</f>
-        <v>16</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="D74" s="8">
-        <f>C74*D2</f>
+        <f>C74*D3</f>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>C74*E2</f>
-        <v>0</v>
+        <f>C74*E3</f>
+        <v>2</v>
       </c>
       <c r="F74" s="8">
-        <f>C74*F2</f>
-        <v>0</v>
+        <f>C74*F3</f>
+        <v>2</v>
       </c>
       <c r="G74" s="8">
-        <f>C74*G2</f>
+        <f>C74*G3</f>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f>C74*H2</f>
+        <f>C74*H3</f>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f>C74*I2</f>
+        <f>C74*I3</f>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f>C74*J2</f>
-        <v>16</v>
+        <f>C74*J3</f>
+        <v>0</v>
       </c>
       <c r="K74" s="8">
-        <f>C74*K2</f>
+        <f>C74*K3</f>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f>C74*L2</f>
-        <v>16</v>
+        <f>C74*L3</f>
+        <v>0</v>
       </c>
       <c r="M74" s="8">
-        <f>C74*M2</f>
+        <f>C74*M3</f>
         <v>0</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8">
-        <f>SUM(D74:M74)</f>
-        <v>32</v>
-      </c>
-      <c r="Q74" s="8">
-        <f>SUM(P74:P76)</f>
-        <v>116</v>
-      </c>
+        <f t="shared" ref="P74:P131" si="5">SUM(D74:M74)</f>
+        <v>4</v>
+      </c>
+      <c r="Q74" s="8"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="8">
-        <f>C3*2</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
       <c r="D75" s="8">
-        <f>C75*D3</f>
-        <v>0</v>
+        <f>C75*D4</f>
+        <v>16</v>
       </c>
       <c r="E75" s="8">
-        <f>C75*E3</f>
-        <v>2</v>
+        <f>C75*E4</f>
+        <v>48</v>
       </c>
       <c r="F75" s="8">
-        <f>C75*F3</f>
-        <v>2</v>
+        <f>C75*F4</f>
+        <v>16</v>
       </c>
       <c r="G75" s="8">
-        <f>C75*G3</f>
+        <f>C75*G4</f>
         <v>0</v>
       </c>
       <c r="H75" s="8">
-        <f>C75*H3</f>
+        <f>C75*H4</f>
         <v>0</v>
       </c>
       <c r="I75" s="8">
-        <f>C75*I3</f>
+        <f>C75*I4</f>
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <f>C75*J3</f>
+        <f>C75*J4</f>
         <v>0</v>
       </c>
       <c r="K75" s="8">
-        <f>C75*K3</f>
+        <f>C75*K4</f>
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <f>C75*L3</f>
+        <f>C75*L4</f>
         <v>0</v>
       </c>
       <c r="M75" s="8">
-        <f>C75*M3</f>
+        <f>C75*M4</f>
         <v>0</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8">
-        <f t="shared" ref="P75:P132" si="4">SUM(D75:M75)</f>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="Q75" s="8"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="8">
-        <f>C4*2</f>
-        <v>16</v>
-      </c>
-      <c r="D76" s="8">
-        <f>C76*D4</f>
-        <v>16</v>
-      </c>
-      <c r="E76" s="8">
-        <f>C76*E4</f>
-        <v>48</v>
-      </c>
-      <c r="F76" s="8">
-        <f>C76*F4</f>
-        <v>16</v>
-      </c>
-      <c r="G76" s="8">
-        <f>C76*G4</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <f>C76*H4</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="8">
-        <f>C76*I4</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <f>C76*J4</f>
-        <v>0</v>
-      </c>
-      <c r="K76" s="8">
-        <f>C76*K4</f>
-        <v>0</v>
-      </c>
-      <c r="L76" s="8">
-        <f>C76*L4</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="8">
-        <f>C76*M4</f>
-        <v>0</v>
-      </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="Q76" s="8"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A76" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="6">
-        <f>C5*2</f>
-        <v>564</v>
-      </c>
-      <c r="D77" s="6">
-        <f>C77*D5</f>
-        <v>0</v>
-      </c>
-      <c r="E77" s="6">
-        <f>C77*E5</f>
-        <v>0</v>
-      </c>
-      <c r="F77" s="6">
-        <f>C77*F5</f>
-        <v>0</v>
-      </c>
-      <c r="G77" s="6">
-        <f>C77*G5</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="6">
-        <f>C77*H5</f>
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <f>C77*I5</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <f>C77*J5</f>
-        <v>564</v>
-      </c>
-      <c r="K77" s="6">
-        <f>C77*K5</f>
-        <v>0</v>
-      </c>
-      <c r="L77" s="6">
-        <f>C77*L5</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="16">
-        <f>C77*M5</f>
-        <v>0</v>
-      </c>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="16">
+      <c r="C76" s="6">
         <f t="shared" si="4"/>
         <v>564</v>
       </c>
-      <c r="Q77" s="6">
-        <f>SUM(P77)</f>
+      <c r="D76" s="6">
+        <f>C76*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="6">
+        <f>C76*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <f>C76*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <f>C76*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <f>C76*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="6">
+        <f>C76*I5</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="6">
+        <f>C76*J5</f>
         <v>564</v>
+      </c>
+      <c r="K76" s="6">
+        <f>C76*K5</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="6">
+        <f>C76*L5</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="15">
+        <f>C76*M5</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="15">
+        <f t="shared" si="5"/>
+        <v>564</v>
+      </c>
+      <c r="Q76" s="6">
+        <f>SUM(P76)</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="4"/>
+        <v>278</v>
+      </c>
+      <c r="D77" s="8">
+        <f>C77*D6</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="8">
+        <f>C77*E6</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="8">
+        <f>C77*F6</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8">
+        <f>C77*G6</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="8">
+        <f>C77*H6</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="8">
+        <f>C77*I6</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8">
+        <f>C77*J6</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <f>C77*K6</f>
+        <v>278</v>
+      </c>
+      <c r="L77" s="8">
+        <f>C77*L6</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
+        <f>C77*M6</f>
+        <v>278</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8">
+        <f t="shared" si="5"/>
+        <v>556</v>
+      </c>
+      <c r="Q77" s="8">
+        <f>SUM(P77:P78)</f>
+        <v>838</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,240 +3809,237 @@
         <v>19</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C78" s="8">
-        <f>C6*2</f>
-        <v>278</v>
+        <f t="shared" si="4"/>
+        <v>282</v>
       </c>
       <c r="D78" s="8">
-        <f>C78*D6</f>
+        <f>C78*D7</f>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f>C78*E6</f>
+        <f>C78*E7</f>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>C78*F6</f>
+        <f>C78*F7</f>
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f>C78*G6</f>
+        <f>C78*G7</f>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f>C78*H6</f>
+        <f>C78*H7</f>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>C78*I6</f>
-        <v>0</v>
+        <f>C78*I7</f>
+        <v>282</v>
       </c>
       <c r="J78" s="8">
-        <f>C78*J6</f>
+        <f>C78*J7</f>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f>C78*K6</f>
-        <v>278</v>
+        <f>C78*K7</f>
+        <v>0</v>
       </c>
       <c r="L78" s="8">
-        <f>C78*L6</f>
+        <f>C78*L7</f>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f>C78*M6</f>
-        <v>278</v>
+        <f>C78*M7</f>
+        <v>0</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="6">
         <f t="shared" si="4"/>
-        <v>556</v>
-      </c>
-      <c r="Q78" s="8">
-        <f>SUM(P78:P79)</f>
-        <v>838</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="8">
-        <f>C7*2</f>
-        <v>282</v>
-      </c>
-      <c r="D79" s="8">
-        <f>C79*D7</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
-        <f>C79*E7</f>
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <f>C79*F7</f>
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <f>C79*G7</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <f>C79*H7</f>
-        <v>0</v>
-      </c>
-      <c r="I79" s="8">
-        <f>C79*I7</f>
-        <v>282</v>
-      </c>
-      <c r="J79" s="8">
-        <f>C79*J7</f>
-        <v>0</v>
-      </c>
-      <c r="K79" s="8">
-        <f>C79*K7</f>
-        <v>0</v>
-      </c>
-      <c r="L79" s="8">
-        <f>C79*L7</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="8">
-        <f>C79*M7</f>
-        <v>0</v>
-      </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8">
-        <f t="shared" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="Q79" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="D79" s="6">
+        <f>C79*D8</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <f>C79*E8</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <f>C79*F8</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <f>C79*G8</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <f>C79*H8</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <f>C79*I8</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <f>C79*J8</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <f>C79*K8</f>
+        <v>66</v>
+      </c>
+      <c r="L79" s="6">
+        <f>C79*L8</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="15">
+        <f>C79*M8</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="15">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="Q79" s="6">
+        <f>SUM(P79:P83)</f>
+        <v>532</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C80" s="6">
-        <f>C8*2</f>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="D80" s="6">
-        <f>C80*D8</f>
+        <f>C80*D9</f>
         <v>0</v>
       </c>
       <c r="E80" s="6">
-        <f>C80*E8</f>
+        <f>C80*E9</f>
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <f>C80*F8</f>
+        <f>C80*F9</f>
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <f>C80*G8</f>
-        <v>0</v>
+        <f>C80*G9</f>
+        <v>92</v>
       </c>
       <c r="H80" s="6">
-        <f>C80*H8</f>
+        <f>C80*H9</f>
         <v>0</v>
       </c>
       <c r="I80" s="6">
-        <f>C80*I8</f>
+        <f>C80*I9</f>
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <f>C80*J8</f>
+        <f>C80*J9</f>
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f>C80*K8</f>
-        <v>66</v>
+        <f>C80*K9</f>
+        <v>0</v>
       </c>
       <c r="L80" s="6">
-        <f>C80*L8</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="16">
-        <f>C80*M8</f>
+        <f>C80*L9</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="15">
+        <f>C80*M9</f>
         <v>0</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="16">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="Q80" s="6">
-        <f>SUM(P80:P84)</f>
-        <v>532</v>
-      </c>
+      <c r="P80" s="15">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C81" s="6">
-        <f>C9*2</f>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>84</v>
       </c>
       <c r="D81" s="6">
-        <f>C81*D9</f>
+        <f>C81*D10</f>
         <v>0</v>
       </c>
       <c r="E81" s="6">
-        <f>C81*E9</f>
+        <f>C81*E10</f>
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f>C81*F9</f>
+        <f>C81*F10</f>
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f>C81*G9</f>
-        <v>92</v>
+        <f>C81*G10</f>
+        <v>0</v>
       </c>
       <c r="H81" s="6">
-        <f>C81*H9</f>
+        <f>C81*H10</f>
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <f>C81*I9</f>
+        <f>C81*I10</f>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>C81*J9</f>
+        <f>C81*J10</f>
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>C81*K9</f>
-        <v>0</v>
+        <f>C81*K10</f>
+        <v>84</v>
       </c>
       <c r="L81" s="6">
-        <f>C81*L9</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="16">
-        <f>C81*M9</f>
-        <v>0</v>
+        <f>C81*L10</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="15">
+        <f>C81*M10</f>
+        <v>84</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="16">
-        <f t="shared" si="4"/>
-        <v>92</v>
+      <c r="P81" s="15">
+        <f t="shared" si="5"/>
+        <v>168</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
@@ -4028,57 +4048,57 @@
         <v>22</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C82" s="6">
-        <f>C10*2</f>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="D82" s="6">
-        <f>C82*D10</f>
+        <f>C82*D11</f>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f>C82*E10</f>
+        <f>C82*E11</f>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f>C82*F10</f>
+        <f>C82*F11</f>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f>C82*G10</f>
-        <v>0</v>
+        <f>C82*G11</f>
+        <v>120</v>
       </c>
       <c r="H82" s="6">
-        <f>C82*H10</f>
+        <f>C82*H11</f>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>C82*I10</f>
+        <f>C82*I11</f>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>C82*J10</f>
+        <f>C82*J11</f>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>C82*K10</f>
-        <v>84</v>
+        <f>C82*K11</f>
+        <v>0</v>
       </c>
       <c r="L82" s="6">
-        <f>C82*L10</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="16">
-        <f>C82*M10</f>
-        <v>84</v>
+        <f>C82*L11</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <f>C82*M11</f>
+        <v>0</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="16">
-        <f t="shared" si="4"/>
-        <v>168</v>
+      <c r="P82" s="15">
+        <f t="shared" si="5"/>
+        <v>120</v>
       </c>
       <c r="Q82" s="6"/>
     </row>
@@ -4087,118 +4107,121 @@
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C83" s="6">
-        <f>C11*2</f>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>86</v>
       </c>
       <c r="D83" s="6">
-        <f>C83*D11</f>
+        <f>C83*D12</f>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f>C83*E11</f>
+        <f>C83*E12</f>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f>C83*F11</f>
-        <v>0</v>
+        <f>C83*F12</f>
+        <v>86</v>
       </c>
       <c r="G83" s="6">
-        <f>C83*G11</f>
-        <v>120</v>
+        <f>C83*G12</f>
+        <v>0</v>
       </c>
       <c r="H83" s="6">
-        <f>C83*H11</f>
+        <f>C83*H12</f>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>C83*I11</f>
+        <f>C83*I12</f>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>C83*J11</f>
+        <f>C83*J12</f>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>C83*K11</f>
+        <f>C83*K12</f>
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f>C83*L11</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="16">
-        <f>C83*M11</f>
+        <f>C83*L12</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="15">
+        <f>C83*M12</f>
         <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="16">
-        <f t="shared" si="4"/>
-        <v>120</v>
+      <c r="P83" s="15">
+        <f t="shared" si="5"/>
+        <v>86</v>
       </c>
       <c r="Q83" s="6"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="6">
-        <f>C12*2</f>
-        <v>86</v>
-      </c>
-      <c r="D84" s="6">
-        <f>C84*D12</f>
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
-        <f>C84*E12</f>
-        <v>0</v>
-      </c>
-      <c r="F84" s="6">
-        <f>C84*F12</f>
-        <v>86</v>
-      </c>
-      <c r="G84" s="6">
-        <f>C84*G12</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <f>C84*H12</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="6">
-        <f>C84*I12</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <f>C84*J12</f>
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <f>C84*K12</f>
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <f>C84*L12</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="16">
-        <f>C84*M12</f>
-        <v>0</v>
-      </c>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="16">
-        <f t="shared" si="4"/>
-        <v>86</v>
-      </c>
-      <c r="Q84" s="6"/>
+      <c r="A84" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="8">
+        <f>C13*2</f>
+        <v>370</v>
+      </c>
+      <c r="D84" s="8">
+        <f>C84*D13</f>
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <f>C84*E13</f>
+        <v>0</v>
+      </c>
+      <c r="F84" s="8">
+        <f>C84*F13</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="8">
+        <f>C84*G13</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="8">
+        <f>D84*H13</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <f>C84*I13</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="8">
+        <f>C84*J13</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="8">
+        <f>C84*K13</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <f>C84*L13</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
+        <f>C84*M13</f>
+        <v>370</v>
+      </c>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="Q84" s="8">
+        <f>SUM(P84:P85)</f>
+        <v>1202</v>
+      </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
@@ -4208,237 +4231,234 @@
         <v>29</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" ref="C85:C94" si="5">C13*2</f>
-        <v>370</v>
+        <f>C14*2</f>
+        <v>416</v>
       </c>
       <c r="D85" s="8">
-        <f>C85*D13</f>
+        <f>C85*D14</f>
         <v>0</v>
       </c>
       <c r="E85" s="8">
-        <f>C85*E13</f>
+        <f>C85*E14</f>
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <f>C85*F13</f>
+        <f>C85*F14</f>
         <v>0</v>
       </c>
       <c r="G85" s="8">
-        <f>C85*G13</f>
+        <f>C85*G14</f>
         <v>0</v>
       </c>
       <c r="H85" s="8">
-        <f>D85*H13</f>
+        <f>D85*H14</f>
         <v>0</v>
       </c>
       <c r="I85" s="8">
-        <f>C85*I13</f>
+        <f>C85*I14</f>
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <f>C85*J13</f>
-        <v>0</v>
+        <f>C85*J14</f>
+        <v>416</v>
       </c>
       <c r="K85" s="8">
-        <f>C85*K13</f>
+        <f>C85*K14</f>
         <v>0</v>
       </c>
       <c r="L85" s="8">
-        <f>C85*L13</f>
-        <v>370</v>
+        <f>C85*L14</f>
+        <v>416</v>
       </c>
       <c r="M85" s="8">
-        <f>C85*M13</f>
+        <f>C85*M14</f>
         <v>0</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8">
-        <f t="shared" si="4"/>
-        <v>370</v>
-      </c>
-      <c r="Q85" s="8">
-        <f>SUM(P85:P86)</f>
-        <v>1202</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>832</v>
+      </c>
+      <c r="Q85" s="8"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="8">
+      <c r="A86" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="6">
+        <f>C15*2</f>
+        <v>110</v>
+      </c>
+      <c r="D86" s="6">
+        <f>C86*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <f>C86*E15</f>
+        <v>110</v>
+      </c>
+      <c r="F86" s="6">
+        <f>C86*F15</f>
+        <v>110</v>
+      </c>
+      <c r="G86" s="6">
+        <f>C86*G15</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="6">
+        <f>C86*H15</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <f>C86*I15</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <f>C86*J15</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f>C86*K15</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <f>C86*L15</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="15">
+        <f>C86*M15</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="15">
         <f t="shared" si="5"/>
-        <v>416</v>
-      </c>
-      <c r="D86" s="8">
-        <f>C86*D14</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="8">
-        <f>C86*E14</f>
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <f>C86*F14</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="8">
-        <f>C86*G14</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="8">
-        <f>D86*H14</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="8">
-        <f>C86*I14</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
-        <f>C86*J14</f>
-        <v>416</v>
-      </c>
-      <c r="K86" s="8">
-        <f>C86*K14</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="8">
-        <f>C86*L14</f>
-        <v>416</v>
-      </c>
-      <c r="M86" s="8">
-        <f>C86*M14</f>
-        <v>0</v>
-      </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8">
-        <f t="shared" si="4"/>
-        <v>832</v>
-      </c>
-      <c r="Q86" s="8"/>
+        <v>220</v>
+      </c>
+      <c r="Q86" s="6">
+        <f>SUM(P86:P90)</f>
+        <v>906</v>
+      </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" s="6">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f>C16*2</f>
+        <v>108</v>
       </c>
       <c r="D87" s="6">
-        <f>C87*D15</f>
+        <f>C87*D16</f>
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <f>C87*E15</f>
-        <v>110</v>
+        <f>C87*E16</f>
+        <v>0</v>
       </c>
       <c r="F87" s="6">
-        <f>C87*F15</f>
-        <v>110</v>
+        <f>C87*F16</f>
+        <v>0</v>
       </c>
       <c r="G87" s="6">
-        <f>C87*G15</f>
-        <v>0</v>
+        <f>C87*G16</f>
+        <v>108</v>
       </c>
       <c r="H87" s="6">
-        <f>C87*H15</f>
+        <f>C87*H16</f>
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <f>C87*I15</f>
+        <f>C87*I16</f>
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <f>C87*J15</f>
+        <f>C87*J16</f>
         <v>0</v>
       </c>
       <c r="K87" s="6">
-        <f>C87*K15</f>
+        <f>C87*K16</f>
         <v>0</v>
       </c>
       <c r="L87" s="6">
-        <f>C87*L15</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="16">
-        <f>C87*M15</f>
+        <f>C87*L16</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="15">
+        <f>C87*M16</f>
         <v>0</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
-      <c r="P87" s="16">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="Q87" s="6">
-        <f>SUM(P87:P91)</f>
-        <v>906</v>
-      </c>
+      <c r="P87" s="15">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="Q87" s="6"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C88" s="6">
-        <f t="shared" si="5"/>
-        <v>108</v>
+        <f>C17*2</f>
+        <v>110</v>
       </c>
       <c r="D88" s="6">
-        <f>C88*D16</f>
+        <f>C88*D17</f>
         <v>0</v>
       </c>
       <c r="E88" s="6">
-        <f>C88*E16</f>
-        <v>0</v>
+        <f>C88*E17</f>
+        <v>110</v>
       </c>
       <c r="F88" s="6">
-        <f>C88*F16</f>
+        <f>C88*F17</f>
         <v>0</v>
       </c>
       <c r="G88" s="6">
-        <f>C88*G16</f>
-        <v>108</v>
+        <f>C88*G17</f>
+        <v>0</v>
       </c>
       <c r="H88" s="6">
-        <f>C88*H16</f>
+        <f>C88*H17</f>
         <v>0</v>
       </c>
       <c r="I88" s="6">
-        <f>C88*I16</f>
+        <f>C88*I17</f>
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <f>C88*J16</f>
+        <f>C88*J17</f>
         <v>0</v>
       </c>
       <c r="K88" s="6">
-        <f>C88*K16</f>
+        <f>C88*K17</f>
         <v>0</v>
       </c>
       <c r="L88" s="6">
-        <f>C88*L16</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="16">
-        <f>C88*M16</f>
+        <f>C88*L17</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="15">
+        <f>C88*M17</f>
         <v>0</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-      <c r="P88" s="16">
-        <f t="shared" si="4"/>
-        <v>108</v>
+      <c r="P88" s="15">
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="Q88" s="6"/>
     </row>
@@ -4447,57 +4467,57 @@
         <v>30</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" s="6">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f>C18*2</f>
+        <v>92</v>
       </c>
       <c r="D89" s="6">
-        <f>C89*D17</f>
+        <f>C89*D18</f>
         <v>0</v>
       </c>
       <c r="E89" s="6">
-        <f>C89*E17</f>
-        <v>110</v>
+        <f>C89*E18</f>
+        <v>0</v>
       </c>
       <c r="F89" s="6">
-        <f>C89*F17</f>
+        <f>C89*F18</f>
         <v>0</v>
       </c>
       <c r="G89" s="6">
-        <f>C89*G17</f>
+        <f>C89*G18</f>
         <v>0</v>
       </c>
       <c r="H89" s="6">
-        <f>C89*H17</f>
+        <f>C89*H18</f>
         <v>0</v>
       </c>
       <c r="I89" s="6">
-        <f>C89*I17</f>
+        <f>C89*I18</f>
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <f>C89*J17</f>
-        <v>0</v>
+        <f>C89*J18</f>
+        <v>92</v>
       </c>
       <c r="K89" s="6">
-        <f>C89*K17</f>
+        <f>C89*K18</f>
         <v>0</v>
       </c>
       <c r="L89" s="6">
-        <f>C89*L17</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="16">
-        <f>C89*M17</f>
+        <f>C89*L18</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <f>C89*M18</f>
         <v>0</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
-      <c r="P89" s="16">
-        <f t="shared" si="4"/>
-        <v>110</v>
+      <c r="P89" s="15">
+        <f t="shared" si="5"/>
+        <v>92</v>
       </c>
       <c r="Q89" s="6"/>
     </row>
@@ -4506,427 +4526,430 @@
         <v>30</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90" s="6">
-        <f t="shared" si="5"/>
-        <v>92</v>
+        <f>C19*2</f>
+        <v>94</v>
       </c>
       <c r="D90" s="6">
-        <f>C90*D18</f>
+        <f>C90*D19</f>
         <v>0</v>
       </c>
       <c r="E90" s="6">
-        <f>C90*E18</f>
+        <f>C90*E19</f>
         <v>0</v>
       </c>
       <c r="F90" s="6">
-        <f>C90*F18</f>
+        <f>C90*F19</f>
         <v>0</v>
       </c>
       <c r="G90" s="6">
-        <f>C90*G18</f>
+        <f>C90*G19</f>
         <v>0</v>
       </c>
       <c r="H90" s="6">
-        <f>C90*H18</f>
-        <v>0</v>
+        <f>C90*H19</f>
+        <v>94</v>
       </c>
       <c r="I90" s="6">
-        <f>C90*I18</f>
-        <v>0</v>
+        <f>C90*I19</f>
+        <v>188</v>
       </c>
       <c r="J90" s="6">
-        <f>C90*J18</f>
-        <v>92</v>
+        <f>C90*J19</f>
+        <v>0</v>
       </c>
       <c r="K90" s="6">
-        <f>C90*K18</f>
-        <v>0</v>
+        <f>C90*K19</f>
+        <v>94</v>
       </c>
       <c r="L90" s="6">
-        <f>C90*L18</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="16">
-        <f>C90*M18</f>
+        <f>C90*L19</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="15">
+        <f>C90*M19</f>
         <v>0</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
-      <c r="P90" s="16">
-        <f t="shared" si="4"/>
-        <v>92</v>
+      <c r="P90" s="15">
+        <f t="shared" si="5"/>
+        <v>376</v>
       </c>
       <c r="Q90" s="6"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C91" s="6">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="D91" s="6">
-        <f>C91*D19</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="6">
-        <f>C91*E19</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="6">
-        <f>C91*F19</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="6">
-        <f>C91*G19</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
-        <f>C91*H19</f>
-        <v>94</v>
-      </c>
-      <c r="I91" s="6">
-        <f>C91*I19</f>
-        <v>188</v>
-      </c>
-      <c r="J91" s="6">
-        <f>C91*J19</f>
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <f>C91*K19</f>
-        <v>94</v>
-      </c>
-      <c r="L91" s="6">
-        <f>C91*L19</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="16">
-        <f>C91*M19</f>
-        <v>0</v>
-      </c>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="16">
-        <f t="shared" si="4"/>
-        <v>376</v>
-      </c>
-      <c r="Q91" s="6"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="A91" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C91" s="8">
+        <f>C20*2</f>
+        <v>800</v>
+      </c>
+      <c r="D91" s="8">
+        <f>C91*D20</f>
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
+        <f>C91*E20</f>
+        <v>0</v>
+      </c>
+      <c r="F91" s="8">
+        <f>C91*F20</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="8">
+        <f>C91*G20</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="8">
+        <f>C91*H20</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="8">
+        <f>C91*I20</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="8">
+        <f>C91*J20</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="8">
+        <f>C91*K20</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="8">
+        <f>C91*L20</f>
+        <v>800</v>
+      </c>
+      <c r="M91" s="8">
+        <f>C91*M20</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="D92" s="8">
-        <f>C92*D20</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="8">
-        <f>C92*E20</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="8">
-        <f>C92*F20</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="8">
-        <f>C92*G20</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="8">
-        <f>C92*H20</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="8">
-        <f>C92*I20</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="8">
-        <f>C92*J20</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="8">
-        <f>C92*K20</f>
-        <v>0</v>
-      </c>
-      <c r="L92" s="8">
-        <f>C92*L20</f>
+      <c r="Q91" s="8">
+        <f>P91</f>
         <v>800</v>
       </c>
-      <c r="M92" s="8">
-        <f>C92*M20</f>
-        <v>0</v>
-      </c>
-      <c r="N92" s="8"/>
-      <c r="O92" s="8"/>
-      <c r="P92" s="8">
-        <f t="shared" si="4"/>
-        <v>800</v>
-      </c>
-      <c r="Q92" s="8">
-        <f>P92</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B92" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C92" s="6">
+        <f>C21*2</f>
+        <v>726</v>
+      </c>
+      <c r="D92" s="6">
+        <f>C92*D21</f>
+        <v>0</v>
+      </c>
+      <c r="E92" s="6">
+        <f>C92*E21</f>
+        <v>0</v>
+      </c>
+      <c r="F92" s="6">
+        <f>C92*F21</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="6">
+        <f>C92*G21</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="6">
+        <f>C92*H21</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="6">
+        <f>C92*I21</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <f>C92*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <f>C92*K21</f>
+        <v>726</v>
+      </c>
+      <c r="L92" s="6">
+        <f>C92*L21</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="15">
+        <f>C92*M21</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="15">
         <f t="shared" si="5"/>
         <v>726</v>
       </c>
-      <c r="D93" s="6">
-        <f>C93*D21</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="6">
-        <f>C93*E21</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="6">
-        <f>C93*F21</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="6">
-        <f>C93*G21</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
-        <f>C93*H21</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <f>C93*I21</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <f>C93*J21</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <f>C93*K21</f>
+      <c r="Q92" s="6">
+        <f>P92</f>
         <v>726</v>
       </c>
-      <c r="L93" s="6">
-        <f>C93*L21</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="16">
-        <f>C93*M21</f>
-        <v>0</v>
-      </c>
-      <c r="N93" s="6"/>
-      <c r="O93" s="6"/>
-      <c r="P93" s="16">
-        <f t="shared" si="4"/>
-        <v>726</v>
-      </c>
-      <c r="Q93" s="6">
-        <f>P93</f>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C93" s="8">
+        <f>C22*2</f>
+        <v>186</v>
+      </c>
+      <c r="D93" s="8">
+        <f>C93*D22</f>
+        <v>0</v>
+      </c>
+      <c r="E93" s="8">
+        <f>C93*E22</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="8">
+        <f>C93*F22</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="8">
+        <f>C93*G22</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="8">
+        <f>C93*H22</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="8">
+        <f>C93*I22</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="8">
+        <f>C93*J22</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="8">
+        <f>C93*K22</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="8">
+        <f>C93*L22</f>
+        <v>186</v>
+      </c>
+      <c r="M93" s="8">
+        <f>C93*M22</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8">
         <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="D94" s="8">
-        <f>C94*D22</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="8">
-        <f>C94*E22</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="8">
-        <f>C94*F22</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="8">
-        <f>C94*G22</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="8">
-        <f>C94*H22</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="8">
-        <f>C94*I22</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="8">
-        <f>C94*J22</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="8">
-        <f>C94*K22</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="8">
-        <f>C94*L22</f>
+      <c r="Q93" s="8">
+        <f>P93</f>
         <v>186</v>
       </c>
-      <c r="M94" s="8">
-        <f>C94*M22</f>
-        <v>0</v>
-      </c>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
-      <c r="P94" s="8">
-        <f t="shared" si="4"/>
-        <v>186</v>
-      </c>
-      <c r="Q94" s="8">
-        <f>P94</f>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C94" s="6">
         <f>209*2</f>
         <v>418</v>
       </c>
-      <c r="D95" s="6">
-        <f t="shared" ref="D95:K95" si="6">C95*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="22">
-        <f>C95*L23</f>
+      <c r="D94" s="6">
+        <f>C94*D24</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="6">
+        <f>D94*E24</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <f>E94*F24</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
+        <f>F94*G24</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="6">
+        <f>G94*H24</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="6">
+        <f>H94*I24</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="6">
+        <f>I94*J24</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <f>J94*K24</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="15">
+        <f>C94*L23</f>
         <v>418</v>
       </c>
-      <c r="M95" s="16">
-        <f>C95*M23</f>
-        <v>0</v>
-      </c>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="16">
-        <f t="shared" si="4"/>
+      <c r="M94" s="15">
+        <f>C94*M23</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="15">
+        <f t="shared" si="5"/>
         <v>418</v>
       </c>
-      <c r="Q95" s="6">
+      <c r="Q94" s="6">
+        <f>P94</f>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="8">
+        <f>C24*2</f>
+        <v>516</v>
+      </c>
+      <c r="D95" s="8">
+        <f>C95*D24</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
+        <f>C95*E24</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="8">
+        <f>C95*F24</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="8">
+        <f>C95*G24</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="8">
+        <f>C95*H24</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="8">
+        <f>C95*I24</f>
+        <v>516</v>
+      </c>
+      <c r="J95" s="8">
+        <f>C95*J24</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="8">
+        <f>C95*K24</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="8">
+        <f>C95*L24</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="8">
+        <f>C95*M24</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8">
+        <f t="shared" si="5"/>
+        <v>516</v>
+      </c>
+      <c r="Q95" s="8">
         <f>P95</f>
-        <v>418</v>
+        <v>516</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="8">
-        <f t="shared" ref="C96:C132" si="7">C24*2</f>
-        <v>516</v>
-      </c>
-      <c r="D96" s="8">
-        <f>C96*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="8">
-        <f>C96*E24</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="8">
-        <f>C96*F24</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="8">
-        <f>C96*G24</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="8">
-        <f>C96*H24</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="8">
-        <f>C96*I24</f>
-        <v>516</v>
-      </c>
-      <c r="J96" s="8">
-        <f>C96*J24</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="8">
-        <f>C96*K24</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="8">
-        <f>C96*L24</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="8">
-        <f>C96*M24</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
-      <c r="P96" s="8">
-        <f t="shared" si="4"/>
-        <v>516</v>
-      </c>
-      <c r="Q96" s="8">
-        <f>P96</f>
-        <v>516</v>
+      <c r="A96" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="6">
+        <f>C25*2</f>
+        <v>158</v>
+      </c>
+      <c r="D96" s="6">
+        <f>C96*D25</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="6">
+        <f>C96*E25</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <f>C96*F25</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="6">
+        <f>C96*G25</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="6">
+        <f>C96*H25</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="6">
+        <f>C96*I25</f>
+        <v>158</v>
+      </c>
+      <c r="J96" s="6">
+        <f>C96*J25</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <f>C96*K25</f>
+        <v>158</v>
+      </c>
+      <c r="L96" s="6">
+        <f>C96*L25</f>
+        <v>158</v>
+      </c>
+      <c r="M96" s="15">
+        <f>C96*M25</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="15">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="Q96" s="6">
+        <f>SUM(P96:P98)</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,299 +4957,296 @@
         <v>40</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C97" s="6">
-        <f t="shared" si="7"/>
-        <v>158</v>
+        <f>C26*2</f>
+        <v>140</v>
       </c>
       <c r="D97" s="6">
-        <f>C97*D25</f>
+        <f>C97*D26</f>
         <v>0</v>
       </c>
       <c r="E97" s="6">
-        <f>C97*E25</f>
+        <f>C97*E26</f>
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <f>C97*F25</f>
+        <f>C97*F26</f>
         <v>0</v>
       </c>
       <c r="G97" s="6">
-        <f>C97*G25</f>
+        <f>C97*G26</f>
         <v>0</v>
       </c>
       <c r="H97" s="6">
-        <f>C97*H25</f>
+        <f>C97*H26</f>
         <v>0</v>
       </c>
       <c r="I97" s="6">
-        <f>C97*I25</f>
-        <v>158</v>
+        <f>C97*I26</f>
+        <v>280</v>
       </c>
       <c r="J97" s="6">
-        <f>C97*J25</f>
+        <f>C97*J26</f>
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <f>C97*K25</f>
-        <v>158</v>
+        <f>C97*K26</f>
+        <v>0</v>
       </c>
       <c r="L97" s="6">
-        <f>C97*L25</f>
-        <v>158</v>
-      </c>
-      <c r="M97" s="16">
-        <f>C97*M25</f>
+        <f>C97*L26</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="15">
+        <f>C97*M26</f>
         <v>0</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
-      <c r="P97" s="16">
-        <f t="shared" si="4"/>
-        <v>474</v>
-      </c>
-      <c r="Q97" s="6">
-        <f>SUM(P97:P99)</f>
-        <v>1150</v>
-      </c>
+      <c r="P97" s="15">
+        <f t="shared" si="5"/>
+        <v>280</v>
+      </c>
+      <c r="Q97" s="6"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C98" s="6">
-        <f t="shared" si="7"/>
-        <v>140</v>
+        <f>C27*2</f>
+        <v>132</v>
       </c>
       <c r="D98" s="6">
-        <f>C98*D26</f>
+        <f>C98*D27</f>
         <v>0</v>
       </c>
       <c r="E98" s="6">
-        <f>C98*E26</f>
+        <f>C98*E27</f>
         <v>0</v>
       </c>
       <c r="F98" s="6">
-        <f>C98*F26</f>
+        <f>C98*F27</f>
         <v>0</v>
       </c>
       <c r="G98" s="6">
-        <f>C98*G26</f>
+        <f>C98*G27</f>
         <v>0</v>
       </c>
       <c r="H98" s="6">
-        <f>C98*H26</f>
+        <f>C98*H27</f>
         <v>0</v>
       </c>
       <c r="I98" s="6">
-        <f>C98*I26</f>
-        <v>280</v>
+        <f>C98*I27</f>
+        <v>0</v>
       </c>
       <c r="J98" s="6">
-        <f>C98*J26</f>
-        <v>0</v>
+        <f>C98*J27</f>
+        <v>132</v>
       </c>
       <c r="K98" s="6">
-        <f>C98*K26</f>
-        <v>0</v>
+        <f>C98*K27</f>
+        <v>132</v>
       </c>
       <c r="L98" s="6">
-        <f>C98*L26</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="16">
-        <f>C98*M26</f>
+        <f>C98*L27</f>
+        <v>132</v>
+      </c>
+      <c r="M98" s="15">
+        <f>C98*M27</f>
         <v>0</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
-      <c r="P98" s="16">
-        <f t="shared" si="4"/>
-        <v>280</v>
+      <c r="P98" s="15">
+        <f t="shared" si="5"/>
+        <v>396</v>
       </c>
       <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C99" s="6">
-        <f t="shared" si="7"/>
-        <v>132</v>
-      </c>
-      <c r="D99" s="6">
-        <f>C99*D27</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="6">
-        <f>C99*E27</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="6">
-        <f>C99*F27</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="6">
-        <f>C99*G27</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <f>C99*H27</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <f>C99*I27</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <f>C99*J27</f>
-        <v>132</v>
-      </c>
-      <c r="K99" s="6">
-        <f>C99*K27</f>
-        <v>132</v>
-      </c>
-      <c r="L99" s="6">
-        <f>C99*L27</f>
-        <v>132</v>
-      </c>
-      <c r="M99" s="16">
-        <f>C99*M27</f>
-        <v>0</v>
-      </c>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="16">
-        <f t="shared" si="4"/>
-        <v>396</v>
-      </c>
-      <c r="Q99" s="6"/>
+      <c r="A99" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="8">
+        <f>C28*2</f>
+        <v>50</v>
+      </c>
+      <c r="D99" s="8">
+        <f>C99*D28</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <f>C99*E28</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <f>C99*F28</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <f>C99*G28</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
+        <f>C99*H28</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="8">
+        <f>C99*I28</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="8">
+        <f>C99*J28</f>
+        <v>50</v>
+      </c>
+      <c r="K99" s="8">
+        <f>C99*K28</f>
+        <v>50</v>
+      </c>
+      <c r="L99" s="8">
+        <f>C99*L28</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="8">
+        <f>C99*M28</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="8"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="8">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="Q99" s="8">
+        <f>SUM(P99:P103)</f>
+        <v>1120</v>
+      </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C100" s="8">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f>C29*2</f>
+        <v>54</v>
       </c>
       <c r="D100" s="8">
-        <f>C100*D28</f>
+        <f>C100*D29</f>
         <v>0</v>
       </c>
       <c r="E100" s="8">
-        <f>C100*E28</f>
+        <f>C100*E29</f>
         <v>0</v>
       </c>
       <c r="F100" s="8">
-        <f>C100*F28</f>
+        <f>C100*F29</f>
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <f>C100*G28</f>
-        <v>0</v>
+        <f>C100*G29</f>
+        <v>54</v>
       </c>
       <c r="H100" s="8">
-        <f>C100*H28</f>
+        <f>C100*H29</f>
         <v>0</v>
       </c>
       <c r="I100" s="8">
-        <f>C100*I28</f>
-        <v>0</v>
+        <f>C100*I29</f>
+        <v>54</v>
       </c>
       <c r="J100" s="8">
-        <f>C100*J28</f>
-        <v>50</v>
+        <f>C100*J29</f>
+        <v>108</v>
       </c>
       <c r="K100" s="8">
-        <f>C100*K28</f>
-        <v>50</v>
+        <f>C100*K29</f>
+        <v>0</v>
       </c>
       <c r="L100" s="8">
-        <f>C100*L28</f>
+        <f>C100*L29</f>
         <v>0</v>
       </c>
       <c r="M100" s="8">
-        <f>C100*M28</f>
-        <v>0</v>
-      </c>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
+        <f>C100*M29</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
       <c r="P100" s="8">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="Q100" s="8">
-        <f>SUM(P100:P104)</f>
-        <v>1120</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="Q100" s="8"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C101" s="8">
-        <f t="shared" si="7"/>
+        <f>C30*2</f>
         <v>54</v>
       </c>
       <c r="D101" s="8">
-        <f>C101*D29</f>
+        <f>C101*D30</f>
         <v>0</v>
       </c>
       <c r="E101" s="8">
-        <f>C101*E29</f>
+        <f>C101*E30</f>
         <v>0</v>
       </c>
       <c r="F101" s="8">
-        <f>C101*F29</f>
+        <f>C101*F30</f>
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <f>C101*G29</f>
+        <f>C101*G30</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="8">
+        <f>C101*H30</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="8">
+        <f>C101*I30</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="8">
+        <f>C101*J30</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="8">
+        <f>C101*K30</f>
         <v>54</v>
       </c>
-      <c r="H101" s="8">
-        <f>C101*H29</f>
-        <v>0</v>
-      </c>
-      <c r="I101" s="8">
-        <f>C101*I29</f>
+      <c r="L101" s="8">
+        <f>C101*L30</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="8">
+        <f>C101*M30</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="8"/>
+      <c r="O101" s="8"/>
+      <c r="P101" s="8">
+        <f t="shared" si="5"/>
         <v>54</v>
-      </c>
-      <c r="J101" s="8">
-        <f>C101*J29</f>
-        <v>108</v>
-      </c>
-      <c r="K101" s="8">
-        <f>C101*K29</f>
-        <v>0</v>
-      </c>
-      <c r="L101" s="8">
-        <f>C101*L29</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="8">
-        <f>C101*M29</f>
-        <v>0</v>
-      </c>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
-      <c r="P101" s="8">
-        <f t="shared" si="4"/>
-        <v>216</v>
       </c>
       <c r="Q101" s="8"/>
     </row>
@@ -5235,57 +5255,57 @@
         <v>44</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C102" s="8">
-        <f t="shared" si="7"/>
+        <f>C31*2</f>
         <v>54</v>
       </c>
       <c r="D102" s="8">
-        <f>C102*D30</f>
+        <f>C102*D31</f>
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f>C102*E30</f>
+        <f>C102*E31</f>
         <v>0</v>
       </c>
       <c r="F102" s="8">
-        <f>C102*F30</f>
-        <v>0</v>
+        <f>C102*F31</f>
+        <v>54</v>
       </c>
       <c r="G102" s="8">
-        <f>C102*G30</f>
-        <v>0</v>
+        <f>C102*G31</f>
+        <v>108</v>
       </c>
       <c r="H102" s="8">
-        <f>C102*H30</f>
-        <v>0</v>
+        <f>C102*H31</f>
+        <v>54</v>
       </c>
       <c r="I102" s="8">
-        <f>C102*I30</f>
-        <v>0</v>
+        <f>C102*I31</f>
+        <v>54</v>
       </c>
       <c r="J102" s="8">
-        <f>C102*J30</f>
+        <f>C102*J31</f>
         <v>0</v>
       </c>
       <c r="K102" s="8">
-        <f>C102*K30</f>
+        <f>C102*K31</f>
         <v>54</v>
       </c>
       <c r="L102" s="8">
-        <f>C102*L30</f>
-        <v>0</v>
+        <f>C102*L31</f>
+        <v>54</v>
       </c>
       <c r="M102" s="8">
-        <f>C102*M30</f>
+        <f>C102*M31</f>
         <v>0</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>378</v>
       </c>
       <c r="Q102" s="8"/>
     </row>
@@ -5294,2337 +5314,2303 @@
         <v>44</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C103" s="8">
-        <f t="shared" si="7"/>
-        <v>54</v>
+        <f>C32*2</f>
+        <v>62</v>
       </c>
       <c r="D103" s="8">
-        <f>C103*D31</f>
+        <f>C103*D32</f>
         <v>0</v>
       </c>
       <c r="E103" s="8">
-        <f>C103*E31</f>
+        <f>C103*E32</f>
         <v>0</v>
       </c>
       <c r="F103" s="8">
-        <f>C103*F31</f>
-        <v>54</v>
+        <f>C103*F32</f>
+        <v>0</v>
       </c>
       <c r="G103" s="8">
-        <f>C103*G31</f>
-        <v>108</v>
+        <f>C103*G32</f>
+        <v>0</v>
       </c>
       <c r="H103" s="8">
-        <f>C103*H31</f>
-        <v>54</v>
+        <f>C103*H32</f>
+        <v>0</v>
       </c>
       <c r="I103" s="8">
-        <f>C103*I31</f>
-        <v>54</v>
+        <f>C103*I32</f>
+        <v>62</v>
       </c>
       <c r="J103" s="8">
-        <f>C103*J31</f>
+        <f>C103*J32</f>
         <v>0</v>
       </c>
       <c r="K103" s="8">
-        <f>C103*K31</f>
-        <v>54</v>
+        <f>C103*K32</f>
+        <v>186</v>
       </c>
       <c r="L103" s="8">
-        <f>C103*L31</f>
-        <v>54</v>
+        <f>C103*L32</f>
+        <v>124</v>
       </c>
       <c r="M103" s="8">
-        <f>C103*M31</f>
+        <f>C103*M32</f>
         <v>0</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8">
-        <f t="shared" si="4"/>
-        <v>378</v>
+        <f t="shared" si="5"/>
+        <v>372</v>
       </c>
       <c r="Q103" s="8"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="8">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="D104" s="8">
-        <f>C104*D32</f>
-        <v>0</v>
-      </c>
-      <c r="E104" s="8">
-        <f>C104*E32</f>
-        <v>0</v>
-      </c>
-      <c r="F104" s="8">
-        <f>C104*F32</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="8">
-        <f>C104*G32</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="8">
-        <f>C104*H32</f>
-        <v>0</v>
-      </c>
-      <c r="I104" s="8">
-        <f>C104*I32</f>
-        <v>62</v>
-      </c>
-      <c r="J104" s="8">
-        <f>C104*J32</f>
-        <v>0</v>
-      </c>
-      <c r="K104" s="8">
-        <f>C104*K32</f>
-        <v>186</v>
-      </c>
-      <c r="L104" s="8">
-        <f>C104*L32</f>
-        <v>124</v>
-      </c>
-      <c r="M104" s="8">
-        <f>C104*M32</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8">
-        <f t="shared" si="4"/>
-        <v>372</v>
-      </c>
-      <c r="Q104" s="8"/>
+      <c r="A104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="6">
+        <f>C33*2</f>
+        <v>840</v>
+      </c>
+      <c r="D104" s="6">
+        <f>C104*D33</f>
+        <v>0</v>
+      </c>
+      <c r="E104" s="6">
+        <f>C104*E33</f>
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <f>C104*F33</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="6">
+        <f>C104*G33</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="6">
+        <f>C104*H33</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="6">
+        <f>C104*I33</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="6">
+        <f>C104*J33</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <f>C104*K33</f>
+        <v>840</v>
+      </c>
+      <c r="L104" s="6">
+        <f>C104*L33</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="15">
+        <f>C104*M33</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="15">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="Q104" s="6">
+        <f>P104</f>
+        <v>840</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C105" s="6">
-        <f t="shared" si="7"/>
-        <v>840</v>
-      </c>
-      <c r="D105" s="6">
-        <f>C105*D33</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="6">
-        <f>C105*E33</f>
-        <v>0</v>
-      </c>
-      <c r="F105" s="6">
-        <f>C105*F33</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="6">
-        <f>C105*G33</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="6">
-        <f>C105*H33</f>
-        <v>0</v>
-      </c>
-      <c r="I105" s="6">
-        <f>C105*I33</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <f>C105*J33</f>
-        <v>0</v>
-      </c>
-      <c r="K105" s="6">
-        <f>C105*K33</f>
-        <v>840</v>
-      </c>
-      <c r="L105" s="6">
-        <f>C105*L33</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="16">
-        <f>C105*M33</f>
-        <v>0</v>
-      </c>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="16">
-        <f t="shared" si="4"/>
-        <v>840</v>
-      </c>
-      <c r="Q105" s="6">
+      <c r="A105" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="8">
+        <f>C34*2</f>
+        <v>282</v>
+      </c>
+      <c r="D105" s="8">
+        <f>C105*D34</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="8">
+        <f>C105*E34</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="8">
+        <f>C105*F34</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="8">
+        <f>C105*G34</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="8">
+        <f>C105*H34</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="8">
+        <f>C105*I34</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="8">
+        <f>C105*J34</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="8">
+        <f>C105*K34</f>
+        <v>282</v>
+      </c>
+      <c r="L105" s="8">
+        <f>C105*L34</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="8">
+        <f>C105*M34</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="8"/>
+      <c r="O105" s="8"/>
+      <c r="P105" s="8">
+        <f t="shared" si="5"/>
+        <v>282</v>
+      </c>
+      <c r="Q105" s="8">
         <f>P105</f>
-        <v>840</v>
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C106" s="8">
-        <f t="shared" si="7"/>
-        <v>282</v>
-      </c>
-      <c r="D106" s="8">
-        <f>C106*D34</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="8">
-        <f>C106*E34</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="8">
-        <f>C106*F34</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="8">
-        <f>C106*G34</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="8">
-        <f>C106*H34</f>
-        <v>0</v>
-      </c>
-      <c r="I106" s="8">
-        <f>C106*I34</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="8">
-        <f>C106*J34</f>
-        <v>0</v>
-      </c>
-      <c r="K106" s="8">
-        <f>C106*K34</f>
-        <v>282</v>
-      </c>
-      <c r="L106" s="8">
-        <f>C106*L34</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="8">
-        <f>C106*M34</f>
-        <v>0</v>
-      </c>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
-      <c r="P106" s="8">
-        <f t="shared" si="4"/>
-        <v>282</v>
-      </c>
-      <c r="Q106" s="8">
+      <c r="A106" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C106" s="6">
+        <f>C35*2</f>
+        <v>160</v>
+      </c>
+      <c r="D106" s="6">
+        <f>C106*D35</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="6">
+        <f>C106*E35</f>
+        <v>160</v>
+      </c>
+      <c r="F106" s="6">
+        <f>C106*F35</f>
+        <v>160</v>
+      </c>
+      <c r="G106" s="6">
+        <f>C106*G35</f>
+        <v>320</v>
+      </c>
+      <c r="H106" s="6">
+        <f>C106*H35</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="6">
+        <f>C106*I35</f>
+        <v>480</v>
+      </c>
+      <c r="J106" s="6">
+        <f>C106*J35</f>
+        <v>160</v>
+      </c>
+      <c r="K106" s="6">
+        <f>C106*K35</f>
+        <v>160</v>
+      </c>
+      <c r="L106" s="6">
+        <f>C106*L35</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="15">
+        <f>C106*M35</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="6"/>
+      <c r="O106" s="6"/>
+      <c r="P106" s="15">
+        <f t="shared" si="5"/>
+        <v>1440</v>
+      </c>
+      <c r="Q106" s="6">
         <f>P106</f>
-        <v>282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C107" s="6">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="D107" s="6">
-        <f>C107*D35</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="6">
-        <f>C107*E35</f>
-        <v>160</v>
-      </c>
-      <c r="F107" s="6">
-        <f>C107*F35</f>
-        <v>160</v>
-      </c>
-      <c r="G107" s="6">
-        <f>C107*G35</f>
-        <v>320</v>
-      </c>
-      <c r="H107" s="6">
-        <f>C107*H35</f>
-        <v>0</v>
-      </c>
-      <c r="I107" s="6">
-        <f>C107*I35</f>
-        <v>480</v>
-      </c>
-      <c r="J107" s="6">
-        <f>C107*J35</f>
-        <v>160</v>
-      </c>
-      <c r="K107" s="6">
-        <f>C107*K35</f>
-        <v>160</v>
-      </c>
-      <c r="L107" s="6">
-        <f>C107*L35</f>
-        <v>0</v>
-      </c>
-      <c r="M107" s="16">
-        <f>C107*M35</f>
-        <v>0</v>
-      </c>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="16">
-        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-      <c r="Q107" s="6">
+    </row>
+    <row r="107" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="8">
+        <f>C36*2</f>
+        <v>1044</v>
+      </c>
+      <c r="D107" s="8">
+        <f>C107*D36</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="8">
+        <f>C107*E36</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="8">
+        <f>C107*F36</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="8">
+        <f>C107*G36</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="8">
+        <f>C107*H36</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="8">
+        <f>C107*I36</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="8">
+        <f>C107*J36</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="8">
+        <f>C107*K36</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="8">
+        <f>C107*L36</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="8">
+        <f>C107*M36</f>
+        <v>1044</v>
+      </c>
+      <c r="N107" s="8"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="8">
+        <f t="shared" si="5"/>
+        <v>1044</v>
+      </c>
+      <c r="Q107" s="8">
         <f>P107</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="8">
-        <f t="shared" si="7"/>
         <v>1044</v>
       </c>
-      <c r="D108" s="8">
-        <f>C108*D36</f>
-        <v>0</v>
-      </c>
-      <c r="E108" s="8">
-        <f>C108*E36</f>
-        <v>0</v>
-      </c>
-      <c r="F108" s="8">
-        <f>C108*F36</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="8">
-        <f>C108*G36</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="8">
-        <f>C108*H36</f>
-        <v>0</v>
-      </c>
-      <c r="I108" s="8">
-        <f>C108*I36</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="8">
-        <f>C108*J36</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="8">
-        <f>C108*K36</f>
-        <v>0</v>
-      </c>
-      <c r="L108" s="8">
-        <f>C108*L36</f>
-        <v>0</v>
-      </c>
-      <c r="M108" s="8">
-        <f>C108*M36</f>
-        <v>1044</v>
-      </c>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
-      <c r="P108" s="8">
-        <f t="shared" si="4"/>
-        <v>1044</v>
-      </c>
-      <c r="Q108" s="8">
-        <f>P108</f>
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
+    </row>
+    <row r="108" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B108" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C109" s="16">
-        <f t="shared" si="7"/>
+      <c r="C108" s="15">
+        <f>C37*2</f>
         <v>68</v>
       </c>
-      <c r="D109" s="16">
-        <f>C109*D37</f>
-        <v>0</v>
-      </c>
-      <c r="E109" s="16">
-        <f>C109*E37</f>
-        <v>0</v>
-      </c>
-      <c r="F109" s="16">
-        <f>C109*F37</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="16">
-        <f>C109*G37</f>
+      <c r="D108" s="15">
+        <f>C108*D37</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="15">
+        <f>C108*E37</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="15">
+        <f>C108*F37</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="15">
+        <f>C108*G37</f>
         <v>68</v>
       </c>
-      <c r="H109" s="16">
-        <f>C109*H37</f>
-        <v>0</v>
-      </c>
-      <c r="I109" s="16">
-        <f>C109*I37</f>
+      <c r="H108" s="15">
+        <f>C108*H37</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="15">
+        <f>C108*I37</f>
         <v>136</v>
       </c>
-      <c r="J109" s="16">
-        <f>C109*J37</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="16">
-        <f>C109*K37</f>
+      <c r="J108" s="15">
+        <f>C108*J37</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="15">
+        <f>C108*K37</f>
         <v>136</v>
       </c>
-      <c r="L109" s="16">
-        <f>C109*L37</f>
+      <c r="L108" s="15">
+        <f>C108*L37</f>
         <v>68</v>
       </c>
-      <c r="M109" s="16">
-        <f>C109*M37</f>
-        <v>0</v>
-      </c>
-      <c r="N109" s="16"/>
-      <c r="O109" s="16"/>
-      <c r="P109" s="16">
-        <f t="shared" si="4"/>
+      <c r="M108" s="15">
+        <f>C108*M37</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15">
+        <f t="shared" si="5"/>
         <v>408</v>
       </c>
-      <c r="Q109" s="16">
-        <f>SUM(P109:P110)</f>
+      <c r="Q108" s="15">
+        <f>SUM(P108:P109)</f>
         <v>498</v>
       </c>
     </row>
-    <row r="110" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+    <row r="109" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B109" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="16">
-        <f t="shared" si="7"/>
+      <c r="C109" s="15">
+        <f>C38*2</f>
         <v>90</v>
       </c>
-      <c r="D110" s="16">
-        <f>C110*D38</f>
-        <v>0</v>
-      </c>
-      <c r="E110" s="16">
-        <f>C110*E38</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="16">
-        <f>C110*F38</f>
+      <c r="D109" s="15">
+        <f>C109*D38</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="15">
+        <f>C109*E38</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="15">
+        <f>C109*F38</f>
         <v>90</v>
       </c>
-      <c r="G110" s="16">
-        <f>C110*G38</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="16">
-        <f>C110*H38</f>
-        <v>0</v>
-      </c>
-      <c r="I110" s="16">
-        <f>C110*I38</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="16">
-        <f>C110*J38</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="16">
-        <f>C110*K38</f>
-        <v>0</v>
-      </c>
-      <c r="L110" s="16">
-        <f>C110*L38</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="16">
-        <f>C110*M38</f>
-        <v>0</v>
-      </c>
-      <c r="N110" s="16"/>
-      <c r="O110" s="16"/>
-      <c r="P110" s="16">
-        <f t="shared" si="4"/>
+      <c r="G109" s="15">
+        <f>C109*G38</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="15">
+        <f>C109*H38</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="15">
+        <f>C109*I38</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="15">
+        <f>C109*J38</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="15">
+        <f>C109*K38</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="15">
+        <f>C109*L38</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="15">
+        <f>C109*M38</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15">
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="Q110" s="16"/>
-    </row>
-    <row r="111" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q109" s="15"/>
+    </row>
+    <row r="110" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="8">
+        <f>C39*2</f>
+        <v>264</v>
+      </c>
+      <c r="D110" s="8">
+        <f>C110*D39</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
+        <f>C110*E39</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
+        <f>C110*F39</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <f>C110*G39</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="8">
+        <f>C110*H39</f>
+        <v>264</v>
+      </c>
+      <c r="I110" s="8">
+        <f>C110*I39</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="8">
+        <f>C110*J39</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="8">
+        <f>C110*K39</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="8">
+        <f>C110*L39</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="8">
+        <f>C110*M39</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8">
+        <f t="shared" si="5"/>
+        <v>264</v>
+      </c>
+      <c r="Q110" s="8">
+        <f>SUM(P110:P112)</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C111" s="8">
-        <f t="shared" si="7"/>
-        <v>264</v>
+        <f>C40*2</f>
+        <v>262</v>
       </c>
       <c r="D111" s="8">
-        <f>C111*D39</f>
+        <f>C111*D40</f>
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f>C111*E39</f>
+        <f>C111*E40</f>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>C111*F39</f>
-        <v>0</v>
+        <f>C111*F40</f>
+        <v>262</v>
       </c>
       <c r="G111" s="8">
-        <f>C111*G39</f>
+        <f>C111*G40</f>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f>C111*H39</f>
-        <v>264</v>
+        <f>C111*H40</f>
+        <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f>C111*I39</f>
+        <f>C111*I40</f>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f>C111*J39</f>
+        <f>C111*J40</f>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f>C111*K39</f>
+        <f>C111*K40</f>
         <v>0</v>
       </c>
       <c r="L111" s="8">
-        <f>C111*L39</f>
+        <f>C111*L40</f>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f>C111*M39</f>
+        <f>C111*M40</f>
         <v>0</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="4"/>
-        <v>264</v>
-      </c>
-      <c r="Q111" s="8">
-        <f>SUM(P111:P113)</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="Q111" s="8"/>
+    </row>
+    <row r="112" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" s="8">
-        <f t="shared" si="7"/>
+        <f>C41*2</f>
         <v>262</v>
       </c>
       <c r="D112" s="8">
-        <f>C112*D40</f>
-        <v>0</v>
+        <f>C112*D41</f>
+        <v>262</v>
       </c>
       <c r="E112" s="8">
-        <f>C112*E40</f>
+        <f>C112*E41</f>
         <v>0</v>
       </c>
       <c r="F112" s="8">
-        <f>C112*F40</f>
+        <f>C112*F41</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="8">
+        <f>C112*G41</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="8">
+        <f>C112*H41</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="8">
+        <f>C112*I41</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="8">
+        <f>C112*J41</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="8">
+        <f>C112*K41</f>
         <v>262</v>
       </c>
-      <c r="G112" s="8">
-        <f>C112*G40</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="8">
-        <f>C112*H40</f>
-        <v>0</v>
-      </c>
-      <c r="I112" s="8">
-        <f>C112*I40</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="8">
-        <f>C112*J40</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="8">
-        <f>C112*K40</f>
-        <v>0</v>
-      </c>
       <c r="L112" s="8">
-        <f>C112*L40</f>
+        <f>C112*L41</f>
         <v>0</v>
       </c>
       <c r="M112" s="8">
-        <f>C112*M40</f>
+        <f>C112*M41</f>
         <v>0</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8">
-        <f t="shared" si="4"/>
-        <v>262</v>
+        <f t="shared" si="5"/>
+        <v>524</v>
       </c>
       <c r="Q112" s="8"/>
     </row>
-    <row r="113" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C113" s="8">
-        <f t="shared" si="7"/>
-        <v>262</v>
-      </c>
-      <c r="D113" s="8">
-        <f>C113*D41</f>
-        <v>262</v>
-      </c>
-      <c r="E113" s="8">
-        <f>C113*E41</f>
-        <v>0</v>
-      </c>
-      <c r="F113" s="8">
-        <f>C113*F41</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
-        <f>C113*G41</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="8">
-        <f>C113*H41</f>
-        <v>0</v>
-      </c>
-      <c r="I113" s="8">
-        <f>C113*I41</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="8">
-        <f>C113*J41</f>
-        <v>0</v>
-      </c>
-      <c r="K113" s="8">
-        <f>C113*K41</f>
-        <v>262</v>
-      </c>
-      <c r="L113" s="8">
-        <f>C113*L41</f>
-        <v>0</v>
-      </c>
-      <c r="M113" s="8">
-        <f>C113*M41</f>
-        <v>0</v>
-      </c>
-      <c r="N113" s="8"/>
-      <c r="O113" s="8"/>
-      <c r="P113" s="8">
-        <f t="shared" si="4"/>
-        <v>524</v>
-      </c>
-      <c r="Q113" s="8"/>
-    </row>
-    <row r="114" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16" t="s">
+    <row r="113" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B113" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C114" s="16">
-        <f t="shared" si="7"/>
+      <c r="C113" s="15">
+        <f>C42*2</f>
         <v>272</v>
       </c>
-      <c r="D114" s="16">
-        <f>C114*D42</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="16">
-        <f>C114*E42</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="16">
-        <f>C114*F42</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="16">
-        <f>C114*G42</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="16">
-        <f>C114*H42</f>
-        <v>0</v>
-      </c>
-      <c r="I114" s="16">
-        <f>C114*I42</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="16">
-        <f>C114*J42</f>
+      <c r="D113" s="15">
+        <f>C113*D42</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="15">
+        <f>C113*E42</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="15">
+        <f>C113*F42</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="15">
+        <f>C113*G42</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="15">
+        <f>C113*H42</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="15">
+        <f>C113*I42</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="15">
+        <f>C113*J42</f>
         <v>544</v>
       </c>
-      <c r="K114" s="16">
-        <f>C114*K42</f>
+      <c r="K113" s="15">
+        <f>C113*K42</f>
         <v>272</v>
       </c>
-      <c r="L114" s="16">
-        <f>C114*L42</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="16">
-        <f>C114*M42</f>
-        <v>0</v>
-      </c>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16">
-        <f t="shared" si="4"/>
+      <c r="L113" s="15">
+        <f>C113*L42</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="15">
+        <f>C113*M42</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="15">
+        <f t="shared" si="5"/>
         <v>816</v>
       </c>
-      <c r="Q114" s="16">
-        <f>P114</f>
+      <c r="Q113" s="15">
+        <f>P113</f>
         <v>816</v>
       </c>
     </row>
-    <row r="115" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C114" s="8">
+        <f>C43*2</f>
+        <v>266</v>
+      </c>
+      <c r="D114" s="8">
+        <f>C114*D43</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <f>C114*E43</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
+        <f>C114*F43</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <f>C114*G43</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <f>C114*H43</f>
+        <v>266</v>
+      </c>
+      <c r="I114" s="8">
+        <f>C114*I43</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="8">
+        <f>C114*J43</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="8">
+        <f>C114*K43</f>
+        <v>266</v>
+      </c>
+      <c r="L114" s="8">
+        <f>C114*L43</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="8">
+        <f>C114*M43</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8">
+        <f t="shared" si="5"/>
+        <v>532</v>
+      </c>
+      <c r="Q114" s="8">
+        <f>SUM(P114:P117)</f>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C115" s="8">
-        <f t="shared" si="7"/>
-        <v>266</v>
+        <f>C44*2</f>
+        <v>304</v>
       </c>
       <c r="D115" s="8">
-        <f>C115*D43</f>
+        <f>C115*D44</f>
         <v>0</v>
       </c>
       <c r="E115" s="8">
-        <f>C115*E43</f>
+        <f>C115*E44</f>
         <v>0</v>
       </c>
       <c r="F115" s="8">
-        <f>C115*F43</f>
+        <f>C115*F44</f>
         <v>0</v>
       </c>
       <c r="G115" s="8">
-        <f>C115*G43</f>
+        <f>C115*G44</f>
         <v>0</v>
       </c>
       <c r="H115" s="8">
-        <f>C115*H43</f>
-        <v>266</v>
+        <f>C115*H44</f>
+        <v>0</v>
       </c>
       <c r="I115" s="8">
-        <f>C115*I43</f>
+        <f>C115*I44</f>
         <v>0</v>
       </c>
       <c r="J115" s="8">
-        <f>C115*J43</f>
+        <f>C115*J44</f>
         <v>0</v>
       </c>
       <c r="K115" s="8">
-        <f>C115*K43</f>
-        <v>266</v>
+        <f>C115*K44</f>
+        <v>304</v>
       </c>
       <c r="L115" s="8">
-        <f>C115*L43</f>
+        <f>C115*L44</f>
         <v>0</v>
       </c>
       <c r="M115" s="8">
-        <f>C115*M43</f>
+        <f>C115*M44</f>
         <v>0</v>
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8">
-        <f t="shared" si="4"/>
-        <v>532</v>
-      </c>
-      <c r="Q115" s="8">
-        <f>SUM(P115:P118)</f>
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="Q115" s="8"/>
+    </row>
+    <row r="116" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C116" s="8">
-        <f t="shared" si="7"/>
-        <v>304</v>
+        <f>C45*2</f>
+        <v>254</v>
       </c>
       <c r="D116" s="8">
-        <f>C116*D44</f>
+        <f>C116*D45</f>
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f>C116*E44</f>
+        <f>C116*E45</f>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f>C116*F44</f>
+        <f>C116*F45</f>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f>C116*G44</f>
+        <f>C116*G45</f>
         <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f>C116*H44</f>
+        <f>C116*H45</f>
         <v>0</v>
       </c>
       <c r="I116" s="8">
-        <f>C116*I44</f>
-        <v>0</v>
+        <f>C116*I45</f>
+        <v>254</v>
       </c>
       <c r="J116" s="8">
-        <f>C116*J44</f>
+        <f>C116*J45</f>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f>C116*K44</f>
-        <v>304</v>
+        <f>C116*K45</f>
+        <v>0</v>
       </c>
       <c r="L116" s="8">
-        <f>C116*L44</f>
+        <f>C116*L45</f>
         <v>0</v>
       </c>
       <c r="M116" s="8">
-        <f>C116*M44</f>
+        <f>C116*M45</f>
         <v>0</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="4"/>
-        <v>304</v>
+        <f t="shared" si="5"/>
+        <v>254</v>
       </c>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" s="8">
-        <f t="shared" si="7"/>
-        <v>254</v>
+        <f>C46*2</f>
+        <v>306</v>
       </c>
       <c r="D117" s="8">
-        <f>C117*D45</f>
+        <f>C117*D46</f>
         <v>0</v>
       </c>
       <c r="E117" s="8">
-        <f>C117*E45</f>
+        <f>C117*E46</f>
         <v>0</v>
       </c>
       <c r="F117" s="8">
-        <f>C117*F45</f>
+        <f>C117*F46</f>
         <v>0</v>
       </c>
       <c r="G117" s="8">
-        <f>C117*G45</f>
+        <f>C117*G46</f>
         <v>0</v>
       </c>
       <c r="H117" s="8">
-        <f>C117*H45</f>
+        <f>C117*H46</f>
         <v>0</v>
       </c>
       <c r="I117" s="8">
-        <f>C117*I45</f>
-        <v>254</v>
+        <f>C117*I46</f>
+        <v>306</v>
       </c>
       <c r="J117" s="8">
-        <f>C117*J45</f>
+        <f>C117*J46</f>
         <v>0</v>
       </c>
       <c r="K117" s="8">
-        <f>C117*K45</f>
+        <f>C117*K46</f>
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <f>C117*L45</f>
+        <f>C117*L46</f>
         <v>0</v>
       </c>
       <c r="M117" s="8">
-        <f>C117*M45</f>
+        <f>C117*M46</f>
         <v>0</v>
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8">
-        <f t="shared" si="4"/>
-        <v>254</v>
+        <f t="shared" si="5"/>
+        <v>306</v>
       </c>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" spans="1:17" s="20" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="8">
-        <f t="shared" si="7"/>
-        <v>306</v>
-      </c>
-      <c r="D118" s="8">
-        <f>C118*D46</f>
-        <v>0</v>
-      </c>
-      <c r="E118" s="8">
-        <f>C118*E46</f>
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
-        <f>C118*F46</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
-        <f>C118*G46</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="8">
-        <f>C118*H46</f>
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <f>C118*I46</f>
-        <v>306</v>
-      </c>
-      <c r="J118" s="8">
-        <f>C118*J46</f>
-        <v>0</v>
-      </c>
-      <c r="K118" s="8">
-        <f>C118*K46</f>
-        <v>0</v>
-      </c>
-      <c r="L118" s="8">
-        <f>C118*L46</f>
-        <v>0</v>
-      </c>
-      <c r="M118" s="8">
-        <f>C118*M46</f>
-        <v>0</v>
-      </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
-      <c r="P118" s="8">
-        <f t="shared" si="4"/>
-        <v>306</v>
-      </c>
-      <c r="Q118" s="8"/>
-    </row>
-    <row r="119" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
+    <row r="118" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B118" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C119" s="16">
-        <f t="shared" si="7"/>
+      <c r="C118" s="15">
+        <f>C47*2</f>
         <v>124</v>
       </c>
-      <c r="D119" s="16">
-        <f>C119*D47</f>
-        <v>0</v>
-      </c>
-      <c r="E119" s="16">
-        <f>C119*E47</f>
+      <c r="D118" s="15">
+        <f>C118*D47</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="15">
+        <f>C118*E47</f>
         <v>124</v>
       </c>
-      <c r="F119" s="16">
-        <f>C119*F47</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="16">
-        <f>C119*G47</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="16">
-        <f>C119*H47</f>
+      <c r="F118" s="15">
+        <f>C118*F47</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="15">
+        <f>C118*G47</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="15">
+        <f>C118*H47</f>
         <v>124</v>
       </c>
-      <c r="I119" s="16">
-        <f>C119*I47</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="16">
-        <f>C119*J47</f>
+      <c r="I118" s="15">
+        <f>C118*I47</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="15">
+        <f>C118*J47</f>
         <v>248</v>
       </c>
-      <c r="K119" s="16">
-        <f>C119*K47</f>
-        <v>0</v>
-      </c>
-      <c r="L119" s="16">
-        <f>C119*L47</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="16">
-        <f>C119*M47</f>
-        <v>0</v>
-      </c>
-      <c r="N119" s="16"/>
-      <c r="O119" s="16"/>
-      <c r="P119" s="16">
-        <f t="shared" si="4"/>
+      <c r="K118" s="15">
+        <f>C118*K47</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="15">
+        <f>C118*L47</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="15">
+        <f>C118*M47</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15">
+        <f t="shared" si="5"/>
         <v>496</v>
       </c>
-      <c r="Q119" s="16">
-        <f>SUM(P119:P121)</f>
+      <c r="Q118" s="15">
+        <f>SUM(P118:P120)</f>
         <v>880</v>
       </c>
     </row>
-    <row r="120" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16" t="s">
+    <row r="119" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B119" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C120" s="16">
-        <f t="shared" si="7"/>
+      <c r="C119" s="15">
+        <f>C48*2</f>
         <v>130</v>
       </c>
-      <c r="D120" s="16">
-        <f>C120*D48</f>
-        <v>0</v>
-      </c>
-      <c r="E120" s="16">
-        <f>C120*E48</f>
-        <v>0</v>
-      </c>
-      <c r="F120" s="16">
-        <f>C120*F48</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="16">
-        <f>C120*G48</f>
+      <c r="D119" s="15">
+        <f>C119*D48</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="15">
+        <f>C119*E48</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="15">
+        <f>C119*F48</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="15">
+        <f>C119*G48</f>
         <v>260</v>
       </c>
-      <c r="H120" s="16">
-        <f>C120*H48</f>
-        <v>0</v>
-      </c>
-      <c r="I120" s="16">
-        <f>C120*I48</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="16">
-        <f>C120*J48</f>
-        <v>0</v>
-      </c>
-      <c r="K120" s="16">
-        <f>C120*K48</f>
-        <v>0</v>
-      </c>
-      <c r="L120" s="16">
-        <f>C120*L48</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="16">
-        <f>C120*M48</f>
-        <v>0</v>
-      </c>
-      <c r="N120" s="16"/>
-      <c r="O120" s="16"/>
-      <c r="P120" s="16">
-        <f t="shared" si="4"/>
+      <c r="H119" s="15">
+        <f>C119*H48</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="15">
+        <f>C119*I48</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="15">
+        <f>C119*J48</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="15">
+        <f>C119*K48</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="15">
+        <f>C119*L48</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="15">
+        <f>C119*M48</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="15"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="15">
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="Q120" s="16"/>
-    </row>
-    <row r="121" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16" t="s">
+      <c r="Q119" s="15"/>
+    </row>
+    <row r="120" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B120" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C121" s="16">
-        <f t="shared" si="7"/>
+      <c r="C120" s="15">
+        <f>C49*2</f>
         <v>124</v>
       </c>
-      <c r="D121" s="16">
-        <f>C121*D49</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="16">
-        <f>C121*E49</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="16">
-        <f>C121*F49</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="16">
-        <f>C121*G49</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="16">
-        <f>C121*H49</f>
-        <v>0</v>
-      </c>
-      <c r="I121" s="16">
-        <f>C121*I49</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="16">
-        <f>C121*J49</f>
-        <v>0</v>
-      </c>
-      <c r="K121" s="16">
-        <f>C121*K49</f>
+      <c r="D120" s="15">
+        <f>C120*D49</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="15">
+        <f>C120*E49</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="15">
+        <f>C120*F49</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="15">
+        <f>C120*G49</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="15">
+        <f>C120*H49</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="15">
+        <f>C120*I49</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="15">
+        <f>C120*J49</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="15">
+        <f>C120*K49</f>
         <v>124</v>
       </c>
-      <c r="L121" s="16">
-        <f>C121*L49</f>
-        <v>0</v>
-      </c>
-      <c r="M121" s="16">
-        <f>C121*M49</f>
-        <v>0</v>
-      </c>
-      <c r="N121" s="16"/>
-      <c r="O121" s="16"/>
-      <c r="P121" s="16">
-        <f t="shared" si="4"/>
+      <c r="L120" s="15">
+        <f>C120*L49</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="15">
+        <f>C120*M49</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="15"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="15">
+        <f t="shared" si="5"/>
         <v>124</v>
       </c>
-      <c r="Q121" s="16"/>
-    </row>
-    <row r="122" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q120" s="15"/>
+    </row>
+    <row r="121" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C121" s="8">
+        <f>C50*2</f>
+        <v>90</v>
+      </c>
+      <c r="D121" s="8">
+        <f>C121*D50</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="8">
+        <f>C121*E50</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
+        <f>C121*F50</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <f>C121*G50</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="8">
+        <f>C121*H50</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <f>C121*I50</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="8">
+        <f>C121*J50</f>
+        <v>90</v>
+      </c>
+      <c r="K121" s="8">
+        <f>C121*K50</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="8">
+        <f>C121*L50</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="8">
+        <f>C121*M50</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="8"/>
+      <c r="O121" s="8"/>
+      <c r="P121" s="8">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="Q121" s="8">
+        <f>SUM(P121:P123)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C122" s="8">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f>C51*2</f>
+        <v>106</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*D50</f>
-        <v>0</v>
+        <f>C122*D51</f>
+        <v>106</v>
       </c>
       <c r="E122" s="8">
-        <f>C122*E50</f>
+        <f>C122*E51</f>
         <v>0</v>
       </c>
       <c r="F122" s="8">
-        <f>C122*F50</f>
+        <f>C122*F51</f>
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f>C122*G50</f>
+        <f>C122*G51</f>
         <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f>C122*H50</f>
+        <f>C122*H51</f>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>C122*I50</f>
+        <f>C122*I51</f>
         <v>0</v>
       </c>
       <c r="J122" s="8">
-        <f>C122*J50</f>
-        <v>90</v>
+        <f>C122*J51</f>
+        <v>0</v>
       </c>
       <c r="K122" s="8">
-        <f>C122*K50</f>
+        <f>C122*K51</f>
         <v>0</v>
       </c>
       <c r="L122" s="8">
-        <f>C122*L50</f>
+        <f>C122*L51</f>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>C122*M50</f>
+        <f>C122*M51</f>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="Q122" s="8">
-        <f>SUM(P122:P124)</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="Q122" s="8"/>
+    </row>
+    <row r="123" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C123" s="8">
-        <f t="shared" si="7"/>
-        <v>106</v>
+        <f>C52*2</f>
+        <v>90</v>
       </c>
       <c r="D123" s="8">
-        <f>C123*D51</f>
-        <v>106</v>
+        <f>C123*D52</f>
+        <v>0</v>
       </c>
       <c r="E123" s="8">
-        <f>C123*E51</f>
-        <v>0</v>
+        <f>C123*E52</f>
+        <v>90</v>
       </c>
       <c r="F123" s="8">
-        <f>C123*F51</f>
+        <f>C123*F52</f>
         <v>0</v>
       </c>
       <c r="G123" s="8">
-        <f>C123*G51</f>
+        <f>C123*G52</f>
         <v>0</v>
       </c>
       <c r="H123" s="8">
-        <f>C123*H51</f>
+        <f>C123*H52</f>
         <v>0</v>
       </c>
       <c r="I123" s="8">
-        <f>C123*I51</f>
+        <f>C123*I52</f>
         <v>0</v>
       </c>
       <c r="J123" s="8">
-        <f>C123*J51</f>
+        <f>C123*J52</f>
         <v>0</v>
       </c>
       <c r="K123" s="8">
-        <f>C123*K51</f>
+        <f>C123*K52</f>
         <v>0</v>
       </c>
       <c r="L123" s="8">
-        <f>C123*L51</f>
+        <f>C123*L52</f>
         <v>0</v>
       </c>
       <c r="M123" s="8">
-        <f>C123*M51</f>
+        <f>C123*M52</f>
         <v>0</v>
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8">
-        <f t="shared" si="4"/>
-        <v>106</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="Q123" s="8"/>
     </row>
-    <row r="124" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C124" s="8">
-        <f t="shared" si="7"/>
+    <row r="124" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C124" s="15">
+        <f>C53*2</f>
+        <v>40</v>
+      </c>
+      <c r="D124" s="15">
+        <f>C124*D53</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="15">
+        <f>C124*E53</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="15">
+        <f>C124*F53</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="15">
+        <f>C124*G53</f>
+        <v>80</v>
+      </c>
+      <c r="H124" s="15">
+        <f>C124*H53</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="15">
+        <f>C124*I53</f>
+        <v>160</v>
+      </c>
+      <c r="J124" s="15">
+        <f>C124*J53</f>
+        <v>160</v>
+      </c>
+      <c r="K124" s="15">
+        <f>C124*K53</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="15">
+        <f>C124*L53</f>
+        <v>40</v>
+      </c>
+      <c r="M124" s="15">
+        <f>C124*M53</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+      <c r="Q124" s="15">
+        <f>SUM(P124:P126)</f>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C125" s="15">
+        <f>C54*2</f>
+        <v>34</v>
+      </c>
+      <c r="D125" s="15">
+        <f>C125*D54</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="15">
+        <f>C125*E54</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="15">
+        <f>C125*F54</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="15">
+        <f>C125*G54</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="15">
+        <f>C125*H54</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="15">
+        <f>C125*I54</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="15">
+        <f>C125*J54</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="15">
+        <f>C125*K54</f>
+        <v>136</v>
+      </c>
+      <c r="L125" s="15">
+        <f>C125*L54</f>
+        <v>68</v>
+      </c>
+      <c r="M125" s="15">
+        <f>C125*M54</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15">
+        <f t="shared" si="5"/>
+        <v>204</v>
+      </c>
+      <c r="Q125" s="15"/>
+    </row>
+    <row r="126" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="15">
+        <f>C55*2</f>
+        <v>34</v>
+      </c>
+      <c r="D126" s="15">
+        <v>0</v>
+      </c>
+      <c r="E126" s="15">
+        <v>0</v>
+      </c>
+      <c r="F126" s="15">
+        <v>0</v>
+      </c>
+      <c r="G126" s="15">
+        <v>0</v>
+      </c>
+      <c r="H126" s="15">
+        <v>0</v>
+      </c>
+      <c r="I126" s="15">
+        <v>0</v>
+      </c>
+      <c r="J126" s="15">
+        <v>0</v>
+      </c>
+      <c r="K126" s="15">
+        <v>0</v>
+      </c>
+      <c r="L126" s="15">
+        <f>C126*L55</f>
+        <v>34</v>
+      </c>
+      <c r="M126" s="15">
+        <f>C126*M55</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="15"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="15">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="Q126" s="15"/>
+    </row>
+    <row r="127" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" s="8">
+        <f>C56*2</f>
+        <v>248</v>
+      </c>
+      <c r="D127" s="8">
+        <f>C127*D56</f>
+        <v>248</v>
+      </c>
+      <c r="E127" s="8">
+        <f>C127*E56</f>
+        <v>248</v>
+      </c>
+      <c r="F127" s="8">
+        <f>C127*F56</f>
+        <v>248</v>
+      </c>
+      <c r="G127" s="8">
+        <f>C127*G56</f>
+        <v>496</v>
+      </c>
+      <c r="H127" s="8">
+        <f>C127*H56</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
+        <f>C127*I56</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="8">
+        <f>C127*J56</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="8">
+        <f>C127*K56</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="8">
+        <f>C127*L56</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="8">
+        <f>C127*M56</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8">
+        <f t="shared" si="5"/>
+        <v>1240</v>
+      </c>
+      <c r="Q127" s="8">
+        <f>SUM(P127)</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" s="15">
+        <f>C57*2</f>
+        <v>124</v>
+      </c>
+      <c r="D128" s="15">
+        <f>C128*D57</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="15">
+        <f>C128*E57</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="15">
+        <f>C128*F57</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="15">
+        <f>C128*G57</f>
+        <v>124</v>
+      </c>
+      <c r="H128" s="15">
+        <f>C128*H57</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="15">
+        <f>C128*I57</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="15">
+        <f>C128*J57</f>
+        <v>124</v>
+      </c>
+      <c r="K128" s="15">
+        <f>C128*K57</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="15">
+        <f>C128*L57</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="15">
+        <f>C128*M57</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="15"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="15">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="Q128" s="15">
+        <f>SUM(P128:P130)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="15">
+        <f>C58*2</f>
+        <v>118</v>
+      </c>
+      <c r="D129" s="15">
+        <f>C129*D58</f>
+        <v>118</v>
+      </c>
+      <c r="E129" s="15">
+        <f>C129*E58</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="15">
+        <f>C129*F58</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="15">
+        <f>C129*G58</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="15">
+        <f>C129*H58</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="15">
+        <f>C129*I58</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="15">
+        <f>C129*J58</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="15">
+        <f>C129*K58</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="15">
+        <f>C129*L58</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="15">
+        <f>C129*M58</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="15">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="Q129" s="15"/>
+    </row>
+    <row r="130" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" s="15">
+        <f>C59*2</f>
+        <v>116</v>
+      </c>
+      <c r="D130" s="15">
+        <f>C130*D59</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="15">
+        <f>C130*E59</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="15">
+        <f>C130*F59</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="15">
+        <f>C130*G59</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="15">
+        <f>C130*H59</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="15">
+        <f>C130*I59</f>
+        <v>116</v>
+      </c>
+      <c r="J130" s="15">
+        <f>C130*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="15">
+        <f>C130*K59</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="15">
+        <f>C130*L59</f>
+        <v>0</v>
+      </c>
+      <c r="M130" s="15">
+        <f>C130*M59</f>
+        <v>0</v>
+      </c>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="Q130" s="15"/>
+    </row>
+    <row r="131" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C131" s="8">
+        <f>C60*2</f>
+        <v>138</v>
+      </c>
+      <c r="D131" s="8">
+        <f>C131*D60</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="8">
+        <f>C131*E60</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
+        <f>C131*F60</f>
+        <v>138</v>
+      </c>
+      <c r="G131" s="8">
+        <f>C131*G60</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <f>C131*H60</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <f>C131*I60</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="8">
+        <f>C131*J60</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="8">
+        <f>C131*K60</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="8">
+        <f>C131*L60</f>
+        <v>0</v>
+      </c>
+      <c r="M131" s="8">
+        <f>C131*M60</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+      <c r="Q131" s="8">
+        <f>P131</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A135" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L135" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M135" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="9"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8">
+        <f>SUM(D73:D131)</f>
+        <v>750</v>
+      </c>
+      <c r="E136" s="8">
+        <f>SUM(E73:E131)</f>
+        <v>892</v>
+      </c>
+      <c r="F136" s="8">
+        <f>SUM(F73:F131)</f>
+        <v>1166</v>
+      </c>
+      <c r="G136" s="8">
+        <f>SUM(G73:G131)</f>
+        <v>1830</v>
+      </c>
+      <c r="H136" s="8">
+        <f>SUM(H73:H131)</f>
+        <v>802</v>
+      </c>
+      <c r="I136" s="8">
+        <f>SUM(I73:I131)</f>
+        <v>3046</v>
+      </c>
+      <c r="J136" s="8">
+        <f>SUM(J73:J131)</f>
+        <v>2704</v>
+      </c>
+      <c r="K136" s="8">
+        <f>SUM(K73:K131)</f>
+        <v>4664</v>
+      </c>
+      <c r="L136" s="8">
+        <f>SUM(L73:L131)</f>
+        <v>2514</v>
+      </c>
+      <c r="M136" s="8">
+        <f>SUM(M73:M131)</f>
+        <v>1792</v>
+      </c>
+      <c r="N136" s="8">
+        <f>SUM(D136:M136)</f>
+        <v>20160</v>
+      </c>
+      <c r="O136" s="16">
+        <f>N136/N62</f>
+        <v>150.44776119402985</v>
+      </c>
+      <c r="P136" s="8">
+        <f>SUM(P73:P131)</f>
+        <v>20160</v>
+      </c>
+      <c r="Q136" s="8">
+        <f>SUM(Q73:Q131)</f>
+        <v>20160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="17">
+        <f>D136/D62</f>
+        <v>150</v>
+      </c>
+      <c r="E137" s="17">
+        <f>E136/E62</f>
+        <v>89.2</v>
+      </c>
+      <c r="F137" s="17">
+        <f>F136/F62</f>
+        <v>116.6</v>
+      </c>
+      <c r="G137" s="17">
+        <f>G136/G62</f>
+        <v>114.375</v>
+      </c>
+      <c r="H137" s="17">
+        <f>H136/H62</f>
+        <v>160.4</v>
+      </c>
+      <c r="I137" s="17">
+        <f>I136/I62</f>
+        <v>138.45454545454547</v>
+      </c>
+      <c r="J137" s="17">
+        <f>J136/J62</f>
+        <v>142.31578947368422</v>
+      </c>
+      <c r="K137" s="17">
+        <f>K136/K62</f>
+        <v>172.74074074074073</v>
+      </c>
+      <c r="L137" s="17">
+        <f>L136/L62</f>
+        <v>167.6</v>
+      </c>
+      <c r="M137" s="17">
+        <f>M136/M62</f>
+        <v>358.4</v>
+      </c>
+      <c r="N137" s="17">
+        <f>N136/N62</f>
+        <v>150.44776119402985</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P137" s="6"/>
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D124" s="8">
-        <f>C124*D52</f>
-        <v>0</v>
-      </c>
-      <c r="E124" s="8">
-        <f>C124*E52</f>
-        <v>90</v>
-      </c>
-      <c r="F124" s="8">
-        <f>C124*F52</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
-        <f>C124*G52</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="8">
-        <f>C124*H52</f>
-        <v>0</v>
-      </c>
-      <c r="I124" s="8">
-        <f>C124*I52</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="8">
-        <f>C124*J52</f>
-        <v>0</v>
-      </c>
-      <c r="K124" s="8">
-        <f>C124*K52</f>
-        <v>0</v>
-      </c>
-      <c r="L124" s="8">
-        <f>C124*L52</f>
-        <v>0</v>
-      </c>
-      <c r="M124" s="8">
-        <f>C124*M52</f>
-        <v>0</v>
-      </c>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8">
-        <f t="shared" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="Q124" s="8"/>
-    </row>
-    <row r="125" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C125" s="16">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="D125" s="16">
-        <f>C125*D53</f>
-        <v>0</v>
-      </c>
-      <c r="E125" s="16">
-        <f>C125*E53</f>
-        <v>0</v>
-      </c>
-      <c r="F125" s="16">
-        <f>C125*F53</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="16">
-        <f>C125*G53</f>
-        <v>80</v>
-      </c>
-      <c r="H125" s="16">
-        <f>C125*H53</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="16">
-        <f>C125*I53</f>
-        <v>160</v>
-      </c>
-      <c r="J125" s="16">
-        <f>C125*J53</f>
-        <v>160</v>
-      </c>
-      <c r="K125" s="16">
-        <f>C125*K53</f>
-        <v>0</v>
-      </c>
-      <c r="L125" s="16">
-        <f>C125*L53</f>
-        <v>40</v>
-      </c>
-      <c r="M125" s="16">
-        <f>C125*M53</f>
-        <v>0</v>
-      </c>
-      <c r="N125" s="16"/>
-      <c r="O125" s="16"/>
-      <c r="P125" s="16">
-        <f t="shared" si="4"/>
-        <v>440</v>
-      </c>
-      <c r="Q125" s="16">
-        <f>SUM(P125:P127)</f>
-        <v>678</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C126" s="16">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="D126" s="16">
-        <f>C126*D54</f>
-        <v>0</v>
-      </c>
-      <c r="E126" s="16">
-        <f>C126*E54</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="16">
-        <f>C126*F54</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="16">
-        <f>C126*G54</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="16">
-        <f>C126*H54</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="16">
-        <f>C126*I54</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="16">
-        <f>C126*J54</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="16">
-        <f>C126*K54</f>
-        <v>136</v>
-      </c>
-      <c r="L126" s="16">
-        <f>C126*L54</f>
-        <v>68</v>
-      </c>
-      <c r="M126" s="16">
-        <f>C126*M54</f>
-        <v>0</v>
-      </c>
-      <c r="N126" s="16"/>
-      <c r="O126" s="16"/>
-      <c r="P126" s="16">
-        <f t="shared" si="4"/>
-        <v>204</v>
-      </c>
-      <c r="Q126" s="16"/>
-    </row>
-    <row r="127" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C127" s="16">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-      <c r="D127" s="16">
-        <v>0</v>
-      </c>
-      <c r="E127" s="16">
-        <v>0</v>
-      </c>
-      <c r="F127" s="16">
-        <v>0</v>
-      </c>
-      <c r="G127" s="16">
-        <v>0</v>
-      </c>
-      <c r="H127" s="16">
-        <v>0</v>
-      </c>
-      <c r="I127" s="16">
-        <v>0</v>
-      </c>
-      <c r="J127" s="16">
-        <v>0</v>
-      </c>
-      <c r="K127" s="16">
-        <v>0</v>
-      </c>
-      <c r="L127" s="16">
-        <f>C127*L55</f>
-        <v>34</v>
-      </c>
-      <c r="M127" s="16">
-        <f>C127*M55</f>
-        <v>0</v>
-      </c>
-      <c r="N127" s="16"/>
-      <c r="O127" s="16"/>
-      <c r="P127" s="16">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="Q127" s="16"/>
-    </row>
-    <row r="128" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" s="8">
-        <f t="shared" si="7"/>
-        <v>248</v>
-      </c>
-      <c r="D128" s="8">
-        <f>C128*D56</f>
-        <v>248</v>
-      </c>
-      <c r="E128" s="8">
-        <f>C128*E56</f>
-        <v>248</v>
-      </c>
-      <c r="F128" s="8">
-        <f>C128*F56</f>
-        <v>248</v>
-      </c>
-      <c r="G128" s="8">
-        <f>C128*G56</f>
-        <v>496</v>
-      </c>
-      <c r="H128" s="8">
-        <f>C128*H56</f>
-        <v>0</v>
-      </c>
-      <c r="I128" s="8">
-        <f>C128*I56</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="8">
-        <f>C128*J56</f>
-        <v>0</v>
-      </c>
-      <c r="K128" s="8">
-        <f>C128*K56</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="8">
-        <f>C128*L56</f>
-        <v>0</v>
-      </c>
-      <c r="M128" s="8">
-        <f>C128*M56</f>
-        <v>0</v>
-      </c>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8">
-        <f t="shared" si="4"/>
-        <v>1240</v>
-      </c>
-      <c r="Q128" s="8">
-        <f>SUM(P128)</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C129" s="16">
-        <f t="shared" si="7"/>
-        <v>124</v>
-      </c>
-      <c r="D129" s="16">
-        <f>C129*D57</f>
-        <v>0</v>
-      </c>
-      <c r="E129" s="16">
-        <f>C129*E57</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="16">
-        <f>C129*F57</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="16">
-        <f>C129*G57</f>
-        <v>124</v>
-      </c>
-      <c r="H129" s="16">
-        <f>C129*H57</f>
-        <v>0</v>
-      </c>
-      <c r="I129" s="16">
-        <f>C129*I57</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="16">
-        <f>C129*J57</f>
-        <v>124</v>
-      </c>
-      <c r="K129" s="16">
-        <f>C129*K57</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="16">
-        <f>C129*L57</f>
-        <v>0</v>
-      </c>
-      <c r="M129" s="16">
-        <f>C129*M57</f>
-        <v>0</v>
-      </c>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16">
-        <f t="shared" si="4"/>
-        <v>248</v>
-      </c>
-      <c r="Q129" s="16">
-        <f>SUM(P129:P131)</f>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C130" s="16">
-        <f t="shared" si="7"/>
-        <v>118</v>
-      </c>
-      <c r="D130" s="16">
-        <f>C130*D58</f>
-        <v>118</v>
-      </c>
-      <c r="E130" s="16">
-        <f>C130*E58</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="16">
-        <f>C130*F58</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="16">
-        <f>C130*G58</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="16">
-        <f>C130*H58</f>
-        <v>0</v>
-      </c>
-      <c r="I130" s="16">
-        <f>C130*I58</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="16">
-        <f>C130*J58</f>
-        <v>0</v>
-      </c>
-      <c r="K130" s="16">
-        <f>C130*K58</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="16">
-        <f>C130*L58</f>
-        <v>0</v>
-      </c>
-      <c r="M130" s="16">
-        <f>C130*M58</f>
-        <v>0</v>
-      </c>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16">
-        <f t="shared" si="4"/>
-        <v>118</v>
-      </c>
-      <c r="Q130" s="16"/>
-    </row>
-    <row r="131" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C131" s="16">
-        <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-      <c r="D131" s="16">
-        <f>C131*D59</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="16">
-        <f>C131*E59</f>
-        <v>0</v>
-      </c>
-      <c r="F131" s="16">
-        <f>C131*F59</f>
-        <v>0</v>
-      </c>
-      <c r="G131" s="16">
-        <f>C131*G59</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="16">
-        <f>C131*H59</f>
-        <v>0</v>
-      </c>
-      <c r="I131" s="16">
-        <f>C131*I59</f>
-        <v>116</v>
-      </c>
-      <c r="J131" s="16">
-        <f>C131*J59</f>
-        <v>0</v>
-      </c>
-      <c r="K131" s="16">
-        <f>C131*K59</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="16">
-        <f>C131*L59</f>
-        <v>0</v>
-      </c>
-      <c r="M131" s="16">
-        <f>C131*M59</f>
-        <v>0</v>
-      </c>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16">
-        <f t="shared" si="4"/>
-        <v>116</v>
-      </c>
-      <c r="Q131" s="16"/>
-    </row>
-    <row r="132" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C132" s="8">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-      <c r="D132" s="8">
-        <f>C132*D60</f>
-        <v>0</v>
-      </c>
-      <c r="E132" s="8">
-        <f>C132*E60</f>
-        <v>0</v>
-      </c>
-      <c r="F132" s="8">
-        <f>C132*F60</f>
-        <v>138</v>
-      </c>
-      <c r="G132" s="8">
-        <f>C132*G60</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="8">
-        <f>C132*H60</f>
-        <v>0</v>
-      </c>
-      <c r="I132" s="8">
-        <f>C132*I60</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="8">
-        <f>C132*J60</f>
-        <v>0</v>
-      </c>
-      <c r="K132" s="8">
-        <f>C132*K60</f>
-        <v>0</v>
-      </c>
-      <c r="L132" s="8">
-        <f>C132*L60</f>
-        <v>0</v>
-      </c>
-      <c r="M132" s="8">
-        <f>C132*M60</f>
-        <v>0</v>
-      </c>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8">
-        <f t="shared" si="4"/>
-        <v>138</v>
-      </c>
-      <c r="Q132" s="8">
-        <f>P132</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="P137" s="13">
-        <f>SUM(P74:P132)</f>
-        <v>20144</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D140" s="7" t="s">
+      <c r="C207" s="1"/>
+      <c r="D207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208">
         <v>3</v>
       </c>
-      <c r="E140" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" s="7" t="s">
+      <c r="D208">
+        <f>SUM(N2:N4)</f>
+        <v>10</v>
+      </c>
+      <c r="E208">
+        <f>SUM(P2:P4)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <f>N5</f>
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <f>P5</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <f>N6</f>
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <f>SUM(P6:P7)</f>
+        <v>838</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>22</v>
+      </c>
+      <c r="B211">
         <v>5</v>
       </c>
-      <c r="G140" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J140" s="7" t="s">
+      <c r="D211">
+        <f>SUM(N8:N14)</f>
         <v>9</v>
       </c>
-      <c r="K140" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L140" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M140" s="9"/>
-      <c r="N140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D141" s="8">
-        <f t="shared" ref="D141:L141" si="8">SUM(D74:D132)</f>
-        <v>750</v>
-      </c>
-      <c r="E141" s="8">
-        <f t="shared" si="8"/>
-        <v>892</v>
-      </c>
-      <c r="F141" s="8">
-        <f t="shared" si="8"/>
-        <v>1166</v>
-      </c>
-      <c r="G141" s="8">
-        <f t="shared" si="8"/>
-        <v>1830</v>
-      </c>
-      <c r="H141" s="8">
-        <f t="shared" si="8"/>
-        <v>802</v>
-      </c>
-      <c r="I141" s="8">
-        <f t="shared" si="8"/>
-        <v>3046</v>
-      </c>
-      <c r="J141" s="8">
-        <f t="shared" si="8"/>
-        <v>2704</v>
-      </c>
-      <c r="K141" s="8">
-        <f t="shared" si="8"/>
-        <v>4664</v>
-      </c>
-      <c r="L141" s="8">
-        <f t="shared" si="8"/>
-        <v>2884</v>
-      </c>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8">
-        <f>SUM(D141:L141)</f>
-        <v>18738</v>
-      </c>
-      <c r="O141" s="17">
-        <f>N141/N70</f>
-        <v>140.88721804511277</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D142" s="18">
-        <f>D141/D70</f>
-        <v>150</v>
-      </c>
-      <c r="E142" s="18">
-        <f t="shared" ref="E142:L142" si="9">E141/E70</f>
-        <v>89.2</v>
-      </c>
-      <c r="F142" s="18">
-        <f t="shared" si="9"/>
-        <v>116.6</v>
-      </c>
-      <c r="G142" s="18">
-        <f t="shared" si="9"/>
-        <v>114.375</v>
-      </c>
-      <c r="H142" s="18">
-        <f t="shared" si="9"/>
-        <v>160.4</v>
-      </c>
-      <c r="I142" s="18">
-        <f t="shared" si="9"/>
-        <v>138.45454545454547</v>
-      </c>
-      <c r="J142" s="18">
-        <f t="shared" si="9"/>
-        <v>142.31578947368422</v>
-      </c>
-      <c r="K142" s="18">
-        <f t="shared" si="9"/>
-        <v>172.74074074074073</v>
-      </c>
-      <c r="L142" s="18">
-        <f t="shared" si="9"/>
-        <v>180.25</v>
-      </c>
-      <c r="M142" s="6"/>
-      <c r="N142" s="18">
-        <f>N141/M70</f>
-        <v>144.13846153846154</v>
-      </c>
-      <c r="O142" s="6" t="s">
-        <v>97</v>
+      <c r="E211">
+        <f>SUM(P8:P14)</f>
+        <v>1734</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="A212" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <f>N14</f>
         <v>2</v>
+      </c>
+      <c r="E212">
+        <f>SUM(P14)</f>
+        <v>832</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B213">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D213">
-        <f>SUM(N2:N4)</f>
+        <f>SUM(N15:N19)</f>
         <v>9</v>
       </c>
       <c r="E213">
-        <f>SUM(P2:P4)</f>
-        <v>116</v>
+        <f>SUM(P15:P19)</f>
+        <v>906</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="D214">
-        <f>N5</f>
+        <f>N21</f>
         <v>1</v>
       </c>
       <c r="E214">
-        <f>P5</f>
-        <v>564</v>
+        <f>P21</f>
+        <v>726</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <f>N6</f>
-        <v>2</v>
+        <f>N24</f>
+        <v>1</v>
       </c>
       <c r="E215">
-        <f>SUM(P6:P7)</f>
-        <v>838</v>
+        <f>P24</f>
+        <v>516</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B216">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D216">
-        <f>SUM(N8:N14)</f>
-        <v>9</v>
+        <f>SUM(N25:N27)</f>
+        <v>8</v>
       </c>
       <c r="E216">
-        <f>SUM(P8:P14)</f>
-        <v>1734</v>
+        <f>SUM(P25:P27)</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D217">
-        <f>N14</f>
-        <v>2</v>
+        <f>SUM(N28:N32)</f>
+        <v>20</v>
       </c>
       <c r="E217">
-        <f>SUM(P14)</f>
-        <v>832</v>
+        <f>SUM(P28:P32)</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B218">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <f>SUM(N15:N19)</f>
-        <v>9</v>
+        <f>N33</f>
+        <v>1</v>
       </c>
       <c r="E218">
-        <f>SUM(P15:P19)</f>
-        <v>906</v>
+        <f>P33</f>
+        <v>840</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="D219">
-        <f>N21</f>
+        <f>N34</f>
         <v>1</v>
       </c>
       <c r="E219">
-        <f>P21</f>
-        <v>726</v>
+        <f>P34</f>
+        <v>282</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="D220">
-        <f>N24</f>
-        <v>1</v>
+        <f>N35</f>
+        <v>9</v>
       </c>
       <c r="E220">
-        <f>P24</f>
-        <v>516</v>
+        <f>P35</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <f>SUM(N25:N27)</f>
-        <v>8</v>
+        <f>SUM(N37:N38)</f>
+        <v>7</v>
       </c>
       <c r="E221">
-        <f>SUM(P25:P27)</f>
-        <v>1150</v>
+        <f>SUM(P37:P38)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B222">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D222">
-        <f>SUM(N28:N32)</f>
-        <v>20</v>
+        <f>SUM(N39:N41)</f>
+        <v>4</v>
       </c>
       <c r="E222">
-        <f>SUM(P28:P32)</f>
-        <v>1120</v>
+        <f>SUM(P39:P41)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
       <c r="D223">
-        <f>N33</f>
-        <v>1</v>
+        <f>SUM(N42)</f>
+        <v>3</v>
       </c>
       <c r="E223">
-        <f>P33</f>
-        <v>840</v>
+        <f>P42</f>
+        <v>816</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D224">
-        <f>N34</f>
-        <v>1</v>
+        <f>SUM(N43:N46)</f>
+        <v>5</v>
       </c>
       <c r="E224">
-        <f>P34</f>
-        <v>282</v>
+        <f>SUM(P43:P46)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D225">
-        <f>N35</f>
-        <v>9</v>
+        <f>SUM(N47:N49)</f>
+        <v>7</v>
       </c>
       <c r="E225">
-        <f>P35</f>
-        <v>1440</v>
+        <f>SUM(P47:P49)</f>
+        <v>880</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <f>SUM(N37:N38)</f>
-        <v>7</v>
+        <f>SUM(N50:N52)</f>
+        <v>3</v>
       </c>
       <c r="E226">
-        <f>SUM(P37:P38)</f>
-        <v>498</v>
+        <f>SUM(P50:P52)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <f>SUM(N39:N41)</f>
-        <v>4</v>
+        <f>SUM(N53:N54)</f>
+        <v>17</v>
       </c>
       <c r="E227">
-        <f>SUM(P39:P41)</f>
-        <v>1050</v>
+        <f>SUM(P53:P54)</f>
+        <v>644</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="D228">
-        <f>SUM(N42)</f>
-        <v>3</v>
+        <f>SUM(N56)</f>
+        <v>5</v>
       </c>
       <c r="E228">
-        <f>P42</f>
-        <v>816</v>
+        <f>P56</f>
+        <v>1240</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B229">
+        <v>3</v>
+      </c>
+      <c r="D229">
+        <f>SUM(N57:N59)</f>
         <v>4</v>
       </c>
-      <c r="D229">
-        <f>SUM(N43:N46)</f>
-        <v>5</v>
-      </c>
       <c r="E229">
-        <f>SUM(P43:P46)</f>
-        <v>1396</v>
+        <f>SUM(P57:P59)</f>
+        <v>482</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <f>SUM(N47:N49)</f>
-        <v>7</v>
+        <f>N60</f>
+        <v>1</v>
       </c>
       <c r="E230">
-        <f>SUM(P47:P49)</f>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
-        <v>74</v>
-      </c>
-      <c r="B231">
-        <v>3</v>
-      </c>
-      <c r="D231">
-        <f>SUM(N50:N52)</f>
-        <v>3</v>
-      </c>
-      <c r="E231">
-        <f>SUM(P50:P52)</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>78</v>
-      </c>
-      <c r="B232">
-        <v>2</v>
-      </c>
-      <c r="D232">
-        <f>SUM(N53:N54)</f>
-        <v>17</v>
-      </c>
-      <c r="E232">
-        <f>SUM(P53:P54)</f>
-        <v>644</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
-        <v>81</v>
-      </c>
-      <c r="B233">
-        <v>1</v>
-      </c>
-      <c r="D233">
-        <f>SUM(N56)</f>
-        <v>5</v>
-      </c>
-      <c r="E233">
-        <f>P56</f>
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
-        <v>83</v>
-      </c>
-      <c r="B234">
-        <v>3</v>
-      </c>
-      <c r="D234">
-        <f>SUM(N57:N59)</f>
-        <v>4</v>
-      </c>
-      <c r="E234">
-        <f>SUM(P57:P59)</f>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
-        <v>87</v>
-      </c>
-      <c r="B235">
-        <v>1</v>
-      </c>
-      <c r="D235">
-        <f>N60</f>
-        <v>1</v>
-      </c>
-      <c r="E235">
         <f>P60</f>
         <v>138</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1">
-        <f>SUM(B213:B235)</f>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1">
+        <f>SUM(B208:B230)</f>
         <v>53</v>
       </c>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1">
-        <f>SUM(D213:D235)</f>
-        <v>129</v>
-      </c>
-      <c r="E237" s="1">
-        <f>SUM(E213:E235)</f>
-        <v>18494</v>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1">
+        <f>SUM(D208:D230)</f>
+        <v>130</v>
+      </c>
+      <c r="E232" s="1">
+        <f>SUM(E208:E230)</f>
+        <v>18510</v>
       </c>
     </row>
   </sheetData>
@@ -7833,7 +7819,7 @@
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="6">
@@ -8170,7 +8156,7 @@
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="6">

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDF236-53B4-4A21-BF15-12321A36CC8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF720F3-7D8A-481E-965A-4C815E00050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="21876" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -867,7 +867,7 @@
   <dimension ref="A1:Q232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,19 +1110,19 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>278</v>
+        <v>417</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>556</v>
+        <v>834</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
@@ -3268,16 +3268,16 @@
       </c>
       <c r="M62" s="13">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N62" s="13">
         <f>SUM(D62:M62)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="7">
         <f>SUM(P2:P60)</f>
-        <v>20160</v>
+        <v>20438</v>
       </c>
       <c r="Q62" s="14">
         <f>SUM(Q2:Q60)</f>
@@ -3512,43 +3512,43 @@
         <v>16</v>
       </c>
       <c r="D73" s="8">
-        <f>C73*D2</f>
+        <f t="shared" ref="D73:D93" si="5">C73*D2</f>
         <v>0</v>
       </c>
       <c r="E73" s="8">
-        <f>C73*E2</f>
+        <f t="shared" ref="E73:E93" si="6">C73*E2</f>
         <v>0</v>
       </c>
       <c r="F73" s="8">
-        <f>C73*F2</f>
+        <f t="shared" ref="F73:F93" si="7">C73*F2</f>
         <v>0</v>
       </c>
       <c r="G73" s="8">
-        <f>C73*G2</f>
+        <f t="shared" ref="G73:G93" si="8">C73*G2</f>
         <v>0</v>
       </c>
       <c r="H73" s="8">
-        <f>C73*H2</f>
+        <f t="shared" ref="H73:H83" si="9">C73*H2</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>C73*I2</f>
+        <f t="shared" ref="I73:I93" si="10">C73*I2</f>
         <v>0</v>
       </c>
       <c r="J73" s="8">
-        <f>C73*J2</f>
+        <f t="shared" ref="J73:J93" si="11">C73*J2</f>
         <v>16</v>
       </c>
       <c r="K73" s="8">
-        <f>C73*K2</f>
+        <f t="shared" ref="K73:K93" si="12">C73*K2</f>
         <v>0</v>
       </c>
       <c r="L73" s="8">
-        <f>C73*L2</f>
+        <f t="shared" ref="L73:L104" si="13">C73*L2</f>
         <v>16</v>
       </c>
       <c r="M73" s="8">
-        <f>C73*M2</f>
+        <f t="shared" ref="M73:M104" si="14">C73*M2</f>
         <v>16</v>
       </c>
       <c r="N73" s="8"/>
@@ -3574,49 +3574,49 @@
         <v>2</v>
       </c>
       <c r="D74" s="8">
-        <f>C74*D3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f>C74*E3</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F74" s="8">
-        <f>C74*F3</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G74" s="8">
-        <f>C74*G3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f>C74*H3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f>C74*I3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f>C74*J3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K74" s="8">
-        <f>C74*K3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f>C74*L3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M74" s="8">
-        <f>C74*M3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8">
-        <f t="shared" ref="P74:P131" si="5">SUM(D74:M74)</f>
+        <f t="shared" ref="P74:P131" si="15">SUM(D74:M74)</f>
         <v>4</v>
       </c>
       <c r="Q74" s="8"/>
@@ -3633,49 +3633,49 @@
         <v>16</v>
       </c>
       <c r="D75" s="8">
-        <f>C75*D4</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E75" s="8">
-        <f>C75*E4</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="F75" s="8">
-        <f>C75*F4</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="G75" s="8">
-        <f>C75*G4</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H75" s="8">
-        <f>C75*H4</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I75" s="8">
-        <f>C75*I4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <f>C75*J4</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="8">
-        <f>C75*K4</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <f>C75*L4</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M75" s="8">
-        <f>C75*M4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q75" s="8"/>
@@ -3692,49 +3692,49 @@
         <v>564</v>
       </c>
       <c r="D76" s="6">
-        <f>C76*D5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E76" s="6">
-        <f>C76*E5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F76" s="6">
-        <f>C76*F5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G76" s="6">
-        <f>C76*G5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H76" s="6">
-        <f>C76*H5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I76" s="6">
-        <f>C76*I5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J76" s="6">
-        <f>C76*J5</f>
+        <f t="shared" si="11"/>
         <v>564</v>
       </c>
       <c r="K76" s="6">
-        <f>C76*K5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L76" s="6">
-        <f>C76*L5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="15">
-        <f>C76*M5</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>564</v>
       </c>
       <c r="Q76" s="6">
@@ -3754,54 +3754,54 @@
         <v>278</v>
       </c>
       <c r="D77" s="8">
-        <f>C77*D6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E77" s="8">
-        <f>C77*E6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F77" s="8">
-        <f>C77*F6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G77" s="8">
-        <f>C77*G6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <f>C77*H6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I77" s="8">
-        <f>C77*I6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <f>C77*J6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K77" s="8">
-        <f>C77*K6</f>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="L77" s="8">
-        <f>C77*L6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M77" s="8">
-        <f>C77*M6</f>
-        <v>278</v>
+        <f t="shared" si="14"/>
+        <v>556</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
-        <f t="shared" si="5"/>
-        <v>556</v>
+        <f t="shared" si="15"/>
+        <v>834</v>
       </c>
       <c r="Q77" s="8">
         <f>SUM(P77:P78)</f>
-        <v>838</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3816,49 +3816,49 @@
         <v>282</v>
       </c>
       <c r="D78" s="8">
-        <f>C78*D7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E78" s="8">
-        <f>C78*E7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="8">
-        <f>C78*F7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f>C78*G7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f>C78*H7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>C78*I7</f>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="J78" s="8">
-        <f>C78*J7</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f>C78*K7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L78" s="8">
-        <f>C78*L7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f>C78*M7</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q78" s="8"/>
@@ -3875,49 +3875,49 @@
         <v>66</v>
       </c>
       <c r="D79" s="6">
-        <f>C79*D8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E79" s="6">
-        <f>C79*E8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <f>C79*F8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <f>C79*G8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H79" s="6">
-        <f>C79*H8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I79" s="6">
-        <f>C79*I8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <f>C79*J8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K79" s="6">
-        <f>C79*K8</f>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="L79" s="6">
-        <f>C79*L8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M79" s="15">
-        <f>C79*M8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="Q79" s="6">
@@ -3937,49 +3937,49 @@
         <v>92</v>
       </c>
       <c r="D80" s="6">
-        <f>C80*D9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E80" s="6">
-        <f>C80*E9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <f>C80*F9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G80" s="6">
-        <f>C80*G9</f>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="H80" s="6">
-        <f>C80*H9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I80" s="6">
-        <f>C80*I9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J80" s="6">
-        <f>C80*J9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K80" s="6">
-        <f>C80*K9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L80" s="6">
-        <f>C80*L9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M80" s="15">
-        <f>C80*M9</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q80" s="6"/>
@@ -3996,49 +3996,49 @@
         <v>84</v>
       </c>
       <c r="D81" s="6">
-        <f>C81*D10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E81" s="6">
-        <f>C81*E10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f>C81*F10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f>C81*G10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H81" s="6">
-        <f>C81*H10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <f>C81*I10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>C81*J10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>C81*K10</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="L81" s="6">
-        <f>C81*L10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M81" s="15">
-        <f>C81*M10</f>
+        <f t="shared" si="14"/>
         <v>84</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>168</v>
       </c>
       <c r="Q81" s="6"/>
@@ -4055,49 +4055,49 @@
         <v>120</v>
       </c>
       <c r="D82" s="6">
-        <f>C82*D11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f>C82*E11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f>C82*F11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f>C82*G11</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="H82" s="6">
-        <f>C82*H11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>C82*I11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>C82*J11</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>C82*K11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L82" s="6">
-        <f>C82*L11</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M82" s="15">
-        <f>C82*M11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="Q82" s="6"/>
@@ -4114,49 +4114,49 @@
         <v>86</v>
       </c>
       <c r="D83" s="6">
-        <f>C83*D12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f>C83*E12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f>C83*F12</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="G83" s="6">
-        <f>C83*G12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H83" s="6">
-        <f>C83*H12</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>C83*I12</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>C83*J12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>C83*K12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f>C83*L12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M83" s="15">
-        <f>C83*M12</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="Q83" s="6"/>
@@ -4169,23 +4169,23 @@
         <v>29</v>
       </c>
       <c r="C84" s="8">
-        <f>C13*2</f>
+        <f t="shared" ref="C84:C93" si="16">C13*2</f>
         <v>370</v>
       </c>
       <c r="D84" s="8">
-        <f>C84*D13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E84" s="8">
-        <f>C84*E13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="8">
-        <f>C84*F13</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G84" s="8">
-        <f>C84*G13</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H84" s="8">
@@ -4193,29 +4193,29 @@
         <v>0</v>
       </c>
       <c r="I84" s="8">
-        <f>C84*I13</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J84" s="8">
-        <f>C84*J13</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="8">
-        <f>C84*K13</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L84" s="8">
-        <f>C84*L13</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M84" s="8">
-        <f>C84*M13</f>
+        <f t="shared" si="14"/>
         <v>370</v>
       </c>
       <c r="N84" s="8"/>
       <c r="O84" s="8"/>
       <c r="P84" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
       <c r="Q84" s="8">
@@ -4231,23 +4231,23 @@
         <v>29</v>
       </c>
       <c r="C85" s="8">
-        <f>C14*2</f>
+        <f t="shared" si="16"/>
         <v>416</v>
       </c>
       <c r="D85" s="8">
-        <f>C85*D14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E85" s="8">
-        <f>C85*E14</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="8">
-        <f>C85*F14</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G85" s="8">
-        <f>C85*G14</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H85" s="8">
@@ -4255,29 +4255,29 @@
         <v>0</v>
       </c>
       <c r="I85" s="8">
-        <f>C85*I14</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J85" s="8">
-        <f>C85*J14</f>
+        <f t="shared" si="11"/>
         <v>416</v>
       </c>
       <c r="K85" s="8">
-        <f>C85*K14</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L85" s="8">
-        <f>C85*L14</f>
+        <f t="shared" si="13"/>
         <v>416</v>
       </c>
       <c r="M85" s="8">
-        <f>C85*M14</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>832</v>
       </c>
       <c r="Q85" s="8"/>
@@ -4290,53 +4290,53 @@
         <v>31</v>
       </c>
       <c r="C86" s="6">
-        <f>C15*2</f>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="D86" s="6">
-        <f>C86*D15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E86" s="6">
-        <f>C86*E15</f>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="F86" s="6">
-        <f>C86*F15</f>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="G86" s="6">
-        <f>C86*G15</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H86" s="6">
-        <f>C86*H15</f>
+        <f t="shared" ref="H86:H93" si="17">C86*H15</f>
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <f>C86*I15</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f>C86*J15</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K86" s="6">
-        <f>C86*K15</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f>C86*L15</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M86" s="15">
-        <f>C86*M15</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="Q86" s="6">
@@ -4352,53 +4352,53 @@
         <v>32</v>
       </c>
       <c r="C87" s="6">
-        <f>C16*2</f>
+        <f t="shared" si="16"/>
         <v>108</v>
       </c>
       <c r="D87" s="6">
-        <f>C87*D16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E87" s="6">
-        <f>C87*E16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F87" s="6">
-        <f>C87*F16</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G87" s="6">
-        <f>C87*G16</f>
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
       <c r="H87" s="6">
-        <f>C87*H16</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I87" s="6">
-        <f>C87*I16</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J87" s="6">
-        <f>C87*J16</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K87" s="6">
-        <f>C87*K16</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L87" s="6">
-        <f>C87*L16</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M87" s="15">
-        <f>C87*M16</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="Q87" s="6"/>
@@ -4411,53 +4411,53 @@
         <v>33</v>
       </c>
       <c r="C88" s="6">
-        <f>C17*2</f>
+        <f t="shared" si="16"/>
         <v>110</v>
       </c>
       <c r="D88" s="6">
-        <f>C88*D17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E88" s="6">
-        <f>C88*E17</f>
+        <f t="shared" si="6"/>
         <v>110</v>
       </c>
       <c r="F88" s="6">
-        <f>C88*F17</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G88" s="6">
-        <f>C88*G17</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H88" s="6">
-        <f>C88*H17</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I88" s="6">
-        <f>C88*I17</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J88" s="6">
-        <f>C88*J17</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K88" s="6">
-        <f>C88*K17</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L88" s="6">
-        <f>C88*L17</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M88" s="15">
-        <f>C88*M17</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="Q88" s="6"/>
@@ -4470,53 +4470,53 @@
         <v>34</v>
       </c>
       <c r="C89" s="6">
-        <f>C18*2</f>
+        <f t="shared" si="16"/>
         <v>92</v>
       </c>
       <c r="D89" s="6">
-        <f>C89*D18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E89" s="6">
-        <f>C89*E18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F89" s="6">
-        <f>C89*F18</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G89" s="6">
-        <f>C89*G18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H89" s="6">
-        <f>C89*H18</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I89" s="6">
-        <f>C89*I18</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J89" s="6">
-        <f>C89*J18</f>
+        <f t="shared" si="11"/>
         <v>92</v>
       </c>
       <c r="K89" s="6">
-        <f>C89*K18</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L89" s="6">
-        <f>C89*L18</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M89" s="15">
-        <f>C89*M18</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q89" s="6"/>
@@ -4529,53 +4529,53 @@
         <v>35</v>
       </c>
       <c r="C90" s="6">
-        <f>C19*2</f>
+        <f t="shared" si="16"/>
         <v>94</v>
       </c>
       <c r="D90" s="6">
-        <f>C90*D19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E90" s="6">
-        <f>C90*E19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F90" s="6">
-        <f>C90*F19</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G90" s="6">
-        <f>C90*G19</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H90" s="6">
-        <f>C90*H19</f>
+        <f t="shared" si="17"/>
         <v>94</v>
       </c>
       <c r="I90" s="6">
-        <f>C90*I19</f>
+        <f t="shared" si="10"/>
         <v>188</v>
       </c>
       <c r="J90" s="6">
-        <f>C90*J19</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K90" s="6">
-        <f>C90*K19</f>
+        <f t="shared" si="12"/>
         <v>94</v>
       </c>
       <c r="L90" s="6">
-        <f>C90*L19</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M90" s="15">
-        <f>C90*M19</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>376</v>
       </c>
       <c r="Q90" s="6"/>
@@ -4588,53 +4588,53 @@
         <v>101</v>
       </c>
       <c r="C91" s="8">
-        <f>C20*2</f>
+        <f t="shared" si="16"/>
         <v>800</v>
       </c>
       <c r="D91" s="8">
-        <f>C91*D20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f>C91*E20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F91" s="8">
-        <f>C91*F20</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <f>C91*G20</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H91" s="8">
-        <f>C91*H20</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I91" s="8">
-        <f>C91*I20</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f>C91*J20</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K91" s="8">
-        <f>C91*K20</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f>C91*L20</f>
+        <f t="shared" si="13"/>
         <v>800</v>
       </c>
       <c r="M91" s="8">
-        <f>C91*M20</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="Q91" s="8">
@@ -4650,53 +4650,53 @@
         <v>37</v>
       </c>
       <c r="C92" s="6">
-        <f>C21*2</f>
+        <f t="shared" si="16"/>
         <v>726</v>
       </c>
       <c r="D92" s="6">
-        <f>C92*D21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E92" s="6">
-        <f>C92*E21</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F92" s="6">
-        <f>C92*F21</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G92" s="6">
-        <f>C92*G21</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H92" s="6">
-        <f>C92*H21</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I92" s="6">
-        <f>C92*I21</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J92" s="6">
-        <f>C92*J21</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K92" s="6">
-        <f>C92*K21</f>
+        <f t="shared" si="12"/>
         <v>726</v>
       </c>
       <c r="L92" s="6">
-        <f>C92*L21</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M92" s="15">
-        <f>C92*M21</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>726</v>
       </c>
       <c r="Q92" s="6">
@@ -4712,53 +4712,53 @@
         <v>95</v>
       </c>
       <c r="C93" s="8">
-        <f>C22*2</f>
+        <f t="shared" si="16"/>
         <v>186</v>
       </c>
       <c r="D93" s="8">
-        <f>C93*D22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E93" s="8">
-        <f>C93*E22</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F93" s="8">
-        <f>C93*F22</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G93" s="8">
-        <f>C93*G22</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H93" s="8">
-        <f>C93*H22</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I93" s="8">
-        <f>C93*I22</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J93" s="8">
-        <f>C93*J22</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K93" s="8">
-        <f>C93*K22</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L93" s="8">
-        <f>C93*L22</f>
+        <f t="shared" si="13"/>
         <v>186</v>
       </c>
       <c r="M93" s="8">
-        <f>C93*M22</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>186</v>
       </c>
       <c r="Q93" s="8">
@@ -4778,49 +4778,49 @@
         <v>418</v>
       </c>
       <c r="D94" s="6">
-        <f>C94*D24</f>
+        <f t="shared" ref="D94:K94" si="18">C94*D24</f>
         <v>0</v>
       </c>
       <c r="E94" s="6">
-        <f>D94*E24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F94" s="6">
-        <f>E94*F24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G94" s="6">
-        <f>F94*G24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H94" s="6">
-        <f>G94*H24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I94" s="6">
-        <f>H94*I24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J94" s="6">
-        <f>I94*J24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K94" s="6">
-        <f>J94*K24</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="L94" s="15">
-        <f>C94*L23</f>
+        <f t="shared" si="13"/>
         <v>418</v>
       </c>
       <c r="M94" s="15">
-        <f>C94*M23</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>418</v>
       </c>
       <c r="Q94" s="6">
@@ -4836,53 +4836,53 @@
         <v>39</v>
       </c>
       <c r="C95" s="8">
-        <f>C24*2</f>
+        <f t="shared" ref="C95:C131" si="19">C24*2</f>
         <v>516</v>
       </c>
       <c r="D95" s="8">
-        <f>C95*D24</f>
+        <f t="shared" ref="D95:D125" si="20">C95*D24</f>
         <v>0</v>
       </c>
       <c r="E95" s="8">
-        <f>C95*E24</f>
+        <f t="shared" ref="E95:E125" si="21">C95*E24</f>
         <v>0</v>
       </c>
       <c r="F95" s="8">
-        <f>C95*F24</f>
+        <f t="shared" ref="F95:F125" si="22">C95*F24</f>
         <v>0</v>
       </c>
       <c r="G95" s="8">
-        <f>C95*G24</f>
+        <f t="shared" ref="G95:G125" si="23">C95*G24</f>
         <v>0</v>
       </c>
       <c r="H95" s="8">
-        <f>C95*H24</f>
+        <f t="shared" ref="H95:H125" si="24">C95*H24</f>
         <v>0</v>
       </c>
       <c r="I95" s="8">
-        <f>C95*I24</f>
+        <f t="shared" ref="I95:I125" si="25">C95*I24</f>
         <v>516</v>
       </c>
       <c r="J95" s="8">
-        <f>C95*J24</f>
+        <f t="shared" ref="J95:J125" si="26">C95*J24</f>
         <v>0</v>
       </c>
       <c r="K95" s="8">
-        <f>C95*K24</f>
+        <f t="shared" ref="K95:K125" si="27">C95*K24</f>
         <v>0</v>
       </c>
       <c r="L95" s="8">
-        <f>C95*L24</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M95" s="8">
-        <f>C95*M24</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>516</v>
       </c>
       <c r="Q95" s="8">
@@ -4898,53 +4898,53 @@
         <v>41</v>
       </c>
       <c r="C96" s="6">
-        <f>C25*2</f>
+        <f t="shared" si="19"/>
         <v>158</v>
       </c>
       <c r="D96" s="6">
-        <f>C96*D25</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E96" s="6">
-        <f>C96*E25</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F96" s="6">
-        <f>C96*F25</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G96" s="6">
-        <f>C96*G25</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H96" s="6">
-        <f>C96*H25</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I96" s="6">
-        <f>C96*I25</f>
+        <f t="shared" si="25"/>
         <v>158</v>
       </c>
       <c r="J96" s="6">
-        <f>C96*J25</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K96" s="6">
-        <f>C96*K25</f>
+        <f t="shared" si="27"/>
         <v>158</v>
       </c>
       <c r="L96" s="6">
-        <f>C96*L25</f>
+        <f t="shared" si="13"/>
         <v>158</v>
       </c>
       <c r="M96" s="15">
-        <f>C96*M25</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="Q96" s="6">
@@ -4960,53 +4960,53 @@
         <v>42</v>
       </c>
       <c r="C97" s="6">
-        <f>C26*2</f>
+        <f t="shared" si="19"/>
         <v>140</v>
       </c>
       <c r="D97" s="6">
-        <f>C97*D26</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E97" s="6">
-        <f>C97*E26</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <f>C97*F26</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G97" s="6">
-        <f>C97*G26</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H97" s="6">
-        <f>C97*H26</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I97" s="6">
-        <f>C97*I26</f>
+        <f t="shared" si="25"/>
         <v>280</v>
       </c>
       <c r="J97" s="6">
-        <f>C97*J26</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K97" s="6">
-        <f>C97*K26</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L97" s="6">
-        <f>C97*L26</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M97" s="15">
-        <f>C97*M26</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="Q97" s="6"/>
@@ -5019,53 +5019,53 @@
         <v>43</v>
       </c>
       <c r="C98" s="6">
-        <f>C27*2</f>
+        <f t="shared" si="19"/>
         <v>132</v>
       </c>
       <c r="D98" s="6">
-        <f>C98*D27</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E98" s="6">
-        <f>C98*E27</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F98" s="6">
-        <f>C98*F27</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G98" s="6">
-        <f>C98*G27</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H98" s="6">
-        <f>C98*H27</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I98" s="6">
-        <f>C98*I27</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J98" s="6">
-        <f>C98*J27</f>
+        <f t="shared" si="26"/>
         <v>132</v>
       </c>
       <c r="K98" s="6">
-        <f>C98*K27</f>
+        <f t="shared" si="27"/>
         <v>132</v>
       </c>
       <c r="L98" s="6">
-        <f>C98*L27</f>
+        <f t="shared" si="13"/>
         <v>132</v>
       </c>
       <c r="M98" s="15">
-        <f>C98*M27</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>396</v>
       </c>
       <c r="Q98" s="6"/>
@@ -5078,53 +5078,53 @@
         <v>45</v>
       </c>
       <c r="C99" s="8">
-        <f>C28*2</f>
+        <f t="shared" si="19"/>
         <v>50</v>
       </c>
       <c r="D99" s="8">
-        <f>C99*D28</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E99" s="8">
-        <f>C99*E28</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F99" s="8">
-        <f>C99*F28</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <f>C99*G28</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H99" s="8">
-        <f>C99*H28</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I99" s="8">
-        <f>C99*I28</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J99" s="8">
-        <f>C99*J28</f>
+        <f t="shared" si="26"/>
         <v>50</v>
       </c>
       <c r="K99" s="8">
-        <f>C99*K28</f>
+        <f t="shared" si="27"/>
         <v>50</v>
       </c>
       <c r="L99" s="8">
-        <f>C99*L28</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
-        <f>C99*M28</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="Q99" s="8">
@@ -5140,53 +5140,53 @@
         <v>46</v>
       </c>
       <c r="C100" s="8">
-        <f>C29*2</f>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
       <c r="D100" s="8">
-        <f>C100*D29</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E100" s="8">
-        <f>C100*E29</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F100" s="8">
-        <f>C100*F29</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G100" s="8">
-        <f>C100*G29</f>
+        <f t="shared" si="23"/>
         <v>54</v>
       </c>
       <c r="H100" s="8">
-        <f>C100*H29</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I100" s="8">
-        <f>C100*I29</f>
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
       <c r="J100" s="8">
-        <f>C100*J29</f>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="K100" s="8">
-        <f>C100*K29</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L100" s="8">
-        <f>C100*L29</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M100" s="8">
-        <f>C100*M29</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
       <c r="P100" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="Q100" s="8"/>
@@ -5199,53 +5199,53 @@
         <v>47</v>
       </c>
       <c r="C101" s="8">
-        <f>C30*2</f>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
       <c r="D101" s="8">
-        <f>C101*D30</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E101" s="8">
-        <f>C101*E30</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F101" s="8">
-        <f>C101*F30</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G101" s="8">
-        <f>C101*G30</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H101" s="8">
-        <f>C101*H30</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I101" s="8">
-        <f>C101*I30</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J101" s="8">
-        <f>C101*J30</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K101" s="8">
-        <f>C101*K30</f>
+        <f t="shared" si="27"/>
         <v>54</v>
       </c>
       <c r="L101" s="8">
-        <f>C101*L30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M101" s="8">
-        <f>C101*M30</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="Q101" s="8"/>
@@ -5258,53 +5258,53 @@
         <v>48</v>
       </c>
       <c r="C102" s="8">
-        <f>C31*2</f>
+        <f t="shared" si="19"/>
         <v>54</v>
       </c>
       <c r="D102" s="8">
-        <f>C102*D31</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E102" s="8">
-        <f>C102*E31</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F102" s="8">
-        <f>C102*F31</f>
+        <f t="shared" si="22"/>
         <v>54</v>
       </c>
       <c r="G102" s="8">
-        <f>C102*G31</f>
+        <f t="shared" si="23"/>
         <v>108</v>
       </c>
       <c r="H102" s="8">
-        <f>C102*H31</f>
+        <f t="shared" si="24"/>
         <v>54</v>
       </c>
       <c r="I102" s="8">
-        <f>C102*I31</f>
+        <f t="shared" si="25"/>
         <v>54</v>
       </c>
       <c r="J102" s="8">
-        <f>C102*J31</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K102" s="8">
-        <f>C102*K31</f>
+        <f t="shared" si="27"/>
         <v>54</v>
       </c>
       <c r="L102" s="8">
-        <f>C102*L31</f>
+        <f t="shared" si="13"/>
         <v>54</v>
       </c>
       <c r="M102" s="8">
-        <f>C102*M31</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="Q102" s="8"/>
@@ -5317,53 +5317,53 @@
         <v>49</v>
       </c>
       <c r="C103" s="8">
-        <f>C32*2</f>
+        <f t="shared" si="19"/>
         <v>62</v>
       </c>
       <c r="D103" s="8">
-        <f>C103*D32</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E103" s="8">
-        <f>C103*E32</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F103" s="8">
-        <f>C103*F32</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G103" s="8">
-        <f>C103*G32</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H103" s="8">
-        <f>C103*H32</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I103" s="8">
-        <f>C103*I32</f>
+        <f t="shared" si="25"/>
         <v>62</v>
       </c>
       <c r="J103" s="8">
-        <f>C103*J32</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K103" s="8">
-        <f>C103*K32</f>
+        <f t="shared" si="27"/>
         <v>186</v>
       </c>
       <c r="L103" s="8">
-        <f>C103*L32</f>
+        <f t="shared" si="13"/>
         <v>124</v>
       </c>
       <c r="M103" s="8">
-        <f>C103*M32</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>372</v>
       </c>
       <c r="Q103" s="8"/>
@@ -5376,53 +5376,53 @@
         <v>51</v>
       </c>
       <c r="C104" s="6">
-        <f>C33*2</f>
+        <f t="shared" si="19"/>
         <v>840</v>
       </c>
       <c r="D104" s="6">
-        <f>C104*D33</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E104" s="6">
-        <f>C104*E33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F104" s="6">
-        <f>C104*F33</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G104" s="6">
-        <f>C104*G33</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H104" s="6">
-        <f>C104*H33</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I104" s="6">
-        <f>C104*I33</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J104" s="6">
-        <f>C104*J33</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K104" s="6">
-        <f>C104*K33</f>
+        <f t="shared" si="27"/>
         <v>840</v>
       </c>
       <c r="L104" s="6">
-        <f>C104*L33</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M104" s="15">
-        <f>C104*M33</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
       <c r="P104" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>840</v>
       </c>
       <c r="Q104" s="6">
@@ -5438,53 +5438,53 @@
         <v>53</v>
       </c>
       <c r="C105" s="8">
-        <f>C34*2</f>
+        <f t="shared" si="19"/>
         <v>282</v>
       </c>
       <c r="D105" s="8">
-        <f>C105*D34</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E105" s="8">
-        <f>C105*E34</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F105" s="8">
-        <f>C105*F34</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <f>C105*G34</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H105" s="8">
-        <f>C105*H34</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I105" s="8">
-        <f>C105*I34</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J105" s="8">
-        <f>C105*J34</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K105" s="8">
-        <f>C105*K34</f>
+        <f t="shared" si="27"/>
         <v>282</v>
       </c>
       <c r="L105" s="8">
-        <f>C105*L34</f>
+        <f t="shared" ref="L105:L136" si="28">C105*L34</f>
         <v>0</v>
       </c>
       <c r="M105" s="8">
-        <f>C105*M34</f>
+        <f t="shared" ref="M105:M136" si="29">C105*M34</f>
         <v>0</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q105" s="8">
@@ -5500,53 +5500,53 @@
         <v>55</v>
       </c>
       <c r="C106" s="6">
-        <f>C35*2</f>
+        <f t="shared" si="19"/>
         <v>160</v>
       </c>
       <c r="D106" s="6">
-        <f>C106*D35</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E106" s="6">
-        <f>C106*E35</f>
+        <f t="shared" si="21"/>
         <v>160</v>
       </c>
       <c r="F106" s="6">
-        <f>C106*F35</f>
+        <f t="shared" si="22"/>
         <v>160</v>
       </c>
       <c r="G106" s="6">
-        <f>C106*G35</f>
+        <f t="shared" si="23"/>
         <v>320</v>
       </c>
       <c r="H106" s="6">
-        <f>C106*H35</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I106" s="6">
-        <f>C106*I35</f>
+        <f t="shared" si="25"/>
         <v>480</v>
       </c>
       <c r="J106" s="6">
-        <f>C106*J35</f>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="K106" s="6">
-        <f>C106*K35</f>
+        <f t="shared" si="27"/>
         <v>160</v>
       </c>
       <c r="L106" s="6">
-        <f>C106*L35</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M106" s="15">
-        <f>C106*M35</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
       <c r="P106" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1440</v>
       </c>
       <c r="Q106" s="6">
@@ -5562,53 +5562,53 @@
         <v>119</v>
       </c>
       <c r="C107" s="8">
-        <f>C36*2</f>
+        <f t="shared" si="19"/>
         <v>1044</v>
       </c>
       <c r="D107" s="8">
-        <f>C107*D36</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f>C107*E36</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f>C107*F36</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f>C107*G36</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H107" s="8">
-        <f>C107*H36</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I107" s="8">
-        <f>C107*I36</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J107" s="8">
-        <f>C107*J36</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K107" s="8">
-        <f>C107*K36</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L107" s="8">
-        <f>C107*L36</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M107" s="8">
-        <f>C107*M36</f>
+        <f t="shared" si="29"/>
         <v>1044</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1044</v>
       </c>
       <c r="Q107" s="8">
@@ -5624,53 +5624,53 @@
         <v>57</v>
       </c>
       <c r="C108" s="15">
-        <f>C37*2</f>
+        <f t="shared" si="19"/>
         <v>68</v>
       </c>
       <c r="D108" s="15">
-        <f>C108*D37</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E108" s="15">
-        <f>C108*E37</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F108" s="15">
-        <f>C108*F37</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G108" s="15">
-        <f>C108*G37</f>
+        <f t="shared" si="23"/>
         <v>68</v>
       </c>
       <c r="H108" s="15">
-        <f>C108*H37</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I108" s="15">
-        <f>C108*I37</f>
+        <f t="shared" si="25"/>
         <v>136</v>
       </c>
       <c r="J108" s="15">
-        <f>C108*J37</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K108" s="15">
-        <f>C108*K37</f>
+        <f t="shared" si="27"/>
         <v>136</v>
       </c>
       <c r="L108" s="15">
-        <f>C108*L37</f>
+        <f t="shared" si="28"/>
         <v>68</v>
       </c>
       <c r="M108" s="15">
-        <f>C108*M37</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N108" s="15"/>
       <c r="O108" s="15"/>
       <c r="P108" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>408</v>
       </c>
       <c r="Q108" s="15">
@@ -5686,53 +5686,53 @@
         <v>58</v>
       </c>
       <c r="C109" s="15">
-        <f>C38*2</f>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="D109" s="15">
-        <f>C109*D38</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E109" s="15">
-        <f>C109*E38</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F109" s="15">
-        <f>C109*F38</f>
+        <f t="shared" si="22"/>
         <v>90</v>
       </c>
       <c r="G109" s="15">
-        <f>C109*G38</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H109" s="15">
-        <f>C109*H38</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I109" s="15">
-        <f>C109*I38</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J109" s="15">
-        <f>C109*J38</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K109" s="15">
-        <f>C109*K38</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L109" s="15">
-        <f>C109*L38</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M109" s="15">
-        <f>C109*M38</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N109" s="15"/>
       <c r="O109" s="15"/>
       <c r="P109" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q109" s="15"/>
@@ -5745,53 +5745,53 @@
         <v>60</v>
       </c>
       <c r="C110" s="8">
-        <f>C39*2</f>
+        <f t="shared" si="19"/>
         <v>264</v>
       </c>
       <c r="D110" s="8">
-        <f>C110*D39</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E110" s="8">
-        <f>C110*E39</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F110" s="8">
-        <f>C110*F39</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G110" s="8">
-        <f>C110*G39</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H110" s="8">
-        <f>C110*H39</f>
+        <f t="shared" si="24"/>
         <v>264</v>
       </c>
       <c r="I110" s="8">
-        <f>C110*I39</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J110" s="8">
-        <f>C110*J39</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K110" s="8">
-        <f>C110*K39</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L110" s="8">
-        <f>C110*L39</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M110" s="8">
-        <f>C110*M39</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>264</v>
       </c>
       <c r="Q110" s="8">
@@ -5807,53 +5807,53 @@
         <v>61</v>
       </c>
       <c r="C111" s="8">
-        <f>C40*2</f>
+        <f t="shared" si="19"/>
         <v>262</v>
       </c>
       <c r="D111" s="8">
-        <f>C111*D40</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f>C111*E40</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>C111*F40</f>
+        <f t="shared" si="22"/>
         <v>262</v>
       </c>
       <c r="G111" s="8">
-        <f>C111*G40</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f>C111*H40</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f>C111*I40</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f>C111*J40</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f>C111*K40</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L111" s="8">
-        <f>C111*L40</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f>C111*M40</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
       <c r="Q111" s="8"/>
@@ -5866,53 +5866,53 @@
         <v>62</v>
       </c>
       <c r="C112" s="8">
-        <f>C41*2</f>
+        <f t="shared" si="19"/>
         <v>262</v>
       </c>
       <c r="D112" s="8">
-        <f>C112*D41</f>
+        <f t="shared" si="20"/>
         <v>262</v>
       </c>
       <c r="E112" s="8">
-        <f>C112*E41</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F112" s="8">
-        <f>C112*F41</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G112" s="8">
-        <f>C112*G41</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H112" s="8">
-        <f>C112*H41</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I112" s="8">
-        <f>C112*I41</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J112" s="8">
-        <f>C112*J41</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K112" s="8">
-        <f>C112*K41</f>
+        <f t="shared" si="27"/>
         <v>262</v>
       </c>
       <c r="L112" s="8">
-        <f>C112*L41</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M112" s="8">
-        <f>C112*M41</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>524</v>
       </c>
       <c r="Q112" s="8"/>
@@ -5925,53 +5925,53 @@
         <v>64</v>
       </c>
       <c r="C113" s="15">
-        <f>C42*2</f>
+        <f t="shared" si="19"/>
         <v>272</v>
       </c>
       <c r="D113" s="15">
-        <f>C113*D42</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E113" s="15">
-        <f>C113*E42</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F113" s="15">
-        <f>C113*F42</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G113" s="15">
-        <f>C113*G42</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H113" s="15">
-        <f>C113*H42</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I113" s="15">
-        <f>C113*I42</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J113" s="15">
-        <f>C113*J42</f>
+        <f t="shared" si="26"/>
         <v>544</v>
       </c>
       <c r="K113" s="15">
-        <f>C113*K42</f>
+        <f t="shared" si="27"/>
         <v>272</v>
       </c>
       <c r="L113" s="15">
-        <f>C113*L42</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M113" s="15">
-        <f>C113*M42</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N113" s="15"/>
       <c r="O113" s="15"/>
       <c r="P113" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>816</v>
       </c>
       <c r="Q113" s="15">
@@ -5987,53 +5987,53 @@
         <v>66</v>
       </c>
       <c r="C114" s="8">
-        <f>C43*2</f>
+        <f t="shared" si="19"/>
         <v>266</v>
       </c>
       <c r="D114" s="8">
-        <f>C114*D43</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E114" s="8">
-        <f>C114*E43</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F114" s="8">
-        <f>C114*F43</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G114" s="8">
-        <f>C114*G43</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H114" s="8">
-        <f>C114*H43</f>
+        <f t="shared" si="24"/>
         <v>266</v>
       </c>
       <c r="I114" s="8">
-        <f>C114*I43</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J114" s="8">
-        <f>C114*J43</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K114" s="8">
-        <f>C114*K43</f>
+        <f t="shared" si="27"/>
         <v>266</v>
       </c>
       <c r="L114" s="8">
-        <f>C114*L43</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M114" s="8">
-        <f>C114*M43</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>532</v>
       </c>
       <c r="Q114" s="8">
@@ -6049,53 +6049,53 @@
         <v>67</v>
       </c>
       <c r="C115" s="8">
-        <f>C44*2</f>
+        <f t="shared" si="19"/>
         <v>304</v>
       </c>
       <c r="D115" s="8">
-        <f>C115*D44</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E115" s="8">
-        <f>C115*E44</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F115" s="8">
-        <f>C115*F44</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G115" s="8">
-        <f>C115*G44</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H115" s="8">
-        <f>C115*H44</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I115" s="8">
-        <f>C115*I44</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J115" s="8">
-        <f>C115*J44</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K115" s="8">
-        <f>C115*K44</f>
+        <f t="shared" si="27"/>
         <v>304</v>
       </c>
       <c r="L115" s="8">
-        <f>C115*L44</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M115" s="8">
-        <f>C115*M44</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="Q115" s="8"/>
@@ -6108,53 +6108,53 @@
         <v>68</v>
       </c>
       <c r="C116" s="8">
-        <f>C45*2</f>
+        <f t="shared" si="19"/>
         <v>254</v>
       </c>
       <c r="D116" s="8">
-        <f>C116*D45</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f>C116*E45</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f>C116*F45</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f>C116*G45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f>C116*H45</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I116" s="8">
-        <f>C116*I45</f>
+        <f t="shared" si="25"/>
         <v>254</v>
       </c>
       <c r="J116" s="8">
-        <f>C116*J45</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f>C116*K45</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L116" s="8">
-        <f>C116*L45</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M116" s="8">
-        <f>C116*M45</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>254</v>
       </c>
       <c r="Q116" s="8"/>
@@ -6167,53 +6167,53 @@
         <v>69</v>
       </c>
       <c r="C117" s="8">
-        <f>C46*2</f>
+        <f t="shared" si="19"/>
         <v>306</v>
       </c>
       <c r="D117" s="8">
-        <f>C117*D46</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E117" s="8">
-        <f>C117*E46</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F117" s="8">
-        <f>C117*F46</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G117" s="8">
-        <f>C117*G46</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H117" s="8">
-        <f>C117*H46</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I117" s="8">
-        <f>C117*I46</f>
+        <f t="shared" si="25"/>
         <v>306</v>
       </c>
       <c r="J117" s="8">
-        <f>C117*J46</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K117" s="8">
-        <f>C117*K46</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <f>C117*L46</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M117" s="8">
-        <f>C117*M46</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
       <c r="Q117" s="8"/>
@@ -6226,53 +6226,53 @@
         <v>71</v>
       </c>
       <c r="C118" s="15">
-        <f>C47*2</f>
+        <f t="shared" si="19"/>
         <v>124</v>
       </c>
       <c r="D118" s="15">
-        <f>C118*D47</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E118" s="15">
-        <f>C118*E47</f>
+        <f t="shared" si="21"/>
         <v>124</v>
       </c>
       <c r="F118" s="15">
-        <f>C118*F47</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G118" s="15">
-        <f>C118*G47</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H118" s="15">
-        <f>C118*H47</f>
+        <f t="shared" si="24"/>
         <v>124</v>
       </c>
       <c r="I118" s="15">
-        <f>C118*I47</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J118" s="15">
-        <f>C118*J47</f>
+        <f t="shared" si="26"/>
         <v>248</v>
       </c>
       <c r="K118" s="15">
-        <f>C118*K47</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L118" s="15">
-        <f>C118*L47</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M118" s="15">
-        <f>C118*M47</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N118" s="15"/>
       <c r="O118" s="15"/>
       <c r="P118" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>496</v>
       </c>
       <c r="Q118" s="15">
@@ -6288,53 +6288,53 @@
         <v>72</v>
       </c>
       <c r="C119" s="15">
-        <f>C48*2</f>
+        <f t="shared" si="19"/>
         <v>130</v>
       </c>
       <c r="D119" s="15">
-        <f>C119*D48</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E119" s="15">
-        <f>C119*E48</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F119" s="15">
-        <f>C119*F48</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G119" s="15">
-        <f>C119*G48</f>
+        <f t="shared" si="23"/>
         <v>260</v>
       </c>
       <c r="H119" s="15">
-        <f>C119*H48</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I119" s="15">
-        <f>C119*I48</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J119" s="15">
-        <f>C119*J48</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K119" s="15">
-        <f>C119*K48</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L119" s="15">
-        <f>C119*L48</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M119" s="15">
-        <f>C119*M48</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N119" s="15"/>
       <c r="O119" s="15"/>
       <c r="P119" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="Q119" s="15"/>
@@ -6347,53 +6347,53 @@
         <v>73</v>
       </c>
       <c r="C120" s="15">
-        <f>C49*2</f>
+        <f t="shared" si="19"/>
         <v>124</v>
       </c>
       <c r="D120" s="15">
-        <f>C120*D49</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E120" s="15">
-        <f>C120*E49</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F120" s="15">
-        <f>C120*F49</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G120" s="15">
-        <f>C120*G49</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H120" s="15">
-        <f>C120*H49</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I120" s="15">
-        <f>C120*I49</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J120" s="15">
-        <f>C120*J49</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K120" s="15">
-        <f>C120*K49</f>
+        <f t="shared" si="27"/>
         <v>124</v>
       </c>
       <c r="L120" s="15">
-        <f>C120*L49</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M120" s="15">
-        <f>C120*M49</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N120" s="15"/>
       <c r="O120" s="15"/>
       <c r="P120" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="Q120" s="15"/>
@@ -6406,53 +6406,53 @@
         <v>75</v>
       </c>
       <c r="C121" s="8">
-        <f>C50*2</f>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="D121" s="8">
-        <f>C121*D50</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f>C121*E50</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f>C121*F50</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f>C121*G50</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f>C121*H50</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f>C121*I50</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J121" s="8">
-        <f>C121*J50</f>
+        <f t="shared" si="26"/>
         <v>90</v>
       </c>
       <c r="K121" s="8">
-        <f>C121*K50</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L121" s="8">
-        <f>C121*L50</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <f>C121*M50</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q121" s="8">
@@ -6468,53 +6468,53 @@
         <v>76</v>
       </c>
       <c r="C122" s="8">
-        <f>C51*2</f>
+        <f t="shared" si="19"/>
         <v>106</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*D51</f>
+        <f t="shared" si="20"/>
         <v>106</v>
       </c>
       <c r="E122" s="8">
-        <f>C122*E51</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F122" s="8">
-        <f>C122*F51</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f>C122*G51</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f>C122*H51</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>C122*I51</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J122" s="8">
-        <f>C122*J51</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K122" s="8">
-        <f>C122*K51</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L122" s="8">
-        <f>C122*L51</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>C122*M51</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>106</v>
       </c>
       <c r="Q122" s="8"/>
@@ -6527,53 +6527,53 @@
         <v>77</v>
       </c>
       <c r="C123" s="8">
-        <f>C52*2</f>
+        <f t="shared" si="19"/>
         <v>90</v>
       </c>
       <c r="D123" s="8">
-        <f>C123*D52</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E123" s="8">
-        <f>C123*E52</f>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="F123" s="8">
-        <f>C123*F52</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G123" s="8">
-        <f>C123*G52</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H123" s="8">
-        <f>C123*H52</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I123" s="8">
-        <f>C123*I52</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J123" s="8">
-        <f>C123*J52</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K123" s="8">
-        <f>C123*K52</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L123" s="8">
-        <f>C123*L52</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
-        <f>C123*M52</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q123" s="8"/>
@@ -6586,53 +6586,53 @@
         <v>79</v>
       </c>
       <c r="C124" s="15">
-        <f>C53*2</f>
+        <f t="shared" si="19"/>
         <v>40</v>
       </c>
       <c r="D124" s="15">
-        <f>C124*D53</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E124" s="15">
-        <f>C124*E53</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F124" s="15">
-        <f>C124*F53</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G124" s="15">
-        <f>C124*G53</f>
+        <f t="shared" si="23"/>
         <v>80</v>
       </c>
       <c r="H124" s="15">
-        <f>C124*H53</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I124" s="15">
-        <f>C124*I53</f>
+        <f t="shared" si="25"/>
         <v>160</v>
       </c>
       <c r="J124" s="15">
-        <f>C124*J53</f>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="K124" s="15">
-        <f>C124*K53</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L124" s="15">
-        <f>C124*L53</f>
+        <f t="shared" si="28"/>
         <v>40</v>
       </c>
       <c r="M124" s="15">
-        <f>C124*M53</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N124" s="15"/>
       <c r="O124" s="15"/>
       <c r="P124" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>440</v>
       </c>
       <c r="Q124" s="15">
@@ -6648,53 +6648,53 @@
         <v>80</v>
       </c>
       <c r="C125" s="15">
-        <f>C54*2</f>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="D125" s="15">
-        <f>C125*D54</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E125" s="15">
-        <f>C125*E54</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F125" s="15">
-        <f>C125*F54</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G125" s="15">
-        <f>C125*G54</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H125" s="15">
-        <f>C125*H54</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I125" s="15">
-        <f>C125*I54</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J125" s="15">
-        <f>C125*J54</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="K125" s="15">
-        <f>C125*K54</f>
+        <f t="shared" si="27"/>
         <v>136</v>
       </c>
       <c r="L125" s="15">
-        <f>C125*L54</f>
+        <f t="shared" si="28"/>
         <v>68</v>
       </c>
       <c r="M125" s="15">
-        <f>C125*M54</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N125" s="15"/>
       <c r="O125" s="15"/>
       <c r="P125" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="Q125" s="15"/>
@@ -6707,7 +6707,7 @@
         <v>102</v>
       </c>
       <c r="C126" s="15">
-        <f>C55*2</f>
+        <f t="shared" si="19"/>
         <v>34</v>
       </c>
       <c r="D126" s="15">
@@ -6735,17 +6735,17 @@
         <v>0</v>
       </c>
       <c r="L126" s="15">
-        <f>C126*L55</f>
+        <f t="shared" si="28"/>
         <v>34</v>
       </c>
       <c r="M126" s="15">
-        <f>C126*M55</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N126" s="15"/>
       <c r="O126" s="15"/>
       <c r="P126" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>34</v>
       </c>
       <c r="Q126" s="15"/>
@@ -6758,7 +6758,7 @@
         <v>82</v>
       </c>
       <c r="C127" s="8">
-        <f>C56*2</f>
+        <f t="shared" si="19"/>
         <v>248</v>
       </c>
       <c r="D127" s="8">
@@ -6794,17 +6794,17 @@
         <v>0</v>
       </c>
       <c r="L127" s="8">
-        <f>C127*L56</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M127" s="8">
-        <f>C127*M56</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>1240</v>
       </c>
       <c r="Q127" s="8">
@@ -6820,7 +6820,7 @@
         <v>84</v>
       </c>
       <c r="C128" s="15">
-        <f>C57*2</f>
+        <f t="shared" si="19"/>
         <v>124</v>
       </c>
       <c r="D128" s="15">
@@ -6856,17 +6856,17 @@
         <v>0</v>
       </c>
       <c r="L128" s="15">
-        <f>C128*L57</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M128" s="15">
-        <f>C128*M57</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N128" s="15"/>
       <c r="O128" s="15"/>
       <c r="P128" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="Q128" s="15">
@@ -6882,7 +6882,7 @@
         <v>85</v>
       </c>
       <c r="C129" s="15">
-        <f>C58*2</f>
+        <f t="shared" si="19"/>
         <v>118</v>
       </c>
       <c r="D129" s="15">
@@ -6918,17 +6918,17 @@
         <v>0</v>
       </c>
       <c r="L129" s="15">
-        <f>C129*L58</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M129" s="15">
-        <f>C129*M58</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N129" s="15"/>
       <c r="O129" s="15"/>
       <c r="P129" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>118</v>
       </c>
       <c r="Q129" s="15"/>
@@ -6941,7 +6941,7 @@
         <v>86</v>
       </c>
       <c r="C130" s="15">
-        <f>C59*2</f>
+        <f t="shared" si="19"/>
         <v>116</v>
       </c>
       <c r="D130" s="15">
@@ -6977,17 +6977,17 @@
         <v>0</v>
       </c>
       <c r="L130" s="15">
-        <f>C130*L59</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M130" s="15">
-        <f>C130*M59</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N130" s="15"/>
       <c r="O130" s="15"/>
       <c r="P130" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="Q130" s="15"/>
@@ -7000,7 +7000,7 @@
         <v>88</v>
       </c>
       <c r="C131" s="8">
-        <f>C60*2</f>
+        <f t="shared" si="19"/>
         <v>138</v>
       </c>
       <c r="D131" s="8">
@@ -7036,17 +7036,17 @@
         <v>0</v>
       </c>
       <c r="L131" s="8">
-        <f>C131*L60</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
-        <f>C131*M60</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>138</v>
       </c>
       <c r="Q131" s="8">
@@ -7104,60 +7104,60 @@
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8">
-        <f>SUM(D73:D131)</f>
+        <f t="shared" ref="D136:M136" si="30">SUM(D73:D131)</f>
         <v>750</v>
       </c>
       <c r="E136" s="8">
-        <f>SUM(E73:E131)</f>
+        <f t="shared" si="30"/>
         <v>892</v>
       </c>
       <c r="F136" s="8">
-        <f>SUM(F73:F131)</f>
+        <f t="shared" si="30"/>
         <v>1166</v>
       </c>
       <c r="G136" s="8">
-        <f>SUM(G73:G131)</f>
+        <f t="shared" si="30"/>
         <v>1830</v>
       </c>
       <c r="H136" s="8">
-        <f>SUM(H73:H131)</f>
+        <f t="shared" si="30"/>
         <v>802</v>
       </c>
       <c r="I136" s="8">
-        <f>SUM(I73:I131)</f>
+        <f t="shared" si="30"/>
         <v>3046</v>
       </c>
       <c r="J136" s="8">
-        <f>SUM(J73:J131)</f>
+        <f t="shared" si="30"/>
         <v>2704</v>
       </c>
       <c r="K136" s="8">
-        <f>SUM(K73:K131)</f>
+        <f t="shared" si="30"/>
         <v>4664</v>
       </c>
       <c r="L136" s="8">
-        <f>SUM(L73:L131)</f>
+        <f t="shared" si="30"/>
         <v>2514</v>
       </c>
       <c r="M136" s="8">
-        <f>SUM(M73:M131)</f>
-        <v>1792</v>
+        <f t="shared" si="30"/>
+        <v>2070</v>
       </c>
       <c r="N136" s="8">
         <f>SUM(D136:M136)</f>
-        <v>20160</v>
+        <v>20438</v>
       </c>
       <c r="O136" s="16">
         <f>N136/N62</f>
-        <v>150.44776119402985</v>
+        <v>151.39259259259259</v>
       </c>
       <c r="P136" s="8">
         <f>SUM(P73:P131)</f>
-        <v>20160</v>
+        <v>20438</v>
       </c>
       <c r="Q136" s="8">
         <f>SUM(Q73:Q131)</f>
-        <v>20160</v>
+        <v>20438</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7165,48 +7165,48 @@
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="17">
-        <f>D136/D62</f>
+        <f t="shared" ref="D137:N137" si="31">D136/D62</f>
         <v>150</v>
       </c>
       <c r="E137" s="17">
-        <f>E136/E62</f>
+        <f t="shared" si="31"/>
         <v>89.2</v>
       </c>
       <c r="F137" s="17">
-        <f>F136/F62</f>
+        <f t="shared" si="31"/>
         <v>116.6</v>
       </c>
       <c r="G137" s="17">
-        <f>G136/G62</f>
+        <f t="shared" si="31"/>
         <v>114.375</v>
       </c>
       <c r="H137" s="17">
-        <f>H136/H62</f>
+        <f t="shared" si="31"/>
         <v>160.4</v>
       </c>
       <c r="I137" s="17">
-        <f>I136/I62</f>
+        <f t="shared" si="31"/>
         <v>138.45454545454547</v>
       </c>
       <c r="J137" s="17">
-        <f>J136/J62</f>
+        <f t="shared" si="31"/>
         <v>142.31578947368422</v>
       </c>
       <c r="K137" s="17">
-        <f>K136/K62</f>
+        <f t="shared" si="31"/>
         <v>172.74074074074073</v>
       </c>
       <c r="L137" s="17">
-        <f>L136/L62</f>
+        <f t="shared" si="31"/>
         <v>167.6</v>
       </c>
       <c r="M137" s="17">
-        <f>M136/M62</f>
-        <v>358.4</v>
+        <f t="shared" si="31"/>
+        <v>345</v>
       </c>
       <c r="N137" s="17">
-        <f>N136/N62</f>
-        <v>150.44776119402985</v>
+        <f t="shared" si="31"/>
+        <v>151.39259259259259</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>97</v>
@@ -7270,11 +7270,11 @@
       </c>
       <c r="D210">
         <f>N6</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E210">
         <f>SUM(P6:P7)</f>
-        <v>838</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -7606,11 +7606,11 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1">
         <f>SUM(D208:D230)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E232" s="1">
         <f>SUM(E208:E230)</f>
-        <v>18510</v>
+        <v>18788</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF720F3-7D8A-481E-965A-4C815E00050E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2A7BB-58A0-4DE1-B8D5-93E81C1A7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="21876" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
   <dimension ref="A1:Q232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,19 +1110,19 @@
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="8">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O6" s="8">
         <f t="shared" si="0"/>
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="P6" s="8">
         <f t="shared" si="1"/>
-        <v>834</v>
+        <v>1112</v>
       </c>
       <c r="Q6" s="8"/>
     </row>
@@ -1258,19 +1258,19 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -3268,16 +3268,16 @@
       </c>
       <c r="M62" s="13">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N62" s="13">
         <f>SUM(D62:M62)</f>
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="7">
         <f>SUM(P2:P60)</f>
-        <v>20438</v>
+        <v>20800</v>
       </c>
       <c r="Q62" s="14">
         <f>SUM(Q2:Q60)</f>
@@ -3791,17 +3791,17 @@
       </c>
       <c r="M77" s="8">
         <f t="shared" si="14"/>
-        <v>556</v>
+        <v>834</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
         <f t="shared" si="15"/>
-        <v>834</v>
+        <v>1112</v>
       </c>
       <c r="Q77" s="8">
         <f>SUM(P77:P78)</f>
-        <v>1116</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="Q79" s="6">
         <f>SUM(P79:P83)</f>
-        <v>532</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4033,13 @@
       </c>
       <c r="M81" s="15">
         <f t="shared" si="14"/>
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="15">
         <f t="shared" si="15"/>
-        <v>168</v>
+        <v>252</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
@@ -5474,11 +5474,11 @@
         <v>282</v>
       </c>
       <c r="L105" s="8">
-        <f t="shared" ref="L105:L136" si="28">C105*L34</f>
+        <f t="shared" ref="L105:L131" si="28">C105*L34</f>
         <v>0</v>
       </c>
       <c r="M105" s="8">
-        <f t="shared" ref="M105:M136" si="29">C105*M34</f>
+        <f t="shared" ref="M105:M131" si="29">C105*M34</f>
         <v>0</v>
       </c>
       <c r="N105" s="8"/>
@@ -7141,23 +7141,23 @@
       </c>
       <c r="M136" s="8">
         <f t="shared" si="30"/>
-        <v>2070</v>
+        <v>2432</v>
       </c>
       <c r="N136" s="8">
         <f>SUM(D136:M136)</f>
-        <v>20438</v>
+        <v>20800</v>
       </c>
       <c r="O136" s="16">
         <f>N136/N62</f>
-        <v>151.39259259259259</v>
+        <v>151.82481751824818</v>
       </c>
       <c r="P136" s="8">
         <f>SUM(P73:P131)</f>
-        <v>20438</v>
+        <v>20800</v>
       </c>
       <c r="Q136" s="8">
         <f>SUM(Q73:Q131)</f>
-        <v>20438</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,11 +7202,11 @@
       </c>
       <c r="M137" s="17">
         <f t="shared" si="31"/>
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="N137" s="17">
         <f t="shared" si="31"/>
-        <v>151.39259259259259</v>
+        <v>151.82481751824818</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>97</v>
@@ -7270,11 +7270,11 @@
       </c>
       <c r="D210">
         <f>N6</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E210">
         <f>SUM(P6:P7)</f>
-        <v>1116</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -7286,11 +7286,11 @@
       </c>
       <c r="D211">
         <f>SUM(N8:N14)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211">
         <f>SUM(P8:P14)</f>
-        <v>1734</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -7606,11 +7606,11 @@
       <c r="C232" s="1"/>
       <c r="D232" s="1">
         <f>SUM(D208:D230)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E232" s="1">
         <f>SUM(E208:E230)</f>
-        <v>18788</v>
+        <v>19150</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D2A7BB-58A0-4DE1-B8D5-93E81C1A7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89DEB43-AA18-44ED-8814-B5CF85245C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="125">
   <si>
     <t>Paikkakunta</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>Gradia Viitaniemi</t>
+  </si>
+  <si>
+    <t>Kouvola</t>
+  </si>
+  <si>
+    <t>Korian monitoimitalo</t>
+  </si>
+  <si>
+    <t>Linnainmaan koulu</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -550,6 +558,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
-  <dimension ref="A1:Q232"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,7 +935,7 @@
       <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -961,11 +970,11 @@
         <v>3</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O60" si="0">C2*N2</f>
+        <f t="shared" ref="O2:O61" si="0">C2*N2</f>
         <v>24</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P60" si="1">2*O2</f>
+        <f t="shared" ref="P2:P61" si="1">2*O2</f>
         <v>48</v>
       </c>
       <c r="Q2" s="8"/>
@@ -995,7 +1004,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N60" si="2">SUM(D3:M3)</f>
+        <f t="shared" ref="N3:N61" si="2">SUM(D3:M3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="8">
@@ -1727,64 +1736,64 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="6">
-        <v>209</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6">
+      <c r="A23" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="14">
+        <v>174</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="14">
         <f t="shared" si="0"/>
-        <v>209</v>
-      </c>
-      <c r="P23" s="6">
+        <v>174</v>
+      </c>
+      <c r="P23" s="14">
         <f t="shared" si="1"/>
-        <v>418</v>
-      </c>
-      <c r="Q23" s="6">
+        <v>348</v>
+      </c>
+      <c r="Q23" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8">
         <f t="shared" si="2"/>
@@ -1792,143 +1801,139 @@
       </c>
       <c r="O24" s="8">
         <f t="shared" si="0"/>
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="1"/>
+        <v>418</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="14">
+        <v>258</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14">
+        <v>1</v>
+      </c>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="14">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="P25" s="14">
+        <f t="shared" si="1"/>
         <v>516</v>
       </c>
-      <c r="Q24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="Q25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C26" s="8">
         <v>79</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O26" s="8">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P26" s="8">
         <f t="shared" si="1"/>
         <v>474</v>
       </c>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C27" s="8">
         <v>70</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8">
         <v>2</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6">
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O27" s="8">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P27" s="8">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="6">
-        <v>66</v>
-      </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6">
-        <v>1</v>
-      </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6">
-        <v>1</v>
-      </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O27" s="6">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="P27" s="6">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>3</v>
-      </c>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="8">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1942,233 +1947,237 @@
       <c r="K28" s="8">
         <v>1</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="P28" s="8">
         <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="14">
+        <v>25</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O29" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="P29" s="14">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C30" s="14">
         <v>27</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14">
+        <v>1</v>
+      </c>
+      <c r="J30" s="14">
         <v>2</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8">
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O30" s="14">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="P29" s="8">
+      <c r="P30" s="14">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="14">
         <v>27</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8">
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O31" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P31" s="14">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="14">
         <v>27</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8">
-        <v>1</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
         <v>2</v>
       </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8">
-        <v>1</v>
-      </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8">
+      <c r="H32" s="14">
+        <v>1</v>
+      </c>
+      <c r="I32" s="14">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14">
+        <v>1</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O32" s="14">
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P32" s="14">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
-      <c r="Q31" s="8"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C33" s="14">
         <v>31</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14">
+        <v>1</v>
+      </c>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14">
         <v>3</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L33" s="14">
         <v>2</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8">
+      <c r="M33" s="14"/>
+      <c r="N33" s="14">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O33" s="14">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P33" s="14">
         <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q33" s="14">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="6">
-        <v>420</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="8">
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2188,199 +2197,199 @@
       </c>
       <c r="O34" s="8">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>420</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="1"/>
+        <v>840</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="14">
+        <v>141</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14">
+        <v>1</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="14">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="P35" s="14">
+        <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="Q34" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="Q35" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C36" s="8">
         <v>80</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
         <v>2</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8">
         <v>3</v>
       </c>
-      <c r="J35" s="6">
-        <v>1</v>
-      </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6">
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O36" s="8">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P36" s="8">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="Q35" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="Q36" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C37" s="14">
         <v>522</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8">
-        <v>1</v>
-      </c>
-      <c r="N36" s="8">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14">
+        <v>1</v>
+      </c>
+      <c r="N37" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O37" s="14">
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P37" s="14">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="Q36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="Q37" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C38" s="8">
         <v>34</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15">
-        <v>1</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8">
         <v>2</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
         <v>2</v>
       </c>
-      <c r="L37" s="15">
-        <v>1</v>
-      </c>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15">
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O38" s="8">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="P37" s="15">
+      <c r="P38" s="8">
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="Q38" s="8"/>
+    </row>
+    <row r="39" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B39" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C39" s="8">
         <v>45</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O38" s="15">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P38" s="15">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="8">
-        <v>132</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2392,149 +2401,147 @@
       </c>
       <c r="O39" s="8">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="P39" s="8">
         <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="14">
+        <v>132</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14">
+        <v>1</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="14">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="P40" s="14">
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="Q39" s="8"/>
-    </row>
-    <row r="40" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C41" s="14">
         <v>131</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8">
-        <v>1</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8">
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O41" s="14">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P41" s="14">
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="Q40" s="8"/>
-    </row>
-    <row r="41" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C42" s="14">
         <v>131</v>
       </c>
-      <c r="D41" s="8">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8">
-        <v>1</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8">
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O42" s="14">
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P42" s="14">
         <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q42" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+    <row r="43" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B43" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C43" s="8">
         <v>136</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15">
-        <v>2</v>
-      </c>
-      <c r="K42" s="15">
-        <v>1</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="O42" s="15">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-      <c r="P42" s="15">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="8">
-        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="8">
-        <v>1</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
+      <c r="J43" s="8">
+        <v>2</v>
+      </c>
       <c r="K43" s="8">
         <v>1</v>
       </c>
@@ -2542,251 +2549,253 @@
       <c r="M43" s="8"/>
       <c r="N43" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="0"/>
-        <v>266</v>
+        <v>408</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="14">
+        <v>133</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14">
+        <v>1</v>
+      </c>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O44" s="14">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="P44" s="14">
+        <f t="shared" si="1"/>
         <v>532</v>
       </c>
-      <c r="Q43" s="8"/>
-    </row>
-    <row r="44" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C45" s="14">
         <v>152</v>
       </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O45" s="14">
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P45" s="14">
         <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="Q44" s="8"/>
-    </row>
-    <row r="45" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C46" s="14">
         <v>127</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8">
-        <v>1</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14">
+        <v>1</v>
+      </c>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O46" s="14">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P46" s="14">
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="Q45" s="8"/>
-    </row>
-    <row r="46" spans="1:17" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C47" s="14">
         <v>153</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8">
-        <v>1</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8">
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14">
+        <v>1</v>
+      </c>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O47" s="14">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P47" s="14">
         <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q47" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+    <row r="48" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C48" s="8">
         <v>62</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15">
-        <v>1</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15">
-        <v>1</v>
-      </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8">
+        <v>1</v>
+      </c>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8">
         <v>2</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15">
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O47" s="15">
+      <c r="O48" s="8">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="P47" s="15">
+      <c r="P48" s="8">
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
-      <c r="Q47" s="15"/>
-    </row>
-    <row r="48" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B49" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C49" s="8">
         <v>65</v>
       </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8">
         <v>2</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15">
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O48" s="15">
+      <c r="O49" s="8">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="P48" s="15">
+      <c r="P49" s="8">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="Q48" s="15"/>
-    </row>
-    <row r="49" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="15" t="s">
+      <c r="Q49" s="8"/>
+    </row>
+    <row r="50" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C50" s="8">
         <v>62</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15">
-        <v>1</v>
-      </c>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="15">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="P49" s="15">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="Q49" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="8">
-        <v>45</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2794,10 +2803,10 @@
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
-      <c r="J50" s="8">
-        <v>1</v>
-      </c>
-      <c r="K50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8">
+        <v>1</v>
+      </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8">
@@ -2806,385 +2815,382 @@
       </c>
       <c r="O50" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="P50" s="8">
         <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="14">
+        <v>45</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14">
+        <v>1</v>
+      </c>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P51" s="14">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="14">
         <v>53</v>
       </c>
-      <c r="D51" s="8">
-        <v>1</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8">
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O52" s="14">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P52" s="14">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="Q51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="8">
+      <c r="C53" s="14">
         <v>45</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8">
-        <v>1</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14">
+        <v>1</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O53" s="14">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P53" s="14">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q53" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C54" s="8">
         <v>20</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8">
         <v>2</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15">
+      <c r="H54" s="8"/>
+      <c r="I54" s="8">
         <v>4</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J54" s="8">
         <v>4</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15">
-        <v>1</v>
-      </c>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15">
+      <c r="K54" s="8"/>
+      <c r="L54" s="8">
+        <v>1</v>
+      </c>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O54" s="8">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="P53" s="15">
+      <c r="P54" s="8">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="Q53" s="15"/>
-    </row>
-    <row r="54" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B55" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="15">
+      <c r="C55" s="8">
         <v>17</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8">
         <v>4</v>
       </c>
-      <c r="L54" s="15">
+      <c r="L55" s="8">
         <v>2</v>
       </c>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15">
+      <c r="M55" s="8"/>
+      <c r="N55" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="O54" s="15">
+      <c r="O55" s="8">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="P54" s="15">
+      <c r="P55" s="8">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="Q54" s="15"/>
-    </row>
-    <row r="55" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="Q55" s="8"/>
+    </row>
+    <row r="56" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B56" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C56" s="8">
         <v>17</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15">
-        <v>1</v>
-      </c>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="15">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P55" s="15">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="8">
-        <v>124</v>
-      </c>
-      <c r="D56" s="8">
-        <v>1</v>
-      </c>
-      <c r="E56" s="8">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8">
-        <v>2</v>
-      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="L56" s="8">
+        <v>2</v>
+      </c>
       <c r="M56" s="8"/>
       <c r="N56" s="8">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O56" s="8">
         <f t="shared" si="0"/>
-        <v>620</v>
+        <v>34</v>
       </c>
       <c r="P56" s="8">
         <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="14">
+        <v>124</v>
+      </c>
+      <c r="D57" s="14">
+        <v>1</v>
+      </c>
+      <c r="E57" s="14">
+        <v>1</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="14">
+        <v>2</v>
+      </c>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O57" s="14">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="P57" s="14">
+        <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="Q56" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
+      <c r="Q57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C58" s="8">
         <v>62</v>
       </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15">
-        <v>1</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15">
-        <v>1</v>
-      </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8">
+        <v>1</v>
+      </c>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O57" s="15">
+      <c r="O58" s="8">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="P57" s="15">
+      <c r="P58" s="8">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="Q57" s="15"/>
-    </row>
-    <row r="58" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
+      <c r="Q58" s="8"/>
+    </row>
+    <row r="59" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B59" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="15">
+      <c r="C59" s="8">
         <v>59</v>
       </c>
-      <c r="D58" s="15">
-        <v>1</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="15">
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O58" s="15">
+      <c r="O59" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="P58" s="15">
+      <c r="P59" s="8">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="Q58" s="15"/>
-    </row>
-    <row r="59" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C60" s="8">
         <v>58</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15">
-        <v>1</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="15">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="P59" s="15">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="Q59" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="8">
-        <v>69</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
+      <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="I60" s="8">
+        <v>1</v>
+      </c>
       <c r="J60" s="8"/>
-      <c r="K60" s="8">
-        <f>K2*C2</f>
-        <v>0</v>
-      </c>
+      <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8">
@@ -3193,115 +3199,137 @@
       </c>
       <c r="O60" s="8">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P60" s="8">
         <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="14">
+        <v>69</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14">
+        <v>1</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14">
+        <f>K2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="14">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="P61" s="14">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="Q60" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6" t="s">
+      <c r="Q61" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13">
-        <f>SUM(D2:D60)</f>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12">
+        <f>SUM(D2:D61)</f>
         <v>5</v>
       </c>
-      <c r="E62" s="13">
-        <f t="shared" ref="E62:M62" si="3">SUM(E2:E60)</f>
+      <c r="E63" s="12">
+        <f t="shared" ref="E63:M63" si="3">SUM(E2:E61)</f>
         <v>10</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G63" s="12">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H63" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I63" s="12">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J63" s="12">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K62" s="13">
+      <c r="K63" s="12">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L62" s="13">
+      <c r="L63" s="12">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="M62" s="13">
+        <v>16</v>
+      </c>
+      <c r="M63" s="12">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="N62" s="13">
-        <f>SUM(D62:M62)</f>
-        <v>137</v>
-      </c>
-      <c r="O62" s="13"/>
-      <c r="P62" s="7">
-        <f>SUM(P2:P60)</f>
-        <v>20800</v>
-      </c>
-      <c r="Q62" s="14">
-        <f>SUM(Q2:Q60)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="N63" s="12">
+        <f>SUM(D63:M63)</f>
+        <v>139</v>
+      </c>
+      <c r="O63" s="12"/>
+      <c r="P63" s="7">
+        <f>SUM(P2:P61)</f>
+        <v>21182</v>
+      </c>
+      <c r="Q63" s="13">
+        <f>SUM(Q2:Q61)</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="6"/>
@@ -3437,212 +3465,172 @@
       <c r="Q70" s="6"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="6"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E73" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F73" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G73" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I73" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J73" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L73" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M73" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" ref="C73:C83" si="4">C2*2</f>
-        <v>16</v>
-      </c>
-      <c r="D73" s="8">
-        <f t="shared" ref="D73:D93" si="5">C73*D2</f>
-        <v>0</v>
-      </c>
-      <c r="E73" s="8">
-        <f t="shared" ref="E73:E93" si="6">C73*E2</f>
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" ref="F73:F93" si="7">C73*F2</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <f t="shared" ref="G73:G93" si="8">C73*G2</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="8">
-        <f t="shared" ref="H73:H83" si="9">C73*H2</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
-        <f t="shared" ref="I73:I93" si="10">C73*I2</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <f t="shared" ref="J73:J93" si="11">C73*J2</f>
-        <v>16</v>
-      </c>
-      <c r="K73" s="8">
-        <f t="shared" ref="K73:K93" si="12">C73*K2</f>
-        <v>0</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" ref="L73:L104" si="13">C73*L2</f>
-        <v>16</v>
-      </c>
-      <c r="M73" s="8">
-        <f t="shared" ref="M73:M104" si="14">C73*M2</f>
-        <v>16</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8">
-        <f>SUM(D73:M73)</f>
-        <v>48</v>
-      </c>
-      <c r="Q73" s="8">
-        <f>SUM(P73:P75)</f>
-        <v>132</v>
-      </c>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f t="shared" ref="C74:C94" si="4">C2*2</f>
+        <v>16</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="D74:D94" si="5">C74*D2</f>
         <v>0</v>
       </c>
       <c r="E74" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="E74:E94" si="6">C74*E2</f>
+        <v>0</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f t="shared" ref="F74:F94" si="7">C74*F2</f>
+        <v>0</v>
       </c>
       <c r="G74" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="G74:G94" si="8">C74*G2</f>
         <v>0</v>
       </c>
       <c r="H74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H74:H84" si="9">C74*H2</f>
         <v>0</v>
       </c>
       <c r="I74" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I74:I94" si="10">C74*I2</f>
         <v>0</v>
       </c>
       <c r="J74" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" ref="J74:J94" si="11">C74*J2</f>
+        <v>16</v>
       </c>
       <c r="K74" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K74:K94" si="12">C74*K2</f>
         <v>0</v>
       </c>
       <c r="L74" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="L74:L94" si="13">C74*L2</f>
+        <v>16</v>
       </c>
       <c r="M74" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" ref="M74:M105" si="14">C74*M2</f>
+        <v>16</v>
       </c>
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
       <c r="P74" s="8">
-        <f t="shared" ref="P74:P131" si="15">SUM(D74:M74)</f>
-        <v>4</v>
-      </c>
-      <c r="Q74" s="8"/>
+        <f>SUM(D74:M74)</f>
+        <v>48</v>
+      </c>
+      <c r="Q74" s="8">
+        <f>SUM(P74:P76)</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E75" s="8">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F75" s="8">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G75" s="8">
         <f t="shared" si="8"/>
@@ -3675,133 +3663,130 @@
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
       <c r="P75" s="8">
+        <f t="shared" ref="P75:P133" si="15">SUM(D75:M75)</f>
+        <v>4</v>
+      </c>
+      <c r="Q75" s="8"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D76" s="8">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="F76" s="8">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="G76" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8">
         <f t="shared" si="15"/>
         <v>80</v>
       </c>
-      <c r="Q75" s="8"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="Q76" s="8"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C77" s="6">
         <f t="shared" si="4"/>
         <v>564</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J77" s="6">
         <f t="shared" si="11"/>
         <v>564</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K77" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L77" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M77" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="15">
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="14">
         <f t="shared" si="15"/>
         <v>564</v>
       </c>
-      <c r="Q76" s="6">
-        <f>SUM(P76)</f>
+      <c r="Q77" s="6">
+        <f>SUM(P77)</f>
         <v>564</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="8">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="D77" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <f t="shared" si="12"/>
-        <v>278</v>
-      </c>
-      <c r="L77" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="8">
-        <f t="shared" si="14"/>
-        <v>834</v>
-      </c>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
-      <c r="P77" s="8">
-        <f t="shared" si="15"/>
-        <v>1112</v>
-      </c>
-      <c r="Q77" s="8">
-        <f>SUM(P77:P78)</f>
-        <v>1394</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,11 +3794,11 @@
         <v>19</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" si="5"/>
@@ -3837,7 +3822,7 @@
       </c>
       <c r="I78" s="8">
         <f t="shared" si="10"/>
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="J78" s="8">
         <f t="shared" si="11"/>
@@ -3845,7 +3830,7 @@
       </c>
       <c r="K78" s="8">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="L78" s="8">
         <f t="shared" si="13"/>
@@ -3853,88 +3838,88 @@
       </c>
       <c r="M78" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8">
         <f t="shared" si="15"/>
+        <v>1112</v>
+      </c>
+      <c r="Q78" s="8">
+        <f>SUM(P78:P79)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
-      <c r="Q78" s="8"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="6">
-        <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="D79" s="6">
+      <c r="D79" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I79" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
+        <v>282</v>
+      </c>
+      <c r="J79" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="8">
         <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="L79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="15">
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="8">
         <f t="shared" si="15"/>
-        <v>66</v>
-      </c>
-      <c r="Q79" s="6">
-        <f>SUM(P79:P83)</f>
-        <v>616</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Q79" s="8"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C80" s="6">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D80" s="6">
         <f t="shared" si="5"/>
@@ -3950,7 +3935,7 @@
       </c>
       <c r="G80" s="6">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H80" s="6">
         <f t="shared" si="9"/>
@@ -3966,34 +3951,37 @@
       </c>
       <c r="K80" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L80" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
-      <c r="P80" s="15">
+      <c r="P80" s="14">
         <f t="shared" si="15"/>
-        <v>92</v>
-      </c>
-      <c r="Q80" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="Q80" s="6">
+        <f>SUM(P80:P84)</f>
+        <v>616</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="6">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D81" s="6">
         <f t="shared" si="5"/>
@@ -4009,7 +3997,7 @@
       </c>
       <c r="G81" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H81" s="6">
         <f t="shared" si="9"/>
@@ -4025,21 +4013,21 @@
       </c>
       <c r="K81" s="6">
         <f t="shared" si="12"/>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L81" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <f t="shared" si="14"/>
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
-      <c r="P81" s="15">
+      <c r="P81" s="14">
         <f t="shared" si="15"/>
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="Q81" s="6"/>
     </row>
@@ -4048,11 +4036,11 @@
         <v>22</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C82" s="6">
         <f t="shared" si="4"/>
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D82" s="6">
         <f t="shared" si="5"/>
@@ -4068,7 +4056,7 @@
       </c>
       <c r="G82" s="6">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H82" s="6">
         <f t="shared" si="9"/>
@@ -4084,21 +4072,21 @@
       </c>
       <c r="K82" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="L82" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M82" s="15">
+      <c r="M82" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
-      <c r="P82" s="15">
+      <c r="P82" s="14">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="Q82" s="6"/>
     </row>
@@ -4107,11 +4095,11 @@
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C83" s="6">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D83" s="6">
         <f t="shared" si="5"/>
@@ -4123,11 +4111,11 @@
       </c>
       <c r="F83" s="6">
         <f t="shared" si="7"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="G83" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H83" s="6">
         <f t="shared" si="9"/>
@@ -4149,79 +4137,76 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M83" s="15">
+      <c r="M83" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
-      <c r="P83" s="15">
+      <c r="P83" s="14">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="6">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="D84" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="G84" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="14">
         <f t="shared" si="15"/>
         <v>86</v>
       </c>
-      <c r="Q83" s="6"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" s="8">
-        <f t="shared" ref="C84:C93" si="16">C13*2</f>
-        <v>370</v>
-      </c>
-      <c r="D84" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="8">
-        <f>D84*H13</f>
-        <v>0</v>
-      </c>
-      <c r="I84" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="8">
-        <f t="shared" si="14"/>
-        <v>370</v>
-      </c>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
-      <c r="P84" s="8">
-        <f t="shared" si="15"/>
-        <v>370</v>
-      </c>
-      <c r="Q84" s="8">
-        <f>SUM(P84:P85)</f>
-        <v>1202</v>
-      </c>
+      <c r="Q84" s="6"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
@@ -4231,8 +4216,8 @@
         <v>29</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" si="16"/>
-        <v>416</v>
+        <f t="shared" si="4"/>
+        <v>370</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" si="5"/>
@@ -4251,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="8">
-        <f>D85*H14</f>
+        <f>D85*H13</f>
         <v>0</v>
       </c>
       <c r="I85" s="8">
@@ -4260,7 +4245,7 @@
       </c>
       <c r="J85" s="8">
         <f t="shared" si="11"/>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="K85" s="8">
         <f t="shared" si="12"/>
@@ -4268,92 +4253,92 @@
       </c>
       <c r="L85" s="8">
         <f t="shared" si="13"/>
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="M85" s="8">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
       <c r="P85" s="8">
         <f t="shared" si="15"/>
+        <v>370</v>
+      </c>
+      <c r="Q85" s="8">
+        <f>SUM(P85:P86)</f>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" si="4"/>
+        <v>416</v>
+      </c>
+      <c r="D86" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="8">
+        <f>D86*H14</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="8">
+        <f t="shared" si="11"/>
+        <v>416</v>
+      </c>
+      <c r="K86" s="8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="8">
+        <f t="shared" si="13"/>
+        <v>416</v>
+      </c>
+      <c r="M86" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8">
+        <f t="shared" si="15"/>
         <v>832</v>
       </c>
-      <c r="Q85" s="8"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="6">
-        <f t="shared" si="16"/>
-        <v>110</v>
-      </c>
-      <c r="D86" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="6">
-        <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="F86" s="6">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
-      <c r="G86" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <f t="shared" ref="H86:H93" si="17">C86*H15</f>
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="15">
-        <f t="shared" si="15"/>
-        <v>220</v>
-      </c>
-      <c r="Q86" s="6">
-        <f>SUM(P86:P90)</f>
-        <v>906</v>
-      </c>
+      <c r="Q86" s="8"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="6">
-        <f t="shared" si="16"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="D87" s="6">
         <f t="shared" si="5"/>
@@ -4361,18 +4346,18 @@
       </c>
       <c r="E87" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H87:H94" si="16">C87*H15</f>
         <v>0</v>
       </c>
       <c r="I87" s="6">
@@ -4391,28 +4376,31 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M87" s="15">
+      <c r="M87" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
-      <c r="P87" s="15">
+      <c r="P87" s="14">
         <f t="shared" si="15"/>
-        <v>108</v>
-      </c>
-      <c r="Q87" s="6"/>
+        <v>220</v>
+      </c>
+      <c r="Q87" s="6">
+        <f>SUM(P87:P91)</f>
+        <v>906</v>
+      </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="6">
-        <f t="shared" si="16"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="D88" s="6">
         <f t="shared" si="5"/>
@@ -4420,7 +4408,7 @@
       </c>
       <c r="E88" s="6">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F88" s="6">
         <f t="shared" si="7"/>
@@ -4428,10 +4416,10 @@
       </c>
       <c r="G88" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I88" s="6">
@@ -4450,15 +4438,15 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M88" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
-      <c r="P88" s="15">
+      <c r="P88" s="14">
         <f t="shared" si="15"/>
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q88" s="6"/>
     </row>
@@ -4467,11 +4455,11 @@
         <v>30</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="6">
-        <f t="shared" si="16"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="D89" s="6">
         <f t="shared" si="5"/>
@@ -4479,7 +4467,7 @@
       </c>
       <c r="E89" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F89" s="6">
         <f t="shared" si="7"/>
@@ -4490,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I89" s="6">
@@ -4499,7 +4487,7 @@
       </c>
       <c r="J89" s="6">
         <f t="shared" si="11"/>
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="12"/>
@@ -4509,15 +4497,15 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M89" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
-      <c r="P89" s="15">
+      <c r="P89" s="14">
         <f t="shared" si="15"/>
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Q89" s="6"/>
     </row>
@@ -4526,595 +4514,589 @@
         <v>30</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="6">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="D90" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="6">
+        <f t="shared" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="K90" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="14">
+        <f t="shared" si="15"/>
+        <v>92</v>
+      </c>
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C91" s="6">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="D91" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="6">
         <f t="shared" si="16"/>
         <v>94</v>
       </c>
-      <c r="D90" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <f t="shared" si="17"/>
-        <v>94</v>
-      </c>
-      <c r="I90" s="6">
+      <c r="I91" s="6">
         <f t="shared" si="10"/>
         <v>188</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J91" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K91" s="6">
         <f t="shared" si="12"/>
         <v>94</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L91" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M90" s="15">
+      <c r="M91" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="15">
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="14">
         <f t="shared" si="15"/>
         <v>376</v>
       </c>
-      <c r="Q90" s="6"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C92" s="8">
+        <f t="shared" si="4"/>
+        <v>800</v>
+      </c>
+      <c r="D92" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="8">
         <f t="shared" si="16"/>
-        <v>800</v>
-      </c>
-      <c r="D91" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="8">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J92" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K91" s="8">
+      <c r="K92" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L91" s="8">
+      <c r="L92" s="8">
         <f t="shared" si="13"/>
         <v>800</v>
       </c>
-      <c r="M91" s="8">
+      <c r="M92" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8">
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8">
         <f t="shared" si="15"/>
         <v>800</v>
       </c>
-      <c r="Q91" s="8">
-        <f>P91</f>
+      <c r="Q92" s="8">
+        <f t="shared" ref="Q92:Q97" si="17">P92</f>
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C93" s="6">
+        <f t="shared" si="4"/>
+        <v>726</v>
+      </c>
+      <c r="D93" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="6">
         <f t="shared" si="16"/>
-        <v>726</v>
-      </c>
-      <c r="D92" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J93" s="6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K93" s="6">
         <f t="shared" si="12"/>
         <v>726</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L93" s="6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="M92" s="15">
+      <c r="M93" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="15">
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="14">
         <f t="shared" si="15"/>
         <v>726</v>
       </c>
-      <c r="Q92" s="6">
-        <f>P92</f>
+      <c r="Q93" s="6">
+        <f t="shared" si="17"/>
         <v>726</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C94" s="8">
+        <f t="shared" si="4"/>
+        <v>186</v>
+      </c>
+      <c r="D94" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="8">
         <f t="shared" si="16"/>
-        <v>186</v>
-      </c>
-      <c r="D93" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F93" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G93" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="8">
+        <v>0</v>
+      </c>
+      <c r="I94" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J94" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K94" s="8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L93" s="8">
+      <c r="L94" s="8">
         <f t="shared" si="13"/>
         <v>186</v>
       </c>
-      <c r="M93" s="8">
+      <c r="M94" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
-      <c r="P93" s="8">
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8">
         <f t="shared" si="15"/>
         <v>186</v>
       </c>
-      <c r="Q93" s="8">
-        <f>P93</f>
+      <c r="Q94" s="8">
+        <f t="shared" si="17"/>
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="14">
+        <f>174*2</f>
+        <v>348</v>
+      </c>
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="14">
+        <v>0</v>
+      </c>
+      <c r="F95" s="14">
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="14">
+        <v>0</v>
+      </c>
+      <c r="L95" s="14">
+        <v>0</v>
+      </c>
+      <c r="M95" s="14">
+        <f t="shared" si="14"/>
+        <v>348</v>
+      </c>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14">
+        <f t="shared" si="15"/>
+        <v>348</v>
+      </c>
+      <c r="Q95" s="14">
+        <f t="shared" si="17"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B96" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C96" s="8">
         <f>209*2</f>
         <v>418</v>
       </c>
-      <c r="D94" s="6">
-        <f t="shared" ref="D94:K94" si="18">C94*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="6">
+      <c r="D96" s="8">
+        <f t="shared" ref="D96:K96" si="18">C96*D25</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G94" s="6">
+      <c r="G96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K96" s="8">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L94" s="15">
-        <f t="shared" si="13"/>
+      <c r="L96" s="8">
+        <f t="shared" ref="L96:L133" si="19">C96*L24</f>
         <v>418</v>
       </c>
-      <c r="M94" s="15">
+      <c r="M96" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
-      <c r="P94" s="15">
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8">
         <f t="shared" si="15"/>
         <v>418</v>
       </c>
-      <c r="Q94" s="6">
-        <f>P94</f>
+      <c r="Q96" s="8">
+        <f t="shared" si="17"/>
         <v>418</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B97" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C95" s="8">
-        <f t="shared" ref="C95:C131" si="19">C24*2</f>
+      <c r="C97" s="14">
+        <f t="shared" ref="C97:C133" si="20">C25*2</f>
         <v>516</v>
       </c>
-      <c r="D95" s="8">
-        <f t="shared" ref="D95:D125" si="20">C95*D24</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="8">
-        <f t="shared" ref="E95:E125" si="21">C95*E24</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
-        <f t="shared" ref="F95:F125" si="22">C95*F24</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="8">
-        <f t="shared" ref="G95:G125" si="23">C95*G24</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="8">
-        <f t="shared" ref="H95:H125" si="24">C95*H24</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="8">
-        <f t="shared" ref="I95:I125" si="25">C95*I24</f>
+      <c r="D97" s="14">
+        <f t="shared" ref="D97:D127" si="21">C97*D25</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="14">
+        <f t="shared" ref="E97:E127" si="22">C97*E25</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="14">
+        <f t="shared" ref="F97:F127" si="23">C97*F25</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
+        <f t="shared" ref="G97:G127" si="24">C97*G25</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <f t="shared" ref="H97:H127" si="25">C97*H25</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <f t="shared" ref="I97:I127" si="26">C97*I25</f>
         <v>516</v>
       </c>
-      <c r="J95" s="8">
-        <f t="shared" ref="J95:J125" si="26">C95*J24</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="8">
-        <f t="shared" ref="K95:K125" si="27">C95*K24</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="8">
+      <c r="J97" s="14">
+        <f t="shared" ref="J97:J127" si="27">C97*J25</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="14">
+        <f t="shared" ref="K97:K127" si="28">C97*K25</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8">
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14">
         <f t="shared" si="15"/>
         <v>516</v>
       </c>
-      <c r="Q95" s="8">
-        <f>P95</f>
+      <c r="Q97" s="14">
+        <f t="shared" si="17"/>
         <v>516</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B98" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C98" s="8">
+        <f t="shared" si="20"/>
+        <v>158</v>
+      </c>
+      <c r="D98" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
+        <f t="shared" si="26"/>
+        <v>158</v>
+      </c>
+      <c r="J98" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="8">
+        <f t="shared" si="28"/>
+        <v>158</v>
+      </c>
+      <c r="L98" s="8">
         <f t="shared" si="19"/>
         <v>158</v>
       </c>
-      <c r="D96" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <f t="shared" si="25"/>
-        <v>158</v>
-      </c>
-      <c r="J96" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <f t="shared" si="27"/>
-        <v>158</v>
-      </c>
-      <c r="L96" s="6">
-        <f t="shared" si="13"/>
-        <v>158</v>
-      </c>
-      <c r="M96" s="15">
+      <c r="M98" s="8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="15">
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8">
         <f t="shared" si="15"/>
         <v>474</v>
       </c>
-      <c r="Q96" s="6">
-        <f>SUM(P96:P98)</f>
+      <c r="Q98" s="8">
+        <f>SUM(P98:P100)</f>
         <v>1150</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C97" s="6">
-        <f t="shared" si="19"/>
-        <v>140</v>
-      </c>
-      <c r="D97" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F97" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G97" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H97" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <f t="shared" si="25"/>
-        <v>280</v>
-      </c>
-      <c r="J97" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M97" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="15">
-        <f t="shared" si="15"/>
-        <v>280</v>
-      </c>
-      <c r="Q97" s="6"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="6">
-        <f t="shared" si="19"/>
-        <v>132</v>
-      </c>
-      <c r="D98" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <f t="shared" si="26"/>
-        <v>132</v>
-      </c>
-      <c r="K98" s="6">
-        <f t="shared" si="27"/>
-        <v>132</v>
-      </c>
-      <c r="L98" s="6">
-        <f t="shared" si="13"/>
-        <v>132</v>
-      </c>
-      <c r="M98" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="15">
-        <f t="shared" si="15"/>
-        <v>396</v>
-      </c>
-      <c r="Q98" s="6"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="8">
+        <f t="shared" si="20"/>
+        <v>140</v>
+      </c>
+      <c r="D99" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="8">
+        <f t="shared" si="26"/>
+        <v>280</v>
+      </c>
+      <c r="J99" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="8">
         <f t="shared" si="19"/>
-        <v>50</v>
-      </c>
-      <c r="D99" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H99" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="8">
-        <f t="shared" si="26"/>
-        <v>50</v>
-      </c>
-      <c r="K99" s="8">
-        <f t="shared" si="27"/>
-        <v>50</v>
-      </c>
-      <c r="L99" s="8">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
@@ -5125,664 +5107,661 @@
       <c r="O99" s="8"/>
       <c r="P99" s="8">
         <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="Q99" s="8">
-        <f>SUM(P99:P103)</f>
-        <v>1120</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="Q99" s="8"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="8">
+        <f t="shared" si="20"/>
+        <v>132</v>
+      </c>
+      <c r="D100" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="8">
+        <f t="shared" si="27"/>
+        <v>132</v>
+      </c>
+      <c r="K100" s="8">
+        <f t="shared" si="28"/>
+        <v>132</v>
+      </c>
+      <c r="L100" s="8">
+        <f t="shared" si="19"/>
+        <v>132</v>
+      </c>
+      <c r="M100" s="8">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8">
+        <f t="shared" si="15"/>
+        <v>396</v>
+      </c>
+      <c r="Q100" s="8"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B101" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="14">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="D101" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="14">
+        <f t="shared" si="27"/>
+        <v>50</v>
+      </c>
+      <c r="K101" s="14">
+        <f t="shared" si="28"/>
+        <v>50</v>
+      </c>
+      <c r="L101" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="14">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="Q101" s="14">
+        <f>SUM(P101:P105)</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C102" s="14">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="D102" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="14">
+        <f t="shared" si="24"/>
+        <v>54</v>
+      </c>
+      <c r="H102" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="J102" s="14">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="K102" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="14">
+        <f t="shared" si="15"/>
+        <v>216</v>
+      </c>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="14">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="D103" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="14">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="L103" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="14">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14">
+        <f t="shared" si="15"/>
+        <v>54</v>
+      </c>
+      <c r="Q103" s="14"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" s="14">
+        <f t="shared" si="20"/>
+        <v>54</v>
+      </c>
+      <c r="D104" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="14">
+        <f t="shared" si="23"/>
+        <v>54</v>
+      </c>
+      <c r="G104" s="14">
+        <f t="shared" si="24"/>
+        <v>108</v>
+      </c>
+      <c r="H104" s="14">
+        <f t="shared" si="25"/>
+        <v>54</v>
+      </c>
+      <c r="I104" s="14">
+        <f t="shared" si="26"/>
+        <v>54</v>
+      </c>
+      <c r="J104" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="14">
+        <f t="shared" si="28"/>
+        <v>54</v>
+      </c>
+      <c r="L104" s="14">
         <f t="shared" si="19"/>
         <v>54</v>
       </c>
-      <c r="D100" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
-        <f t="shared" si="23"/>
-        <v>54</v>
-      </c>
-      <c r="H100" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="8">
-        <f t="shared" si="25"/>
-        <v>54</v>
-      </c>
-      <c r="J100" s="8">
-        <f t="shared" si="26"/>
-        <v>108</v>
-      </c>
-      <c r="K100" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M100" s="8">
+      <c r="M104" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="8">
-        <f t="shared" si="15"/>
-        <v>216</v>
-      </c>
-      <c r="Q100" s="8"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C101" s="8">
-        <f t="shared" si="19"/>
-        <v>54</v>
-      </c>
-      <c r="D101" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F101" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K101" s="8">
-        <f t="shared" si="27"/>
-        <v>54</v>
-      </c>
-      <c r="L101" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M101" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
-      <c r="P101" s="8">
-        <f t="shared" si="15"/>
-        <v>54</v>
-      </c>
-      <c r="Q101" s="8"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="8">
-        <f t="shared" si="19"/>
-        <v>54</v>
-      </c>
-      <c r="D102" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F102" s="8">
-        <f t="shared" si="22"/>
-        <v>54</v>
-      </c>
-      <c r="G102" s="8">
-        <f t="shared" si="23"/>
-        <v>108</v>
-      </c>
-      <c r="H102" s="8">
-        <f t="shared" si="24"/>
-        <v>54</v>
-      </c>
-      <c r="I102" s="8">
-        <f t="shared" si="25"/>
-        <v>54</v>
-      </c>
-      <c r="J102" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K102" s="8">
-        <f t="shared" si="27"/>
-        <v>54</v>
-      </c>
-      <c r="L102" s="8">
-        <f t="shared" si="13"/>
-        <v>54</v>
-      </c>
-      <c r="M102" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8">
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="14">
         <f t="shared" si="15"/>
         <v>378</v>
       </c>
-      <c r="Q102" s="8"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+      <c r="Q104" s="14"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B105" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C103" s="8">
+      <c r="C105" s="14">
+        <f t="shared" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="D105" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="14">
+        <f t="shared" si="26"/>
+        <v>62</v>
+      </c>
+      <c r="J105" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K105" s="14">
+        <f t="shared" si="28"/>
+        <v>186</v>
+      </c>
+      <c r="L105" s="14">
         <f t="shared" si="19"/>
-        <v>62</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="8">
-        <f t="shared" si="25"/>
-        <v>62</v>
-      </c>
-      <c r="J103" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K103" s="8">
-        <f t="shared" si="27"/>
-        <v>186</v>
-      </c>
-      <c r="L103" s="8">
-        <f t="shared" si="13"/>
         <v>124</v>
       </c>
-      <c r="M103" s="8">
+      <c r="M105" s="14">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8">
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="14">
         <f t="shared" si="15"/>
         <v>372</v>
       </c>
-      <c r="Q103" s="8"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="6" t="s">
+      <c r="Q105" s="14"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B106" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C106" s="8">
+        <f t="shared" si="20"/>
+        <v>840</v>
+      </c>
+      <c r="D106" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="8">
+        <f t="shared" si="28"/>
+        <v>840</v>
+      </c>
+      <c r="L106" s="8">
         <f t="shared" si="19"/>
-        <v>840</v>
-      </c>
-      <c r="D104" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F104" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G104" s="6">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H104" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I104" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K104" s="6">
-        <f t="shared" si="27"/>
-        <v>840</v>
-      </c>
-      <c r="L104" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M104" s="15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="15">
+        <v>0</v>
+      </c>
+      <c r="M106" s="8">
+        <f t="shared" ref="M106:M137" si="29">C106*M34</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="8"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="8">
         <f t="shared" si="15"/>
         <v>840</v>
       </c>
-      <c r="Q104" s="6">
-        <f>P104</f>
+      <c r="Q106" s="8">
+        <f>P106</f>
         <v>840</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B107" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C105" s="8">
+      <c r="C107" s="14">
+        <f t="shared" si="20"/>
+        <v>282</v>
+      </c>
+      <c r="D107" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K107" s="14">
+        <f t="shared" si="28"/>
+        <v>282</v>
+      </c>
+      <c r="L107" s="14">
         <f t="shared" si="19"/>
-        <v>282</v>
-      </c>
-      <c r="D105" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E105" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F105" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H105" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K105" s="8">
-        <f t="shared" si="27"/>
-        <v>282</v>
-      </c>
-      <c r="L105" s="8">
-        <f t="shared" ref="L105:L131" si="28">C105*L34</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="8">
-        <f t="shared" ref="M105:M131" si="29">C105*M34</f>
-        <v>0</v>
-      </c>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
-      <c r="P105" s="8">
+        <v>0</v>
+      </c>
+      <c r="M107" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="14">
         <f t="shared" si="15"/>
         <v>282</v>
       </c>
-      <c r="Q105" s="8">
-        <f>P105</f>
+      <c r="Q107" s="14">
+        <f>P107</f>
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="6" t="s">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B108" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C106" s="6">
-        <f t="shared" si="19"/>
+      <c r="C108" s="8">
+        <f t="shared" si="20"/>
         <v>160</v>
       </c>
-      <c r="D106" s="6">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="6">
+      <c r="D108" s="8">
         <f t="shared" si="21"/>
-        <v>160</v>
-      </c>
-      <c r="F106" s="6">
+        <v>0</v>
+      </c>
+      <c r="E108" s="8">
         <f t="shared" si="22"/>
         <v>160</v>
       </c>
-      <c r="G106" s="6">
+      <c r="F108" s="8">
         <f t="shared" si="23"/>
+        <v>160</v>
+      </c>
+      <c r="G108" s="8">
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
-      <c r="H106" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="6">
+      <c r="H108" s="8">
         <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="8">
+        <f t="shared" si="26"/>
         <v>480</v>
       </c>
-      <c r="J106" s="6">
-        <f t="shared" si="26"/>
-        <v>160</v>
-      </c>
-      <c r="K106" s="6">
+      <c r="J108" s="8">
         <f t="shared" si="27"/>
         <v>160</v>
       </c>
-      <c r="L106" s="6">
+      <c r="K108" s="8">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M106" s="15">
+        <v>160</v>
+      </c>
+      <c r="L108" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="8">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="15">
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8">
         <f t="shared" si="15"/>
         <v>1440</v>
       </c>
-      <c r="Q106" s="6">
-        <f>P106</f>
+      <c r="Q108" s="8">
+        <f>P108</f>
         <v>1440</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+    <row r="109" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B109" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C107" s="8">
+      <c r="C109" s="14">
+        <f t="shared" si="20"/>
+        <v>1044</v>
+      </c>
+      <c r="D109" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="14">
         <f t="shared" si="19"/>
-        <v>1044</v>
-      </c>
-      <c r="D107" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F107" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H107" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K107" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L107" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M107" s="8">
+        <v>0</v>
+      </c>
+      <c r="M109" s="14">
         <f t="shared" si="29"/>
         <v>1044</v>
       </c>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
-      <c r="P107" s="8">
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14">
         <f t="shared" si="15"/>
         <v>1044</v>
       </c>
-      <c r="Q107" s="8">
-        <f>P107</f>
+      <c r="Q109" s="14">
+        <f>P109</f>
         <v>1044</v>
       </c>
     </row>
-    <row r="108" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+    <row r="110" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B110" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C108" s="15">
+      <c r="C110" s="8">
+        <f t="shared" si="20"/>
+        <v>68</v>
+      </c>
+      <c r="D110" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="8">
+        <f t="shared" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="H110" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="8">
+        <f t="shared" si="26"/>
+        <v>136</v>
+      </c>
+      <c r="J110" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="8">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
+      <c r="L110" s="8">
         <f t="shared" si="19"/>
         <v>68</v>
-      </c>
-      <c r="D108" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="15">
-        <f t="shared" si="23"/>
-        <v>68</v>
-      </c>
-      <c r="H108" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="15">
-        <f t="shared" si="25"/>
-        <v>136</v>
-      </c>
-      <c r="J108" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="15">
-        <f t="shared" si="27"/>
-        <v>136</v>
-      </c>
-      <c r="L108" s="15">
-        <f t="shared" si="28"/>
-        <v>68</v>
-      </c>
-      <c r="M108" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="15">
-        <f t="shared" si="15"/>
-        <v>408</v>
-      </c>
-      <c r="Q108" s="15">
-        <f>SUM(P108:P109)</f>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" s="15">
-        <f t="shared" si="19"/>
-        <v>90</v>
-      </c>
-      <c r="D109" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E109" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F109" s="15">
-        <f t="shared" si="22"/>
-        <v>90</v>
-      </c>
-      <c r="G109" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H109" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K109" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L109" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M109" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N109" s="15"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15">
-        <f t="shared" si="15"/>
-        <v>90</v>
-      </c>
-      <c r="Q109" s="15"/>
-    </row>
-    <row r="110" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="8">
-        <f t="shared" si="19"/>
-        <v>264</v>
-      </c>
-      <c r="D110" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="8">
-        <f t="shared" si="24"/>
-        <v>264</v>
-      </c>
-      <c r="I110" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K110" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L110" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
       </c>
       <c r="M110" s="8">
         <f t="shared" si="29"/>
@@ -5792,58 +5771,58 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8">
         <f t="shared" si="15"/>
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="Q110" s="8">
-        <f>SUM(P110:P112)</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <f>SUM(P110:P111)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C111" s="8">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="D111" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="8">
+        <f t="shared" si="23"/>
+        <v>90</v>
+      </c>
+      <c r="G111" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K111" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="8">
         <f t="shared" si="19"/>
-        <v>262</v>
-      </c>
-      <c r="D111" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F111" s="8">
-        <f t="shared" si="22"/>
-        <v>262</v>
-      </c>
-      <c r="G111" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K111" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L111" s="8">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
@@ -5854,238 +5833,235 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8">
         <f t="shared" si="15"/>
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="Q111" s="8"/>
     </row>
-    <row r="112" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
+    <row r="112" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C112" s="8">
+      <c r="B112" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="14">
+        <f t="shared" si="20"/>
+        <v>264</v>
+      </c>
+      <c r="D112" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="14">
+        <f t="shared" si="25"/>
+        <v>264</v>
+      </c>
+      <c r="I112" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="14">
         <f t="shared" si="19"/>
-        <v>262</v>
-      </c>
-      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="M112" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="14">
+        <f t="shared" si="15"/>
+        <v>264</v>
+      </c>
+      <c r="Q112" s="14">
+        <f>SUM(P112:P114)</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C113" s="14">
         <f t="shared" si="20"/>
         <v>262</v>
       </c>
-      <c r="E112" s="8">
+      <c r="D113" s="14">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="F112" s="8">
+      <c r="E113" s="14">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G112" s="8">
+      <c r="F113" s="14">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="8">
+        <v>262</v>
+      </c>
+      <c r="G113" s="14">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I112" s="8">
+      <c r="H113" s="14">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J112" s="8">
+      <c r="I113" s="14">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K112" s="8">
+      <c r="J113" s="14">
         <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N113" s="14"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="14">
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
-      <c r="L112" s="8">
+      <c r="Q113" s="14"/>
+    </row>
+    <row r="114" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="14">
+        <f t="shared" si="20"/>
+        <v>262</v>
+      </c>
+      <c r="D114" s="14">
+        <f t="shared" si="21"/>
+        <v>262</v>
+      </c>
+      <c r="E114" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="14">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M112" s="8">
+        <v>262</v>
+      </c>
+      <c r="L114" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
-      <c r="P112" s="8">
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14">
         <f t="shared" si="15"/>
         <v>524</v>
       </c>
-      <c r="Q112" s="8"/>
-    </row>
-    <row r="113" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
+      <c r="Q114" s="14"/>
+    </row>
+    <row r="115" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B115" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C115" s="8">
+        <f t="shared" si="20"/>
+        <v>272</v>
+      </c>
+      <c r="D115" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="8">
+        <f t="shared" si="27"/>
+        <v>544</v>
+      </c>
+      <c r="K115" s="8">
+        <f t="shared" si="28"/>
+        <v>272</v>
+      </c>
+      <c r="L115" s="8">
         <f t="shared" si="19"/>
-        <v>272</v>
-      </c>
-      <c r="D113" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G113" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="15">
-        <f t="shared" si="26"/>
-        <v>544</v>
-      </c>
-      <c r="K113" s="15">
-        <f t="shared" si="27"/>
-        <v>272</v>
-      </c>
-      <c r="L113" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N113" s="15"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="15">
-        <f t="shared" si="15"/>
-        <v>816</v>
-      </c>
-      <c r="Q113" s="15">
-        <f>P113</f>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="8">
-        <f t="shared" si="19"/>
-        <v>266</v>
-      </c>
-      <c r="D114" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="8">
-        <f t="shared" si="24"/>
-        <v>266</v>
-      </c>
-      <c r="I114" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="8">
-        <f t="shared" si="27"/>
-        <v>266</v>
-      </c>
-      <c r="L114" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8">
-        <f t="shared" si="15"/>
-        <v>532</v>
-      </c>
-      <c r="Q114" s="8">
-        <f>SUM(P114:P117)</f>
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C115" s="8">
-        <f t="shared" si="19"/>
-        <v>304</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E115" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="8">
-        <f t="shared" si="27"/>
-        <v>304</v>
-      </c>
-      <c r="L115" s="8">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M115" s="8">
@@ -6096,353 +6072,359 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8">
         <f t="shared" si="15"/>
+        <v>816</v>
+      </c>
+      <c r="Q115" s="8">
+        <f>P115</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C116" s="14">
+        <f t="shared" si="20"/>
+        <v>266</v>
+      </c>
+      <c r="D116" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="14">
+        <f t="shared" si="25"/>
+        <v>266</v>
+      </c>
+      <c r="I116" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="14">
+        <f t="shared" si="28"/>
+        <v>266</v>
+      </c>
+      <c r="L116" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="14"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="14">
+        <f t="shared" si="15"/>
+        <v>532</v>
+      </c>
+      <c r="Q116" s="14">
+        <f>SUM(P116:P119)</f>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="14">
+        <f t="shared" si="20"/>
         <v>304</v>
       </c>
-      <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
+      <c r="D117" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E117" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="14">
+        <f t="shared" si="28"/>
+        <v>304</v>
+      </c>
+      <c r="L117" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N117" s="14"/>
+      <c r="O117" s="14"/>
+      <c r="P117" s="14">
+        <f t="shared" si="15"/>
+        <v>304</v>
+      </c>
+      <c r="Q117" s="14"/>
+    </row>
+    <row r="118" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B118" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="8">
+      <c r="C118" s="14">
+        <f t="shared" si="20"/>
+        <v>254</v>
+      </c>
+      <c r="D118" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E118" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G118" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="14">
+        <f t="shared" si="26"/>
+        <v>254</v>
+      </c>
+      <c r="J118" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L118" s="14">
         <f t="shared" si="19"/>
-        <v>254</v>
-      </c>
-      <c r="D116" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
-        <f t="shared" si="25"/>
-        <v>254</v>
-      </c>
-      <c r="J116" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K116" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L116" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M116" s="8">
+        <v>0</v>
+      </c>
+      <c r="M118" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N116" s="8"/>
-      <c r="O116" s="8"/>
-      <c r="P116" s="8">
+      <c r="N118" s="14"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="14">
         <f t="shared" si="15"/>
         <v>254</v>
       </c>
-      <c r="Q116" s="8"/>
-    </row>
-    <row r="117" spans="1:17" s="19" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
+      <c r="Q118" s="14"/>
+    </row>
+    <row r="119" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B119" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C117" s="8">
+      <c r="C119" s="14">
+        <f t="shared" si="20"/>
+        <v>306</v>
+      </c>
+      <c r="D119" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <f t="shared" si="26"/>
+        <v>306</v>
+      </c>
+      <c r="J119" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L119" s="14">
         <f t="shared" si="19"/>
-        <v>306</v>
-      </c>
-      <c r="D117" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <f t="shared" si="25"/>
-        <v>306</v>
-      </c>
-      <c r="J117" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K117" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L117" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="8">
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8">
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14">
         <f t="shared" si="15"/>
         <v>306</v>
       </c>
-      <c r="Q117" s="8"/>
-    </row>
-    <row r="118" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
+      <c r="Q119" s="14"/>
+    </row>
+    <row r="120" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B120" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C118" s="15">
+      <c r="C120" s="14">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="D120" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
+        <f t="shared" si="22"/>
+        <v>124</v>
+      </c>
+      <c r="F120" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <f t="shared" si="25"/>
+        <v>124</v>
+      </c>
+      <c r="I120" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="14">
+        <f t="shared" si="27"/>
+        <v>248</v>
+      </c>
+      <c r="K120" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="14">
         <f t="shared" si="19"/>
-        <v>124</v>
-      </c>
-      <c r="D118" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="15">
-        <f t="shared" si="21"/>
-        <v>124</v>
-      </c>
-      <c r="F118" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="15">
-        <f t="shared" si="24"/>
-        <v>124</v>
-      </c>
-      <c r="I118" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J118" s="15">
-        <f t="shared" si="26"/>
-        <v>248</v>
-      </c>
-      <c r="K118" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L118" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M118" s="15">
+        <v>0</v>
+      </c>
+      <c r="M120" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15">
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="14">
         <f t="shared" si="15"/>
         <v>496</v>
       </c>
-      <c r="Q118" s="15">
-        <f>SUM(P118:P120)</f>
+      <c r="Q120" s="14">
+        <f>SUM(P120:P122)</f>
         <v>880</v>
       </c>
     </row>
-    <row r="119" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
+    <row r="121" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B121" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C121" s="8">
+        <f t="shared" si="20"/>
+        <v>130</v>
+      </c>
+      <c r="D121" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E121" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F121" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="8">
+        <f t="shared" si="24"/>
+        <v>260</v>
+      </c>
+      <c r="H121" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="8">
         <f t="shared" si="19"/>
-        <v>130</v>
-      </c>
-      <c r="D119" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="15">
-        <f t="shared" si="23"/>
-        <v>260</v>
-      </c>
-      <c r="H119" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L119" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N119" s="15"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="15">
-        <f t="shared" si="15"/>
-        <v>260</v>
-      </c>
-      <c r="Q119" s="15"/>
-    </row>
-    <row r="120" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C120" s="15">
-        <f t="shared" si="19"/>
-        <v>124</v>
-      </c>
-      <c r="D120" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E120" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F120" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J120" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K120" s="15">
-        <f t="shared" si="27"/>
-        <v>124</v>
-      </c>
-      <c r="L120" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M120" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N120" s="15"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="15">
-        <f t="shared" si="15"/>
-        <v>124</v>
-      </c>
-      <c r="Q120" s="15"/>
-    </row>
-    <row r="121" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C121" s="8">
-        <f t="shared" si="19"/>
-        <v>90</v>
-      </c>
-      <c r="D121" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E121" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H121" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J121" s="8">
-        <f t="shared" si="26"/>
-        <v>90</v>
-      </c>
-      <c r="K121" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L121" s="8">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
@@ -6453,58 +6435,55 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8">
         <f t="shared" si="15"/>
-        <v>90</v>
-      </c>
-      <c r="Q121" s="8">
-        <f>SUM(P121:P123)</f>
-        <v>286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+      <c r="Q121" s="8"/>
+    </row>
+    <row r="122" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C122" s="8">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="D122" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E122" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K122" s="8">
+        <f t="shared" si="28"/>
+        <v>124</v>
+      </c>
+      <c r="L122" s="8">
         <f t="shared" si="19"/>
-        <v>106</v>
-      </c>
-      <c r="D122" s="8">
-        <f t="shared" si="20"/>
-        <v>106</v>
-      </c>
-      <c r="E122" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K122" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="8">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
@@ -6515,287 +6494,298 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8">
         <f t="shared" si="15"/>
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="Q122" s="8"/>
     </row>
-    <row r="123" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C123" s="8">
+      <c r="B123" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="14">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="D123" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F123" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="14">
+        <f t="shared" si="27"/>
+        <v>90</v>
+      </c>
+      <c r="K123" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="14">
         <f t="shared" si="19"/>
-        <v>90</v>
-      </c>
-      <c r="D123" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="8">
-        <f t="shared" si="21"/>
-        <v>90</v>
-      </c>
-      <c r="F123" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H123" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="8">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="8">
+        <v>0</v>
+      </c>
+      <c r="M123" s="14">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8">
+      <c r="N123" s="14"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="14">
         <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="Q123" s="8"/>
-    </row>
-    <row r="124" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
+      <c r="Q123" s="14">
+        <f>SUM(P123:P125)</f>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C124" s="14">
+        <f t="shared" si="20"/>
+        <v>106</v>
+      </c>
+      <c r="D124" s="14">
+        <f t="shared" si="21"/>
+        <v>106</v>
+      </c>
+      <c r="E124" s="14">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F124" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K124" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N124" s="14"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="14">
+        <f t="shared" si="15"/>
+        <v>106</v>
+      </c>
+      <c r="Q124" s="14"/>
+    </row>
+    <row r="125" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C125" s="14">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="D125" s="14">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E125" s="14">
+        <f t="shared" si="22"/>
+        <v>90</v>
+      </c>
+      <c r="F125" s="14">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G125" s="14">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="14">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="14">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="14">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="14">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="14">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+      <c r="Q125" s="14"/>
+    </row>
+    <row r="126" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B126" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C124" s="15">
+      <c r="C126" s="8">
+        <f t="shared" si="20"/>
+        <v>40</v>
+      </c>
+      <c r="D126" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E126" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="H126" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
+        <f t="shared" si="26"/>
+        <v>160</v>
+      </c>
+      <c r="J126" s="8">
+        <f t="shared" si="27"/>
+        <v>160</v>
+      </c>
+      <c r="K126" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="8">
         <f t="shared" si="19"/>
         <v>40</v>
       </c>
-      <c r="D124" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F124" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="15">
-        <f t="shared" si="23"/>
-        <v>80</v>
-      </c>
-      <c r="H124" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="15">
-        <f t="shared" si="25"/>
-        <v>160</v>
-      </c>
-      <c r="J124" s="15">
-        <f t="shared" si="26"/>
-        <v>160</v>
-      </c>
-      <c r="K124" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L124" s="15">
-        <f t="shared" si="28"/>
-        <v>40</v>
-      </c>
-      <c r="M124" s="15">
+      <c r="M126" s="8">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15">
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8">
         <f t="shared" si="15"/>
         <v>440</v>
       </c>
-      <c r="Q124" s="15">
-        <f>SUM(P124:P126)</f>
-        <v>678</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="15" t="s">
+      <c r="Q126" s="8">
+        <f>SUM(P126:P128)</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B127" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C125" s="15">
+      <c r="C127" s="8">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="D127" s="8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F127" s="8">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="8">
+        <f t="shared" si="28"/>
+        <v>136</v>
+      </c>
+      <c r="L127" s="8">
         <f t="shared" si="19"/>
-        <v>34</v>
-      </c>
-      <c r="D125" s="15">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E125" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F125" s="15">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="15">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H125" s="15">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="15">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="15">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="15">
-        <f t="shared" si="27"/>
-        <v>136</v>
-      </c>
-      <c r="L125" s="15">
-        <f t="shared" si="28"/>
         <v>68</v>
-      </c>
-      <c r="M125" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15">
-        <f t="shared" si="15"/>
-        <v>204</v>
-      </c>
-      <c r="Q125" s="15"/>
-    </row>
-    <row r="126" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="15">
-        <f t="shared" si="19"/>
-        <v>34</v>
-      </c>
-      <c r="D126" s="15">
-        <v>0</v>
-      </c>
-      <c r="E126" s="15">
-        <v>0</v>
-      </c>
-      <c r="F126" s="15">
-        <v>0</v>
-      </c>
-      <c r="G126" s="15">
-        <v>0</v>
-      </c>
-      <c r="H126" s="15">
-        <v>0</v>
-      </c>
-      <c r="I126" s="15">
-        <v>0</v>
-      </c>
-      <c r="J126" s="15">
-        <v>0</v>
-      </c>
-      <c r="K126" s="15">
-        <v>0</v>
-      </c>
-      <c r="L126" s="15">
-        <f t="shared" si="28"/>
-        <v>34</v>
-      </c>
-      <c r="M126" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="15"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="15">
-        <f t="shared" si="15"/>
-        <v>34</v>
-      </c>
-      <c r="Q126" s="15"/>
-    </row>
-    <row r="127" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C127" s="8">
-        <f t="shared" si="19"/>
-        <v>248</v>
-      </c>
-      <c r="D127" s="8">
-        <f>C127*D56</f>
-        <v>248</v>
-      </c>
-      <c r="E127" s="8">
-        <f>C127*E56</f>
-        <v>248</v>
-      </c>
-      <c r="F127" s="8">
-        <f>C127*F56</f>
-        <v>248</v>
-      </c>
-      <c r="G127" s="8">
-        <f>C127*G56</f>
-        <v>496</v>
-      </c>
-      <c r="H127" s="8">
-        <f>C127*H56</f>
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <f>C127*I56</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="8">
-        <f>C127*J56</f>
-        <v>0</v>
-      </c>
-      <c r="K127" s="8">
-        <f>C127*K56</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="8">
-        <f t="shared" si="28"/>
-        <v>0</v>
       </c>
       <c r="M127" s="8">
         <f t="shared" si="29"/>
@@ -6805,238 +6795,230 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8">
         <f t="shared" si="15"/>
+        <v>204</v>
+      </c>
+      <c r="Q127" s="8"/>
+    </row>
+    <row r="128" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C128" s="8">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <v>0</v>
+      </c>
+      <c r="J128" s="8">
+        <v>0</v>
+      </c>
+      <c r="K128" s="8">
+        <v>0</v>
+      </c>
+      <c r="L128" s="8">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="M128" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8">
+        <f t="shared" si="15"/>
+        <v>68</v>
+      </c>
+      <c r="Q128" s="8"/>
+    </row>
+    <row r="129" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C129" s="14">
+        <f t="shared" si="20"/>
+        <v>248</v>
+      </c>
+      <c r="D129" s="14">
+        <f>C129*D57</f>
+        <v>248</v>
+      </c>
+      <c r="E129" s="14">
+        <f>C129*E57</f>
+        <v>248</v>
+      </c>
+      <c r="F129" s="14">
+        <f>C129*F57</f>
+        <v>248</v>
+      </c>
+      <c r="G129" s="14">
+        <f>C129*G57</f>
+        <v>496</v>
+      </c>
+      <c r="H129" s="14">
+        <f>C129*H57</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="14">
+        <f>C129*I57</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="14">
+        <f>C129*J57</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="14">
+        <f>C129*K57</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N129" s="14"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="14">
+        <f t="shared" si="15"/>
         <v>1240</v>
       </c>
-      <c r="Q127" s="8">
-        <f>SUM(P127)</f>
+      <c r="Q129" s="14">
+        <f>SUM(P129)</f>
         <v>1240</v>
       </c>
     </row>
-    <row r="128" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="15" t="s">
+    <row r="130" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B130" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C128" s="15">
+      <c r="C130" s="8">
+        <f t="shared" si="20"/>
+        <v>124</v>
+      </c>
+      <c r="D130" s="8">
+        <f>C130*D58</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="8">
+        <f>C130*E58</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="8">
+        <f>C130*F58</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="8">
+        <f>C130*G58</f>
+        <v>124</v>
+      </c>
+      <c r="H130" s="8">
+        <f>C130*H58</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="8">
+        <f>C130*I58</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="8">
+        <f>C130*J58</f>
+        <v>124</v>
+      </c>
+      <c r="K130" s="8">
+        <f>C130*K58</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="8">
         <f t="shared" si="19"/>
-        <v>124</v>
-      </c>
-      <c r="D128" s="15">
-        <f>C128*D57</f>
-        <v>0</v>
-      </c>
-      <c r="E128" s="15">
-        <f>C128*E57</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="15">
-        <f>C128*F57</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="15">
-        <f>C128*G57</f>
-        <v>124</v>
-      </c>
-      <c r="H128" s="15">
-        <f>C128*H57</f>
-        <v>0</v>
-      </c>
-      <c r="I128" s="15">
-        <f>C128*I57</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="15">
-        <f>C128*J57</f>
-        <v>124</v>
-      </c>
-      <c r="K128" s="15">
-        <f>C128*K57</f>
-        <v>0</v>
-      </c>
-      <c r="L128" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M128" s="15">
+        <v>0</v>
+      </c>
+      <c r="M130" s="8">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N128" s="15"/>
-      <c r="O128" s="15"/>
-      <c r="P128" s="15">
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8">
         <f t="shared" si="15"/>
         <v>248</v>
       </c>
-      <c r="Q128" s="15">
-        <f>SUM(P128:P130)</f>
+      <c r="Q130" s="8">
+        <f>SUM(P130:P132)</f>
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="15" t="s">
+    <row r="131" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B129" s="15" t="s">
+      <c r="B131" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C129" s="15">
+      <c r="C131" s="8">
+        <f t="shared" si="20"/>
+        <v>118</v>
+      </c>
+      <c r="D131" s="8">
+        <f>C131*D59</f>
+        <v>118</v>
+      </c>
+      <c r="E131" s="8">
+        <f>C131*E59</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="8">
+        <f>C131*F59</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="8">
+        <f>C131*G59</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="8">
+        <f>C131*H59</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="8">
+        <f>C131*I59</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="8">
+        <f>C131*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="8">
+        <f>C131*K59</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="8">
         <f t="shared" si="19"/>
-        <v>118</v>
-      </c>
-      <c r="D129" s="15">
-        <f>C129*D58</f>
-        <v>118</v>
-      </c>
-      <c r="E129" s="15">
-        <f>C129*E58</f>
-        <v>0</v>
-      </c>
-      <c r="F129" s="15">
-        <f>C129*F58</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="15">
-        <f>C129*G58</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="15">
-        <f>C129*H58</f>
-        <v>0</v>
-      </c>
-      <c r="I129" s="15">
-        <f>C129*I58</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="15">
-        <f>C129*J58</f>
-        <v>0</v>
-      </c>
-      <c r="K129" s="15">
-        <f>C129*K58</f>
-        <v>0</v>
-      </c>
-      <c r="L129" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M129" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="15"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="15">
-        <f t="shared" si="15"/>
-        <v>118</v>
-      </c>
-      <c r="Q129" s="15"/>
-    </row>
-    <row r="130" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C130" s="15">
-        <f t="shared" si="19"/>
-        <v>116</v>
-      </c>
-      <c r="D130" s="15">
-        <f>C130*D59</f>
-        <v>0</v>
-      </c>
-      <c r="E130" s="15">
-        <f>C130*E59</f>
-        <v>0</v>
-      </c>
-      <c r="F130" s="15">
-        <f>C130*F59</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="15">
-        <f>C130*G59</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="15">
-        <f>C130*H59</f>
-        <v>0</v>
-      </c>
-      <c r="I130" s="15">
-        <f>C130*I59</f>
-        <v>116</v>
-      </c>
-      <c r="J130" s="15">
-        <f>C130*J59</f>
-        <v>0</v>
-      </c>
-      <c r="K130" s="15">
-        <f>C130*K59</f>
-        <v>0</v>
-      </c>
-      <c r="L130" s="15">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="M130" s="15">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="N130" s="15"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="15">
-        <f t="shared" si="15"/>
-        <v>116</v>
-      </c>
-      <c r="Q130" s="15"/>
-    </row>
-    <row r="131" spans="1:17" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C131" s="8">
-        <f t="shared" si="19"/>
-        <v>138</v>
-      </c>
-      <c r="D131" s="8">
-        <f>C131*D60</f>
-        <v>0</v>
-      </c>
-      <c r="E131" s="8">
-        <f>C131*E60</f>
-        <v>0</v>
-      </c>
-      <c r="F131" s="8">
-        <f>C131*F60</f>
-        <v>138</v>
-      </c>
-      <c r="G131" s="8">
-        <f>C131*G60</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="8">
-        <f>C131*H60</f>
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <f>C131*I60</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="8">
-        <f>C131*J60</f>
-        <v>0</v>
-      </c>
-      <c r="K131" s="8">
-        <f>C131*K60</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="8">
-        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
@@ -7047,569 +7029,687 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8">
         <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="Q131" s="8"/>
+    </row>
+    <row r="132" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="8">
+        <f t="shared" si="20"/>
+        <v>116</v>
+      </c>
+      <c r="D132" s="8">
+        <f>C132*D60</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="8">
+        <f>C132*E60</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="8">
+        <f>C132*F60</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="8">
+        <f>C132*G60</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="8">
+        <f>C132*H60</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="8">
+        <f>C132*I60</f>
+        <v>116</v>
+      </c>
+      <c r="J132" s="8">
+        <f>C132*J60</f>
+        <v>0</v>
+      </c>
+      <c r="K132" s="8">
+        <f>C132*K60</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="Q132" s="8"/>
+    </row>
+    <row r="133" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="14">
+        <f t="shared" si="20"/>
         <v>138</v>
       </c>
-      <c r="Q131" s="8">
-        <f>P131</f>
+      <c r="D133" s="14">
+        <f>C133*D61</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="14">
+        <f>C133*E61</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="14">
+        <f>C133*F61</f>
         <v>138</v>
       </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" s="7" t="s">
+      <c r="G133" s="14">
+        <f>C133*G61</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <f>C133*H61</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="14">
+        <f>C133*I61</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="14">
+        <f>C133*J61</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="14">
+        <f>C133*K61</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="14">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14">
+        <f t="shared" si="15"/>
+        <v>138</v>
+      </c>
+      <c r="Q133" s="14">
+        <f>P133</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A137" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7" t="s">
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="7" t="s">
+      <c r="E137" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F137" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="7" t="s">
+      <c r="G137" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I135" s="7" t="s">
+      <c r="I137" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J135" s="7" t="s">
+      <c r="J137" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K135" s="7" t="s">
+      <c r="K137" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L135" s="7" t="s">
+      <c r="L137" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M135" s="9" t="s">
+      <c r="M137" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N135" s="9" t="s">
+      <c r="N137" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O135" s="9" t="s">
+      <c r="O137" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="9"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8">
-        <f t="shared" ref="D136:M136" si="30">SUM(D73:D131)</f>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="9"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8">
+        <f t="shared" ref="D138:M138" si="30">SUM(D74:D133)</f>
         <v>750</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E138" s="8">
         <f t="shared" si="30"/>
         <v>892</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F138" s="8">
         <f t="shared" si="30"/>
         <v>1166</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G138" s="8">
         <f t="shared" si="30"/>
         <v>1830</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H138" s="8">
         <f t="shared" si="30"/>
         <v>802</v>
       </c>
-      <c r="I136" s="8">
+      <c r="I138" s="8">
         <f t="shared" si="30"/>
         <v>3046</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J138" s="8">
         <f t="shared" si="30"/>
         <v>2704</v>
       </c>
-      <c r="K136" s="8">
+      <c r="K138" s="8">
         <f t="shared" si="30"/>
         <v>4664</v>
       </c>
-      <c r="L136" s="8">
+      <c r="L138" s="8">
         <f t="shared" si="30"/>
-        <v>2514</v>
-      </c>
-      <c r="M136" s="8">
+        <v>2548</v>
+      </c>
+      <c r="M138" s="8">
         <f t="shared" si="30"/>
-        <v>2432</v>
-      </c>
-      <c r="N136" s="8">
-        <f>SUM(D136:M136)</f>
-        <v>20800</v>
-      </c>
-      <c r="O136" s="16">
-        <f>N136/N62</f>
-        <v>151.82481751824818</v>
-      </c>
-      <c r="P136" s="8">
-        <f>SUM(P73:P131)</f>
-        <v>20800</v>
-      </c>
-      <c r="Q136" s="8">
-        <f>SUM(Q73:Q131)</f>
-        <v>20800</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="17">
-        <f t="shared" ref="D137:N137" si="31">D136/D62</f>
+        <v>2780</v>
+      </c>
+      <c r="N138" s="8">
+        <f>SUM(D138:M138)</f>
+        <v>21182</v>
+      </c>
+      <c r="O138" s="15">
+        <f>N138/N63</f>
+        <v>152.3884892086331</v>
+      </c>
+      <c r="P138" s="8">
+        <f>SUM(P74:P133)</f>
+        <v>21182</v>
+      </c>
+      <c r="Q138" s="8">
+        <f>SUM(Q74:Q133)</f>
+        <v>21182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="16">
+        <f t="shared" ref="D139:N139" si="31">D138/D63</f>
         <v>150</v>
       </c>
-      <c r="E137" s="17">
+      <c r="E139" s="16">
         <f t="shared" si="31"/>
         <v>89.2</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F139" s="16">
         <f t="shared" si="31"/>
         <v>116.6</v>
       </c>
-      <c r="G137" s="17">
+      <c r="G139" s="16">
         <f t="shared" si="31"/>
         <v>114.375</v>
       </c>
-      <c r="H137" s="17">
+      <c r="H139" s="16">
         <f t="shared" si="31"/>
         <v>160.4</v>
       </c>
-      <c r="I137" s="17">
+      <c r="I139" s="16">
         <f t="shared" si="31"/>
         <v>138.45454545454547</v>
       </c>
-      <c r="J137" s="17">
+      <c r="J139" s="16">
         <f t="shared" si="31"/>
         <v>142.31578947368422</v>
       </c>
-      <c r="K137" s="17">
+      <c r="K139" s="16">
         <f t="shared" si="31"/>
         <v>172.74074074074073</v>
       </c>
-      <c r="L137" s="17">
+      <c r="L139" s="16">
         <f t="shared" si="31"/>
-        <v>167.6</v>
-      </c>
-      <c r="M137" s="17">
+        <v>159.25</v>
+      </c>
+      <c r="M139" s="16">
         <f t="shared" si="31"/>
-        <v>304</v>
-      </c>
-      <c r="N137" s="17">
+        <v>308.88888888888891</v>
+      </c>
+      <c r="N139" s="16">
         <f t="shared" si="31"/>
-        <v>151.82481751824818</v>
-      </c>
-      <c r="O137" s="6" t="s">
+        <v>152.3884892086331</v>
+      </c>
+      <c r="O139" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="P139" s="6"/>
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1" t="s">
+      <c r="C209" s="1"/>
+      <c r="D209" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
         <v>13</v>
       </c>
-      <c r="B208">
+      <c r="B210">
         <v>3</v>
       </c>
-      <c r="D208">
+      <c r="D210">
         <f>SUM(N2:N4)</f>
         <v>10</v>
       </c>
-      <c r="E208">
+      <c r="E210">
         <f>SUM(P2:P4)</f>
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
         <v>17</v>
       </c>
-      <c r="B209">
-        <v>1</v>
-      </c>
-      <c r="D209">
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="D211">
         <f>N5</f>
         <v>1</v>
       </c>
-      <c r="E209">
+      <c r="E211">
         <f>P5</f>
         <v>564</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>19</v>
       </c>
-      <c r="B210">
+      <c r="B212">
         <v>2</v>
       </c>
-      <c r="D210">
+      <c r="D212">
         <f>N6</f>
         <v>4</v>
       </c>
-      <c r="E210">
+      <c r="E212">
         <f>SUM(P6:P7)</f>
         <v>1394</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>22</v>
       </c>
-      <c r="B211">
+      <c r="B213">
         <v>5</v>
       </c>
-      <c r="D211">
+      <c r="D213">
         <f>SUM(N8:N14)</f>
         <v>10</v>
       </c>
-      <c r="E211">
+      <c r="E213">
         <f>SUM(P8:P14)</f>
         <v>1818</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>28</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-      <c r="D212">
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="D214">
         <f>N14</f>
         <v>2</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <f>SUM(P14)</f>
         <v>832</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>30</v>
       </c>
-      <c r="B213">
+      <c r="B215">
         <v>5</v>
       </c>
-      <c r="D213">
+      <c r="D215">
         <f>SUM(N15:N19)</f>
         <v>9</v>
       </c>
-      <c r="E213">
+      <c r="E215">
         <f>SUM(P15:P19)</f>
         <v>906</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>36</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-      <c r="D214">
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="D216">
         <f>N21</f>
         <v>1</v>
       </c>
-      <c r="E214">
+      <c r="E216">
         <f>P21</f>
         <v>726</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>38</v>
-      </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-      <c r="D215">
-        <f>N24</f>
-        <v>1</v>
-      </c>
-      <c r="E215">
-        <f>P24</f>
-        <v>516</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>40</v>
-      </c>
-      <c r="B216">
-        <v>3</v>
-      </c>
-      <c r="D216">
-        <f>SUM(N25:N27)</f>
-        <v>8</v>
-      </c>
-      <c r="E216">
-        <f>SUM(P25:P27)</f>
-        <v>1150</v>
-      </c>
-    </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B217">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <f>SUM(N28:N32)</f>
-        <v>20</v>
+        <f>N25</f>
+        <v>1</v>
       </c>
       <c r="E217">
-        <f>SUM(P28:P32)</f>
-        <v>1120</v>
+        <f>P25</f>
+        <v>516</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <f>N33</f>
-        <v>1</v>
+        <f>SUM(N26:N28)</f>
+        <v>8</v>
       </c>
       <c r="E218">
-        <f>P33</f>
-        <v>840</v>
+        <f>SUM(P26:P28)</f>
+        <v>1150</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D219">
-        <f>N34</f>
-        <v>1</v>
+        <f>SUM(N29:N33)</f>
+        <v>20</v>
       </c>
       <c r="E219">
-        <f>P34</f>
-        <v>282</v>
+        <f>SUM(P29:P33)</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="D220">
-        <f>N35</f>
-        <v>9</v>
+        <f>N34</f>
+        <v>1</v>
       </c>
       <c r="E220">
-        <f>P35</f>
-        <v>1440</v>
+        <f>P34</f>
+        <v>840</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <f>SUM(N37:N38)</f>
-        <v>7</v>
+        <f>N35</f>
+        <v>1</v>
       </c>
       <c r="E221">
-        <f>SUM(P37:P38)</f>
-        <v>498</v>
+        <f>P35</f>
+        <v>282</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B222">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <f>SUM(N39:N41)</f>
-        <v>4</v>
+        <f>N36</f>
+        <v>9</v>
       </c>
       <c r="E222">
-        <f>SUM(P39:P41)</f>
-        <v>1050</v>
+        <f>P36</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <f>SUM(N42)</f>
-        <v>3</v>
+        <f>SUM(N38:N39)</f>
+        <v>7</v>
       </c>
       <c r="E223">
-        <f>P42</f>
-        <v>816</v>
+        <f>SUM(P38:P39)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="D224">
+        <f>SUM(N40:N42)</f>
         <v>4</v>
       </c>
-      <c r="D224">
-        <f>SUM(N43:N46)</f>
-        <v>5</v>
-      </c>
       <c r="E224">
-        <f>SUM(P43:P46)</f>
-        <v>1396</v>
+        <f>SUM(P40:P42)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <f>SUM(N43)</f>
         <v>3</v>
       </c>
-      <c r="D225">
-        <f>SUM(N47:N49)</f>
-        <v>7</v>
-      </c>
       <c r="E225">
-        <f>SUM(P47:P49)</f>
-        <v>880</v>
+        <f>P43</f>
+        <v>816</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D226">
-        <f>SUM(N50:N52)</f>
-        <v>3</v>
+        <f>SUM(N44:N47)</f>
+        <v>5</v>
       </c>
       <c r="E226">
-        <f>SUM(P50:P52)</f>
-        <v>286</v>
+        <f>SUM(P44:P47)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D227">
-        <f>SUM(N53:N54)</f>
-        <v>17</v>
+        <f>SUM(N48:N50)</f>
+        <v>7</v>
       </c>
       <c r="E227">
-        <f>SUM(P53:P54)</f>
-        <v>644</v>
+        <f>SUM(P48:P50)</f>
+        <v>880</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D228">
-        <f>SUM(N56)</f>
-        <v>5</v>
+        <f>SUM(N51:N53)</f>
+        <v>3</v>
       </c>
       <c r="E228">
-        <f>P56</f>
-        <v>1240</v>
+        <f>SUM(P51:P53)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B229">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229">
-        <f>SUM(N57:N59)</f>
-        <v>4</v>
+        <f>SUM(N54:N55)</f>
+        <v>17</v>
       </c>
       <c r="E229">
-        <f>SUM(P57:P59)</f>
-        <v>482</v>
+        <f>SUM(P54:P55)</f>
+        <v>644</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>81</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="D230">
+        <f>SUM(N57)</f>
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <f>P57</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>83</v>
+      </c>
+      <c r="B231">
+        <v>3</v>
+      </c>
+      <c r="D231">
+        <f>SUM(N58:N60)</f>
+        <v>4</v>
+      </c>
+      <c r="E231">
+        <f>SUM(P58:P60)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
         <v>87</v>
       </c>
-      <c r="B230">
-        <v>1</v>
-      </c>
-      <c r="D230">
-        <f>N60</f>
-        <v>1</v>
-      </c>
-      <c r="E230">
-        <f>P60</f>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="D232">
+        <f>N61</f>
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <f>P61</f>
         <v>138</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1">
-        <f>SUM(B208:B230)</f>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1">
+        <f>SUM(B210:B232)</f>
         <v>53</v>
       </c>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1">
-        <f>SUM(D208:D230)</f>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1">
+        <f>SUM(D210:D232)</f>
         <v>133</v>
       </c>
-      <c r="E232" s="1">
-        <f>SUM(E208:E230)</f>
+      <c r="E234" s="1">
+        <f>SUM(E210:E232)</f>
         <v>19150</v>
       </c>
     </row>
@@ -7819,7 +7919,7 @@
       <c r="A7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="6">
@@ -8156,7 +8256,7 @@
       <c r="A24" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="6">

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE951FD1-27B7-4286-943A-5090945F1161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AA6E1-CEF8-4528-B6C8-760957EFF5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="20616" windowHeight="11628" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -568,7 +568,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
   <dimension ref="A1:Q236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="Q87" sqref="Q87"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1090,18 +1089,20 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6">
+        <v>1</v>
+      </c>
       <c r="N5" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="6">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>564</v>
       </c>
       <c r="P5" s="6">
         <f t="shared" si="1"/>
-        <v>564</v>
+        <v>1128</v>
       </c>
       <c r="Q5" s="6">
         <v>1</v>
@@ -3363,16 +3364,16 @@
       </c>
       <c r="M64" s="12">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N64" s="12">
         <f>SUM(D64:M64)</f>
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O64" s="12"/>
       <c r="P64" s="7">
         <f>SUM(P2:P62)</f>
-        <v>21546</v>
+        <v>22110</v>
       </c>
       <c r="Q64" s="13">
         <f>SUM(Q2:Q62)</f>
@@ -3603,47 +3604,47 @@
         <v>14</v>
       </c>
       <c r="C75" s="8">
-        <f>C2*2</f>
+        <f t="shared" ref="C75:C96" si="4">C2*2</f>
         <v>16</v>
       </c>
       <c r="D75" s="8">
-        <f>C75*D2</f>
+        <f t="shared" ref="D75:D85" si="5">C75*D2</f>
         <v>0</v>
       </c>
       <c r="E75" s="8">
-        <f>C75*E2</f>
+        <f t="shared" ref="E75:E85" si="6">C75*E2</f>
         <v>0</v>
       </c>
       <c r="F75" s="8">
-        <f>C75*F2</f>
+        <f t="shared" ref="F75:F85" si="7">C75*F2</f>
         <v>0</v>
       </c>
       <c r="G75" s="8">
-        <f>C75*G2</f>
+        <f t="shared" ref="G75:G85" si="8">C75*G2</f>
         <v>0</v>
       </c>
       <c r="H75" s="8">
-        <f>C75*H2</f>
+        <f t="shared" ref="H75:H85" si="9">C75*H2</f>
         <v>0</v>
       </c>
       <c r="I75" s="8">
-        <f>C75*I2</f>
+        <f t="shared" ref="I75:I85" si="10">C75*I2</f>
         <v>0</v>
       </c>
       <c r="J75" s="8">
-        <f>C75*J2</f>
+        <f t="shared" ref="J75:J85" si="11">C75*J2</f>
         <v>16</v>
       </c>
       <c r="K75" s="8">
-        <f>C75*K2</f>
+        <f t="shared" ref="K75:K85" si="12">C75*K2</f>
         <v>0</v>
       </c>
       <c r="L75" s="8">
-        <f>C75*L2</f>
+        <f t="shared" ref="L75:L85" si="13">C75*L2</f>
         <v>16</v>
       </c>
       <c r="M75" s="8">
-        <f>C75*M2</f>
+        <f t="shared" ref="M75:M85" si="14">C75*M2</f>
         <v>16</v>
       </c>
       <c r="N75" s="8"/>
@@ -3665,53 +3666,53 @@
         <v>15</v>
       </c>
       <c r="C76" s="8">
-        <f>C3*2</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D76" s="8">
-        <f>C76*D3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f>C76*E3</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F76" s="8">
-        <f>C76*F3</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G76" s="8">
-        <f>C76*G3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f>C76*H3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f>C76*I3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <f>C76*J3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K76" s="8">
-        <f>C76*K3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f>C76*L3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M76" s="8">
-        <f>C76*M3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8">
-        <f t="shared" ref="P76:P135" si="4">SUM(D76:M76)</f>
+        <f t="shared" ref="P76:P135" si="15">SUM(D76:M76)</f>
         <v>4</v>
       </c>
       <c r="Q76" s="8"/>
@@ -3724,53 +3725,53 @@
         <v>16</v>
       </c>
       <c r="C77" s="8">
-        <f>C4*2</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D77" s="8">
-        <f>C77*D4</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E77" s="8">
-        <f>C77*E4</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="F77" s="8">
-        <f>C77*F4</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="G77" s="8">
-        <f>C77*G4</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <f>C77*H4</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I77" s="8">
-        <f>C77*I4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <f>C77*J4</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K77" s="8">
-        <f>C77*K4</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L77" s="8">
-        <f>C77*L4</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M77" s="8">
-        <f>C77*M4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q77" s="8"/>
@@ -3783,58 +3784,58 @@
         <v>18</v>
       </c>
       <c r="C78" s="6">
-        <f>C5*2</f>
+        <f t="shared" si="4"/>
         <v>564</v>
       </c>
       <c r="D78" s="6">
-        <f>C78*D5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E78" s="6">
-        <f>C78*E5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F78" s="6">
-        <f>C78*F5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G78" s="6">
-        <f>C78*G5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H78" s="6">
-        <f>C78*H5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78" s="6">
-        <f>C78*I5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J78" s="6">
-        <f>C78*J5</f>
+        <f t="shared" si="11"/>
         <v>564</v>
       </c>
       <c r="K78" s="6">
-        <f>C78*K5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L78" s="6">
-        <f>C78*L5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M78" s="14">
-        <f>C78*M5</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>564</v>
       </c>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="14">
-        <f t="shared" si="4"/>
-        <v>564</v>
+        <f t="shared" si="15"/>
+        <v>1128</v>
       </c>
       <c r="Q78" s="6">
         <f>SUM(P78)</f>
-        <v>564</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,53 +3846,53 @@
         <v>20</v>
       </c>
       <c r="C79" s="8">
-        <f>C6*2</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="D79" s="8">
-        <f>C79*D6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E79" s="8">
-        <f>C79*E6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="8">
-        <f>C79*F6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G79" s="8">
-        <f>C79*G6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H79" s="8">
-        <f>C79*H6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I79" s="8">
-        <f>C79*I6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J79" s="8">
-        <f>C79*J6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K79" s="8">
-        <f>C79*K6</f>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="L79" s="8">
-        <f>C79*L6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M79" s="8">
-        <f>C79*M6</f>
+        <f t="shared" si="14"/>
         <v>834</v>
       </c>
       <c r="N79" s="8"/>
       <c r="O79" s="8"/>
       <c r="P79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1112</v>
       </c>
       <c r="Q79" s="8">
@@ -3907,53 +3908,53 @@
         <v>21</v>
       </c>
       <c r="C80" s="8">
-        <f>C7*2</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="D80" s="8">
-        <f>C80*D7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f>C80*E7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f>C80*F7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <f>C80*G7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H80" s="8">
-        <f>C80*H7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I80" s="8">
-        <f>C80*I7</f>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="J80" s="8">
-        <f>C80*J7</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K80" s="8">
-        <f>C80*K7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L80" s="8">
-        <f>C80*L7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
-        <f>C80*M7</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q80" s="8"/>
@@ -3966,53 +3967,53 @@
         <v>23</v>
       </c>
       <c r="C81" s="6">
-        <f>C8*2</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D81" s="6">
-        <f>C81*D8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E81" s="6">
-        <f>C81*E8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <f>C81*F8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G81" s="6">
-        <f>C81*G8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H81" s="6">
-        <f>C81*H8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <f>C81*I8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>C81*J8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>C81*K8</f>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="L81" s="6">
-        <f>C81*L8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M81" s="14">
-        <f>C81*M8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="Q81" s="6">
@@ -4028,53 +4029,53 @@
         <v>24</v>
       </c>
       <c r="C82" s="6">
-        <f>C9*2</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D82" s="6">
-        <f>C82*D9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f>C82*E9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f>C82*F9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f>C82*G9</f>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="H82" s="6">
-        <f>C82*H9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>C82*I9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>C82*J9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>C82*K9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L82" s="6">
-        <f>C82*L9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M82" s="14">
-        <f>C82*M9</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q82" s="6"/>
@@ -4087,53 +4088,53 @@
         <v>25</v>
       </c>
       <c r="C83" s="6">
-        <f>C10*2</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="D83" s="6">
-        <f>C83*D10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f>C83*E10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f>C83*F10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G83" s="6">
-        <f>C83*G10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H83" s="6">
-        <f>C83*H10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>C83*I10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>C83*J10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>C83*K10</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="L83" s="6">
-        <f>C83*L10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M83" s="14">
-        <f>C83*M10</f>
+        <f t="shared" si="14"/>
         <v>168</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>252</v>
       </c>
       <c r="Q83" s="6"/>
@@ -4146,53 +4147,53 @@
         <v>26</v>
       </c>
       <c r="C84" s="6">
-        <f>C11*2</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="D84" s="6">
-        <f>C84*D11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E84" s="6">
-        <f>C84*E11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="6">
-        <f>C84*F11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G84" s="6">
-        <f>C84*G11</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="H84" s="6">
-        <f>C84*H11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <f>C84*I11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <f>C84*J11</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f>C84*K11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L84" s="6">
-        <f>C84*L11</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <f>C84*M11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="Q84" s="6"/>
@@ -4205,53 +4206,53 @@
         <v>27</v>
       </c>
       <c r="C85" s="6">
-        <f>C12*2</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="D85" s="6">
-        <f>C85*D12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E85" s="6">
-        <f>C85*E12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f>C85*F12</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="G85" s="6">
-        <f>C85*G12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H85" s="6">
-        <f>C85*H12</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I85" s="6">
-        <f>C85*I12</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <f>C85*J12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K85" s="6">
-        <f>C85*K12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L85" s="6">
-        <f>C85*L12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M85" s="14">
-        <f>C85*M12</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="Q85" s="6"/>
@@ -4264,7 +4265,7 @@
         <v>126</v>
       </c>
       <c r="C86" s="8">
-        <f>C13*2</f>
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
       <c r="D86" s="8">
@@ -4295,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="M86" s="8">
-        <f t="shared" ref="M86" si="5">C86*M14</f>
+        <f t="shared" ref="M86" si="16">C86*M14</f>
         <v>364</v>
       </c>
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
       <c r="P86" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="Q86" s="8">
@@ -4317,19 +4318,19 @@
         <v>29</v>
       </c>
       <c r="C87" s="14">
-        <f>C14*2</f>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="D87" s="14">
-        <f>C87*D14</f>
+        <f t="shared" ref="D87:D96" si="17">C87*D14</f>
         <v>0</v>
       </c>
       <c r="E87" s="14">
-        <f>C87*E14</f>
+        <f t="shared" ref="E87:E96" si="18">C87*E14</f>
         <v>0</v>
       </c>
       <c r="F87" s="14">
-        <f>C87*F14</f>
+        <f t="shared" ref="F87:F96" si="19">C87*F14</f>
         <v>0</v>
       </c>
       <c r="G87" s="14">
@@ -4341,29 +4342,29 @@
         <v>0</v>
       </c>
       <c r="I87" s="14">
-        <f>C87*I14</f>
+        <f t="shared" ref="I87:I96" si="20">C87*I14</f>
         <v>0</v>
       </c>
       <c r="J87" s="14">
-        <f>C87*J14</f>
+        <f t="shared" ref="J87:J96" si="21">C87*J14</f>
         <v>0</v>
       </c>
       <c r="K87" s="14">
-        <f>C87*K14</f>
+        <f t="shared" ref="K87:K96" si="22">C87*K14</f>
         <v>0</v>
       </c>
       <c r="L87" s="14">
-        <f>C87*L14</f>
+        <f t="shared" ref="L87:L96" si="23">C87*L14</f>
         <v>0</v>
       </c>
       <c r="M87" s="14">
-        <f>C87*M14</f>
+        <f t="shared" ref="M87:M118" si="24">C87*M14</f>
         <v>370</v>
       </c>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
       <c r="P87" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
       <c r="Q87" s="14">
@@ -4379,19 +4380,19 @@
         <v>29</v>
       </c>
       <c r="C88" s="14">
-        <f>C15*2</f>
+        <f t="shared" si="4"/>
         <v>416</v>
       </c>
       <c r="D88" s="14">
-        <f>C88*D15</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E88" s="14">
-        <f>C88*E15</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F88" s="14">
-        <f>C88*F15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G88" s="14">
@@ -4403,29 +4404,29 @@
         <v>0</v>
       </c>
       <c r="I88" s="14">
-        <f>C88*I15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J88" s="14">
-        <f>C88*J15</f>
+        <f t="shared" si="21"/>
         <v>416</v>
       </c>
       <c r="K88" s="14">
-        <f>C88*K15</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L88" s="14">
-        <f>C88*L15</f>
+        <f t="shared" si="23"/>
         <v>416</v>
       </c>
       <c r="M88" s="14">
-        <f>C88*M15</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>832</v>
       </c>
       <c r="Q88" s="14"/>
@@ -4438,53 +4439,53 @@
         <v>31</v>
       </c>
       <c r="C89" s="8">
-        <f>C16*2</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="D89" s="8">
-        <f>C89*D16</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E89" s="8">
-        <f>C89*E16</f>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F89" s="8">
-        <f>C89*F16</f>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="G89" s="8">
-        <f>C89*G16</f>
+        <f t="shared" ref="G89:G96" si="25">C89*G16</f>
         <v>0</v>
       </c>
       <c r="H89" s="8">
-        <f>C89*H16</f>
+        <f t="shared" ref="H89:H96" si="26">C89*H16</f>
         <v>0</v>
       </c>
       <c r="I89" s="8">
-        <f>C89*I16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J89" s="8">
-        <f>C89*J16</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K89" s="8">
-        <f>C89*K16</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L89" s="8">
-        <f>C89*L16</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M89" s="8">
-        <f>C89*M16</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="Q89" s="8">
@@ -4500,53 +4501,53 @@
         <v>32</v>
       </c>
       <c r="C90" s="8">
-        <f>C17*2</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D90" s="8">
-        <f>C90*D17</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E90" s="8">
-        <f>C90*E17</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F90" s="8">
-        <f>C90*F17</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G90" s="8">
-        <f>C90*G17</f>
+        <f t="shared" si="25"/>
         <v>108</v>
       </c>
       <c r="H90" s="8">
-        <f>C90*H17</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I90" s="8">
-        <f>C90*I17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <f>C90*J17</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K90" s="8">
-        <f>C90*K17</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <f>C90*L17</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M90" s="8">
-        <f>C90*M17</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="Q90" s="8"/>
@@ -4559,53 +4560,53 @@
         <v>33</v>
       </c>
       <c r="C91" s="8">
-        <f>C18*2</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="D91" s="8">
-        <f>C91*D18</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f>C91*E18</f>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F91" s="8">
-        <f>C91*F18</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <f>C91*G18</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H91" s="8">
-        <f>C91*H18</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I91" s="8">
-        <f>C91*I18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f>C91*J18</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K91" s="8">
-        <f>C91*K18</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f>C91*L18</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M91" s="8">
-        <f>C91*M18</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="Q91" s="8"/>
@@ -4618,53 +4619,53 @@
         <v>34</v>
       </c>
       <c r="C92" s="8">
-        <f>C19*2</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D92" s="8">
-        <f>C92*D19</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E92" s="8">
-        <f>C92*E19</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F92" s="8">
-        <f>C92*F19</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <f>C92*G19</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f>C92*H19</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I92" s="8">
-        <f>C92*I19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <f>C92*J19</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="K92" s="8">
-        <f>C92*K19</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f>C92*L19</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M92" s="8">
-        <f>C92*M19</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q92" s="8"/>
@@ -4677,53 +4678,53 @@
         <v>35</v>
       </c>
       <c r="C93" s="8">
-        <f>C20*2</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D93" s="8">
-        <f>C93*D20</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E93" s="8">
-        <f>C93*E20</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F93" s="8">
-        <f>C93*F20</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G93" s="8">
-        <f>C93*G20</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H93" s="8">
-        <f>C93*H20</f>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="I93" s="8">
-        <f>C93*I20</f>
+        <f t="shared" si="20"/>
         <v>188</v>
       </c>
       <c r="J93" s="8">
-        <f>C93*J20</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K93" s="8">
-        <f>C93*K20</f>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="L93" s="8">
-        <f>C93*L20</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M93" s="8">
-        <f>C93*M20</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>376</v>
       </c>
       <c r="Q93" s="8"/>
@@ -4736,57 +4737,57 @@
         <v>101</v>
       </c>
       <c r="C94" s="14">
-        <f>C21*2</f>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="D94" s="14">
-        <f>C94*D21</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E94" s="14">
-        <f>C94*E21</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F94" s="14">
-        <f>C94*F21</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G94" s="14">
-        <f>C94*G21</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H94" s="14">
-        <f>C94*H21</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I94" s="14">
-        <f>C94*I21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J94" s="14">
-        <f>C94*J21</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K94" s="14">
-        <f>C94*K21</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L94" s="14">
-        <f>C94*L21</f>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="M94" s="14">
-        <f>C94*M21</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="Q94" s="14">
-        <f t="shared" ref="Q94:Q99" si="6">P94</f>
+        <f t="shared" ref="Q94:Q99" si="27">P94</f>
         <v>800</v>
       </c>
     </row>
@@ -4798,57 +4799,57 @@
         <v>37</v>
       </c>
       <c r="C95" s="8">
-        <f>C22*2</f>
+        <f t="shared" si="4"/>
         <v>726</v>
       </c>
       <c r="D95" s="8">
-        <f>C95*D22</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E95" s="8">
-        <f>C95*E22</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F95" s="8">
-        <f>C95*F22</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G95" s="8">
-        <f>C95*G22</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H95" s="8">
-        <f>C95*H22</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I95" s="8">
-        <f>C95*I22</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J95" s="8">
-        <f>C95*J22</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K95" s="8">
-        <f>C95*K22</f>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="L95" s="8">
-        <f>C95*L22</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M95" s="8">
-        <f>C95*M22</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>726</v>
       </c>
       <c r="Q95" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>726</v>
       </c>
     </row>
@@ -4860,47 +4861,47 @@
         <v>95</v>
       </c>
       <c r="C96" s="14">
-        <f>C23*2</f>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="D96" s="14">
-        <f>C96*D23</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E96" s="14">
-        <f>C96*E23</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F96" s="14">
-        <f>C96*F23</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G96" s="14">
-        <f>C96*G23</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H96" s="14">
-        <f>C96*H23</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I96" s="14">
-        <f>C96*I23</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J96" s="14">
-        <f>C96*J23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K96" s="14">
-        <f>C96*K23</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L96" s="14">
-        <f>C96*L23</f>
+        <f t="shared" si="23"/>
         <v>186</v>
       </c>
       <c r="M96" s="14">
-        <f>C96*M23</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N96" s="14"/>
@@ -4953,7 +4954,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="8">
-        <f>C97*M24</f>
+        <f t="shared" si="24"/>
         <v>348</v>
       </c>
       <c r="N97" s="8"/>
@@ -4979,53 +4980,53 @@
         <v>418</v>
       </c>
       <c r="D98" s="14">
-        <f>C98*D26</f>
+        <f t="shared" ref="D98:K98" si="28">C98*D26</f>
         <v>0</v>
       </c>
       <c r="E98" s="14">
-        <f>D98*E26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F98" s="14">
-        <f>E98*F26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G98" s="14">
-        <f>F98*G26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H98" s="14">
-        <f>G98*H26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I98" s="14">
-        <f>H98*I26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J98" s="14">
-        <f>I98*J26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K98" s="14">
-        <f>J98*K26</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L98" s="14">
-        <f>C98*L25</f>
+        <f t="shared" ref="L98:L135" si="29">C98*L25</f>
         <v>418</v>
       </c>
       <c r="M98" s="14">
-        <f>C98*M25</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N98" s="14"/>
       <c r="O98" s="14"/>
       <c r="P98" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>418</v>
       </c>
       <c r="Q98" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>418</v>
       </c>
     </row>
@@ -5037,57 +5038,57 @@
         <v>39</v>
       </c>
       <c r="C99" s="8">
-        <f>C26*2</f>
+        <f t="shared" ref="C99:C135" si="30">C26*2</f>
         <v>516</v>
       </c>
       <c r="D99" s="8">
-        <f>C99*D26</f>
+        <f t="shared" ref="D99:D129" si="31">C99*D26</f>
         <v>0</v>
       </c>
       <c r="E99" s="8">
-        <f>C99*E26</f>
+        <f t="shared" ref="E99:E129" si="32">C99*E26</f>
         <v>0</v>
       </c>
       <c r="F99" s="8">
-        <f>C99*F26</f>
+        <f t="shared" ref="F99:F129" si="33">C99*F26</f>
         <v>0</v>
       </c>
       <c r="G99" s="8">
-        <f>C99*G26</f>
+        <f t="shared" ref="G99:G129" si="34">C99*G26</f>
         <v>0</v>
       </c>
       <c r="H99" s="8">
-        <f>C99*H26</f>
+        <f t="shared" ref="H99:H129" si="35">C99*H26</f>
         <v>0</v>
       </c>
       <c r="I99" s="8">
-        <f>C99*I26</f>
+        <f t="shared" ref="I99:I129" si="36">C99*I26</f>
         <v>516</v>
       </c>
       <c r="J99" s="8">
-        <f>C99*J26</f>
+        <f t="shared" ref="J99:J129" si="37">C99*J26</f>
         <v>0</v>
       </c>
       <c r="K99" s="8">
-        <f>C99*K26</f>
+        <f t="shared" ref="K99:K129" si="38">C99*K26</f>
         <v>0</v>
       </c>
       <c r="L99" s="8">
-        <f>C99*L26</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M99" s="8">
-        <f>C99*M26</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>516</v>
       </c>
       <c r="Q99" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>516</v>
       </c>
     </row>
@@ -5099,53 +5100,53 @@
         <v>41</v>
       </c>
       <c r="C100" s="14">
-        <f>C27*2</f>
+        <f t="shared" si="30"/>
         <v>158</v>
       </c>
       <c r="D100" s="14">
-        <f>C100*D27</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E100" s="14">
-        <f>C100*E27</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F100" s="14">
-        <f>C100*F27</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G100" s="14">
-        <f>C100*G27</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H100" s="14">
-        <f>C100*H27</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I100" s="14">
-        <f>C100*I27</f>
+        <f t="shared" si="36"/>
         <v>158</v>
       </c>
       <c r="J100" s="14">
-        <f>C100*J27</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K100" s="14">
-        <f>C100*K27</f>
+        <f t="shared" si="38"/>
         <v>158</v>
       </c>
       <c r="L100" s="14">
-        <f>C100*L27</f>
+        <f t="shared" si="29"/>
         <v>158</v>
       </c>
       <c r="M100" s="14">
-        <f>C100*M27</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N100" s="14"/>
       <c r="O100" s="14"/>
       <c r="P100" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="Q100" s="14">
@@ -5161,53 +5162,53 @@
         <v>42</v>
       </c>
       <c r="C101" s="14">
-        <f>C28*2</f>
+        <f t="shared" si="30"/>
         <v>140</v>
       </c>
       <c r="D101" s="14">
-        <f>C101*D28</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E101" s="14">
-        <f>C101*E28</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F101" s="14">
-        <f>C101*F28</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G101" s="14">
-        <f>C101*G28</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <f>C101*H28</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I101" s="14">
-        <f>C101*I28</f>
+        <f t="shared" si="36"/>
         <v>280</v>
       </c>
       <c r="J101" s="14">
-        <f>C101*J28</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K101" s="14">
-        <f>C101*K28</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L101" s="14">
-        <f>C101*L28</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M101" s="14">
-        <f>C101*M28</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="Q101" s="14"/>
@@ -5220,53 +5221,53 @@
         <v>43</v>
       </c>
       <c r="C102" s="14">
-        <f>C29*2</f>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="D102" s="14">
-        <f>C102*D29</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E102" s="14">
-        <f>C102*E29</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F102" s="14">
-        <f>C102*F29</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G102" s="14">
-        <f>C102*G29</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H102" s="14">
-        <f>C102*H29</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I102" s="14">
-        <f>C102*I29</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J102" s="14">
-        <f>C102*J29</f>
+        <f t="shared" si="37"/>
         <v>132</v>
       </c>
       <c r="K102" s="14">
-        <f>C102*K29</f>
+        <f t="shared" si="38"/>
         <v>132</v>
       </c>
       <c r="L102" s="14">
-        <f>C102*L29</f>
+        <f t="shared" si="29"/>
         <v>132</v>
       </c>
       <c r="M102" s="14">
-        <f>C102*M29</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>396</v>
       </c>
       <c r="Q102" s="14"/>
@@ -5279,53 +5280,53 @@
         <v>45</v>
       </c>
       <c r="C103" s="8">
-        <f>C30*2</f>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="D103" s="8">
-        <f>C103*D30</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E103" s="8">
-        <f>C103*E30</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F103" s="8">
-        <f>C103*F30</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G103" s="8">
-        <f>C103*G30</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H103" s="8">
-        <f>C103*H30</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I103" s="8">
-        <f>C103*I30</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J103" s="8">
-        <f>C103*J30</f>
+        <f t="shared" si="37"/>
         <v>50</v>
       </c>
       <c r="K103" s="8">
-        <f>C103*K30</f>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="L103" s="8">
-        <f>C103*L30</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M103" s="8">
-        <f>C103*M30</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="Q103" s="8">
@@ -5341,53 +5342,53 @@
         <v>46</v>
       </c>
       <c r="C104" s="8">
-        <f>C31*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D104" s="8">
-        <f>C104*D31</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E104" s="8">
-        <f>C104*E31</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F104" s="8">
-        <f>C104*F31</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <f>C104*G31</f>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="H104" s="8">
-        <f>C104*H31</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I104" s="8">
-        <f>C104*I31</f>
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
       <c r="J104" s="8">
-        <f>C104*J31</f>
+        <f t="shared" si="37"/>
         <v>108</v>
       </c>
       <c r="K104" s="8">
-        <f>C104*K31</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L104" s="8">
-        <f>C104*L31</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M104" s="8">
-        <f>C104*M31</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N104" s="19"/>
       <c r="O104" s="19"/>
       <c r="P104" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="Q104" s="8"/>
@@ -5400,53 +5401,53 @@
         <v>47</v>
       </c>
       <c r="C105" s="8">
-        <f>C32*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D105" s="8">
-        <f>C105*D32</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E105" s="8">
-        <f>C105*E32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F105" s="8">
-        <f>C105*F32</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <f>C105*G32</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H105" s="8">
-        <f>C105*H32</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I105" s="8">
-        <f>C105*I32</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J105" s="8">
-        <f>C105*J32</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K105" s="8">
-        <f>C105*K32</f>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="L105" s="8">
-        <f>C105*L32</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M105" s="8">
-        <f>C105*M32</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="Q105" s="8"/>
@@ -5459,53 +5460,53 @@
         <v>48</v>
       </c>
       <c r="C106" s="8">
-        <f>C33*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D106" s="8">
-        <f>C106*D33</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f>C106*E33</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f>C106*F33</f>
+        <f t="shared" si="33"/>
         <v>54</v>
       </c>
       <c r="G106" s="8">
-        <f>C106*G33</f>
+        <f t="shared" si="34"/>
         <v>108</v>
       </c>
       <c r="H106" s="8">
-        <f>C106*H33</f>
+        <f t="shared" si="35"/>
         <v>54</v>
       </c>
       <c r="I106" s="8">
-        <f>C106*I33</f>
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
       <c r="J106" s="8">
-        <f>C106*J33</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K106" s="8">
-        <f>C106*K33</f>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="L106" s="8">
-        <f>C106*L33</f>
+        <f t="shared" si="29"/>
         <v>54</v>
       </c>
       <c r="M106" s="8">
-        <f>C106*M33</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="Q106" s="8"/>
@@ -5518,53 +5519,53 @@
         <v>49</v>
       </c>
       <c r="C107" s="8">
-        <f>C34*2</f>
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
       <c r="D107" s="8">
-        <f>C107*D34</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f>C107*E34</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f>C107*F34</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f>C107*G34</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H107" s="8">
-        <f>C107*H34</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I107" s="8">
-        <f>C107*I34</f>
+        <f t="shared" si="36"/>
         <v>62</v>
       </c>
       <c r="J107" s="8">
-        <f>C107*J34</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K107" s="8">
-        <f>C107*K34</f>
+        <f t="shared" si="38"/>
         <v>186</v>
       </c>
       <c r="L107" s="8">
-        <f>C107*L34</f>
+        <f t="shared" si="29"/>
         <v>124</v>
       </c>
       <c r="M107" s="8">
-        <f>C107*M34</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>372</v>
       </c>
       <c r="Q107" s="8"/>
@@ -5577,53 +5578,53 @@
         <v>51</v>
       </c>
       <c r="C108" s="14">
-        <f>C35*2</f>
+        <f t="shared" si="30"/>
         <v>840</v>
       </c>
       <c r="D108" s="14">
-        <f>C108*D35</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E108" s="14">
-        <f>C108*E35</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F108" s="14">
-        <f>C108*F35</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G108" s="14">
-        <f>C108*G35</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H108" s="14">
-        <f>C108*H35</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I108" s="14">
-        <f>C108*I35</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J108" s="14">
-        <f>C108*J35</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K108" s="14">
-        <f>C108*K35</f>
+        <f t="shared" si="38"/>
         <v>840</v>
       </c>
       <c r="L108" s="14">
-        <f>C108*L35</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M108" s="14">
-        <f>C108*M35</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
       <c r="P108" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>840</v>
       </c>
       <c r="Q108" s="14">
@@ -5639,53 +5640,53 @@
         <v>53</v>
       </c>
       <c r="C109" s="8">
-        <f>C36*2</f>
+        <f t="shared" si="30"/>
         <v>282</v>
       </c>
       <c r="D109" s="8">
-        <f>C109*D36</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E109" s="8">
-        <f>C109*E36</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F109" s="8">
-        <f>C109*F36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <f>C109*G36</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H109" s="8">
-        <f>C109*H36</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I109" s="8">
-        <f>C109*I36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J109" s="8">
-        <f>C109*J36</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K109" s="8">
-        <f>C109*K36</f>
+        <f t="shared" si="38"/>
         <v>282</v>
       </c>
       <c r="L109" s="8">
-        <f>C109*L36</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M109" s="8">
-        <f>C109*M36</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q109" s="8">
@@ -5701,53 +5702,53 @@
         <v>55</v>
       </c>
       <c r="C110" s="14">
-        <f>C37*2</f>
+        <f t="shared" si="30"/>
         <v>160</v>
       </c>
       <c r="D110" s="14">
-        <f>C110*D37</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E110" s="14">
-        <f>C110*E37</f>
+        <f t="shared" si="32"/>
         <v>160</v>
       </c>
       <c r="F110" s="14">
-        <f>C110*F37</f>
+        <f t="shared" si="33"/>
         <v>160</v>
       </c>
       <c r="G110" s="14">
-        <f>C110*G37</f>
+        <f t="shared" si="34"/>
         <v>320</v>
       </c>
       <c r="H110" s="14">
-        <f>C110*H37</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I110" s="14">
-        <f>C110*I37</f>
+        <f t="shared" si="36"/>
         <v>480</v>
       </c>
       <c r="J110" s="14">
-        <f>C110*J37</f>
+        <f t="shared" si="37"/>
         <v>160</v>
       </c>
       <c r="K110" s="14">
-        <f>C110*K37</f>
+        <f t="shared" si="38"/>
         <v>160</v>
       </c>
       <c r="L110" s="14">
-        <f>C110*L37</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M110" s="14">
-        <f>C110*M37</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1440</v>
       </c>
       <c r="Q110" s="14">
@@ -5763,53 +5764,53 @@
         <v>119</v>
       </c>
       <c r="C111" s="8">
-        <f>C38*2</f>
+        <f t="shared" si="30"/>
         <v>1044</v>
       </c>
       <c r="D111" s="8">
-        <f>C111*D38</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f>C111*E38</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>C111*F38</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G111" s="8">
-        <f>C111*G38</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f>C111*H38</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f>C111*I38</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f>C111*J38</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f>C111*K38</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L111" s="8">
-        <f>C111*L38</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f>C111*M38</f>
+        <f t="shared" si="24"/>
         <v>1044</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1044</v>
       </c>
       <c r="Q111" s="8">
@@ -5825,53 +5826,53 @@
         <v>57</v>
       </c>
       <c r="C112" s="14">
-        <f>C39*2</f>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="D112" s="14">
-        <f>C112*D39</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E112" s="14">
-        <f>C112*E39</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F112" s="14">
-        <f>C112*F39</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G112" s="14">
-        <f>C112*G39</f>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="H112" s="14">
-        <f>C112*H39</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I112" s="14">
-        <f>C112*I39</f>
+        <f t="shared" si="36"/>
         <v>136</v>
       </c>
       <c r="J112" s="14">
-        <f>C112*J39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K112" s="14">
-        <f>C112*K39</f>
+        <f t="shared" si="38"/>
         <v>136</v>
       </c>
       <c r="L112" s="14">
-        <f>C112*L39</f>
+        <f t="shared" si="29"/>
         <v>68</v>
       </c>
       <c r="M112" s="14">
-        <f>C112*M39</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
       <c r="P112" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>408</v>
       </c>
       <c r="Q112" s="14">
@@ -5887,236 +5888,236 @@
         <v>58</v>
       </c>
       <c r="C113" s="14">
-        <f>C40*2</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="D113" s="14">
-        <f>C113*D40</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E113" s="14">
-        <f>C113*E40</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F113" s="14">
-        <f>C113*F40</f>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
       <c r="G113" s="14">
-        <f>C113*G40</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H113" s="14">
-        <f>C113*H40</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I113" s="14">
-        <f>C113*I40</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J113" s="14">
-        <f>C113*J40</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K113" s="14">
-        <f>C113*K40</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L113" s="14">
-        <f>C113*L40</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M113" s="14">
-        <f>C113*M40</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N113" s="14"/>
       <c r="O113" s="14"/>
       <c r="P113" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q113" s="14"/>
     </row>
     <row r="114" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="20" t="s">
+      <c r="A114" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C114" s="20">
-        <f>C41*2</f>
+      <c r="C114" s="8">
+        <f t="shared" si="30"/>
         <v>264</v>
       </c>
-      <c r="D114" s="20">
-        <f>C114*D41</f>
-        <v>0</v>
-      </c>
-      <c r="E114" s="20">
-        <f>C114*E41</f>
-        <v>0</v>
-      </c>
-      <c r="F114" s="20">
-        <f>C114*F41</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="20">
-        <f>C114*G41</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="20">
-        <f>C114*H41</f>
+      <c r="D114" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="8">
+        <f t="shared" si="35"/>
         <v>264</v>
       </c>
-      <c r="I114" s="20">
-        <f>C114*I41</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="20">
-        <f>C114*J41</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="20">
-        <f>C114*K41</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="20">
-        <f>C114*L41</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="20">
-        <f>C114*M41</f>
-        <v>0</v>
-      </c>
-      <c r="N114" s="20"/>
-      <c r="O114" s="20"/>
-      <c r="P114" s="20">
-        <f t="shared" si="4"/>
+      <c r="I114" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N114" s="8"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="8">
+        <f t="shared" si="15"/>
         <v>264</v>
       </c>
-      <c r="Q114" s="20">
+      <c r="Q114" s="8">
         <f>SUM(P114:P116)</f>
         <v>1050</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="20" t="s">
+      <c r="A115" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="20" t="s">
+      <c r="B115" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C115" s="20">
-        <f>C42*2</f>
+      <c r="C115" s="8">
+        <f t="shared" si="30"/>
         <v>262</v>
       </c>
-      <c r="D115" s="20">
-        <f>C115*D42</f>
-        <v>0</v>
-      </c>
-      <c r="E115" s="20">
-        <f>C115*E42</f>
-        <v>0</v>
-      </c>
-      <c r="F115" s="20">
-        <f>C115*F42</f>
+      <c r="D115" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="8">
+        <f t="shared" si="33"/>
         <v>262</v>
       </c>
-      <c r="G115" s="20">
-        <f>C115*G42</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="20">
-        <f>C115*H42</f>
-        <v>0</v>
-      </c>
-      <c r="I115" s="20">
-        <f>C115*I42</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="20">
-        <f>C115*J42</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="20">
-        <f>C115*K42</f>
-        <v>0</v>
-      </c>
-      <c r="L115" s="20">
-        <f>C115*L42</f>
-        <v>0</v>
-      </c>
-      <c r="M115" s="20">
-        <f>C115*M42</f>
-        <v>0</v>
-      </c>
-      <c r="N115" s="20"/>
-      <c r="O115" s="20"/>
-      <c r="P115" s="20">
-        <f t="shared" si="4"/>
+      <c r="G115" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N115" s="8"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="8">
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
-      <c r="Q115" s="20"/>
+      <c r="Q115" s="8"/>
     </row>
     <row r="116" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="20" t="s">
+      <c r="A116" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C116" s="20">
-        <f>C43*2</f>
+      <c r="C116" s="8">
+        <f t="shared" si="30"/>
         <v>262</v>
       </c>
-      <c r="D116" s="20">
-        <f>C116*D43</f>
+      <c r="D116" s="8">
+        <f t="shared" si="31"/>
         <v>262</v>
       </c>
-      <c r="E116" s="20">
-        <f>C116*E43</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="20">
-        <f>C116*F43</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="20">
-        <f>C116*G43</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="20">
-        <f>C116*H43</f>
-        <v>0</v>
-      </c>
-      <c r="I116" s="20">
-        <f>C116*I43</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="20">
-        <f>C116*J43</f>
-        <v>0</v>
-      </c>
-      <c r="K116" s="20">
-        <f>C116*K43</f>
+      <c r="E116" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="8">
+        <f t="shared" si="38"/>
         <v>262</v>
       </c>
-      <c r="L116" s="20">
-        <f>C116*L43</f>
-        <v>0</v>
-      </c>
-      <c r="M116" s="20">
-        <f>C116*M43</f>
-        <v>0</v>
-      </c>
-      <c r="N116" s="20"/>
-      <c r="O116" s="20"/>
-      <c r="P116" s="20">
-        <f t="shared" si="4"/>
+      <c r="L116" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N116" s="8"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="8">
+        <f t="shared" si="15"/>
         <v>524</v>
       </c>
-      <c r="Q116" s="20"/>
+      <c r="Q116" s="8"/>
     </row>
     <row r="117" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
@@ -6126,53 +6127,53 @@
         <v>64</v>
       </c>
       <c r="C117" s="14">
-        <f>C44*2</f>
+        <f t="shared" si="30"/>
         <v>272</v>
       </c>
       <c r="D117" s="14">
-        <f>C117*D44</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E117" s="14">
-        <f>C117*E44</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F117" s="14">
-        <f>C117*F44</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G117" s="14">
-        <f>C117*G44</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H117" s="14">
-        <f>C117*H44</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I117" s="14">
-        <f>C117*I44</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J117" s="14">
-        <f>C117*J44</f>
+        <f t="shared" si="37"/>
         <v>544</v>
       </c>
       <c r="K117" s="14">
-        <f>C117*K44</f>
+        <f t="shared" si="38"/>
         <v>272</v>
       </c>
       <c r="L117" s="14">
-        <f>C117*L44</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M117" s="14">
-        <f>C117*M44</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N117" s="14"/>
       <c r="O117" s="14"/>
       <c r="P117" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>816</v>
       </c>
       <c r="Q117" s="14">
@@ -6188,53 +6189,53 @@
         <v>66</v>
       </c>
       <c r="C118" s="8">
-        <f>C45*2</f>
+        <f t="shared" si="30"/>
         <v>266</v>
       </c>
       <c r="D118" s="8">
-        <f>C118*D45</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E118" s="8">
-        <f>C118*E45</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F118" s="8">
-        <f>C118*F45</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G118" s="8">
-        <f>C118*G45</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H118" s="8">
-        <f>C118*H45</f>
+        <f t="shared" si="35"/>
         <v>266</v>
       </c>
       <c r="I118" s="8">
-        <f>C118*I45</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J118" s="8">
-        <f>C118*J45</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K118" s="8">
-        <f>C118*K45</f>
+        <f t="shared" si="38"/>
         <v>266</v>
       </c>
       <c r="L118" s="8">
-        <f>C118*L45</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M118" s="8">
-        <f>C118*M45</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>532</v>
       </c>
       <c r="Q118" s="8">
@@ -6250,53 +6251,53 @@
         <v>67</v>
       </c>
       <c r="C119" s="8">
-        <f>C46*2</f>
+        <f t="shared" si="30"/>
         <v>304</v>
       </c>
       <c r="D119" s="8">
-        <f>C119*D46</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E119" s="8">
-        <f>C119*E46</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F119" s="8">
-        <f>C119*F46</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G119" s="8">
-        <f>C119*G46</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H119" s="8">
-        <f>C119*H46</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I119" s="8">
-        <f>C119*I46</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J119" s="8">
-        <f>C119*J46</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K119" s="8">
-        <f>C119*K46</f>
+        <f t="shared" si="38"/>
         <v>304</v>
       </c>
       <c r="L119" s="8">
-        <f>C119*L46</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M119" s="8">
-        <f>C119*M46</f>
+        <f t="shared" ref="M119:M150" si="39">C119*M46</f>
         <v>0</v>
       </c>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="Q119" s="8"/>
@@ -6309,53 +6310,53 @@
         <v>68</v>
       </c>
       <c r="C120" s="8">
-        <f>C47*2</f>
+        <f t="shared" si="30"/>
         <v>254</v>
       </c>
       <c r="D120" s="8">
-        <f>C120*D47</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E120" s="8">
-        <f>C120*E47</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F120" s="8">
-        <f>C120*F47</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <f>C120*G47</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H120" s="8">
-        <f>C120*H47</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I120" s="8">
-        <f>C120*I47</f>
+        <f t="shared" si="36"/>
         <v>254</v>
       </c>
       <c r="J120" s="8">
-        <f>C120*J47</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K120" s="8">
-        <f>C120*K47</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L120" s="8">
-        <f>C120*L47</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M120" s="8">
-        <f>C120*M47</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>254</v>
       </c>
       <c r="Q120" s="8"/>
@@ -6368,53 +6369,53 @@
         <v>69</v>
       </c>
       <c r="C121" s="8">
-        <f>C48*2</f>
+        <f t="shared" si="30"/>
         <v>306</v>
       </c>
       <c r="D121" s="8">
-        <f>C121*D48</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f>C121*E48</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f>C121*F48</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f>C121*G48</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f>C121*H48</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f>C121*I48</f>
+        <f t="shared" si="36"/>
         <v>306</v>
       </c>
       <c r="J121" s="8">
-        <f>C121*J48</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K121" s="8">
-        <f>C121*K48</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L121" s="8">
-        <f>C121*L48</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <f>C121*M48</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
       <c r="Q121" s="8"/>
@@ -6427,53 +6428,53 @@
         <v>71</v>
       </c>
       <c r="C122" s="14">
-        <f>C49*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D122" s="14">
-        <f>C122*D49</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E122" s="14">
-        <f>C122*E49</f>
+        <f t="shared" si="32"/>
         <v>124</v>
       </c>
       <c r="F122" s="14">
-        <f>C122*F49</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G122" s="14">
-        <f>C122*G49</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H122" s="14">
-        <f>C122*H49</f>
+        <f t="shared" si="35"/>
         <v>124</v>
       </c>
       <c r="I122" s="14">
-        <f>C122*I49</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J122" s="14">
-        <f>C122*J49</f>
+        <f t="shared" si="37"/>
         <v>248</v>
       </c>
       <c r="K122" s="14">
-        <f>C122*K49</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L122" s="14">
-        <f>C122*L49</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M122" s="14">
-        <f>C122*M49</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N122" s="14"/>
       <c r="O122" s="14"/>
       <c r="P122" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>496</v>
       </c>
       <c r="Q122" s="14">
@@ -6489,53 +6490,53 @@
         <v>72</v>
       </c>
       <c r="C123" s="14">
-        <f>C50*2</f>
+        <f t="shared" si="30"/>
         <v>130</v>
       </c>
       <c r="D123" s="14">
-        <f>C123*D50</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E123" s="14">
-        <f>C123*E50</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F123" s="14">
-        <f>C123*F50</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G123" s="14">
-        <f>C123*G50</f>
+        <f t="shared" si="34"/>
         <v>260</v>
       </c>
       <c r="H123" s="14">
-        <f>C123*H50</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I123" s="14">
-        <f>C123*I50</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J123" s="14">
-        <f>C123*J50</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K123" s="14">
-        <f>C123*K50</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L123" s="14">
-        <f>C123*L50</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M123" s="14">
-        <f>C123*M50</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N123" s="14"/>
       <c r="O123" s="14"/>
       <c r="P123" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="Q123" s="14"/>
@@ -6548,53 +6549,53 @@
         <v>73</v>
       </c>
       <c r="C124" s="14">
-        <f>C51*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D124" s="14">
-        <f>C124*D51</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E124" s="14">
-        <f>C124*E51</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F124" s="14">
-        <f>C124*F51</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G124" s="14">
-        <f>C124*G51</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H124" s="14">
-        <f>C124*H51</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I124" s="14">
-        <f>C124*I51</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J124" s="14">
-        <f>C124*J51</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K124" s="14">
-        <f>C124*K51</f>
+        <f t="shared" si="38"/>
         <v>124</v>
       </c>
       <c r="L124" s="14">
-        <f>C124*L51</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M124" s="14">
-        <f>C124*M51</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="Q124" s="14"/>
@@ -6607,53 +6608,53 @@
         <v>124</v>
       </c>
       <c r="C125" s="14">
-        <f>C52*2</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="D125" s="14">
-        <f>C125*D52</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E125" s="14">
-        <f>C125*E52</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F125" s="14">
-        <f>C125*F52</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G125" s="14">
-        <f>C125*G52</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H125" s="14">
-        <f>C125*H52</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I125" s="14">
-        <f>C125*I52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J125" s="14">
-        <f>C125*J52</f>
+        <f t="shared" si="37"/>
         <v>90</v>
       </c>
       <c r="K125" s="14">
-        <f>C125*K52</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L125" s="14">
-        <f>C125*L52</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M125" s="14">
-        <f>C125*M52</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q125" s="14">
@@ -6662,122 +6663,122 @@
       </c>
     </row>
     <row r="126" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="20" t="s">
+      <c r="A126" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="20">
-        <f>C53*2</f>
+      <c r="C126" s="8">
+        <f t="shared" si="30"/>
         <v>106</v>
       </c>
-      <c r="D126" s="20">
-        <f>C126*D53</f>
+      <c r="D126" s="8">
+        <f t="shared" si="31"/>
         <v>106</v>
       </c>
-      <c r="E126" s="20">
-        <f>C126*E53</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="20">
-        <f>C126*F53</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="20">
-        <f>C126*G53</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="20">
-        <f>C126*H53</f>
-        <v>0</v>
-      </c>
-      <c r="I126" s="20">
-        <f>C126*I53</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="20">
-        <f>C126*J53</f>
-        <v>0</v>
-      </c>
-      <c r="K126" s="20">
-        <f>C126*K53</f>
-        <v>0</v>
-      </c>
-      <c r="L126" s="20">
-        <f>C126*L53</f>
-        <v>0</v>
-      </c>
-      <c r="M126" s="20">
-        <f>C126*M53</f>
-        <v>0</v>
-      </c>
-      <c r="N126" s="20"/>
-      <c r="O126" s="20"/>
-      <c r="P126" s="20">
-        <f t="shared" si="4"/>
+      <c r="E126" s="8">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F126" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K126" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8">
+        <f t="shared" si="15"/>
         <v>106</v>
       </c>
-      <c r="Q126" s="20"/>
+      <c r="Q126" s="8"/>
     </row>
     <row r="127" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="20" t="s">
+      <c r="A127" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="20">
-        <f>C54*2</f>
+      <c r="C127" s="8">
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
-      <c r="D127" s="20">
-        <f>C127*D54</f>
-        <v>0</v>
-      </c>
-      <c r="E127" s="20">
-        <f>C127*E54</f>
+      <c r="D127" s="8">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E127" s="8">
+        <f t="shared" si="32"/>
         <v>90</v>
       </c>
-      <c r="F127" s="20">
-        <f>C127*F54</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="20">
-        <f>C127*G54</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="20">
-        <f>C127*H54</f>
-        <v>0</v>
-      </c>
-      <c r="I127" s="20">
-        <f>C127*I54</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="20">
-        <f>C127*J54</f>
-        <v>0</v>
-      </c>
-      <c r="K127" s="20">
-        <f>C127*K54</f>
-        <v>0</v>
-      </c>
-      <c r="L127" s="20">
-        <f>C127*L54</f>
-        <v>0</v>
-      </c>
-      <c r="M127" s="20">
-        <f>C127*M54</f>
-        <v>0</v>
-      </c>
-      <c r="N127" s="20"/>
-      <c r="O127" s="20"/>
-      <c r="P127" s="20">
-        <f t="shared" si="4"/>
+      <c r="F127" s="8">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="8">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="8">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="8">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="8">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K127" s="8">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L127" s="8">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="8">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8">
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
-      <c r="Q127" s="20"/>
+      <c r="Q127" s="8"/>
     </row>
     <row r="128" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
@@ -6787,53 +6788,53 @@
         <v>79</v>
       </c>
       <c r="C128" s="14">
-        <f>C55*2</f>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="D128" s="14">
-        <f>C128*D55</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E128" s="14">
-        <f>C128*E55</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F128" s="14">
-        <f>C128*F55</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G128" s="14">
-        <f>C128*G55</f>
+        <f t="shared" si="34"/>
         <v>80</v>
       </c>
       <c r="H128" s="14">
-        <f>C128*H55</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I128" s="14">
-        <f>C128*I55</f>
+        <f t="shared" si="36"/>
         <v>160</v>
       </c>
       <c r="J128" s="14">
-        <f>C128*J55</f>
+        <f t="shared" si="37"/>
         <v>160</v>
       </c>
       <c r="K128" s="14">
-        <f>C128*K55</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L128" s="14">
-        <f>C128*L55</f>
+        <f t="shared" si="29"/>
         <v>40</v>
       </c>
       <c r="M128" s="14">
-        <f>C128*M55</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
       <c r="P128" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>440</v>
       </c>
       <c r="Q128" s="14">
@@ -6849,53 +6850,53 @@
         <v>80</v>
       </c>
       <c r="C129" s="14">
-        <f>C56*2</f>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="D129" s="14">
-        <f>C129*D56</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E129" s="14">
-        <f>C129*E56</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="F129" s="14">
-        <f>C129*F56</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G129" s="14">
-        <f>C129*G56</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H129" s="14">
-        <f>C129*H56</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="I129" s="14">
-        <f>C129*I56</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J129" s="14">
-        <f>C129*J56</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K129" s="14">
-        <f>C129*K56</f>
+        <f t="shared" si="38"/>
         <v>136</v>
       </c>
       <c r="L129" s="14">
-        <f>C129*L56</f>
+        <f t="shared" si="29"/>
         <v>68</v>
       </c>
       <c r="M129" s="14">
-        <f>C129*M56</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
       <c r="P129" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="Q129" s="14"/>
@@ -6908,7 +6909,7 @@
         <v>102</v>
       </c>
       <c r="C130" s="14">
-        <f>C57*2</f>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="D130" s="14">
@@ -6936,17 +6937,17 @@
         <v>0</v>
       </c>
       <c r="L130" s="14">
-        <f>C130*L57</f>
+        <f t="shared" si="29"/>
         <v>68</v>
       </c>
       <c r="M130" s="14">
-        <f>C130*M57</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
       <c r="P130" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="Q130" s="14"/>
@@ -6959,7 +6960,7 @@
         <v>82</v>
       </c>
       <c r="C131" s="8">
-        <f>C58*2</f>
+        <f t="shared" si="30"/>
         <v>248</v>
       </c>
       <c r="D131" s="8">
@@ -6995,17 +6996,17 @@
         <v>0</v>
       </c>
       <c r="L131" s="8">
-        <f>C131*L58</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
-        <f>C131*M58</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1240</v>
       </c>
       <c r="Q131" s="8">
@@ -7021,7 +7022,7 @@
         <v>84</v>
       </c>
       <c r="C132" s="14">
-        <f>C59*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D132" s="14">
@@ -7057,17 +7058,17 @@
         <v>0</v>
       </c>
       <c r="L132" s="14">
-        <f>C132*L59</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M132" s="14">
-        <f>C132*M59</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="Q132" s="14">
@@ -7083,7 +7084,7 @@
         <v>85</v>
       </c>
       <c r="C133" s="14">
-        <f>C60*2</f>
+        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="D133" s="14">
@@ -7119,17 +7120,17 @@
         <v>0</v>
       </c>
       <c r="L133" s="14">
-        <f>C133*L60</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M133" s="14">
-        <f>C133*M60</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
       <c r="P133" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>118</v>
       </c>
       <c r="Q133" s="14"/>
@@ -7142,7 +7143,7 @@
         <v>86</v>
       </c>
       <c r="C134" s="14">
-        <f>C61*2</f>
+        <f t="shared" si="30"/>
         <v>116</v>
       </c>
       <c r="D134" s="14">
@@ -7178,17 +7179,17 @@
         <v>0</v>
       </c>
       <c r="L134" s="14">
-        <f>C134*L61</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M134" s="14">
-        <f>C134*M61</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="Q134" s="14"/>
@@ -7201,7 +7202,7 @@
         <v>88</v>
       </c>
       <c r="C135" s="8">
-        <f>C62*2</f>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="D135" s="8">
@@ -7237,17 +7238,17 @@
         <v>0</v>
       </c>
       <c r="L135" s="8">
-        <f>C135*L62</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M135" s="8">
-        <f>C135*M62</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>138</v>
       </c>
       <c r="Q135" s="8">
@@ -7305,60 +7306,60 @@
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8">
-        <f>SUM(D75:D135)</f>
+        <f t="shared" ref="D140:M140" si="40">SUM(D75:D135)</f>
         <v>750</v>
       </c>
       <c r="E140" s="8">
-        <f>SUM(E75:E135)</f>
+        <f t="shared" si="40"/>
         <v>892</v>
       </c>
       <c r="F140" s="8">
-        <f>SUM(F75:F135)</f>
+        <f t="shared" si="40"/>
         <v>1166</v>
       </c>
       <c r="G140" s="8">
-        <f>SUM(G75:G135)</f>
+        <f t="shared" si="40"/>
         <v>1830</v>
       </c>
       <c r="H140" s="8">
-        <f>SUM(H75:H135)</f>
+        <f t="shared" si="40"/>
         <v>802</v>
       </c>
       <c r="I140" s="8">
-        <f>SUM(I75:I135)</f>
+        <f t="shared" si="40"/>
         <v>3046</v>
       </c>
       <c r="J140" s="8">
-        <f>SUM(J75:J135)</f>
+        <f t="shared" si="40"/>
         <v>2704</v>
       </c>
       <c r="K140" s="8">
-        <f>SUM(K75:K135)</f>
+        <f t="shared" si="40"/>
         <v>4664</v>
       </c>
       <c r="L140" s="8">
-        <f>SUM(L75:L135)</f>
+        <f t="shared" si="40"/>
         <v>2548</v>
       </c>
       <c r="M140" s="8">
-        <f>SUM(M75:M135)</f>
-        <v>3144</v>
+        <f t="shared" si="40"/>
+        <v>3708</v>
       </c>
       <c r="N140" s="8">
         <f>SUM(D140:M140)</f>
-        <v>21546</v>
+        <v>22110</v>
       </c>
       <c r="O140" s="15">
         <f>N140/N64</f>
-        <v>153.9</v>
+        <v>156.80851063829786</v>
       </c>
       <c r="P140" s="8">
         <f>SUM(P75:P135)</f>
-        <v>21546</v>
+        <v>22110</v>
       </c>
       <c r="Q140" s="8">
         <f>SUM(Q75:Q135)</f>
-        <v>21546</v>
+        <v>22110</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
@@ -7366,48 +7367,48 @@
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="16">
-        <f>D140/D64</f>
+        <f t="shared" ref="D141:N141" si="41">D140/D64</f>
         <v>150</v>
       </c>
       <c r="E141" s="16">
-        <f>E140/E64</f>
+        <f t="shared" si="41"/>
         <v>89.2</v>
       </c>
       <c r="F141" s="16">
-        <f>F140/F64</f>
+        <f t="shared" si="41"/>
         <v>116.6</v>
       </c>
       <c r="G141" s="16">
-        <f>G140/G64</f>
+        <f t="shared" si="41"/>
         <v>114.375</v>
       </c>
       <c r="H141" s="16">
-        <f>H140/H64</f>
+        <f t="shared" si="41"/>
         <v>160.4</v>
       </c>
       <c r="I141" s="16">
-        <f>I140/I64</f>
+        <f t="shared" si="41"/>
         <v>138.45454545454547</v>
       </c>
       <c r="J141" s="16">
-        <f>J140/J64</f>
+        <f t="shared" si="41"/>
         <v>142.31578947368422</v>
       </c>
       <c r="K141" s="16">
-        <f>K140/K64</f>
+        <f t="shared" si="41"/>
         <v>172.74074074074073</v>
       </c>
       <c r="L141" s="16">
-        <f>L140/L64</f>
+        <f t="shared" si="41"/>
         <v>159.25</v>
       </c>
       <c r="M141" s="16">
-        <f>M140/M64</f>
-        <v>314.39999999999998</v>
+        <f t="shared" si="41"/>
+        <v>337.09090909090907</v>
       </c>
       <c r="N141" s="16">
-        <f>N140/N64</f>
-        <v>153.9</v>
+        <f t="shared" si="41"/>
+        <v>156.80851063829786</v>
       </c>
       <c r="O141" s="6" t="s">
         <v>97</v>
@@ -7455,11 +7456,11 @@
       </c>
       <c r="D213">
         <f>N5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <f>P5</f>
-        <v>564</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -7807,11 +7808,11 @@
       <c r="C236" s="1"/>
       <c r="D236" s="1">
         <f>SUM(D212:D234)</f>
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E236" s="1">
         <f>SUM(E212:E234)</f>
-        <v>19514</v>
+        <v>20078</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409AA6E1-CEF8-4528-B6C8-760957EFF5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A82B44-4074-4140-B6EB-717D998723F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
+    <workbookView xWindow="324" yWindow="384" windowWidth="22716" windowHeight="12828" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
   <sheets>
     <sheet name="pelipaikat" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="129">
   <si>
     <t>Paikkakunta</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Isojoen monitoimitalo</t>
+  </si>
+  <si>
+    <t>Kanavan koulu</t>
   </si>
 </sst>
 </file>
@@ -882,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
-  <dimension ref="A1:Q236"/>
+  <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="Q110" sqref="Q110"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,11 +982,11 @@
         <v>3</v>
       </c>
       <c r="O2" s="8">
-        <f t="shared" ref="O2:O62" si="0">C2*N2</f>
+        <f t="shared" ref="O2:O63" si="0">C2*N2</f>
         <v>24</v>
       </c>
       <c r="P2" s="8">
-        <f t="shared" ref="P2:P62" si="1">2*O2</f>
+        <f t="shared" ref="P2:P63" si="1">2*O2</f>
         <v>48</v>
       </c>
       <c r="Q2" s="8"/>
@@ -1013,7 +1016,7 @@
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8">
-        <f t="shared" ref="N3:N62" si="2">SUM(D3:M3)</f>
+        <f t="shared" ref="N3:N63" si="2">SUM(D3:M3)</f>
         <v>2</v>
       </c>
       <c r="O3" s="8">
@@ -1278,19 +1281,19 @@
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O10" s="6">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>294</v>
       </c>
       <c r="P10" s="6">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>588</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
@@ -2059,38 +2062,32 @@
         <v>44</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C31" s="8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="8">
-        <v>1</v>
-      </c>
+      <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>2</v>
-      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="P31" s="8">
         <f t="shared" si="1"/>
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="8"/>
     </row>
@@ -2099,7 +2096,7 @@
         <v>44</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="8">
         <v>27</v>
@@ -2107,26 +2104,30 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
       <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8">
-        <v>1</v>
-      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>2</v>
+      </c>
+      <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O32" s="8">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="P32" s="8">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="8"/>
     </row>
@@ -2135,44 +2136,34 @@
         <v>44</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8">
         <v>27</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8">
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
-        <v>1</v>
-      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8">
         <v>1</v>
       </c>
-      <c r="L33" s="8">
-        <v>1</v>
-      </c>
+      <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>27</v>
       </c>
       <c r="P33" s="8">
         <f t="shared" si="1"/>
-        <v>378</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="8"/>
     </row>
@@ -2181,338 +2172,348 @@
         <v>44</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
       <c r="I34" s="8">
         <v>1</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O34" s="8">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P34" s="8">
         <f t="shared" si="1"/>
+        <v>378</v>
+      </c>
+      <c r="Q34" s="8"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="8">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8">
+        <v>3</v>
+      </c>
+      <c r="L35" s="8">
+        <v>2</v>
+      </c>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O35" s="8">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="P35" s="8">
+        <f t="shared" si="1"/>
         <v>372</v>
       </c>
-      <c r="Q34" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="Q35" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B36" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C36" s="14">
         <v>420</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14">
-        <v>1</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O35" s="14">
+      <c r="O36" s="14">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="P35" s="14">
+      <c r="P36" s="14">
         <f t="shared" si="1"/>
         <v>840</v>
       </c>
-      <c r="Q35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="Q36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C37" s="8">
         <v>141</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8">
-        <v>1</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O37" s="8">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P37" s="8">
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="Q36" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="Q37" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B38" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C38" s="14">
         <v>80</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
-      </c>
-      <c r="G37" s="14">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14">
         <v>2</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14">
+      <c r="H38" s="14"/>
+      <c r="I38" s="14">
         <v>3</v>
       </c>
-      <c r="J37" s="14">
-        <v>1</v>
-      </c>
-      <c r="K37" s="14">
-        <v>1</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14">
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>1</v>
+      </c>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="O37" s="14">
+      <c r="O38" s="14">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="P37" s="14">
+      <c r="P38" s="14">
         <f t="shared" si="1"/>
         <v>1440</v>
       </c>
-      <c r="Q37" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="Q38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C39" s="8">
         <v>522</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8">
-        <v>1</v>
-      </c>
-      <c r="N38" s="8">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
+      <c r="N39" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O39" s="8">
         <f t="shared" si="0"/>
         <v>522</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P39" s="8">
         <f t="shared" si="1"/>
         <v>1044</v>
       </c>
-      <c r="Q38" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="14">
-        <v>34</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14">
-        <v>1</v>
-      </c>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14">
-        <v>2</v>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
-        <v>2</v>
-      </c>
-      <c r="L39" s="14">
-        <v>1</v>
-      </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="O39" s="14">
-        <f t="shared" si="0"/>
-        <v>204</v>
-      </c>
-      <c r="P39" s="14">
-        <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q39" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="14">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <v>1</v>
+      </c>
       <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="14">
+        <v>2</v>
+      </c>
       <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
+      <c r="K40" s="14">
+        <v>2</v>
+      </c>
+      <c r="L40" s="14">
+        <v>1</v>
+      </c>
       <c r="M40" s="14"/>
       <c r="N40" s="14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O40" s="14">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="P40" s="14">
         <f t="shared" si="1"/>
+        <v>408</v>
+      </c>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="14">
+        <v>45</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P41" s="14">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q40" s="14">
+      <c r="Q41" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="8">
-        <v>132</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="8">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="P41" s="8">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="Q41" s="8"/>
     </row>
     <row r="42" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="8">
-        <v>1</v>
-      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2524,11 +2525,11 @@
       </c>
       <c r="O42" s="8">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="8"/>
     </row>
@@ -2537,134 +2538,134 @@
         <v>59</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="8">
         <v>131</v>
       </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
+      <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
+      <c r="F43" s="8">
+        <v>1</v>
+      </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="8">
-        <v>1</v>
-      </c>
+      <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" s="8">
         <f t="shared" si="0"/>
-        <v>262</v>
+        <v>131</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O44" s="8">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="P44" s="8">
+        <f t="shared" si="1"/>
         <v>524</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q44" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="45" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C45" s="14">
         <v>136</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14">
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14">
         <v>2</v>
       </c>
-      <c r="K44" s="14">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14">
+      <c r="K45" s="14">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="O44" s="14">
+      <c r="O45" s="14">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="P44" s="14">
+      <c r="P45" s="14">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="Q44" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="8">
-        <v>133</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O45" s="8">
-        <f t="shared" si="0"/>
-        <v>266</v>
-      </c>
-      <c r="P45" s="8">
-        <f t="shared" si="1"/>
-        <v>532</v>
-      </c>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="14">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="8">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
+      <c r="H46" s="8">
+        <v>1</v>
+      </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8">
@@ -2674,15 +2675,15 @@
       <c r="M46" s="8"/>
       <c r="N46" s="8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>532</v>
       </c>
       <c r="Q46" s="8"/>
     </row>
@@ -2691,21 +2692,21 @@
         <v>65</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="8">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="8">
-        <v>1</v>
-      </c>
+      <c r="I47" s="8"/>
       <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
+      <c r="K47" s="8">
+        <v>1</v>
+      </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8">
@@ -2714,23 +2715,23 @@
       </c>
       <c r="O47" s="8">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="1"/>
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="8">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2750,89 +2751,89 @@
       </c>
       <c r="O48" s="8">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="Q48" s="8"/>
+    </row>
+    <row r="49" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="8">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="8">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="P49" s="8">
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q49" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="14">
-        <v>62</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14">
-        <v>1</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14">
-        <v>1</v>
-      </c>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14">
-        <v>2</v>
-      </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O49" s="14">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="P49" s="14">
-        <f t="shared" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="14">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="E50" s="14">
+        <v>1</v>
+      </c>
       <c r="F50" s="14"/>
-      <c r="G50" s="14">
+      <c r="G50" s="14"/>
+      <c r="H50" s="14">
+        <v>1</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14">
         <v>2</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
       <c r="M50" s="14"/>
       <c r="N50" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50" s="14">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>248</v>
       </c>
       <c r="P50" s="14">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="Q50" s="14"/>
     </row>
@@ -2841,94 +2842,94 @@
         <v>70</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" s="14">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
+      <c r="G51" s="14">
+        <v>2</v>
+      </c>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
-      <c r="K51" s="14">
-        <v>1</v>
-      </c>
+      <c r="K51" s="14"/>
       <c r="L51" s="14"/>
       <c r="M51" s="14"/>
       <c r="N51" s="14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O51" s="14">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="P51" s="14">
         <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="14">
+        <v>62</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14">
+        <v>1</v>
+      </c>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="14">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="P52" s="14">
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="Q51" s="14">
+      <c r="Q52" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="8">
-        <v>45</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8">
-        <v>1</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O52" s="8">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="P52" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="Q52" s="8"/>
     </row>
     <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="8">
-        <v>53</v>
-      </c>
-      <c r="D53" s="8">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
+      <c r="J53" s="8">
+        <v>1</v>
+      </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -2938,11 +2939,11 @@
       </c>
       <c r="O53" s="8">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P53" s="8">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="Q53" s="8"/>
     </row>
@@ -2951,15 +2952,15 @@
         <v>74</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="8">
-        <v>45</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -2974,93 +2975,91 @@
       </c>
       <c r="O54" s="8">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P54" s="8">
         <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="Q54" s="8"/>
+    </row>
+    <row r="55" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="8">
+        <v>45</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="P55" s="8">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q55" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="14">
-        <v>20</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14">
-        <v>2</v>
-      </c>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14">
-        <v>4</v>
-      </c>
-      <c r="J55" s="14">
-        <v>4</v>
-      </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14">
-        <v>1</v>
-      </c>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="O55" s="14">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="P55" s="14">
-        <f t="shared" si="1"/>
-        <v>440</v>
-      </c>
-      <c r="Q55" s="14"/>
     </row>
     <row r="56" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="G56" s="14">
+        <v>2</v>
+      </c>
       <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14">
+      <c r="I56" s="14">
         <v>4</v>
       </c>
+      <c r="J56" s="14">
+        <v>4</v>
+      </c>
+      <c r="K56" s="14"/>
       <c r="L56" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O56" s="14">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="P56" s="14">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>440</v>
       </c>
       <c r="Q56" s="14"/>
     </row>
@@ -3069,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C57" s="14">
         <v>17</v>
@@ -3081,142 +3080,144 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="K57" s="14">
+        <v>4</v>
+      </c>
       <c r="L57" s="14">
         <v>2</v>
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="P57" s="14">
         <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="14">
+        <v>17</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14">
+        <v>2</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O58" s="14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="P58" s="14">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="Q57" s="14">
+      <c r="Q58" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="59" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>124</v>
       </c>
-      <c r="D58" s="8">
-        <v>1</v>
-      </c>
-      <c r="E58" s="8">
-        <v>1</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8">
+      <c r="D59" s="8">
+        <v>1</v>
+      </c>
+      <c r="E59" s="8">
+        <v>1</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="8">
         <v>2</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8">
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O59" s="8">
         <f t="shared" si="0"/>
         <v>620</v>
       </c>
-      <c r="P58" s="8">
+      <c r="P59" s="8">
         <f t="shared" si="1"/>
         <v>1240</v>
       </c>
-      <c r="Q58" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="14">
-        <v>62</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14">
-        <v>1</v>
-      </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O59" s="14">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="P59" s="14">
-        <f t="shared" si="1"/>
-        <v>248</v>
-      </c>
-      <c r="Q59" s="14"/>
+      <c r="Q59" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="14">
-        <v>59</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
+      <c r="G60" s="14">
+        <v>1</v>
+      </c>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
+      <c r="J60" s="14">
+        <v>1</v>
+      </c>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="P60" s="14">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="Q60" s="14"/>
     </row>
@@ -3225,19 +3226,19 @@
         <v>83</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="14">
-        <v>58</v>
-      </c>
-      <c r="D61" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
-      <c r="I61" s="14">
-        <v>1</v>
-      </c>
+      <c r="I61" s="14"/>
       <c r="J61" s="14"/>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
@@ -3248,156 +3249,173 @@
       </c>
       <c r="O61" s="14">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P61" s="14">
         <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="14">
+        <v>58</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14">
+        <v>1</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O62" s="14">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="P62" s="14">
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="Q61" s="14">
+      <c r="Q62" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+    <row r="63" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C63" s="8">
         <v>69</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8">
+        <v>1</v>
+      </c>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8">
         <f>K2*C2</f>
         <v>0</v>
       </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8">
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O63" s="8">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="P62" s="8">
+      <c r="P63" s="8">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="Q62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6" t="s">
+      <c r="Q63" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12">
-        <f>SUM(D2:D62)</f>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12">
+        <f>SUM(D2:D63)</f>
         <v>5</v>
       </c>
-      <c r="E64" s="12">
-        <f t="shared" ref="E64:M64" si="3">SUM(E2:E62)</f>
+      <c r="E65" s="12">
+        <f t="shared" ref="E65:M65" si="3">SUM(E2:E63)</f>
         <v>10</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F65" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H65" s="12">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I65" s="12">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J65" s="12">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K65" s="12">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L65" s="12">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="M64" s="12">
+      <c r="M65" s="12">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="N64" s="12">
-        <f>SUM(D64:M64)</f>
-        <v>141</v>
-      </c>
-      <c r="O64" s="12"/>
-      <c r="P64" s="7">
-        <f>SUM(P2:P62)</f>
-        <v>22110</v>
-      </c>
-      <c r="Q64" s="13">
-        <f>SUM(Q2:Q62)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="N65" s="12">
+        <f>SUM(D65:M65)</f>
+        <v>145</v>
+      </c>
+      <c r="O65" s="12"/>
+      <c r="P65" s="7">
+        <f>SUM(P2:P63)</f>
+        <v>22446</v>
+      </c>
+      <c r="Q65" s="13">
+        <f>SUM(Q2:Q63)</f>
+        <v>62</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="6"/>
@@ -3533,371 +3551,328 @@
       <c r="Q72" s="6"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E75" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F75" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G75" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I75" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L74" s="7" t="s">
+      <c r="L75" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="9" t="s">
+      <c r="M75" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" ref="C75:C96" si="4">C2*2</f>
-        <v>16</v>
-      </c>
-      <c r="D75" s="8">
-        <f t="shared" ref="D75:D85" si="5">C75*D2</f>
-        <v>0</v>
-      </c>
-      <c r="E75" s="8">
-        <f t="shared" ref="E75:E85" si="6">C75*E2</f>
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" ref="F75:F85" si="7">C75*F2</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
-        <f t="shared" ref="G75:G85" si="8">C75*G2</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="8">
-        <f t="shared" ref="H75:H85" si="9">C75*H2</f>
-        <v>0</v>
-      </c>
-      <c r="I75" s="8">
-        <f t="shared" ref="I75:I85" si="10">C75*I2</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <f t="shared" ref="J75:J85" si="11">C75*J2</f>
-        <v>16</v>
-      </c>
-      <c r="K75" s="8">
-        <f t="shared" ref="K75:K85" si="12">C75*K2</f>
-        <v>0</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" ref="L75:L85" si="13">C75*L2</f>
-        <v>16</v>
-      </c>
-      <c r="M75" s="8">
-        <f t="shared" ref="M75:M85" si="14">C75*M2</f>
-        <v>16</v>
-      </c>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8">
-        <f>SUM(D75:M75)</f>
-        <v>48</v>
-      </c>
-      <c r="Q75" s="8">
-        <f>SUM(P75:P77)</f>
-        <v>132</v>
-      </c>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <f>C2*2</f>
+        <v>16</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="5"/>
+        <f>C76*D2</f>
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f>C76*E2</f>
+        <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>C76*F2</f>
+        <v>0</v>
       </c>
       <c r="G76" s="8">
-        <f t="shared" si="8"/>
+        <f>C76*G2</f>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f t="shared" si="9"/>
+        <f>C76*H2</f>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f t="shared" si="10"/>
+        <f>C76*I2</f>
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f>C76*J2</f>
+        <v>16</v>
       </c>
       <c r="K76" s="8">
-        <f t="shared" si="12"/>
+        <f>C76*K2</f>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f>C76*L2</f>
+        <v>16</v>
       </c>
       <c r="M76" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>C76*M2</f>
+        <v>16</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8">
-        <f t="shared" ref="P76:P135" si="15">SUM(D76:M76)</f>
-        <v>4</v>
-      </c>
-      <c r="Q76" s="8"/>
+        <f>SUM(D76:M76)</f>
+        <v>48</v>
+      </c>
+      <c r="Q76" s="8">
+        <f>SUM(P76:P78)</f>
+        <v>132</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="4"/>
-        <v>16</v>
+        <f>C3*2</f>
+        <v>2</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f>C77*D3</f>
+        <v>0</v>
       </c>
       <c r="E77" s="8">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f>C77*E3</f>
+        <v>2</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="7"/>
-        <v>16</v>
+        <f>C77*F3</f>
+        <v>2</v>
       </c>
       <c r="G77" s="8">
-        <f t="shared" si="8"/>
+        <f>C77*G3</f>
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <f t="shared" si="9"/>
+        <f>C77*H3</f>
         <v>0</v>
       </c>
       <c r="I77" s="8">
-        <f t="shared" si="10"/>
+        <f>C77*I3</f>
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <f t="shared" si="11"/>
+        <f>C77*J3</f>
         <v>0</v>
       </c>
       <c r="K77" s="8">
-        <f t="shared" si="12"/>
+        <f>C77*K3</f>
         <v>0</v>
       </c>
       <c r="L77" s="8">
-        <f t="shared" si="13"/>
+        <f>C77*L3</f>
         <v>0</v>
       </c>
       <c r="M77" s="8">
-        <f t="shared" si="14"/>
+        <f>C77*M3</f>
         <v>0</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="P77:P137" si="4">SUM(D77:M77)</f>
+        <v>4</v>
+      </c>
+      <c r="Q77" s="8"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="8">
+        <f>C4*2</f>
+        <v>16</v>
+      </c>
+      <c r="D78" s="8">
+        <f>C78*D4</f>
+        <v>16</v>
+      </c>
+      <c r="E78" s="8">
+        <f>C78*E4</f>
+        <v>48</v>
+      </c>
+      <c r="F78" s="8">
+        <f>C78*F4</f>
+        <v>16</v>
+      </c>
+      <c r="G78" s="8">
+        <f>C78*G4</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="8">
+        <f>C78*H4</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="8">
+        <f>C78*I4</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="8">
+        <f>C78*J4</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <f>C78*K4</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <f>C78*L4</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
+        <f>C78*M4</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="Q77" s="8"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="Q78" s="8"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C79" s="6">
+        <f>C5*2</f>
+        <v>564</v>
+      </c>
+      <c r="D79" s="6">
+        <f>C79*D5</f>
+        <v>0</v>
+      </c>
+      <c r="E79" s="6">
+        <f>C79*E5</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <f>C79*F5</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="6">
+        <f>C79*G5</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <f>C79*H5</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="6">
+        <f>C79*I5</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="6">
+        <f>C79*J5</f>
+        <v>564</v>
+      </c>
+      <c r="K79" s="6">
+        <f>C79*K5</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="6">
+        <f>C79*L5</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="14">
+        <f>C79*M5</f>
+        <v>564</v>
+      </c>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="14">
         <f t="shared" si="4"/>
-        <v>564</v>
-      </c>
-      <c r="D78" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G78" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="11"/>
-        <v>564</v>
-      </c>
-      <c r="K78" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M78" s="14">
-        <f t="shared" si="14"/>
-        <v>564</v>
-      </c>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="14">
-        <f t="shared" si="15"/>
         <v>1128</v>
       </c>
-      <c r="Q78" s="6">
-        <f>SUM(P78)</f>
+      <c r="Q79" s="6">
+        <f>SUM(P79)</f>
         <v>1128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C79" s="8">
-        <f t="shared" si="4"/>
-        <v>278</v>
-      </c>
-      <c r="D79" s="8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G79" s="8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="8">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="8">
-        <f t="shared" si="12"/>
-        <v>278</v>
-      </c>
-      <c r="L79" s="8">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="8">
-        <f t="shared" si="14"/>
-        <v>834</v>
-      </c>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
-      <c r="P79" s="8">
-        <f t="shared" si="15"/>
-        <v>1112</v>
-      </c>
-      <c r="Q79" s="8">
-        <f>SUM(P79:P80)</f>
-        <v>1394</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,237 +3880,240 @@
         <v>19</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" si="4"/>
-        <v>282</v>
+        <f>C6*2</f>
+        <v>278</v>
       </c>
       <c r="D80" s="8">
-        <f t="shared" si="5"/>
+        <f>C80*D6</f>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f t="shared" si="6"/>
+        <f>C80*E6</f>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" si="7"/>
+        <f>C80*F6</f>
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <f t="shared" si="8"/>
+        <f>C80*G6</f>
         <v>0</v>
       </c>
       <c r="H80" s="8">
-        <f t="shared" si="9"/>
+        <f>C80*H6</f>
         <v>0</v>
       </c>
       <c r="I80" s="8">
-        <f t="shared" si="10"/>
-        <v>282</v>
+        <f>C80*I6</f>
+        <v>0</v>
       </c>
       <c r="J80" s="8">
-        <f t="shared" si="11"/>
+        <f>C80*J6</f>
         <v>0</v>
       </c>
       <c r="K80" s="8">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>C80*K6</f>
+        <v>278</v>
       </c>
       <c r="L80" s="8">
-        <f t="shared" si="13"/>
+        <f>C80*L6</f>
         <v>0</v>
       </c>
       <c r="M80" s="8">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>C80*M6</f>
+        <v>834</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>1112</v>
+      </c>
+      <c r="Q80" s="8">
+        <f>SUM(P80:P81)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="8">
+        <f>C7*2</f>
         <v>282</v>
       </c>
-      <c r="Q80" s="8"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="6">
+      <c r="D81" s="8">
+        <f>C81*D7</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="8">
+        <f>C81*E7</f>
+        <v>0</v>
+      </c>
+      <c r="F81" s="8">
+        <f>C81*F7</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="8">
+        <f>C81*G7</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="8">
+        <f>C81*H7</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
+        <f>C81*I7</f>
+        <v>282</v>
+      </c>
+      <c r="J81" s="8">
+        <f>C81*J7</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="8">
+        <f>C81*K7</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="8">
+        <f>C81*L7</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="8">
+        <f>C81*M7</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="8"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="8">
         <f t="shared" si="4"/>
-        <v>66</v>
-      </c>
-      <c r="D81" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="L81" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M81" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="14">
-        <f t="shared" si="15"/>
-        <v>66</v>
-      </c>
-      <c r="Q81" s="6">
-        <f>SUM(P81:P85)</f>
-        <v>616</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Q81" s="8"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="6">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f>C8*2</f>
+        <v>66</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="5"/>
+        <f>C82*D8</f>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f t="shared" si="6"/>
+        <f>C82*E8</f>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="7"/>
+        <f>C82*F8</f>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="8"/>
-        <v>92</v>
+        <f>C82*G8</f>
+        <v>0</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="9"/>
+        <f>C82*H8</f>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f t="shared" si="10"/>
+        <f>C82*I8</f>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f t="shared" si="11"/>
+        <f>C82*J8</f>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>C82*K8</f>
+        <v>66</v>
       </c>
       <c r="L82" s="6">
-        <f t="shared" si="13"/>
+        <f>C82*L8</f>
         <v>0</v>
       </c>
       <c r="M82" s="14">
-        <f t="shared" si="14"/>
+        <f>C82*M8</f>
         <v>0</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="14">
-        <f t="shared" si="15"/>
-        <v>92</v>
-      </c>
-      <c r="Q82" s="6"/>
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="Q82" s="6">
+        <f>SUM(P82:P86)</f>
+        <v>952</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" s="6">
-        <f t="shared" si="4"/>
-        <v>84</v>
+        <f>C9*2</f>
+        <v>92</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="5"/>
+        <f>C83*D9</f>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f t="shared" si="6"/>
+        <f>C83*E9</f>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="7"/>
+        <f>C83*F9</f>
         <v>0</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>C83*G9</f>
+        <v>92</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="9"/>
+        <f>C83*H9</f>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f t="shared" si="10"/>
+        <f>C83*I9</f>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f t="shared" si="11"/>
+        <f>C83*J9</f>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f t="shared" si="12"/>
-        <v>84</v>
+        <f>C83*K9</f>
+        <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="13"/>
+        <f>C83*L9</f>
         <v>0</v>
       </c>
       <c r="M83" s="14">
-        <f t="shared" si="14"/>
-        <v>168</v>
+        <f>C83*M9</f>
+        <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="14">
-        <f t="shared" si="15"/>
-        <v>252</v>
+        <f t="shared" si="4"/>
+        <v>92</v>
       </c>
       <c r="Q83" s="6"/>
     </row>
@@ -4144,57 +4122,57 @@
         <v>22</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C84" s="6">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f>C10*2</f>
+        <v>84</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="5"/>
+        <f>C84*D10</f>
         <v>0</v>
       </c>
       <c r="E84" s="6">
-        <f t="shared" si="6"/>
+        <f>C84*E10</f>
         <v>0</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="7"/>
+        <f>C84*F10</f>
         <v>0</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="8"/>
-        <v>120</v>
+        <f>C84*G10</f>
+        <v>0</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="9"/>
+        <f>C84*H10</f>
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <f t="shared" si="10"/>
+        <f>C84*I10</f>
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <f t="shared" si="11"/>
+        <f>C84*J10</f>
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>C84*K10</f>
+        <v>84</v>
       </c>
       <c r="L84" s="6">
-        <f t="shared" si="13"/>
+        <f>C84*L10</f>
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f>C84*M10</f>
+        <v>504</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="14">
-        <f t="shared" si="15"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>588</v>
       </c>
       <c r="Q84" s="6"/>
     </row>
@@ -4203,173 +4181,170 @@
         <v>22</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C85" s="6">
-        <f t="shared" si="4"/>
-        <v>86</v>
+        <f>C11*2</f>
+        <v>120</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="5"/>
+        <f>C85*D11</f>
         <v>0</v>
       </c>
       <c r="E85" s="6">
-        <f t="shared" si="6"/>
+        <f>C85*E11</f>
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="7"/>
-        <v>86</v>
+        <f>C85*F11</f>
+        <v>0</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>C85*G11</f>
+        <v>120</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="9"/>
+        <f>C85*H11</f>
         <v>0</v>
       </c>
       <c r="I85" s="6">
-        <f t="shared" si="10"/>
+        <f>C85*I11</f>
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <f t="shared" si="11"/>
+        <f>C85*J11</f>
         <v>0</v>
       </c>
       <c r="K85" s="6">
-        <f t="shared" si="12"/>
+        <f>C85*K11</f>
         <v>0</v>
       </c>
       <c r="L85" s="6">
-        <f t="shared" si="13"/>
+        <f>C85*L11</f>
         <v>0</v>
       </c>
       <c r="M85" s="14">
-        <f t="shared" si="14"/>
+        <f>C85*M11</f>
         <v>0</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="6">
+        <f>C12*2</f>
         <v>86</v>
       </c>
-      <c r="Q85" s="6"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+      <c r="D86" s="6">
+        <f>C86*D12</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="6">
+        <f>C86*E12</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="6">
+        <f>C86*F12</f>
+        <v>86</v>
+      </c>
+      <c r="G86" s="6">
+        <f>C86*G12</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="6">
+        <f>C86*H12</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="6">
+        <f>C86*I12</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <f>C86*J12</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f>C86*K12</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <f>C86*L12</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="14">
+        <f>C86*M12</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="14">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C87" s="8">
+        <f>C13*2</f>
+        <v>364</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0</v>
+      </c>
+      <c r="E87" s="8">
+        <v>0</v>
+      </c>
+      <c r="F87" s="8">
+        <v>0</v>
+      </c>
+      <c r="G87" s="8">
+        <v>0</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0</v>
+      </c>
+      <c r="J87" s="8">
+        <v>0</v>
+      </c>
+      <c r="K87" s="8">
+        <v>0</v>
+      </c>
+      <c r="L87" s="8">
+        <v>0</v>
+      </c>
+      <c r="M87" s="8">
+        <f t="shared" ref="M87" si="5">C87*M14</f>
+        <v>364</v>
+      </c>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8">
         <f t="shared" si="4"/>
         <v>364</v>
       </c>
-      <c r="D86" s="8">
-        <v>0</v>
-      </c>
-      <c r="E86" s="8">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
-        <v>0</v>
-      </c>
-      <c r="G86" s="8">
-        <v>0</v>
-      </c>
-      <c r="H86" s="8">
-        <v>0</v>
-      </c>
-      <c r="I86" s="8">
-        <v>0</v>
-      </c>
-      <c r="J86" s="8">
-        <v>0</v>
-      </c>
-      <c r="K86" s="8">
-        <v>0</v>
-      </c>
-      <c r="L86" s="8">
-        <v>0</v>
-      </c>
-      <c r="M86" s="8">
-        <f t="shared" ref="M86" si="16">C86*M14</f>
+      <c r="Q87" s="8">
+        <f>P87</f>
         <v>364</v>
-      </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
-      <c r="P86" s="8">
-        <f t="shared" si="15"/>
-        <v>364</v>
-      </c>
-      <c r="Q86" s="8">
-        <f>P86</f>
-        <v>364</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="14">
-        <f t="shared" si="4"/>
-        <v>370</v>
-      </c>
-      <c r="D87" s="14">
-        <f t="shared" ref="D87:D96" si="17">C87*D14</f>
-        <v>0</v>
-      </c>
-      <c r="E87" s="14">
-        <f t="shared" ref="E87:E96" si="18">C87*E14</f>
-        <v>0</v>
-      </c>
-      <c r="F87" s="14">
-        <f t="shared" ref="F87:F96" si="19">C87*F14</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="14">
-        <f>C87*G14</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="14">
-        <f>D87*H14</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="14">
-        <f t="shared" ref="I87:I96" si="20">C87*I14</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="14">
-        <f t="shared" ref="J87:J96" si="21">C87*J14</f>
-        <v>0</v>
-      </c>
-      <c r="K87" s="14">
-        <f t="shared" ref="K87:K96" si="22">C87*K14</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="14">
-        <f t="shared" ref="L87:L96" si="23">C87*L14</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="14">
-        <f t="shared" ref="M87:M118" si="24">C87*M14</f>
-        <v>370</v>
-      </c>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14">
-        <f t="shared" si="15"/>
-        <v>370</v>
-      </c>
-      <c r="Q87" s="14">
-        <f>SUM(P87:P88)</f>
-        <v>1202</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,234 +4355,237 @@
         <v>29</v>
       </c>
       <c r="C88" s="14">
-        <f t="shared" si="4"/>
-        <v>416</v>
+        <f>C14*2</f>
+        <v>370</v>
       </c>
       <c r="D88" s="14">
-        <f t="shared" si="17"/>
+        <f>C88*D14</f>
         <v>0</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" si="18"/>
+        <f>C88*E14</f>
         <v>0</v>
       </c>
       <c r="F88" s="14">
-        <f t="shared" si="19"/>
+        <f>C88*F14</f>
         <v>0</v>
       </c>
       <c r="G88" s="14">
-        <f>C88*G15</f>
+        <f>C88*G14</f>
         <v>0</v>
       </c>
       <c r="H88" s="14">
-        <f>D88*H15</f>
+        <f>D88*H14</f>
         <v>0</v>
       </c>
       <c r="I88" s="14">
-        <f t="shared" si="20"/>
+        <f>C88*I14</f>
         <v>0</v>
       </c>
       <c r="J88" s="14">
-        <f t="shared" si="21"/>
-        <v>416</v>
+        <f>C88*J14</f>
+        <v>0</v>
       </c>
       <c r="K88" s="14">
-        <f t="shared" si="22"/>
+        <f>C88*K14</f>
         <v>0</v>
       </c>
       <c r="L88" s="14">
-        <f t="shared" si="23"/>
-        <v>416</v>
+        <f>C88*L14</f>
+        <v>0</v>
       </c>
       <c r="M88" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f>C88*M14</f>
+        <v>370</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="Q88" s="14">
+        <f>SUM(P88:P89)</f>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="14">
+        <f>C15*2</f>
+        <v>416</v>
+      </c>
+      <c r="D89" s="14">
+        <f>C89*D15</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="14">
+        <f>C89*E15</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="14">
+        <f>C89*F15</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="14">
+        <f>C89*G15</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <f>D89*H15</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <f>C89*I15</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <f>C89*J15</f>
+        <v>416</v>
+      </c>
+      <c r="K89" s="14">
+        <f>C89*K15</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="14">
+        <f>C89*L15</f>
+        <v>416</v>
+      </c>
+      <c r="M89" s="14">
+        <f>C89*M15</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="14">
+        <f t="shared" si="4"/>
         <v>832</v>
       </c>
-      <c r="Q88" s="14"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C89" s="8">
-        <f t="shared" si="4"/>
-        <v>110</v>
-      </c>
-      <c r="D89" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="8">
-        <f t="shared" si="18"/>
-        <v>110</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="19"/>
-        <v>110</v>
-      </c>
-      <c r="G89" s="8">
-        <f t="shared" ref="G89:G96" si="25">C89*G16</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="8">
-        <f t="shared" ref="H89:H96" si="26">C89*H16</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="8">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
-      <c r="P89" s="8">
-        <f t="shared" si="15"/>
-        <v>220</v>
-      </c>
-      <c r="Q89" s="8">
-        <f>SUM(P89:P93)</f>
-        <v>906</v>
-      </c>
+      <c r="Q89" s="14"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" s="8">
-        <f t="shared" si="4"/>
-        <v>108</v>
+        <f>C16*2</f>
+        <v>110</v>
       </c>
       <c r="D90" s="8">
-        <f t="shared" si="17"/>
+        <f>C90*D16</f>
         <v>0</v>
       </c>
       <c r="E90" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>C90*E16</f>
+        <v>110</v>
       </c>
       <c r="F90" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>C90*F16</f>
+        <v>110</v>
       </c>
       <c r="G90" s="8">
-        <f t="shared" si="25"/>
-        <v>108</v>
+        <f>C90*G16</f>
+        <v>0</v>
       </c>
       <c r="H90" s="8">
-        <f t="shared" si="26"/>
+        <f>C90*H16</f>
         <v>0</v>
       </c>
       <c r="I90" s="8">
-        <f t="shared" si="20"/>
+        <f>C90*I16</f>
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <f t="shared" si="21"/>
+        <f>C90*J16</f>
         <v>0</v>
       </c>
       <c r="K90" s="8">
-        <f t="shared" si="22"/>
+        <f>C90*K16</f>
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <f t="shared" si="23"/>
+        <f>C90*L16</f>
         <v>0</v>
       </c>
       <c r="M90" s="8">
-        <f t="shared" si="24"/>
+        <f>C90*M16</f>
         <v>0</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8">
-        <f t="shared" si="15"/>
-        <v>108</v>
-      </c>
-      <c r="Q90" s="8"/>
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="Q90" s="8">
+        <f>SUM(P90:P94)</f>
+        <v>906</v>
+      </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C91" s="8">
-        <f t="shared" si="4"/>
-        <v>110</v>
+        <f>C17*2</f>
+        <v>108</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" si="17"/>
+        <f>C91*D17</f>
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f t="shared" si="18"/>
-        <v>110</v>
+        <f>C91*E17</f>
+        <v>0</v>
       </c>
       <c r="F91" s="8">
-        <f t="shared" si="19"/>
+        <f>C91*F17</f>
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f>C91*G17</f>
+        <v>108</v>
       </c>
       <c r="H91" s="8">
-        <f t="shared" si="26"/>
+        <f>C91*H17</f>
         <v>0</v>
       </c>
       <c r="I91" s="8">
-        <f t="shared" si="20"/>
+        <f>C91*I17</f>
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f t="shared" si="21"/>
+        <f>C91*J17</f>
         <v>0</v>
       </c>
       <c r="K91" s="8">
-        <f t="shared" si="22"/>
+        <f>C91*K17</f>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f t="shared" si="23"/>
+        <f>C91*L17</f>
         <v>0</v>
       </c>
       <c r="M91" s="8">
-        <f t="shared" si="24"/>
+        <f>C91*M17</f>
         <v>0</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8">
-        <f t="shared" si="15"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>108</v>
       </c>
       <c r="Q91" s="8"/>
     </row>
@@ -4616,57 +4594,57 @@
         <v>30</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" si="4"/>
-        <v>92</v>
+        <f>C18*2</f>
+        <v>110</v>
       </c>
       <c r="D92" s="8">
-        <f t="shared" si="17"/>
+        <f>C92*D18</f>
         <v>0</v>
       </c>
       <c r="E92" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f>C92*E18</f>
+        <v>110</v>
       </c>
       <c r="F92" s="8">
-        <f t="shared" si="19"/>
+        <f>C92*F18</f>
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <f t="shared" si="25"/>
+        <f>C92*G18</f>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f t="shared" si="26"/>
+        <f>C92*H18</f>
         <v>0</v>
       </c>
       <c r="I92" s="8">
-        <f t="shared" si="20"/>
+        <f>C92*I18</f>
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <f t="shared" si="21"/>
-        <v>92</v>
+        <f>C92*J18</f>
+        <v>0</v>
       </c>
       <c r="K92" s="8">
-        <f t="shared" si="22"/>
+        <f>C92*K18</f>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f t="shared" si="23"/>
+        <f>C92*L18</f>
         <v>0</v>
       </c>
       <c r="M92" s="8">
-        <f t="shared" si="24"/>
+        <f>C92*M18</f>
         <v>0</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8">
-        <f t="shared" si="15"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="Q92" s="8"/>
     </row>
@@ -4675,483 +4653,480 @@
         <v>30</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" si="4"/>
-        <v>94</v>
+        <f>C19*2</f>
+        <v>92</v>
       </c>
       <c r="D93" s="8">
-        <f t="shared" si="17"/>
+        <f>C93*D19</f>
         <v>0</v>
       </c>
       <c r="E93" s="8">
-        <f t="shared" si="18"/>
+        <f>C93*E19</f>
         <v>0</v>
       </c>
       <c r="F93" s="8">
-        <f t="shared" si="19"/>
+        <f>C93*F19</f>
         <v>0</v>
       </c>
       <c r="G93" s="8">
-        <f t="shared" si="25"/>
+        <f>C93*G19</f>
         <v>0</v>
       </c>
       <c r="H93" s="8">
-        <f t="shared" si="26"/>
-        <v>94</v>
+        <f>C93*H19</f>
+        <v>0</v>
       </c>
       <c r="I93" s="8">
-        <f t="shared" si="20"/>
-        <v>188</v>
+        <f>C93*I19</f>
+        <v>0</v>
       </c>
       <c r="J93" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>C93*J19</f>
+        <v>92</v>
       </c>
       <c r="K93" s="8">
-        <f t="shared" si="22"/>
-        <v>94</v>
+        <f>C93*K19</f>
+        <v>0</v>
       </c>
       <c r="L93" s="8">
-        <f t="shared" si="23"/>
+        <f>C93*L19</f>
         <v>0</v>
       </c>
       <c r="M93" s="8">
-        <f t="shared" si="24"/>
+        <f>C93*M19</f>
         <v>0</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="Q93" s="8"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="8">
+        <f>C20*2</f>
+        <v>94</v>
+      </c>
+      <c r="D94" s="8">
+        <f>C94*D20</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="8">
+        <f>C94*E20</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
+        <f>C94*F20</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="8">
+        <f>C94*G20</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="8">
+        <f>C94*H20</f>
+        <v>94</v>
+      </c>
+      <c r="I94" s="8">
+        <f>C94*I20</f>
+        <v>188</v>
+      </c>
+      <c r="J94" s="8">
+        <f>C94*J20</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="8">
+        <f>C94*K20</f>
+        <v>94</v>
+      </c>
+      <c r="L94" s="8">
+        <f>C94*L20</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="8">
+        <f>C94*M20</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8">
+        <f t="shared" si="4"/>
         <v>376</v>
       </c>
-      <c r="Q93" s="8"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="14" t="s">
+      <c r="Q94" s="8"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B95" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C95" s="14">
+        <f>C21*2</f>
+        <v>800</v>
+      </c>
+      <c r="D95" s="14">
+        <f>C95*D21</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="14">
+        <f>C95*E21</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="14">
+        <f>C95*F21</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <f>C95*G21</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <f>C95*H21</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <f>C95*I21</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <f>C95*J21</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="14">
+        <f>C95*K21</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="14">
+        <f>C95*L21</f>
+        <v>800</v>
+      </c>
+      <c r="M95" s="14">
+        <f>C95*M21</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="14">
         <f t="shared" si="4"/>
         <v>800</v>
       </c>
-      <c r="D94" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F94" s="14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="14">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="14">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="14">
-        <f t="shared" si="23"/>
+      <c r="Q95" s="14">
+        <f t="shared" ref="Q95:Q100" si="6">P95</f>
         <v>800</v>
       </c>
-      <c r="M94" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N94" s="14"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="14">
-        <f t="shared" si="15"/>
-        <v>800</v>
-      </c>
-      <c r="Q94" s="14">
-        <f t="shared" ref="Q94:Q99" si="27">P94</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C96" s="8">
+        <f>C22*2</f>
+        <v>726</v>
+      </c>
+      <c r="D96" s="8">
+        <f>C96*D22</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="8">
+        <f>C96*E22</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="8">
+        <f>C96*F22</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="8">
+        <f>C96*G22</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="8">
+        <f>C96*H22</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="8">
+        <f>C96*I22</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="8">
+        <f>C96*J22</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="8">
+        <f>C96*K22</f>
+        <v>726</v>
+      </c>
+      <c r="L96" s="8">
+        <f>C96*L22</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
+        <f>C96*M22</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8">
         <f t="shared" si="4"/>
         <v>726</v>
       </c>
-      <c r="D95" s="8">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F95" s="8">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="8">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H95" s="8">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="8">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="8">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="8">
-        <f t="shared" si="22"/>
+      <c r="Q96" s="8">
+        <f t="shared" si="6"/>
         <v>726</v>
       </c>
-      <c r="L95" s="8">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
-      <c r="P95" s="8">
-        <f t="shared" si="15"/>
-        <v>726</v>
-      </c>
-      <c r="Q95" s="8">
-        <f t="shared" si="27"/>
-        <v>726</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B97" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="14">
-        <f t="shared" si="4"/>
+      <c r="C97" s="14">
+        <f>C23*2</f>
         <v>186</v>
       </c>
-      <c r="D96" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F96" s="14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="14">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="14">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="14">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="14">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="14">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="14">
-        <f t="shared" si="23"/>
+      <c r="D97" s="14">
+        <f>C97*D23</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="14">
+        <f>C97*E23</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="14">
+        <f>C97*F23</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="14">
+        <f>C97*G23</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <f>C97*H23</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <f>C97*I23</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <f>C97*J23</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="14">
+        <f>C97*K23</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="14">
+        <f>C97*L23</f>
         <v>186</v>
       </c>
-      <c r="M96" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="14"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="14">
-        <f>SUM(D96:M96)</f>
+      <c r="M97" s="14">
+        <f>C97*M23</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14">
+        <f>SUM(D97:M97)</f>
         <v>186</v>
       </c>
-      <c r="Q96" s="14">
-        <f>P96</f>
+      <c r="Q97" s="14">
+        <f>P97</f>
         <v>186</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="8">
+      <c r="C98" s="8">
         <f>174*2</f>
         <v>348</v>
       </c>
-      <c r="D97" s="8">
-        <v>0</v>
-      </c>
-      <c r="E97" s="8">
-        <v>0</v>
-      </c>
-      <c r="F97" s="8">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
-        <v>0</v>
-      </c>
-      <c r="H97" s="8">
-        <v>0</v>
-      </c>
-      <c r="I97" s="8">
-        <v>0</v>
-      </c>
-      <c r="J97" s="8">
-        <v>0</v>
-      </c>
-      <c r="K97" s="8">
-        <v>0</v>
-      </c>
-      <c r="L97" s="8">
-        <v>0</v>
-      </c>
-      <c r="M97" s="8">
-        <f t="shared" si="24"/>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="8">
+        <v>0</v>
+      </c>
+      <c r="H98" s="8">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0</v>
+      </c>
+      <c r="J98" s="8">
+        <v>0</v>
+      </c>
+      <c r="K98" s="8">
+        <v>0</v>
+      </c>
+      <c r="L98" s="8">
+        <v>0</v>
+      </c>
+      <c r="M98" s="8">
+        <f>C98*M24</f>
         <v>348</v>
       </c>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
-      <c r="P97" s="8">
-        <f>SUM(D97:M97)</f>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8">
+        <f>SUM(D98:M98)</f>
         <v>348</v>
       </c>
-      <c r="Q97" s="8">
-        <f>P97</f>
+      <c r="Q98" s="8">
+        <f>P98</f>
         <v>348</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B99" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C99" s="14">
         <f>209*2</f>
         <v>418</v>
       </c>
-      <c r="D98" s="14">
-        <f t="shared" ref="D98:K98" si="28">C98*D26</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="G98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="14">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="14">
-        <f t="shared" ref="L98:L135" si="29">C98*L25</f>
+      <c r="D99" s="14">
+        <f t="shared" ref="D99:K99" si="7">C99*D26</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L99" s="14">
+        <f>C99*L25</f>
         <v>418</v>
       </c>
-      <c r="M98" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N98" s="14"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="14">
-        <f t="shared" si="15"/>
+      <c r="M99" s="14">
+        <f>C99*M25</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="14">
+        <f t="shared" si="4"/>
         <v>418</v>
       </c>
-      <c r="Q98" s="14">
-        <f t="shared" si="27"/>
+      <c r="Q99" s="14">
+        <f t="shared" si="6"/>
         <v>418</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="8">
-        <f t="shared" ref="C99:C135" si="30">C26*2</f>
+      <c r="C100" s="8">
+        <f>C26*2</f>
         <v>516</v>
       </c>
-      <c r="D99" s="8">
-        <f t="shared" ref="D99:D129" si="31">C99*D26</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="8">
-        <f t="shared" ref="E99:E129" si="32">C99*E26</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="8">
-        <f t="shared" ref="F99:F129" si="33">C99*F26</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="8">
-        <f t="shared" ref="G99:G129" si="34">C99*G26</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="8">
-        <f t="shared" ref="H99:H129" si="35">C99*H26</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="8">
-        <f t="shared" ref="I99:I129" si="36">C99*I26</f>
+      <c r="D100" s="8">
+        <f>C100*D26</f>
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <f>C100*E26</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="8">
+        <f>C100*F26</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="8">
+        <f>C100*G26</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="8">
+        <f>C100*H26</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
+        <f>C100*I26</f>
         <v>516</v>
       </c>
-      <c r="J99" s="8">
-        <f t="shared" ref="J99:J129" si="37">C99*J26</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="8">
-        <f t="shared" ref="K99:K129" si="38">C99*K26</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8">
-        <f t="shared" si="15"/>
+      <c r="J100" s="8">
+        <f>C100*J26</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="8">
+        <f>C100*K26</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="8">
+        <f>C100*L26</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="8">
+        <f>C100*M26</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="8"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="8">
+        <f t="shared" si="4"/>
         <v>516</v>
       </c>
-      <c r="Q99" s="8">
-        <f t="shared" si="27"/>
+      <c r="Q100" s="8">
+        <f t="shared" si="6"/>
         <v>516</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C100" s="14">
-        <f t="shared" si="30"/>
-        <v>158</v>
-      </c>
-      <c r="D100" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H100" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="14">
-        <f t="shared" si="36"/>
-        <v>158</v>
-      </c>
-      <c r="J100" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K100" s="14">
-        <f t="shared" si="38"/>
-        <v>158</v>
-      </c>
-      <c r="L100" s="14">
-        <f t="shared" si="29"/>
-        <v>158</v>
-      </c>
-      <c r="M100" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N100" s="14"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="14">
-        <f t="shared" si="15"/>
-        <v>474</v>
-      </c>
-      <c r="Q100" s="14">
-        <f>SUM(P100:P102)</f>
-        <v>1150</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -5159,296 +5134,299 @@
         <v>40</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C101" s="14">
-        <f t="shared" si="30"/>
-        <v>140</v>
+        <f>C27*2</f>
+        <v>158</v>
       </c>
       <c r="D101" s="14">
-        <f t="shared" si="31"/>
+        <f>C101*D27</f>
         <v>0</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" si="32"/>
+        <f>C101*E27</f>
         <v>0</v>
       </c>
       <c r="F101" s="14">
-        <f t="shared" si="33"/>
+        <f>C101*F27</f>
         <v>0</v>
       </c>
       <c r="G101" s="14">
-        <f t="shared" si="34"/>
+        <f>C101*G27</f>
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <f t="shared" si="35"/>
+        <f>C101*H27</f>
         <v>0</v>
       </c>
       <c r="I101" s="14">
-        <f t="shared" si="36"/>
-        <v>280</v>
+        <f>C101*I27</f>
+        <v>158</v>
       </c>
       <c r="J101" s="14">
-        <f t="shared" si="37"/>
+        <f>C101*J27</f>
         <v>0</v>
       </c>
       <c r="K101" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f>C101*K27</f>
+        <v>158</v>
       </c>
       <c r="L101" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f>C101*L27</f>
+        <v>158</v>
       </c>
       <c r="M101" s="14">
-        <f t="shared" si="24"/>
+        <f>C101*M27</f>
         <v>0</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14">
-        <f t="shared" si="15"/>
-        <v>280</v>
-      </c>
-      <c r="Q101" s="14"/>
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="Q101" s="14">
+        <f>SUM(P101:P103)</f>
+        <v>1150</v>
+      </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" s="14">
-        <f t="shared" si="30"/>
-        <v>132</v>
+        <f>C28*2</f>
+        <v>140</v>
       </c>
       <c r="D102" s="14">
-        <f t="shared" si="31"/>
+        <f>C102*D28</f>
         <v>0</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" si="32"/>
+        <f>C102*E28</f>
         <v>0</v>
       </c>
       <c r="F102" s="14">
-        <f t="shared" si="33"/>
+        <f>C102*F28</f>
         <v>0</v>
       </c>
       <c r="G102" s="14">
-        <f t="shared" si="34"/>
+        <f>C102*G28</f>
         <v>0</v>
       </c>
       <c r="H102" s="14">
-        <f t="shared" si="35"/>
+        <f>C102*H28</f>
         <v>0</v>
       </c>
       <c r="I102" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>C102*I28</f>
+        <v>280</v>
       </c>
       <c r="J102" s="14">
-        <f t="shared" si="37"/>
-        <v>132</v>
+        <f>C102*J28</f>
+        <v>0</v>
       </c>
       <c r="K102" s="14">
-        <f t="shared" si="38"/>
-        <v>132</v>
+        <f>C102*K28</f>
+        <v>0</v>
       </c>
       <c r="L102" s="14">
-        <f t="shared" si="29"/>
-        <v>132</v>
+        <f>C102*L28</f>
+        <v>0</v>
       </c>
       <c r="M102" s="14">
-        <f t="shared" si="24"/>
+        <f>C102*M28</f>
         <v>0</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="Q102" s="14"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="14">
+        <f>C29*2</f>
+        <v>132</v>
+      </c>
+      <c r="D103" s="14">
+        <f>C103*D29</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="14">
+        <f>C103*E29</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="14">
+        <f>C103*F29</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="14">
+        <f>C103*G29</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <f>C103*H29</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <f>C103*I29</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <f>C103*J29</f>
+        <v>132</v>
+      </c>
+      <c r="K103" s="14">
+        <f>C103*K29</f>
+        <v>132</v>
+      </c>
+      <c r="L103" s="14">
+        <f>C103*L29</f>
+        <v>132</v>
+      </c>
+      <c r="M103" s="14">
+        <f>C103*M29</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="14">
+        <f t="shared" si="4"/>
         <v>396</v>
       </c>
-      <c r="Q102" s="14"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="8">
-        <f t="shared" si="30"/>
-        <v>50</v>
-      </c>
-      <c r="D103" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F103" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G103" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H103" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="8">
-        <f t="shared" si="37"/>
-        <v>50</v>
-      </c>
-      <c r="K103" s="8">
-        <f t="shared" si="38"/>
-        <v>50</v>
-      </c>
-      <c r="L103" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M103" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
-      <c r="P103" s="8">
-        <f t="shared" si="15"/>
-        <v>100</v>
-      </c>
-      <c r="Q103" s="8">
-        <f>SUM(P103:P107)</f>
-        <v>1120</v>
-      </c>
+      <c r="Q103" s="14"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C104" s="8">
-        <f t="shared" si="30"/>
-        <v>54</v>
+        <f>C30*2</f>
+        <v>50</v>
       </c>
       <c r="D104" s="8">
-        <f t="shared" si="31"/>
+        <f>C104*D30</f>
         <v>0</v>
       </c>
       <c r="E104" s="8">
-        <f t="shared" si="32"/>
+        <f>C104*E30</f>
         <v>0</v>
       </c>
       <c r="F104" s="8">
-        <f t="shared" si="33"/>
+        <f>C104*F30</f>
         <v>0</v>
       </c>
       <c r="G104" s="8">
-        <f t="shared" si="34"/>
-        <v>54</v>
+        <f>C104*G30</f>
+        <v>0</v>
       </c>
       <c r="H104" s="8">
-        <f t="shared" si="35"/>
+        <f>C104*H30</f>
         <v>0</v>
       </c>
       <c r="I104" s="8">
-        <f t="shared" si="36"/>
-        <v>54</v>
+        <f>C104*I30</f>
+        <v>0</v>
       </c>
       <c r="J104" s="8">
-        <f t="shared" si="37"/>
-        <v>108</v>
+        <f>C104*J30</f>
+        <v>50</v>
       </c>
       <c r="K104" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f>C104*K30</f>
+        <v>50</v>
       </c>
       <c r="L104" s="8">
-        <f t="shared" si="29"/>
+        <f>C104*L30</f>
         <v>0</v>
       </c>
       <c r="M104" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
+        <f>C104*M30</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="8"/>
+      <c r="O104" s="8"/>
       <c r="P104" s="8">
-        <f t="shared" si="15"/>
-        <v>216</v>
-      </c>
-      <c r="Q104" s="8"/>
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="Q104" s="8">
+        <f>SUM(P104:P109)</f>
+        <v>1120</v>
+      </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="C105" s="8">
-        <f t="shared" si="30"/>
-        <v>54</v>
+        <f>C31*2</f>
+        <v>38</v>
       </c>
       <c r="D105" s="8">
-        <f t="shared" si="31"/>
+        <f>C105*D31</f>
         <v>0</v>
       </c>
       <c r="E105" s="8">
-        <f t="shared" si="32"/>
+        <f>D105*E31</f>
         <v>0</v>
       </c>
       <c r="F105" s="8">
-        <f t="shared" si="33"/>
+        <f>E105*F31</f>
         <v>0</v>
       </c>
       <c r="G105" s="8">
-        <f t="shared" si="34"/>
+        <f>F105*G31</f>
         <v>0</v>
       </c>
       <c r="H105" s="8">
-        <f t="shared" si="35"/>
+        <f>C105*H31</f>
         <v>0</v>
       </c>
       <c r="I105" s="8">
-        <f t="shared" si="36"/>
+        <f>D105*I31</f>
         <v>0</v>
       </c>
       <c r="J105" s="8">
-        <f t="shared" si="37"/>
+        <f>E105*J31</f>
         <v>0</v>
       </c>
       <c r="K105" s="8">
-        <f t="shared" si="38"/>
-        <v>54</v>
+        <f>F105*K31</f>
+        <v>0</v>
       </c>
       <c r="L105" s="8">
-        <f t="shared" si="29"/>
+        <f>G105*L31</f>
         <v>0</v>
       </c>
       <c r="M105" s="8">
-        <f t="shared" si="24"/>
+        <f>H105*M31</f>
         <v>0</v>
       </c>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8">
-        <f t="shared" si="15"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q105" s="8"/>
     </row>
@@ -5457,57 +5435,57 @@
         <v>44</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C106" s="8">
-        <f t="shared" si="30"/>
+        <f>C32*2</f>
         <v>54</v>
       </c>
       <c r="D106" s="8">
-        <f t="shared" si="31"/>
+        <f>C106*D32</f>
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f t="shared" si="32"/>
+        <f>C106*E32</f>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f t="shared" si="33"/>
+        <f>C106*F32</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="8">
+        <f>C106*G32</f>
         <v>54</v>
       </c>
-      <c r="G106" s="8">
-        <f t="shared" si="34"/>
+      <c r="H106" s="8">
+        <f>C106*H32</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="8">
+        <f>C106*I32</f>
+        <v>54</v>
+      </c>
+      <c r="J106" s="8">
+        <f>C106*J32</f>
         <v>108</v>
       </c>
-      <c r="H106" s="8">
-        <f t="shared" si="35"/>
-        <v>54</v>
-      </c>
-      <c r="I106" s="8">
-        <f t="shared" si="36"/>
-        <v>54</v>
-      </c>
-      <c r="J106" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
       <c r="K106" s="8">
-        <f t="shared" si="38"/>
-        <v>54</v>
+        <f>C106*K32</f>
+        <v>0</v>
       </c>
       <c r="L106" s="8">
-        <f t="shared" si="29"/>
-        <v>54</v>
+        <f>C106*L32</f>
+        <v>0</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
+        <f>C106*M32</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
       <c r="P106" s="8">
-        <f t="shared" si="15"/>
-        <v>378</v>
+        <f t="shared" si="4"/>
+        <v>216</v>
       </c>
       <c r="Q106" s="8"/>
     </row>
@@ -5516,2303 +5494,2421 @@
         <v>44</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" s="8">
-        <f t="shared" si="30"/>
-        <v>62</v>
+        <f>C33*2</f>
+        <v>54</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" si="31"/>
+        <f>C107*D33</f>
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f t="shared" si="32"/>
+        <f>C107*E33</f>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f t="shared" si="33"/>
+        <f>C107*F33</f>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f t="shared" si="34"/>
+        <f>C107*G33</f>
         <v>0</v>
       </c>
       <c r="H107" s="8">
-        <f t="shared" si="35"/>
+        <f>C107*H33</f>
         <v>0</v>
       </c>
       <c r="I107" s="8">
-        <f t="shared" si="36"/>
-        <v>62</v>
+        <f>C107*I33</f>
+        <v>0</v>
       </c>
       <c r="J107" s="8">
-        <f t="shared" si="37"/>
+        <f>C107*J33</f>
         <v>0</v>
       </c>
       <c r="K107" s="8">
-        <f t="shared" si="38"/>
-        <v>186</v>
+        <f>C107*K33</f>
+        <v>54</v>
       </c>
       <c r="L107" s="8">
-        <f t="shared" si="29"/>
-        <v>124</v>
+        <f>C107*L33</f>
+        <v>0</v>
       </c>
       <c r="M107" s="8">
-        <f t="shared" si="24"/>
+        <f>C107*M33</f>
         <v>0</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8">
-        <f t="shared" si="15"/>
-        <v>372</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="Q107" s="8"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="14">
-        <f t="shared" si="30"/>
-        <v>840</v>
-      </c>
-      <c r="D108" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F108" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G108" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H108" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I108" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K108" s="14">
-        <f t="shared" si="38"/>
-        <v>840</v>
-      </c>
-      <c r="L108" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M108" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N108" s="14"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="14">
-        <f t="shared" si="15"/>
-        <v>840</v>
-      </c>
-      <c r="Q108" s="14">
-        <f>P108</f>
-        <v>840</v>
-      </c>
+      <c r="A108" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C108" s="8">
+        <f>C34*2</f>
+        <v>54</v>
+      </c>
+      <c r="D108" s="8">
+        <f>C108*D34</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="8">
+        <f>C108*E34</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="8">
+        <f>C108*F34</f>
+        <v>54</v>
+      </c>
+      <c r="G108" s="8">
+        <f>C108*G34</f>
+        <v>108</v>
+      </c>
+      <c r="H108" s="8">
+        <f>C108*H34</f>
+        <v>54</v>
+      </c>
+      <c r="I108" s="8">
+        <f>C108*I34</f>
+        <v>54</v>
+      </c>
+      <c r="J108" s="8">
+        <f>C108*J34</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="8">
+        <f>C108*K34</f>
+        <v>54</v>
+      </c>
+      <c r="L108" s="8">
+        <f>C108*L34</f>
+        <v>54</v>
+      </c>
+      <c r="M108" s="8">
+        <f>C108*M34</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="Q108" s="8"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C109" s="8">
-        <f t="shared" si="30"/>
-        <v>282</v>
+        <f>C35*2</f>
+        <v>62</v>
       </c>
       <c r="D109" s="8">
-        <f t="shared" si="31"/>
+        <f>C109*D35</f>
         <v>0</v>
       </c>
       <c r="E109" s="8">
-        <f t="shared" si="32"/>
+        <f>C109*E35</f>
         <v>0</v>
       </c>
       <c r="F109" s="8">
-        <f t="shared" si="33"/>
+        <f>C109*F35</f>
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <f t="shared" si="34"/>
+        <f>C109*G35</f>
         <v>0</v>
       </c>
       <c r="H109" s="8">
-        <f t="shared" si="35"/>
+        <f>C109*H35</f>
         <v>0</v>
       </c>
       <c r="I109" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f>C109*I35</f>
+        <v>62</v>
       </c>
       <c r="J109" s="8">
-        <f t="shared" si="37"/>
+        <f>C109*J35</f>
         <v>0</v>
       </c>
       <c r="K109" s="8">
-        <f t="shared" si="38"/>
-        <v>282</v>
+        <f>C109*K35</f>
+        <v>186</v>
       </c>
       <c r="L109" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f>C109*L35</f>
+        <v>124</v>
       </c>
       <c r="M109" s="8">
-        <f t="shared" si="24"/>
+        <f>C109*M35</f>
         <v>0</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8">
-        <f t="shared" si="15"/>
-        <v>282</v>
-      </c>
-      <c r="Q109" s="8">
-        <f>P109</f>
-        <v>282</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="Q109" s="8"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C110" s="14">
-        <f t="shared" si="30"/>
-        <v>160</v>
+        <f>C36*2</f>
+        <v>840</v>
       </c>
       <c r="D110" s="14">
-        <f t="shared" si="31"/>
+        <f>C110*D36</f>
         <v>0</v>
       </c>
       <c r="E110" s="14">
-        <f t="shared" si="32"/>
-        <v>160</v>
+        <f>C110*E36</f>
+        <v>0</v>
       </c>
       <c r="F110" s="14">
-        <f t="shared" si="33"/>
-        <v>160</v>
+        <f>C110*F36</f>
+        <v>0</v>
       </c>
       <c r="G110" s="14">
-        <f t="shared" si="34"/>
-        <v>320</v>
+        <f>C110*G36</f>
+        <v>0</v>
       </c>
       <c r="H110" s="14">
-        <f t="shared" si="35"/>
+        <f>C110*H36</f>
         <v>0</v>
       </c>
       <c r="I110" s="14">
-        <f t="shared" si="36"/>
-        <v>480</v>
+        <f>C110*I36</f>
+        <v>0</v>
       </c>
       <c r="J110" s="14">
-        <f t="shared" si="37"/>
-        <v>160</v>
+        <f>C110*J36</f>
+        <v>0</v>
       </c>
       <c r="K110" s="14">
-        <f t="shared" si="38"/>
-        <v>160</v>
+        <f>C110*K36</f>
+        <v>840</v>
       </c>
       <c r="L110" s="14">
-        <f t="shared" si="29"/>
+        <f>C110*L36</f>
         <v>0</v>
       </c>
       <c r="M110" s="14">
-        <f t="shared" si="24"/>
+        <f>C110*M36</f>
         <v>0</v>
       </c>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14">
-        <f t="shared" si="15"/>
-        <v>1440</v>
+        <f t="shared" si="4"/>
+        <v>840</v>
       </c>
       <c r="Q110" s="14">
         <f>P110</f>
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="C111" s="8">
-        <f t="shared" si="30"/>
-        <v>1044</v>
+        <f>C37*2</f>
+        <v>282</v>
       </c>
       <c r="D111" s="8">
-        <f t="shared" si="31"/>
+        <f>C111*D37</f>
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f t="shared" si="32"/>
+        <f>C111*E37</f>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f t="shared" si="33"/>
+        <f>C111*F37</f>
         <v>0</v>
       </c>
       <c r="G111" s="8">
-        <f t="shared" si="34"/>
+        <f>C111*G37</f>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f t="shared" si="35"/>
+        <f>C111*H37</f>
         <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f t="shared" si="36"/>
+        <f>C111*I37</f>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f t="shared" si="37"/>
+        <f>C111*J37</f>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f>C111*K37</f>
+        <v>282</v>
       </c>
       <c r="L111" s="8">
-        <f t="shared" si="29"/>
+        <f>C111*L37</f>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f t="shared" si="24"/>
-        <v>1044</v>
+        <f>C111*M37</f>
+        <v>0</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="15"/>
-        <v>1044</v>
+        <f t="shared" si="4"/>
+        <v>282</v>
       </c>
       <c r="Q111" s="8">
         <f>P111</f>
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C112" s="14">
-        <f t="shared" si="30"/>
-        <v>68</v>
+        <f>C38*2</f>
+        <v>160</v>
       </c>
       <c r="D112" s="14">
-        <f t="shared" si="31"/>
+        <f>C112*D38</f>
         <v>0</v>
       </c>
       <c r="E112" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f>C112*E38</f>
+        <v>160</v>
       </c>
       <c r="F112" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f>C112*F38</f>
+        <v>160</v>
       </c>
       <c r="G112" s="14">
-        <f t="shared" si="34"/>
-        <v>68</v>
+        <f>C112*G38</f>
+        <v>320</v>
       </c>
       <c r="H112" s="14">
-        <f t="shared" si="35"/>
+        <f>C112*H38</f>
         <v>0</v>
       </c>
       <c r="I112" s="14">
-        <f t="shared" si="36"/>
-        <v>136</v>
+        <f>C112*I38</f>
+        <v>480</v>
       </c>
       <c r="J112" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f>C112*J38</f>
+        <v>160</v>
       </c>
       <c r="K112" s="14">
-        <f t="shared" si="38"/>
-        <v>136</v>
+        <f>C112*K38</f>
+        <v>160</v>
       </c>
       <c r="L112" s="14">
-        <f t="shared" si="29"/>
-        <v>68</v>
+        <f>C112*L38</f>
+        <v>0</v>
       </c>
       <c r="M112" s="14">
-        <f t="shared" si="24"/>
+        <f>C112*M38</f>
         <v>0</v>
       </c>
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
       <c r="P112" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>1440</v>
+      </c>
+      <c r="Q112" s="14">
+        <f>P112</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="8">
+        <f>C39*2</f>
+        <v>1044</v>
+      </c>
+      <c r="D113" s="8">
+        <f>C113*D39</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <f>C113*E39</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="8">
+        <f>C113*F39</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="8">
+        <f>C113*G39</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="8">
+        <f>C113*H39</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="8">
+        <f>C113*I39</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="8">
+        <f>C113*J39</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="8">
+        <f>C113*K39</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="8">
+        <f>C113*L39</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="8">
+        <f>C113*M39</f>
+        <v>1044</v>
+      </c>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
+      <c r="P113" s="8">
+        <f t="shared" si="4"/>
+        <v>1044</v>
+      </c>
+      <c r="Q113" s="8">
+        <f>P113</f>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C114" s="14">
+        <f>C40*2</f>
+        <v>68</v>
+      </c>
+      <c r="D114" s="14">
+        <f>C114*D40</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="14">
+        <f>C114*E40</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="14">
+        <f>C114*F40</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="14">
+        <f>C114*G40</f>
+        <v>68</v>
+      </c>
+      <c r="H114" s="14">
+        <f>C114*H40</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="14">
+        <f>C114*I40</f>
+        <v>136</v>
+      </c>
+      <c r="J114" s="14">
+        <f>C114*J40</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="14">
+        <f>C114*K40</f>
+        <v>136</v>
+      </c>
+      <c r="L114" s="14">
+        <f>C114*L40</f>
+        <v>68</v>
+      </c>
+      <c r="M114" s="14">
+        <f>C114*M40</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14">
+        <f t="shared" si="4"/>
         <v>408</v>
       </c>
-      <c r="Q112" s="14">
-        <f>SUM(P112:P113)</f>
+      <c r="Q114" s="14">
+        <f>SUM(P114:P115)</f>
         <v>498</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="14" t="s">
+    <row r="115" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B115" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C113" s="14">
-        <f t="shared" si="30"/>
+      <c r="C115" s="14">
+        <f>C41*2</f>
         <v>90</v>
       </c>
-      <c r="D113" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E113" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F113" s="14">
-        <f t="shared" si="33"/>
+      <c r="D115" s="14">
+        <f>C115*D41</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <f>C115*E41</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="14">
+        <f>C115*F41</f>
         <v>90</v>
       </c>
-      <c r="G113" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H113" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K113" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L113" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M113" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N113" s="14"/>
-      <c r="O113" s="14"/>
-      <c r="P113" s="14">
-        <f t="shared" si="15"/>
+      <c r="G115" s="14">
+        <f>C115*G41</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="14">
+        <f>C115*H41</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="14">
+        <f>C115*I41</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="14">
+        <f>C115*J41</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="14">
+        <f>C115*K41</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="14">
+        <f>C115*L41</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="14">
+        <f>C115*M41</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="Q113" s="14"/>
-    </row>
-    <row r="114" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="8">
-        <f t="shared" si="30"/>
-        <v>264</v>
-      </c>
-      <c r="D114" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H114" s="8">
-        <f t="shared" si="35"/>
-        <v>264</v>
-      </c>
-      <c r="I114" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J114" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K114" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L114" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M114" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N114" s="8"/>
-      <c r="O114" s="8"/>
-      <c r="P114" s="8">
-        <f t="shared" si="15"/>
-        <v>264</v>
-      </c>
-      <c r="Q114" s="8">
-        <f>SUM(P114:P116)</f>
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C115" s="8">
-        <f t="shared" si="30"/>
-        <v>262</v>
-      </c>
-      <c r="D115" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E115" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
-        <f t="shared" si="33"/>
-        <v>262</v>
-      </c>
-      <c r="G115" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H115" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J115" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K115" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L115" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M115" s="8">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8">
-        <f t="shared" si="15"/>
-        <v>262</v>
-      </c>
-      <c r="Q115" s="8"/>
+      <c r="Q115" s="14"/>
     </row>
     <row r="116" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C116" s="8">
-        <f t="shared" si="30"/>
-        <v>262</v>
+        <f>C42*2</f>
+        <v>264</v>
       </c>
       <c r="D116" s="8">
-        <f t="shared" si="31"/>
-        <v>262</v>
+        <f>C116*D42</f>
+        <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f t="shared" si="32"/>
+        <f>C116*E42</f>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f t="shared" si="33"/>
+        <f>C116*F42</f>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f t="shared" si="34"/>
+        <f>C116*G42</f>
         <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f>C116*H42</f>
+        <v>264</v>
       </c>
       <c r="I116" s="8">
-        <f t="shared" si="36"/>
+        <f>C116*I42</f>
         <v>0</v>
       </c>
       <c r="J116" s="8">
-        <f t="shared" si="37"/>
+        <f>C116*J42</f>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f t="shared" si="38"/>
-        <v>262</v>
+        <f>C116*K42</f>
+        <v>0</v>
       </c>
       <c r="L116" s="8">
-        <f t="shared" si="29"/>
+        <f>C116*L42</f>
         <v>0</v>
       </c>
       <c r="M116" s="8">
-        <f t="shared" si="24"/>
+        <f>C116*M42</f>
         <v>0</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="15"/>
-        <v>524</v>
-      </c>
-      <c r="Q116" s="8"/>
+        <f t="shared" si="4"/>
+        <v>264</v>
+      </c>
+      <c r="Q116" s="8">
+        <f>SUM(P116:P118)</f>
+        <v>1050</v>
+      </c>
     </row>
     <row r="117" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C117" s="14">
-        <f t="shared" si="30"/>
-        <v>272</v>
-      </c>
-      <c r="D117" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E117" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F117" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J117" s="14">
-        <f t="shared" si="37"/>
-        <v>544</v>
-      </c>
-      <c r="K117" s="14">
-        <f t="shared" si="38"/>
-        <v>272</v>
-      </c>
-      <c r="L117" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M117" s="14">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N117" s="14"/>
-      <c r="O117" s="14"/>
-      <c r="P117" s="14">
-        <f t="shared" si="15"/>
-        <v>816</v>
-      </c>
-      <c r="Q117" s="14">
-        <f>P117</f>
-        <v>816</v>
-      </c>
+      <c r="A117" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C117" s="8">
+        <f>C43*2</f>
+        <v>262</v>
+      </c>
+      <c r="D117" s="8">
+        <f>C117*D43</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="8">
+        <f>C117*E43</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="8">
+        <f>C117*F43</f>
+        <v>262</v>
+      </c>
+      <c r="G117" s="8">
+        <f>C117*G43</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="8">
+        <f>C117*H43</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="8">
+        <f>C117*I43</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="8">
+        <f>C117*J43</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="8">
+        <f>C117*K43</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="8">
+        <f>C117*L43</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="8">
+        <f>C117*M43</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="8"/>
+      <c r="O117" s="8"/>
+      <c r="P117" s="8">
+        <f t="shared" si="4"/>
+        <v>262</v>
+      </c>
+      <c r="Q117" s="8"/>
     </row>
     <row r="118" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C118" s="8">
-        <f t="shared" si="30"/>
-        <v>266</v>
+        <f>C44*2</f>
+        <v>262</v>
       </c>
       <c r="D118" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f>C118*D44</f>
+        <v>262</v>
       </c>
       <c r="E118" s="8">
-        <f t="shared" si="32"/>
+        <f>C118*E44</f>
         <v>0</v>
       </c>
       <c r="F118" s="8">
-        <f t="shared" si="33"/>
+        <f>C118*F44</f>
         <v>0</v>
       </c>
       <c r="G118" s="8">
-        <f t="shared" si="34"/>
+        <f>C118*G44</f>
         <v>0</v>
       </c>
       <c r="H118" s="8">
-        <f t="shared" si="35"/>
-        <v>266</v>
+        <f>C118*H44</f>
+        <v>0</v>
       </c>
       <c r="I118" s="8">
-        <f t="shared" si="36"/>
+        <f>C118*I44</f>
         <v>0</v>
       </c>
       <c r="J118" s="8">
-        <f t="shared" si="37"/>
+        <f>C118*J44</f>
         <v>0</v>
       </c>
       <c r="K118" s="8">
-        <f t="shared" si="38"/>
-        <v>266</v>
+        <f>C118*K44</f>
+        <v>262</v>
       </c>
       <c r="L118" s="8">
-        <f t="shared" si="29"/>
+        <f>C118*L44</f>
         <v>0</v>
       </c>
       <c r="M118" s="8">
-        <f t="shared" si="24"/>
+        <f>C118*M44</f>
         <v>0</v>
       </c>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8">
-        <f t="shared" si="15"/>
-        <v>532</v>
-      </c>
-      <c r="Q118" s="8">
-        <f>SUM(P118:P121)</f>
-        <v>1396</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>524</v>
+      </c>
+      <c r="Q118" s="8"/>
     </row>
     <row r="119" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C119" s="8">
-        <f t="shared" si="30"/>
-        <v>304</v>
-      </c>
-      <c r="D119" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F119" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J119" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K119" s="8">
-        <f t="shared" si="38"/>
-        <v>304</v>
-      </c>
-      <c r="L119" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M119" s="8">
-        <f t="shared" ref="M119:M150" si="39">C119*M46</f>
-        <v>0</v>
-      </c>
-      <c r="N119" s="8"/>
-      <c r="O119" s="8"/>
-      <c r="P119" s="8">
-        <f t="shared" si="15"/>
-        <v>304</v>
-      </c>
-      <c r="Q119" s="8"/>
+      <c r="A119" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="14">
+        <f>C45*2</f>
+        <v>272</v>
+      </c>
+      <c r="D119" s="14">
+        <f>C119*D45</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <f>C119*E45</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="14">
+        <f>C119*F45</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="14">
+        <f>C119*G45</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <f>C119*H45</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <f>C119*I45</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="14">
+        <f>C119*J45</f>
+        <v>544</v>
+      </c>
+      <c r="K119" s="14">
+        <f>C119*K45</f>
+        <v>272</v>
+      </c>
+      <c r="L119" s="14">
+        <f>C119*L45</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
+        <f>C119*M45</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="14"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="14">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+      <c r="Q119" s="14">
+        <f>P119</f>
+        <v>816</v>
+      </c>
     </row>
     <row r="120" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C120" s="8">
-        <f t="shared" si="30"/>
-        <v>254</v>
+        <f>C46*2</f>
+        <v>266</v>
       </c>
       <c r="D120" s="8">
-        <f t="shared" si="31"/>
+        <f>C120*D46</f>
         <v>0</v>
       </c>
       <c r="E120" s="8">
-        <f t="shared" si="32"/>
+        <f>C120*E46</f>
         <v>0</v>
       </c>
       <c r="F120" s="8">
-        <f t="shared" si="33"/>
+        <f>C120*F46</f>
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <f t="shared" si="34"/>
+        <f>C120*G46</f>
         <v>0</v>
       </c>
       <c r="H120" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f>C120*H46</f>
+        <v>266</v>
       </c>
       <c r="I120" s="8">
-        <f t="shared" si="36"/>
-        <v>254</v>
+        <f>C120*I46</f>
+        <v>0</v>
       </c>
       <c r="J120" s="8">
-        <f t="shared" si="37"/>
+        <f>C120*J46</f>
         <v>0</v>
       </c>
       <c r="K120" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f>C120*K46</f>
+        <v>266</v>
       </c>
       <c r="L120" s="8">
-        <f t="shared" si="29"/>
+        <f>C120*L46</f>
         <v>0</v>
       </c>
       <c r="M120" s="8">
-        <f t="shared" si="39"/>
+        <f>C120*M46</f>
         <v>0</v>
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8">
-        <f t="shared" si="15"/>
-        <v>254</v>
-      </c>
-      <c r="Q120" s="8"/>
-    </row>
-    <row r="121" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="4"/>
+        <v>532</v>
+      </c>
+      <c r="Q120" s="8">
+        <f>SUM(P120:P123)</f>
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C121" s="8">
-        <f t="shared" si="30"/>
-        <v>306</v>
+        <f>C47*2</f>
+        <v>304</v>
       </c>
       <c r="D121" s="8">
-        <f t="shared" si="31"/>
+        <f>C121*D47</f>
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f t="shared" si="32"/>
+        <f>C121*E47</f>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f t="shared" si="33"/>
+        <f>C121*F47</f>
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f t="shared" si="34"/>
+        <f>C121*G47</f>
         <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f t="shared" si="35"/>
+        <f>C121*H47</f>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f t="shared" si="36"/>
-        <v>306</v>
+        <f>C121*I47</f>
+        <v>0</v>
       </c>
       <c r="J121" s="8">
-        <f t="shared" si="37"/>
+        <f>C121*J47</f>
         <v>0</v>
       </c>
       <c r="K121" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f>C121*K47</f>
+        <v>304</v>
       </c>
       <c r="L121" s="8">
-        <f t="shared" si="29"/>
+        <f>C121*L47</f>
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <f t="shared" si="39"/>
+        <f>C121*M47</f>
         <v>0</v>
       </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>304</v>
+      </c>
+      <c r="Q121" s="8"/>
+    </row>
+    <row r="122" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="8">
+        <f>C48*2</f>
+        <v>254</v>
+      </c>
+      <c r="D122" s="8">
+        <f>C122*D48</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="8">
+        <f>C122*E48</f>
+        <v>0</v>
+      </c>
+      <c r="F122" s="8">
+        <f>C122*F48</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="8">
+        <f>C122*G48</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="8">
+        <f>C122*H48</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="8">
+        <f>C122*I48</f>
+        <v>254</v>
+      </c>
+      <c r="J122" s="8">
+        <f>C122*J48</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="8">
+        <f>C122*K48</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="8">
+        <f>C122*L48</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="8">
+        <f>C122*M48</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="8"/>
+      <c r="O122" s="8"/>
+      <c r="P122" s="8">
+        <f t="shared" si="4"/>
+        <v>254</v>
+      </c>
+      <c r="Q122" s="8"/>
+    </row>
+    <row r="123" spans="1:17" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="8">
+        <f>C49*2</f>
         <v>306</v>
       </c>
-      <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C122" s="14">
-        <f t="shared" si="30"/>
-        <v>124</v>
-      </c>
-      <c r="D122" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="14">
-        <f t="shared" si="32"/>
-        <v>124</v>
-      </c>
-      <c r="F122" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H122" s="14">
-        <f t="shared" si="35"/>
-        <v>124</v>
-      </c>
-      <c r="I122" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J122" s="14">
-        <f t="shared" si="37"/>
-        <v>248</v>
-      </c>
-      <c r="K122" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L122" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M122" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N122" s="14"/>
-      <c r="O122" s="14"/>
-      <c r="P122" s="14">
-        <f t="shared" si="15"/>
-        <v>496</v>
-      </c>
-      <c r="Q122" s="14">
-        <f>SUM(P122:P124)</f>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B123" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C123" s="14">
-        <f t="shared" si="30"/>
-        <v>130</v>
-      </c>
-      <c r="D123" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E123" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F123" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="14">
-        <f t="shared" si="34"/>
-        <v>260</v>
-      </c>
-      <c r="H123" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="14"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14">
-        <f t="shared" si="15"/>
-        <v>260</v>
-      </c>
-      <c r="Q123" s="14"/>
+      <c r="D123" s="8">
+        <f>C123*D49</f>
+        <v>0</v>
+      </c>
+      <c r="E123" s="8">
+        <f>C123*E49</f>
+        <v>0</v>
+      </c>
+      <c r="F123" s="8">
+        <f>C123*F49</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="8">
+        <f>C123*G49</f>
+        <v>0</v>
+      </c>
+      <c r="H123" s="8">
+        <f>C123*H49</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="8">
+        <f>C123*I49</f>
+        <v>306</v>
+      </c>
+      <c r="J123" s="8">
+        <f>C123*J49</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="8">
+        <f>C123*K49</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="8">
+        <f>C123*L49</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="8">
+        <f>C123*M49</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8">
+        <f t="shared" si="4"/>
+        <v>306</v>
+      </c>
+      <c r="Q123" s="8"/>
     </row>
     <row r="124" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C124" s="14">
-        <f t="shared" si="30"/>
+        <f>C50*2</f>
         <v>124</v>
       </c>
       <c r="D124" s="14">
-        <f t="shared" si="31"/>
+        <f>C124*D50</f>
         <v>0</v>
       </c>
       <c r="E124" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f>C124*E50</f>
+        <v>124</v>
       </c>
       <c r="F124" s="14">
-        <f t="shared" si="33"/>
+        <f>C124*F50</f>
         <v>0</v>
       </c>
       <c r="G124" s="14">
-        <f t="shared" si="34"/>
+        <f>C124*G50</f>
         <v>0</v>
       </c>
       <c r="H124" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f>C124*H50</f>
+        <v>124</v>
       </c>
       <c r="I124" s="14">
-        <f t="shared" si="36"/>
+        <f>C124*I50</f>
         <v>0</v>
       </c>
       <c r="J124" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
+        <f>C124*J50</f>
+        <v>248</v>
       </c>
       <c r="K124" s="14">
-        <f t="shared" si="38"/>
-        <v>124</v>
+        <f>C124*K50</f>
+        <v>0</v>
       </c>
       <c r="L124" s="14">
-        <f t="shared" si="29"/>
+        <f>C124*L50</f>
         <v>0</v>
       </c>
       <c r="M124" s="14">
-        <f t="shared" si="39"/>
+        <f>C124*M50</f>
         <v>0</v>
       </c>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14">
-        <f t="shared" si="15"/>
-        <v>124</v>
-      </c>
-      <c r="Q124" s="14"/>
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="Q124" s="14">
+        <f>SUM(P124:P126)</f>
+        <v>880</v>
+      </c>
     </row>
     <row r="125" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="C125" s="14">
-        <f t="shared" si="30"/>
-        <v>90</v>
+        <f>C51*2</f>
+        <v>130</v>
       </c>
       <c r="D125" s="14">
-        <f t="shared" si="31"/>
+        <f>C125*D51</f>
         <v>0</v>
       </c>
       <c r="E125" s="14">
-        <f t="shared" si="32"/>
+        <f>C125*E51</f>
         <v>0</v>
       </c>
       <c r="F125" s="14">
-        <f t="shared" si="33"/>
+        <f>C125*F51</f>
         <v>0</v>
       </c>
       <c r="G125" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f>C125*G51</f>
+        <v>260</v>
       </c>
       <c r="H125" s="14">
-        <f t="shared" si="35"/>
+        <f>C125*H51</f>
         <v>0</v>
       </c>
       <c r="I125" s="14">
-        <f t="shared" si="36"/>
+        <f>C125*I51</f>
         <v>0</v>
       </c>
       <c r="J125" s="14">
-        <f t="shared" si="37"/>
-        <v>90</v>
+        <f>C125*J51</f>
+        <v>0</v>
       </c>
       <c r="K125" s="14">
-        <f t="shared" si="38"/>
+        <f>C125*K51</f>
         <v>0</v>
       </c>
       <c r="L125" s="14">
-        <f t="shared" si="29"/>
+        <f>C125*L51</f>
         <v>0</v>
       </c>
       <c r="M125" s="14">
-        <f t="shared" si="39"/>
+        <f>C125*M51</f>
         <v>0</v>
       </c>
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="Q125" s="14"/>
+    </row>
+    <row r="126" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" s="14">
+        <f>C52*2</f>
+        <v>124</v>
+      </c>
+      <c r="D126" s="14">
+        <f>C126*D52</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="14">
+        <f>C126*E52</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="14">
+        <f>C126*F52</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="14">
+        <f>C126*G52</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <f>C126*H52</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="14">
+        <f>C126*I52</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="14">
+        <f>C126*J52</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="14">
+        <f>C126*K52</f>
+        <v>124</v>
+      </c>
+      <c r="L126" s="14">
+        <f>C126*L52</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="14">
+        <f>C126*M52</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="Q126" s="14"/>
+    </row>
+    <row r="127" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C127" s="14">
+        <f>C53*2</f>
         <v>90</v>
       </c>
-      <c r="Q125" s="14">
-        <f>SUM(P125:P127)</f>
+      <c r="D127" s="14">
+        <f>C127*D53</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="14">
+        <f>C127*E53</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="14">
+        <f>C127*F53</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="14">
+        <f>C127*G53</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="14">
+        <f>C127*H53</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="14">
+        <f>C127*I53</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="14">
+        <f>C127*J53</f>
+        <v>90</v>
+      </c>
+      <c r="K127" s="14">
+        <f>C127*K53</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="14">
+        <f>C127*L53</f>
+        <v>0</v>
+      </c>
+      <c r="M127" s="14">
+        <f>C127*M53</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="14"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="14">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="Q127" s="14">
+        <f>SUM(P127:P129)</f>
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+    <row r="128" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B128" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C126" s="8">
-        <f t="shared" si="30"/>
+      <c r="C128" s="8">
+        <f>C54*2</f>
         <v>106</v>
       </c>
-      <c r="D126" s="8">
-        <f t="shared" si="31"/>
+      <c r="D128" s="8">
+        <f>C128*D54</f>
         <v>106</v>
       </c>
-      <c r="E126" s="8">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J126" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K126" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L126" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M126" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8">
-        <f t="shared" si="15"/>
+      <c r="E128" s="8">
+        <f>C128*E54</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="8">
+        <f>C128*F54</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="8">
+        <f>C128*G54</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="8">
+        <f>C128*H54</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="8">
+        <f>C128*I54</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="8">
+        <f>C128*J54</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="8">
+        <f>C128*K54</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="8">
+        <f>C128*L54</f>
+        <v>0</v>
+      </c>
+      <c r="M128" s="8">
+        <f>C128*M54</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8">
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
-      <c r="Q126" s="8"/>
-    </row>
-    <row r="127" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+      <c r="Q128" s="8"/>
+    </row>
+    <row r="129" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B129" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C127" s="8">
-        <f t="shared" si="30"/>
+      <c r="C129" s="8">
+        <f>C55*2</f>
         <v>90</v>
       </c>
-      <c r="D127" s="8">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E127" s="8">
-        <f t="shared" si="32"/>
+      <c r="D129" s="8">
+        <f>C129*D55</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="8">
+        <f>C129*E55</f>
         <v>90</v>
       </c>
-      <c r="F127" s="8">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="8">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="8">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J127" s="8">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K127" s="8">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L127" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M127" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8">
-        <f t="shared" si="15"/>
+      <c r="F129" s="8">
+        <f>C129*F55</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="8">
+        <f>C129*G55</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="8">
+        <f>C129*H55</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="8">
+        <f>C129*I55</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="8">
+        <f>C129*J55</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="8">
+        <f>C129*K55</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="8">
+        <f>C129*L55</f>
+        <v>0</v>
+      </c>
+      <c r="M129" s="8">
+        <f>C129*M55</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8">
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="Q127" s="8"/>
-    </row>
-    <row r="128" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="14">
-        <f t="shared" si="30"/>
-        <v>40</v>
-      </c>
-      <c r="D128" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="14">
-        <f t="shared" si="34"/>
-        <v>80</v>
-      </c>
-      <c r="H128" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I128" s="14">
-        <f t="shared" si="36"/>
-        <v>160</v>
-      </c>
-      <c r="J128" s="14">
-        <f t="shared" si="37"/>
-        <v>160</v>
-      </c>
-      <c r="K128" s="14">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="L128" s="14">
-        <f t="shared" si="29"/>
-        <v>40</v>
-      </c>
-      <c r="M128" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N128" s="14"/>
-      <c r="O128" s="14"/>
-      <c r="P128" s="14">
-        <f t="shared" si="15"/>
-        <v>440</v>
-      </c>
-      <c r="Q128" s="14">
-        <f>SUM(P128:P130)</f>
-        <v>712</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="14">
-        <f t="shared" si="30"/>
-        <v>34</v>
-      </c>
-      <c r="D129" s="14">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E129" s="14">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="14">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="14">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="14">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="I129" s="14">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="J129" s="14">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="K129" s="14">
-        <f t="shared" si="38"/>
-        <v>136</v>
-      </c>
-      <c r="L129" s="14">
-        <f t="shared" si="29"/>
-        <v>68</v>
-      </c>
-      <c r="M129" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N129" s="14"/>
-      <c r="O129" s="14"/>
-      <c r="P129" s="14">
-        <f t="shared" si="15"/>
-        <v>204</v>
-      </c>
-      <c r="Q129" s="14"/>
+      <c r="Q129" s="8"/>
     </row>
     <row r="130" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C130" s="14">
-        <f t="shared" si="30"/>
-        <v>34</v>
+        <f>C56*2</f>
+        <v>40</v>
       </c>
       <c r="D130" s="14">
+        <f>C130*D56</f>
         <v>0</v>
       </c>
       <c r="E130" s="14">
+        <f>C130*E56</f>
         <v>0</v>
       </c>
       <c r="F130" s="14">
+        <f>C130*F56</f>
         <v>0</v>
       </c>
       <c r="G130" s="14">
-        <v>0</v>
+        <f>C130*G56</f>
+        <v>80</v>
       </c>
       <c r="H130" s="14">
+        <f>C130*H56</f>
         <v>0</v>
       </c>
       <c r="I130" s="14">
-        <v>0</v>
+        <f>C130*I56</f>
+        <v>160</v>
       </c>
       <c r="J130" s="14">
-        <v>0</v>
+        <f>C130*J56</f>
+        <v>160</v>
       </c>
       <c r="K130" s="14">
+        <f>C130*K56</f>
         <v>0</v>
       </c>
       <c r="L130" s="14">
-        <f t="shared" si="29"/>
-        <v>68</v>
+        <f>C130*L56</f>
+        <v>40</v>
       </c>
       <c r="M130" s="14">
-        <f t="shared" si="39"/>
+        <f>C130*M56</f>
         <v>0</v>
       </c>
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
       <c r="P130" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="Q130" s="14">
+        <f>SUM(P130:P132)</f>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C131" s="14">
+        <f>C57*2</f>
+        <v>34</v>
+      </c>
+      <c r="D131" s="14">
+        <f>C131*D57</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="14">
+        <f>C131*E57</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="14">
+        <f>C131*F57</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="14">
+        <f>C131*G57</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <f>C131*H57</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="14">
+        <f>C131*I57</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="14">
+        <f>C131*J57</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="14">
+        <f>C131*K57</f>
+        <v>136</v>
+      </c>
+      <c r="L131" s="14">
+        <f>C131*L57</f>
         <v>68</v>
       </c>
-      <c r="Q130" s="14"/>
-    </row>
-    <row r="131" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" s="8">
-        <f t="shared" si="30"/>
-        <v>248</v>
-      </c>
-      <c r="D131" s="8">
-        <f>C131*D58</f>
-        <v>248</v>
-      </c>
-      <c r="E131" s="8">
-        <f>C131*E58</f>
-        <v>248</v>
-      </c>
-      <c r="F131" s="8">
-        <f>C131*F58</f>
-        <v>248</v>
-      </c>
-      <c r="G131" s="8">
-        <f>C131*G58</f>
-        <v>496</v>
-      </c>
-      <c r="H131" s="8">
-        <f>C131*H58</f>
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <f>C131*I58</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="8">
-        <f>C131*J58</f>
-        <v>0</v>
-      </c>
-      <c r="K131" s="8">
-        <f>C131*K58</f>
-        <v>0</v>
-      </c>
-      <c r="L131" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M131" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8">
-        <f t="shared" si="15"/>
-        <v>1240</v>
-      </c>
-      <c r="Q131" s="8">
-        <f>SUM(P131)</f>
-        <v>1240</v>
-      </c>
+      <c r="M131" s="14">
+        <f>C131*M57</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14">
+        <f t="shared" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="Q131" s="14"/>
     </row>
     <row r="132" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C132" s="14">
-        <f t="shared" si="30"/>
-        <v>124</v>
+        <f>C58*2</f>
+        <v>34</v>
       </c>
       <c r="D132" s="14">
-        <f>C132*D59</f>
         <v>0</v>
       </c>
       <c r="E132" s="14">
-        <f>C132*E59</f>
         <v>0</v>
       </c>
       <c r="F132" s="14">
-        <f>C132*F59</f>
         <v>0</v>
       </c>
       <c r="G132" s="14">
-        <f>C132*G59</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="H132" s="14">
-        <f>C132*H59</f>
         <v>0</v>
       </c>
       <c r="I132" s="14">
-        <f>C132*I59</f>
         <v>0</v>
       </c>
       <c r="J132" s="14">
-        <f>C132*J59</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="K132" s="14">
-        <f>C132*K59</f>
         <v>0</v>
       </c>
       <c r="L132" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f>C132*L58</f>
+        <v>68</v>
       </c>
       <c r="M132" s="14">
-        <f t="shared" si="39"/>
+        <f>C132*M58</f>
         <v>0</v>
       </c>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="Q132" s="14"/>
+    </row>
+    <row r="133" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="8">
+        <f>C59*2</f>
         <v>248</v>
       </c>
-      <c r="Q132" s="14">
-        <f>SUM(P132:P134)</f>
-        <v>482</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="14">
-        <f t="shared" si="30"/>
-        <v>118</v>
-      </c>
-      <c r="D133" s="14">
-        <f>C133*D60</f>
-        <v>118</v>
-      </c>
-      <c r="E133" s="14">
-        <f>C133*E60</f>
-        <v>0</v>
-      </c>
-      <c r="F133" s="14">
-        <f>C133*F60</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="14">
-        <f>C133*G60</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="14">
-        <f>C133*H60</f>
-        <v>0</v>
-      </c>
-      <c r="I133" s="14">
-        <f>C133*I60</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="14">
-        <f>C133*J60</f>
-        <v>0</v>
-      </c>
-      <c r="K133" s="14">
-        <f>C133*K60</f>
-        <v>0</v>
-      </c>
-      <c r="L133" s="14">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M133" s="14">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14">
-        <f t="shared" si="15"/>
-        <v>118</v>
-      </c>
-      <c r="Q133" s="14"/>
+      <c r="D133" s="8">
+        <f>C133*D59</f>
+        <v>248</v>
+      </c>
+      <c r="E133" s="8">
+        <f>C133*E59</f>
+        <v>248</v>
+      </c>
+      <c r="F133" s="8">
+        <f>C133*F59</f>
+        <v>248</v>
+      </c>
+      <c r="G133" s="8">
+        <f>C133*G59</f>
+        <v>496</v>
+      </c>
+      <c r="H133" s="8">
+        <f>C133*H59</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="8">
+        <f>C133*I59</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="8">
+        <f>C133*J59</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="8">
+        <f>C133*K59</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="8">
+        <f>C133*L59</f>
+        <v>0</v>
+      </c>
+      <c r="M133" s="8">
+        <f>C133*M59</f>
+        <v>0</v>
+      </c>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8">
+        <f t="shared" si="4"/>
+        <v>1240</v>
+      </c>
+      <c r="Q133" s="8">
+        <f>SUM(P133)</f>
+        <v>1240</v>
+      </c>
     </row>
     <row r="134" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C134" s="14">
-        <f t="shared" si="30"/>
-        <v>116</v>
+        <f>C60*2</f>
+        <v>124</v>
       </c>
       <c r="D134" s="14">
-        <f>C134*D61</f>
+        <f>C134*D60</f>
         <v>0</v>
       </c>
       <c r="E134" s="14">
-        <f>C134*E61</f>
+        <f>C134*E60</f>
         <v>0</v>
       </c>
       <c r="F134" s="14">
-        <f>C134*F61</f>
+        <f>C134*F60</f>
         <v>0</v>
       </c>
       <c r="G134" s="14">
-        <f>C134*G61</f>
-        <v>0</v>
+        <f>C134*G60</f>
+        <v>124</v>
       </c>
       <c r="H134" s="14">
-        <f>C134*H61</f>
+        <f>C134*H60</f>
         <v>0</v>
       </c>
       <c r="I134" s="14">
-        <f>C134*I61</f>
-        <v>116</v>
+        <f>C134*I60</f>
+        <v>0</v>
       </c>
       <c r="J134" s="14">
-        <f>C134*J61</f>
-        <v>0</v>
+        <f>C134*J60</f>
+        <v>124</v>
       </c>
       <c r="K134" s="14">
-        <f>C134*K61</f>
+        <f>C134*K60</f>
         <v>0</v>
       </c>
       <c r="L134" s="14">
-        <f t="shared" si="29"/>
+        <f>C134*L60</f>
         <v>0</v>
       </c>
       <c r="M134" s="14">
-        <f t="shared" si="39"/>
+        <f>C134*M60</f>
         <v>0</v>
       </c>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="Q134" s="14">
+        <f>SUM(P134:P136)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" s="14">
+        <f>C61*2</f>
+        <v>118</v>
+      </c>
+      <c r="D135" s="14">
+        <f>C135*D61</f>
+        <v>118</v>
+      </c>
+      <c r="E135" s="14">
+        <f>C135*E61</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="14">
+        <f>C135*F61</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="14">
+        <f>C135*G61</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="14">
+        <f>C135*H61</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="14">
+        <f>C135*I61</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="14">
+        <f>C135*J61</f>
+        <v>0</v>
+      </c>
+      <c r="K135" s="14">
+        <f>C135*K61</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="14">
+        <f>C135*L61</f>
+        <v>0</v>
+      </c>
+      <c r="M135" s="14">
+        <f>C135*M61</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="14"/>
+      <c r="O135" s="14"/>
+      <c r="P135" s="14">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="Q135" s="14"/>
+    </row>
+    <row r="136" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C136" s="14">
+        <f>C62*2</f>
         <v>116</v>
       </c>
-      <c r="Q134" s="14"/>
-    </row>
-    <row r="135" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="8" t="s">
+      <c r="D136" s="14">
+        <f>C136*D62</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="14">
+        <f>C136*E62</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="14">
+        <f>C136*F62</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="14">
+        <f>C136*G62</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="14">
+        <f>C136*H62</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="14">
+        <f>C136*I62</f>
+        <v>116</v>
+      </c>
+      <c r="J136" s="14">
+        <f>C136*J62</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="14">
+        <f>C136*K62</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="14">
+        <f>C136*L62</f>
+        <v>0</v>
+      </c>
+      <c r="M136" s="14">
+        <f>C136*M62</f>
+        <v>0</v>
+      </c>
+      <c r="N136" s="14"/>
+      <c r="O136" s="14"/>
+      <c r="P136" s="14">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="Q136" s="14"/>
+    </row>
+    <row r="137" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B137" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C135" s="8">
-        <f t="shared" si="30"/>
+      <c r="C137" s="8">
+        <f>C63*2</f>
         <v>138</v>
       </c>
-      <c r="D135" s="8">
-        <f>C135*D62</f>
-        <v>0</v>
-      </c>
-      <c r="E135" s="8">
-        <f>C135*E62</f>
-        <v>0</v>
-      </c>
-      <c r="F135" s="8">
-        <f>C135*F62</f>
+      <c r="D137" s="8">
+        <f>C137*D63</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="8">
+        <f>C137*E63</f>
+        <v>0</v>
+      </c>
+      <c r="F137" s="8">
+        <f>C137*F63</f>
         <v>138</v>
       </c>
-      <c r="G135" s="8">
-        <f>C135*G62</f>
-        <v>0</v>
-      </c>
-      <c r="H135" s="8">
-        <f>C135*H62</f>
-        <v>0</v>
-      </c>
-      <c r="I135" s="8">
-        <f>C135*I62</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="8">
-        <f>C135*J62</f>
-        <v>0</v>
-      </c>
-      <c r="K135" s="8">
-        <f>C135*K62</f>
-        <v>0</v>
-      </c>
-      <c r="L135" s="8">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="M135" s="8">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8">
-        <f t="shared" si="15"/>
+      <c r="G137" s="8">
+        <f>C137*G63</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="8">
+        <f>C137*H63</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="8">
+        <f>C137*I63</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="8">
+        <f>C137*J63</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="8">
+        <f>C137*K63</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="8">
+        <f>C137*L63</f>
+        <v>0</v>
+      </c>
+      <c r="M137" s="8">
+        <f>C137*M63</f>
+        <v>0</v>
+      </c>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8">
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="Q135" s="8">
-        <f>P135</f>
+      <c r="Q137" s="8">
+        <f>P137</f>
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A141" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7" t="s">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="7" t="s">
+      <c r="E141" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="7" t="s">
+      <c r="G141" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H141" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I139" s="7" t="s">
+      <c r="I141" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J139" s="7" t="s">
+      <c r="J141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K139" s="7" t="s">
+      <c r="K141" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L139" s="7" t="s">
+      <c r="L141" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="M141" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N139" s="9" t="s">
+      <c r="N141" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O139" s="9" t="s">
+      <c r="O141" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="9"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8">
-        <f t="shared" ref="D140:M140" si="40">SUM(D75:D135)</f>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="9"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8">
+        <f t="shared" ref="D142:M142" si="8">SUM(D76:D137)</f>
         <v>750</v>
       </c>
-      <c r="E140" s="8">
-        <f t="shared" si="40"/>
+      <c r="E142" s="8">
+        <f t="shared" si="8"/>
         <v>892</v>
       </c>
-      <c r="F140" s="8">
-        <f t="shared" si="40"/>
+      <c r="F142" s="8">
+        <f t="shared" si="8"/>
         <v>1166</v>
       </c>
-      <c r="G140" s="8">
-        <f t="shared" si="40"/>
+      <c r="G142" s="8">
+        <f t="shared" si="8"/>
         <v>1830</v>
       </c>
-      <c r="H140" s="8">
-        <f t="shared" si="40"/>
+      <c r="H142" s="8">
+        <f t="shared" si="8"/>
         <v>802</v>
       </c>
-      <c r="I140" s="8">
-        <f t="shared" si="40"/>
+      <c r="I142" s="8">
+        <f t="shared" si="8"/>
         <v>3046</v>
       </c>
-      <c r="J140" s="8">
-        <f t="shared" si="40"/>
+      <c r="J142" s="8">
+        <f t="shared" si="8"/>
         <v>2704</v>
       </c>
-      <c r="K140" s="8">
-        <f t="shared" si="40"/>
+      <c r="K142" s="8">
+        <f t="shared" si="8"/>
         <v>4664</v>
       </c>
-      <c r="L140" s="8">
-        <f t="shared" si="40"/>
+      <c r="L142" s="8">
+        <f t="shared" si="8"/>
         <v>2548</v>
       </c>
-      <c r="M140" s="8">
-        <f t="shared" si="40"/>
-        <v>3708</v>
-      </c>
-      <c r="N140" s="8">
-        <f>SUM(D140:M140)</f>
-        <v>22110</v>
-      </c>
-      <c r="O140" s="15">
-        <f>N140/N64</f>
-        <v>156.80851063829786</v>
-      </c>
-      <c r="P140" s="8">
-        <f>SUM(P75:P135)</f>
-        <v>22110</v>
-      </c>
-      <c r="Q140" s="8">
-        <f>SUM(Q75:Q135)</f>
-        <v>22110</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="16">
-        <f t="shared" ref="D141:N141" si="41">D140/D64</f>
+      <c r="M142" s="8">
+        <f t="shared" si="8"/>
+        <v>4044</v>
+      </c>
+      <c r="N142" s="8">
+        <f>SUM(D142:M142)</f>
+        <v>22446</v>
+      </c>
+      <c r="O142" s="15">
+        <f>N142/N65</f>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="P142" s="8">
+        <f>SUM(P76:P137)</f>
+        <v>22446</v>
+      </c>
+      <c r="Q142" s="8">
+        <f>SUM(Q76:Q137)</f>
+        <v>22446</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="16">
+        <f t="shared" ref="D143:N143" si="9">D142/D65</f>
         <v>150</v>
       </c>
-      <c r="E141" s="16">
-        <f t="shared" si="41"/>
+      <c r="E143" s="16">
+        <f t="shared" si="9"/>
         <v>89.2</v>
       </c>
-      <c r="F141" s="16">
-        <f t="shared" si="41"/>
+      <c r="F143" s="16">
+        <f t="shared" si="9"/>
         <v>116.6</v>
       </c>
-      <c r="G141" s="16">
-        <f t="shared" si="41"/>
+      <c r="G143" s="16">
+        <f t="shared" si="9"/>
         <v>114.375</v>
       </c>
-      <c r="H141" s="16">
-        <f t="shared" si="41"/>
+      <c r="H143" s="16">
+        <f t="shared" si="9"/>
         <v>160.4</v>
       </c>
-      <c r="I141" s="16">
-        <f t="shared" si="41"/>
+      <c r="I143" s="16">
+        <f t="shared" si="9"/>
         <v>138.45454545454547</v>
       </c>
-      <c r="J141" s="16">
-        <f t="shared" si="41"/>
+      <c r="J143" s="16">
+        <f t="shared" si="9"/>
         <v>142.31578947368422</v>
       </c>
-      <c r="K141" s="16">
-        <f t="shared" si="41"/>
+      <c r="K143" s="16">
+        <f t="shared" si="9"/>
         <v>172.74074074074073</v>
       </c>
-      <c r="L141" s="16">
-        <f t="shared" si="41"/>
+      <c r="L143" s="16">
+        <f t="shared" si="9"/>
         <v>159.25</v>
       </c>
-      <c r="M141" s="16">
-        <f t="shared" si="41"/>
-        <v>337.09090909090907</v>
-      </c>
-      <c r="N141" s="16">
-        <f t="shared" si="41"/>
-        <v>156.80851063829786</v>
-      </c>
-      <c r="O141" s="6" t="s">
+      <c r="M143" s="16">
+        <f t="shared" si="9"/>
+        <v>269.60000000000002</v>
+      </c>
+      <c r="N143" s="16">
+        <f t="shared" si="9"/>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="O143" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="P143" s="6"/>
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1" t="s">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>13</v>
       </c>
-      <c r="B212">
+      <c r="B214">
         <v>3</v>
       </c>
-      <c r="D212">
+      <c r="D214">
         <f>SUM(N2:N4)</f>
         <v>10</v>
       </c>
-      <c r="E212">
+      <c r="E214">
         <f>SUM(P2:P4)</f>
         <v>132</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>17</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-      <c r="D213">
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="D215">
         <f>N5</f>
         <v>2</v>
       </c>
-      <c r="E213">
+      <c r="E215">
         <f>P5</f>
         <v>1128</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>19</v>
       </c>
-      <c r="B214">
+      <c r="B216">
         <v>2</v>
       </c>
-      <c r="D214">
+      <c r="D216">
         <f>N6</f>
         <v>4</v>
       </c>
-      <c r="E214">
+      <c r="E216">
         <f>SUM(P6:P7)</f>
         <v>1394</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>22</v>
       </c>
-      <c r="B215">
+      <c r="B217">
         <v>5</v>
       </c>
-      <c r="D215">
+      <c r="D217">
         <f>SUM(N8:N15)</f>
-        <v>11</v>
-      </c>
-      <c r="E215">
+        <v>15</v>
+      </c>
+      <c r="E217">
         <f>SUM(P8:P15)</f>
-        <v>2182</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>28</v>
       </c>
-      <c r="B216">
-        <v>1</v>
-      </c>
-      <c r="D216">
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="D218">
         <f>N15</f>
         <v>2</v>
       </c>
-      <c r="E216">
+      <c r="E218">
         <f>SUM(P15)</f>
         <v>832</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>30</v>
       </c>
-      <c r="B217">
+      <c r="B219">
         <v>5</v>
       </c>
-      <c r="D217">
+      <c r="D219">
         <f>SUM(N16:N20)</f>
         <v>9</v>
       </c>
-      <c r="E217">
+      <c r="E219">
         <f>SUM(P16:P20)</f>
         <v>906</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>36</v>
       </c>
-      <c r="B218">
-        <v>1</v>
-      </c>
-      <c r="D218">
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="D220">
         <f>N22</f>
         <v>1</v>
       </c>
-      <c r="E218">
+      <c r="E220">
         <f>P22</f>
         <v>726</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>38</v>
       </c>
-      <c r="B219">
-        <v>1</v>
-      </c>
-      <c r="D219">
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="D221">
         <f>N26</f>
         <v>1</v>
       </c>
-      <c r="E219">
+      <c r="E221">
         <f>P26</f>
         <v>516</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>40</v>
       </c>
-      <c r="B220">
+      <c r="B222">
         <v>3</v>
       </c>
-      <c r="D220">
+      <c r="D222">
         <f>SUM(N27:N29)</f>
         <v>8</v>
       </c>
-      <c r="E220">
+      <c r="E222">
         <f>SUM(P27:P29)</f>
         <v>1150</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221">
-        <v>5</v>
-      </c>
-      <c r="D221">
-        <f>SUM(N30:N34)</f>
-        <v>20</v>
-      </c>
-      <c r="E221">
-        <f>SUM(P30:P34)</f>
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>50</v>
-      </c>
-      <c r="B222">
-        <v>1</v>
-      </c>
-      <c r="D222">
-        <f>N35</f>
-        <v>1</v>
-      </c>
-      <c r="E222">
-        <f>P35</f>
-        <v>840</v>
-      </c>
-    </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B223">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D223">
-        <f>N36</f>
-        <v>1</v>
+        <f>SUM(N30:N35)</f>
+        <v>20</v>
       </c>
       <c r="E223">
-        <f>P36</f>
-        <v>282</v>
+        <f>SUM(P30:P35)</f>
+        <v>1120</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="D224">
-        <f>N37</f>
-        <v>9</v>
+        <f>N36</f>
+        <v>1</v>
       </c>
       <c r="E224">
-        <f>P37</f>
-        <v>1440</v>
+        <f>P36</f>
+        <v>840</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <f>SUM(N39:N40)</f>
-        <v>7</v>
+        <f>N37</f>
+        <v>1</v>
       </c>
       <c r="E225">
-        <f>SUM(P39:P40)</f>
-        <v>498</v>
+        <f>P37</f>
+        <v>282</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <f>SUM(N41:N43)</f>
-        <v>4</v>
+        <f>N38</f>
+        <v>9</v>
       </c>
       <c r="E226">
-        <f>SUM(P41:P43)</f>
-        <v>1050</v>
+        <f>P38</f>
+        <v>1440</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <f>SUM(N44)</f>
-        <v>3</v>
+        <f>SUM(N40:N41)</f>
+        <v>7</v>
       </c>
       <c r="E227">
-        <f>P44</f>
-        <v>816</v>
+        <f>SUM(P40:P41)</f>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="D228">
+        <f>SUM(N42:N44)</f>
         <v>4</v>
       </c>
-      <c r="D228">
-        <f>SUM(N45:N48)</f>
-        <v>5</v>
-      </c>
       <c r="E228">
-        <f>SUM(P45:P48)</f>
-        <v>1396</v>
+        <f>SUM(P42:P44)</f>
+        <v>1050</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="D229">
+        <f>SUM(N45)</f>
         <v>3</v>
       </c>
-      <c r="D229">
-        <f>SUM(N49:N51)</f>
-        <v>7</v>
-      </c>
       <c r="E229">
-        <f>SUM(P49:P51)</f>
-        <v>880</v>
+        <f>P45</f>
+        <v>816</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <f>SUM(N52:N54)</f>
-        <v>3</v>
+        <f>SUM(N46:N49)</f>
+        <v>5</v>
       </c>
       <c r="E230">
-        <f>SUM(P52:P54)</f>
-        <v>286</v>
+        <f>SUM(P46:P49)</f>
+        <v>1396</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <f>SUM(N55:N56)</f>
-        <v>17</v>
+        <f>SUM(N50:N52)</f>
+        <v>7</v>
       </c>
       <c r="E231">
-        <f>SUM(P55:P56)</f>
-        <v>644</v>
+        <f>SUM(P50:P52)</f>
+        <v>880</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D232">
-        <f>SUM(N58)</f>
-        <v>5</v>
+        <f>SUM(N53:N55)</f>
+        <v>3</v>
       </c>
       <c r="E232">
-        <f>P58</f>
-        <v>1240</v>
+        <f>SUM(P53:P55)</f>
+        <v>286</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <f>SUM(N59:N61)</f>
-        <v>4</v>
+        <f>SUM(N56:N57)</f>
+        <v>17</v>
       </c>
       <c r="E233">
-        <f>SUM(P59:P61)</f>
-        <v>482</v>
+        <f>SUM(P56:P57)</f>
+        <v>644</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
+        <v>81</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="D234">
+        <f>SUM(N59)</f>
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <f>P59</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>83</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="D235">
+        <f>SUM(N60:N62)</f>
+        <v>4</v>
+      </c>
+      <c r="E235">
+        <f>SUM(P60:P62)</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
         <v>87</v>
       </c>
-      <c r="B234">
-        <v>1</v>
-      </c>
-      <c r="D234">
-        <f>N62</f>
-        <v>1</v>
-      </c>
-      <c r="E234">
-        <f>P62</f>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="D236">
+        <f>N63</f>
+        <v>1</v>
+      </c>
+      <c r="E236">
+        <f>P63</f>
         <v>138</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1">
-        <f>SUM(B212:B234)</f>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1">
+        <f>SUM(B214:B236)</f>
         <v>53</v>
       </c>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1">
-        <f>SUM(D212:D234)</f>
-        <v>135</v>
-      </c>
-      <c r="E236" s="1">
-        <f>SUM(E212:E234)</f>
-        <v>20078</v>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1">
+        <f>SUM(D214:D236)</f>
+        <v>139</v>
+      </c>
+      <c r="E238" s="1">
+        <f>SUM(E214:E236)</f>
+        <v>20414</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A82B44-4074-4140-B6EB-717D998723F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87790BEE-A933-4EDF-A896-DB4E73D2132A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="324" yWindow="384" windowWidth="22716" windowHeight="12828" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185CB8-B7D3-4EC5-84DD-BC18A741831D}">
   <dimension ref="A1:Q238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="N107" sqref="N107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,19 +975,19 @@
         <v>1</v>
       </c>
       <c r="M2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="8">
         <f>SUM(D2:M2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" ref="O2:O63" si="0">C2*N2</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="P2" s="8">
         <f t="shared" ref="P2:P63" si="1">2*O2</f>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="8"/>
     </row>
@@ -3401,16 +3401,16 @@
       </c>
       <c r="M65" s="12">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N65" s="12">
         <f>SUM(D65:M65)</f>
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O65" s="12"/>
       <c r="P65" s="7">
         <f>SUM(P2:P63)</f>
-        <v>22446</v>
+        <v>22462</v>
       </c>
       <c r="Q65" s="13">
         <f>SUM(Q2:Q63)</f>
@@ -3641,58 +3641,58 @@
         <v>14</v>
       </c>
       <c r="C76" s="8">
-        <f>C2*2</f>
+        <f t="shared" ref="C76:C97" si="4">C2*2</f>
         <v>16</v>
       </c>
       <c r="D76" s="8">
-        <f>C76*D2</f>
+        <f t="shared" ref="D76:D86" si="5">C76*D2</f>
         <v>0</v>
       </c>
       <c r="E76" s="8">
-        <f>C76*E2</f>
+        <f t="shared" ref="E76:E86" si="6">C76*E2</f>
         <v>0</v>
       </c>
       <c r="F76" s="8">
-        <f>C76*F2</f>
+        <f t="shared" ref="F76:F86" si="7">C76*F2</f>
         <v>0</v>
       </c>
       <c r="G76" s="8">
-        <f>C76*G2</f>
+        <f t="shared" ref="G76:G86" si="8">C76*G2</f>
         <v>0</v>
       </c>
       <c r="H76" s="8">
-        <f>C76*H2</f>
+        <f t="shared" ref="H76:H86" si="9">C76*H2</f>
         <v>0</v>
       </c>
       <c r="I76" s="8">
-        <f>C76*I2</f>
+        <f t="shared" ref="I76:I86" si="10">C76*I2</f>
         <v>0</v>
       </c>
       <c r="J76" s="8">
-        <f>C76*J2</f>
+        <f t="shared" ref="J76:J86" si="11">C76*J2</f>
         <v>16</v>
       </c>
       <c r="K76" s="8">
-        <f>C76*K2</f>
+        <f t="shared" ref="K76:K86" si="12">C76*K2</f>
         <v>0</v>
       </c>
       <c r="L76" s="8">
-        <f>C76*L2</f>
+        <f t="shared" ref="L76:L86" si="13">C76*L2</f>
         <v>16</v>
       </c>
       <c r="M76" s="8">
-        <f>C76*M2</f>
-        <v>16</v>
+        <f t="shared" ref="M76:M86" si="14">C76*M2</f>
+        <v>32</v>
       </c>
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
       <c r="P76" s="8">
         <f>SUM(D76:M76)</f>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Q76" s="8">
         <f>SUM(P76:P78)</f>
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,53 +3703,53 @@
         <v>15</v>
       </c>
       <c r="C77" s="8">
-        <f>C3*2</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="D77" s="8">
-        <f>C77*D3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E77" s="8">
-        <f>C77*E3</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F77" s="8">
-        <f>C77*F3</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G77" s="8">
-        <f>C77*G3</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H77" s="8">
-        <f>C77*H3</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I77" s="8">
-        <f>C77*I3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J77" s="8">
-        <f>C77*J3</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K77" s="8">
-        <f>C77*K3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L77" s="8">
-        <f>C77*L3</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M77" s="8">
-        <f>C77*M3</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N77" s="8"/>
       <c r="O77" s="8"/>
       <c r="P77" s="8">
-        <f t="shared" ref="P77:P137" si="4">SUM(D77:M77)</f>
+        <f t="shared" ref="P77:P137" si="15">SUM(D77:M77)</f>
         <v>4</v>
       </c>
       <c r="Q77" s="8"/>
@@ -3762,53 +3762,53 @@
         <v>16</v>
       </c>
       <c r="C78" s="8">
-        <f>C4*2</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D78" s="8">
-        <f>C78*D4</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E78" s="8">
-        <f>C78*E4</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="F78" s="8">
-        <f>C78*F4</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="G78" s="8">
-        <f>C78*G4</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H78" s="8">
-        <f>C78*H4</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I78" s="8">
-        <f>C78*I4</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J78" s="8">
-        <f>C78*J4</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K78" s="8">
-        <f>C78*K4</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L78" s="8">
-        <f>C78*L4</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M78" s="8">
-        <f>C78*M4</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N78" s="8"/>
       <c r="O78" s="8"/>
       <c r="P78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>80</v>
       </c>
       <c r="Q78" s="8"/>
@@ -3821,53 +3821,53 @@
         <v>18</v>
       </c>
       <c r="C79" s="6">
-        <f>C5*2</f>
+        <f t="shared" si="4"/>
         <v>564</v>
       </c>
       <c r="D79" s="6">
-        <f>C79*D5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E79" s="6">
-        <f>C79*E5</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <f>C79*F5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G79" s="6">
-        <f>C79*G5</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H79" s="6">
-        <f>C79*H5</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I79" s="6">
-        <f>C79*I5</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J79" s="6">
-        <f>C79*J5</f>
+        <f t="shared" si="11"/>
         <v>564</v>
       </c>
       <c r="K79" s="6">
-        <f>C79*K5</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L79" s="6">
-        <f>C79*L5</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M79" s="14">
-        <f>C79*M5</f>
+        <f t="shared" si="14"/>
         <v>564</v>
       </c>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1128</v>
       </c>
       <c r="Q79" s="6">
@@ -3883,53 +3883,53 @@
         <v>20</v>
       </c>
       <c r="C80" s="8">
-        <f>C6*2</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="D80" s="8">
-        <f>C80*D6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E80" s="8">
-        <f>C80*E6</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F80" s="8">
-        <f>C80*F6</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G80" s="8">
-        <f>C80*G6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H80" s="8">
-        <f>C80*H6</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I80" s="8">
-        <f>C80*I6</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J80" s="8">
-        <f>C80*J6</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K80" s="8">
-        <f>C80*K6</f>
+        <f t="shared" si="12"/>
         <v>278</v>
       </c>
       <c r="L80" s="8">
-        <f>C80*L6</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M80" s="8">
-        <f>C80*M6</f>
+        <f t="shared" si="14"/>
         <v>834</v>
       </c>
       <c r="N80" s="8"/>
       <c r="O80" s="8"/>
       <c r="P80" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1112</v>
       </c>
       <c r="Q80" s="8">
@@ -3945,53 +3945,53 @@
         <v>21</v>
       </c>
       <c r="C81" s="8">
-        <f>C7*2</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="D81" s="8">
-        <f>C81*D7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E81" s="8">
-        <f>C81*E7</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F81" s="8">
-        <f>C81*F7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G81" s="8">
-        <f>C81*G7</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H81" s="8">
-        <f>C81*H7</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I81" s="8">
-        <f>C81*I7</f>
+        <f t="shared" si="10"/>
         <v>282</v>
       </c>
       <c r="J81" s="8">
-        <f>C81*J7</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K81" s="8">
-        <f>C81*K7</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L81" s="8">
-        <f>C81*L7</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M81" s="8">
-        <f>C81*M7</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N81" s="8"/>
       <c r="O81" s="8"/>
       <c r="P81" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q81" s="8"/>
@@ -4004,53 +4004,53 @@
         <v>23</v>
       </c>
       <c r="C82" s="6">
-        <f>C8*2</f>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D82" s="6">
-        <f>C82*D8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E82" s="6">
-        <f>C82*E8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <f>C82*F8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G82" s="6">
-        <f>C82*G8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H82" s="6">
-        <f>C82*H8</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>C82*I8</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>C82*J8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>C82*K8</f>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="L82" s="6">
-        <f>C82*L8</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M82" s="14">
-        <f>C82*M8</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>66</v>
       </c>
       <c r="Q82" s="6">
@@ -4066,53 +4066,53 @@
         <v>24</v>
       </c>
       <c r="C83" s="6">
-        <f>C9*2</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D83" s="6">
-        <f>C83*D9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E83" s="6">
-        <f>C83*E9</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <f>C83*F9</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G83" s="6">
-        <f>C83*G9</f>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="H83" s="6">
-        <f>C83*H9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>C83*I9</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>C83*J9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>C83*K9</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f>C83*L9</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M83" s="14">
-        <f>C83*M9</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q83" s="6"/>
@@ -4125,53 +4125,53 @@
         <v>25</v>
       </c>
       <c r="C84" s="6">
-        <f>C10*2</f>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="D84" s="6">
-        <f>C84*D10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E84" s="6">
-        <f>C84*E10</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F84" s="6">
-        <f>C84*F10</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G84" s="6">
-        <f>C84*G10</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H84" s="6">
-        <f>C84*H10</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <f>C84*I10</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <f>C84*J10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f>C84*K10</f>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="L84" s="6">
-        <f>C84*L10</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <f>C84*M10</f>
+        <f t="shared" si="14"/>
         <v>504</v>
       </c>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>588</v>
       </c>
       <c r="Q84" s="6"/>
@@ -4184,53 +4184,53 @@
         <v>26</v>
       </c>
       <c r="C85" s="6">
-        <f>C11*2</f>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="D85" s="6">
-        <f>C85*D11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E85" s="6">
-        <f>C85*E11</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F85" s="6">
-        <f>C85*F11</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G85" s="6">
-        <f>C85*G11</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="H85" s="6">
-        <f>C85*H11</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I85" s="6">
-        <f>C85*I11</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J85" s="6">
-        <f>C85*J11</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K85" s="6">
-        <f>C85*K11</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L85" s="6">
-        <f>C85*L11</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M85" s="14">
-        <f>C85*M11</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>120</v>
       </c>
       <c r="Q85" s="6"/>
@@ -4243,53 +4243,53 @@
         <v>27</v>
       </c>
       <c r="C86" s="6">
-        <f>C12*2</f>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="D86" s="6">
-        <f>C86*D12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E86" s="6">
-        <f>C86*E12</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F86" s="6">
-        <f>C86*F12</f>
+        <f t="shared" si="7"/>
         <v>86</v>
       </c>
       <c r="G86" s="6">
-        <f>C86*G12</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H86" s="6">
-        <f>C86*H12</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I86" s="6">
-        <f>C86*I12</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J86" s="6">
-        <f>C86*J12</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K86" s="6">
-        <f>C86*K12</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L86" s="6">
-        <f>C86*L12</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M86" s="14">
-        <f>C86*M12</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>86</v>
       </c>
       <c r="Q86" s="6"/>
@@ -4302,7 +4302,7 @@
         <v>126</v>
       </c>
       <c r="C87" s="8">
-        <f>C13*2</f>
+        <f t="shared" si="4"/>
         <v>364</v>
       </c>
       <c r="D87" s="8">
@@ -4333,13 +4333,13 @@
         <v>0</v>
       </c>
       <c r="M87" s="8">
-        <f t="shared" ref="M87" si="5">C87*M14</f>
+        <f t="shared" ref="M87" si="16">C87*M14</f>
         <v>364</v>
       </c>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>364</v>
       </c>
       <c r="Q87" s="8">
@@ -4355,19 +4355,19 @@
         <v>29</v>
       </c>
       <c r="C88" s="14">
-        <f>C14*2</f>
+        <f t="shared" si="4"/>
         <v>370</v>
       </c>
       <c r="D88" s="14">
-        <f>C88*D14</f>
+        <f t="shared" ref="D88:D97" si="17">C88*D14</f>
         <v>0</v>
       </c>
       <c r="E88" s="14">
-        <f>C88*E14</f>
+        <f t="shared" ref="E88:E97" si="18">C88*E14</f>
         <v>0</v>
       </c>
       <c r="F88" s="14">
-        <f>C88*F14</f>
+        <f t="shared" ref="F88:F97" si="19">C88*F14</f>
         <v>0</v>
       </c>
       <c r="G88" s="14">
@@ -4379,29 +4379,29 @@
         <v>0</v>
       </c>
       <c r="I88" s="14">
-        <f>C88*I14</f>
+        <f t="shared" ref="I88:I97" si="20">C88*I14</f>
         <v>0</v>
       </c>
       <c r="J88" s="14">
-        <f>C88*J14</f>
+        <f t="shared" ref="J88:J97" si="21">C88*J14</f>
         <v>0</v>
       </c>
       <c r="K88" s="14">
-        <f>C88*K14</f>
+        <f t="shared" ref="K88:K97" si="22">C88*K14</f>
         <v>0</v>
       </c>
       <c r="L88" s="14">
-        <f>C88*L14</f>
+        <f t="shared" ref="L88:L97" si="23">C88*L14</f>
         <v>0</v>
       </c>
       <c r="M88" s="14">
-        <f>C88*M14</f>
+        <f t="shared" ref="M88:M104" si="24">C88*M14</f>
         <v>370</v>
       </c>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
       <c r="P88" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>370</v>
       </c>
       <c r="Q88" s="14">
@@ -4417,19 +4417,19 @@
         <v>29</v>
       </c>
       <c r="C89" s="14">
-        <f>C15*2</f>
+        <f t="shared" si="4"/>
         <v>416</v>
       </c>
       <c r="D89" s="14">
-        <f>C89*D15</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E89" s="14">
-        <f>C89*E15</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F89" s="14">
-        <f>C89*F15</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G89" s="14">
@@ -4441,29 +4441,29 @@
         <v>0</v>
       </c>
       <c r="I89" s="14">
-        <f>C89*I15</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J89" s="14">
-        <f>C89*J15</f>
+        <f t="shared" si="21"/>
         <v>416</v>
       </c>
       <c r="K89" s="14">
-        <f>C89*K15</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L89" s="14">
-        <f>C89*L15</f>
+        <f t="shared" si="23"/>
         <v>416</v>
       </c>
       <c r="M89" s="14">
-        <f>C89*M15</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
       <c r="P89" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>832</v>
       </c>
       <c r="Q89" s="14"/>
@@ -4476,53 +4476,53 @@
         <v>31</v>
       </c>
       <c r="C90" s="8">
-        <f>C16*2</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="D90" s="8">
-        <f>C90*D16</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E90" s="8">
-        <f>C90*E16</f>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F90" s="8">
-        <f>C90*F16</f>
+        <f t="shared" si="19"/>
         <v>110</v>
       </c>
       <c r="G90" s="8">
-        <f>C90*G16</f>
+        <f t="shared" ref="G90:G97" si="25">C90*G16</f>
         <v>0</v>
       </c>
       <c r="H90" s="8">
-        <f>C90*H16</f>
+        <f t="shared" ref="H90:H97" si="26">C90*H16</f>
         <v>0</v>
       </c>
       <c r="I90" s="8">
-        <f>C90*I16</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J90" s="8">
-        <f>C90*J16</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K90" s="8">
-        <f>C90*K16</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L90" s="8">
-        <f>C90*L16</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M90" s="8">
-        <f>C90*M16</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>220</v>
       </c>
       <c r="Q90" s="8">
@@ -4538,53 +4538,53 @@
         <v>32</v>
       </c>
       <c r="C91" s="8">
-        <f>C17*2</f>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="D91" s="8">
-        <f>C91*D17</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E91" s="8">
-        <f>C91*E17</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F91" s="8">
-        <f>C91*F17</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G91" s="8">
-        <f>C91*G17</f>
+        <f t="shared" si="25"/>
         <v>108</v>
       </c>
       <c r="H91" s="8">
-        <f>C91*H17</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I91" s="8">
-        <f>C91*I17</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J91" s="8">
-        <f>C91*J17</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K91" s="8">
-        <f>C91*K17</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L91" s="8">
-        <f>C91*L17</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M91" s="8">
-        <f>C91*M17</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>108</v>
       </c>
       <c r="Q91" s="8"/>
@@ -4597,53 +4597,53 @@
         <v>33</v>
       </c>
       <c r="C92" s="8">
-        <f>C18*2</f>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="D92" s="8">
-        <f>C92*D18</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E92" s="8">
-        <f>C92*E18</f>
+        <f t="shared" si="18"/>
         <v>110</v>
       </c>
       <c r="F92" s="8">
-        <f>C92*F18</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G92" s="8">
-        <f>C92*G18</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H92" s="8">
-        <f>C92*H18</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I92" s="8">
-        <f>C92*I18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J92" s="8">
-        <f>C92*J18</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K92" s="8">
-        <f>C92*K18</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L92" s="8">
-        <f>C92*L18</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M92" s="8">
-        <f>C92*M18</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="Q92" s="8"/>
@@ -4656,53 +4656,53 @@
         <v>34</v>
       </c>
       <c r="C93" s="8">
-        <f>C19*2</f>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="D93" s="8">
-        <f>C93*D19</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E93" s="8">
-        <f>C93*E19</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F93" s="8">
-        <f>C93*F19</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G93" s="8">
-        <f>C93*G19</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H93" s="8">
-        <f>C93*H19</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I93" s="8">
-        <f>C93*I19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J93" s="8">
-        <f>C93*J19</f>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="K93" s="8">
-        <f>C93*K19</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L93" s="8">
-        <f>C93*L19</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M93" s="8">
-        <f>C93*M19</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>92</v>
       </c>
       <c r="Q93" s="8"/>
@@ -4715,53 +4715,53 @@
         <v>35</v>
       </c>
       <c r="C94" s="8">
-        <f>C20*2</f>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="D94" s="8">
-        <f>C94*D20</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E94" s="8">
-        <f>C94*E20</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F94" s="8">
-        <f>C94*F20</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G94" s="8">
-        <f>C94*G20</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H94" s="8">
-        <f>C94*H20</f>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="I94" s="8">
-        <f>C94*I20</f>
+        <f t="shared" si="20"/>
         <v>188</v>
       </c>
       <c r="J94" s="8">
-        <f>C94*J20</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K94" s="8">
-        <f>C94*K20</f>
+        <f t="shared" si="22"/>
         <v>94</v>
       </c>
       <c r="L94" s="8">
-        <f>C94*L20</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M94" s="8">
-        <f>C94*M20</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>376</v>
       </c>
       <c r="Q94" s="8"/>
@@ -4774,57 +4774,57 @@
         <v>101</v>
       </c>
       <c r="C95" s="14">
-        <f>C21*2</f>
+        <f t="shared" si="4"/>
         <v>800</v>
       </c>
       <c r="D95" s="14">
-        <f>C95*D21</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E95" s="14">
-        <f>C95*E21</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F95" s="14">
-        <f>C95*F21</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G95" s="14">
-        <f>C95*G21</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H95" s="14">
-        <f>C95*H21</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I95" s="14">
-        <f>C95*I21</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J95" s="14">
-        <f>C95*J21</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K95" s="14">
-        <f>C95*K21</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L95" s="14">
-        <f>C95*L21</f>
+        <f t="shared" si="23"/>
         <v>800</v>
       </c>
       <c r="M95" s="14">
-        <f>C95*M21</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
       <c r="P95" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>800</v>
       </c>
       <c r="Q95" s="14">
-        <f t="shared" ref="Q95:Q100" si="6">P95</f>
+        <f t="shared" ref="Q95:Q100" si="27">P95</f>
         <v>800</v>
       </c>
     </row>
@@ -4836,57 +4836,57 @@
         <v>37</v>
       </c>
       <c r="C96" s="8">
-        <f>C22*2</f>
+        <f t="shared" si="4"/>
         <v>726</v>
       </c>
       <c r="D96" s="8">
-        <f>C96*D22</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E96" s="8">
-        <f>C96*E22</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F96" s="8">
-        <f>C96*F22</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G96" s="8">
-        <f>C96*G22</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H96" s="8">
-        <f>C96*H22</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I96" s="8">
-        <f>C96*I22</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J96" s="8">
-        <f>C96*J22</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K96" s="8">
-        <f>C96*K22</f>
+        <f t="shared" si="22"/>
         <v>726</v>
       </c>
       <c r="L96" s="8">
-        <f>C96*L22</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M96" s="8">
-        <f>C96*M22</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>726</v>
       </c>
       <c r="Q96" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>726</v>
       </c>
     </row>
@@ -4898,47 +4898,47 @@
         <v>95</v>
       </c>
       <c r="C97" s="14">
-        <f>C23*2</f>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="D97" s="14">
-        <f>C97*D23</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E97" s="14">
-        <f>C97*E23</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F97" s="14">
-        <f>C97*F23</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G97" s="14">
-        <f>C97*G23</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H97" s="14">
-        <f>C97*H23</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I97" s="14">
-        <f>C97*I23</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J97" s="14">
-        <f>C97*J23</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K97" s="14">
-        <f>C97*K23</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L97" s="14">
-        <f>C97*L23</f>
+        <f t="shared" si="23"/>
         <v>186</v>
       </c>
       <c r="M97" s="14">
-        <f>C97*M23</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N97" s="14"/>
@@ -4991,7 +4991,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="8">
-        <f>C98*M24</f>
+        <f t="shared" si="24"/>
         <v>348</v>
       </c>
       <c r="N98" s="8"/>
@@ -5017,53 +5017,53 @@
         <v>418</v>
       </c>
       <c r="D99" s="14">
-        <f t="shared" ref="D99:K99" si="7">C99*D26</f>
+        <f t="shared" ref="D99:K99" si="28">C99*D26</f>
         <v>0</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="I99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="K99" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L99" s="14">
-        <f>C99*L25</f>
+        <f t="shared" ref="L99:L104" si="29">C99*L25</f>
         <v>418</v>
       </c>
       <c r="M99" s="14">
-        <f>C99*M25</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
       <c r="P99" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>418</v>
       </c>
       <c r="Q99" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>418</v>
       </c>
     </row>
@@ -5075,11 +5075,11 @@
         <v>39</v>
       </c>
       <c r="C100" s="8">
-        <f>C26*2</f>
+        <f t="shared" ref="C100:C137" si="30">C26*2</f>
         <v>516</v>
       </c>
       <c r="D100" s="8">
-        <f>C100*D26</f>
+        <f t="shared" ref="D100:D131" si="31">C100*D26</f>
         <v>0</v>
       </c>
       <c r="E100" s="8">
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="8">
-        <f>C100*H26</f>
+        <f t="shared" ref="H100:H131" si="32">C100*H26</f>
         <v>0</v>
       </c>
       <c r="I100" s="8">
@@ -5111,21 +5111,21 @@
         <v>0</v>
       </c>
       <c r="L100" s="8">
-        <f>C100*L26</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M100" s="8">
-        <f>C100*M26</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>516</v>
       </c>
       <c r="Q100" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>516</v>
       </c>
     </row>
@@ -5137,11 +5137,11 @@
         <v>41</v>
       </c>
       <c r="C101" s="14">
-        <f>C27*2</f>
+        <f t="shared" si="30"/>
         <v>158</v>
       </c>
       <c r="D101" s="14">
-        <f>C101*D27</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E101" s="14">
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="14">
-        <f>C101*H27</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I101" s="14">
@@ -5173,17 +5173,17 @@
         <v>158</v>
       </c>
       <c r="L101" s="14">
-        <f>C101*L27</f>
+        <f t="shared" si="29"/>
         <v>158</v>
       </c>
       <c r="M101" s="14">
-        <f>C101*M27</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
       <c r="P101" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="Q101" s="14">
@@ -5199,11 +5199,11 @@
         <v>42</v>
       </c>
       <c r="C102" s="14">
-        <f>C28*2</f>
+        <f t="shared" si="30"/>
         <v>140</v>
       </c>
       <c r="D102" s="14">
-        <f>C102*D28</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E102" s="14">
@@ -5219,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="14">
-        <f>C102*H28</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I102" s="14">
@@ -5235,17 +5235,17 @@
         <v>0</v>
       </c>
       <c r="L102" s="14">
-        <f>C102*L28</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M102" s="14">
-        <f>C102*M28</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
       <c r="P102" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>280</v>
       </c>
       <c r="Q102" s="14"/>
@@ -5258,11 +5258,11 @@
         <v>43</v>
       </c>
       <c r="C103" s="14">
-        <f>C29*2</f>
+        <f t="shared" si="30"/>
         <v>132</v>
       </c>
       <c r="D103" s="14">
-        <f>C103*D29</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E103" s="14">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <f>C103*H29</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I103" s="14">
@@ -5294,17 +5294,17 @@
         <v>132</v>
       </c>
       <c r="L103" s="14">
-        <f>C103*L29</f>
+        <f t="shared" si="29"/>
         <v>132</v>
       </c>
       <c r="M103" s="14">
-        <f>C103*M29</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N103" s="14"/>
       <c r="O103" s="14"/>
       <c r="P103" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>396</v>
       </c>
       <c r="Q103" s="14"/>
@@ -5317,11 +5317,11 @@
         <v>45</v>
       </c>
       <c r="C104" s="8">
-        <f>C30*2</f>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="D104" s="8">
-        <f>C104*D30</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E104" s="8">
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="8">
-        <f>C104*H30</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I104" s="8">
@@ -5353,17 +5353,17 @@
         <v>50</v>
       </c>
       <c r="L104" s="8">
-        <f>C104*L30</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M104" s="8">
-        <f>C104*M30</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="Q104" s="8">
@@ -5379,11 +5379,11 @@
         <v>128</v>
       </c>
       <c r="C105" s="8">
-        <f>C31*2</f>
+        <f t="shared" si="30"/>
         <v>38</v>
       </c>
       <c r="D105" s="8">
-        <f>C105*D31</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E105" s="8">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="8">
-        <f>C105*H31</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I105" s="8">
@@ -5425,7 +5425,7 @@
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q105" s="8"/>
@@ -5438,53 +5438,53 @@
         <v>46</v>
       </c>
       <c r="C106" s="8">
-        <f>C32*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D106" s="8">
-        <f>C106*D32</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E106" s="8">
-        <f>C106*E32</f>
+        <f t="shared" ref="E106:E131" si="33">C106*E32</f>
         <v>0</v>
       </c>
       <c r="F106" s="8">
-        <f>C106*F32</f>
+        <f t="shared" ref="F106:F131" si="34">C106*F32</f>
         <v>0</v>
       </c>
       <c r="G106" s="8">
-        <f>C106*G32</f>
+        <f t="shared" ref="G106:G131" si="35">C106*G32</f>
         <v>54</v>
       </c>
       <c r="H106" s="8">
-        <f>C106*H32</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I106" s="8">
-        <f>C106*I32</f>
+        <f t="shared" ref="I106:I131" si="36">C106*I32</f>
         <v>54</v>
       </c>
       <c r="J106" s="8">
-        <f>C106*J32</f>
+        <f t="shared" ref="J106:J131" si="37">C106*J32</f>
         <v>108</v>
       </c>
       <c r="K106" s="8">
-        <f>C106*K32</f>
+        <f t="shared" ref="K106:K131" si="38">C106*K32</f>
         <v>0</v>
       </c>
       <c r="L106" s="8">
-        <f>C106*L32</f>
+        <f t="shared" ref="L106:L137" si="39">C106*L32</f>
         <v>0</v>
       </c>
       <c r="M106" s="8">
-        <f>C106*M32</f>
+        <f t="shared" ref="M106:M137" si="40">C106*M32</f>
         <v>0</v>
       </c>
       <c r="N106" s="19"/>
       <c r="O106" s="19"/>
       <c r="P106" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>216</v>
       </c>
       <c r="Q106" s="8"/>
@@ -5497,53 +5497,53 @@
         <v>47</v>
       </c>
       <c r="C107" s="8">
-        <f>C33*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D107" s="8">
-        <f>C107*D33</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E107" s="8">
-        <f>C107*E33</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F107" s="8">
-        <f>C107*F33</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G107" s="8">
-        <f>C107*G33</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H107" s="8">
-        <f>C107*H33</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I107" s="8">
-        <f>C107*I33</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J107" s="8">
-        <f>C107*J33</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K107" s="8">
-        <f>C107*K33</f>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="L107" s="8">
-        <f>C107*L33</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M107" s="8">
-        <f>C107*M33</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>54</v>
       </c>
       <c r="Q107" s="8"/>
@@ -5556,53 +5556,53 @@
         <v>48</v>
       </c>
       <c r="C108" s="8">
-        <f>C34*2</f>
+        <f t="shared" si="30"/>
         <v>54</v>
       </c>
       <c r="D108" s="8">
-        <f>C108*D34</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E108" s="8">
-        <f>C108*E34</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F108" s="8">
-        <f>C108*F34</f>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="G108" s="8">
-        <f>C108*G34</f>
+        <f t="shared" si="35"/>
         <v>108</v>
       </c>
       <c r="H108" s="8">
-        <f>C108*H34</f>
+        <f t="shared" si="32"/>
         <v>54</v>
       </c>
       <c r="I108" s="8">
-        <f>C108*I34</f>
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
       <c r="J108" s="8">
-        <f>C108*J34</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K108" s="8">
-        <f>C108*K34</f>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="L108" s="8">
-        <f>C108*L34</f>
+        <f t="shared" si="39"/>
         <v>54</v>
       </c>
       <c r="M108" s="8">
-        <f>C108*M34</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>378</v>
       </c>
       <c r="Q108" s="8"/>
@@ -5615,53 +5615,53 @@
         <v>49</v>
       </c>
       <c r="C109" s="8">
-        <f>C35*2</f>
+        <f t="shared" si="30"/>
         <v>62</v>
       </c>
       <c r="D109" s="8">
-        <f>C109*D35</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E109" s="8">
-        <f>C109*E35</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F109" s="8">
-        <f>C109*F35</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G109" s="8">
-        <f>C109*G35</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H109" s="8">
-        <f>C109*H35</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I109" s="8">
-        <f>C109*I35</f>
+        <f t="shared" si="36"/>
         <v>62</v>
       </c>
       <c r="J109" s="8">
-        <f>C109*J35</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K109" s="8">
-        <f>C109*K35</f>
+        <f t="shared" si="38"/>
         <v>186</v>
       </c>
       <c r="L109" s="8">
-        <f>C109*L35</f>
+        <f t="shared" si="39"/>
         <v>124</v>
       </c>
       <c r="M109" s="8">
-        <f>C109*M35</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>372</v>
       </c>
       <c r="Q109" s="8"/>
@@ -5674,53 +5674,53 @@
         <v>51</v>
       </c>
       <c r="C110" s="14">
-        <f>C36*2</f>
+        <f t="shared" si="30"/>
         <v>840</v>
       </c>
       <c r="D110" s="14">
-        <f>C110*D36</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E110" s="14">
-        <f>C110*E36</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F110" s="14">
-        <f>C110*F36</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G110" s="14">
-        <f>C110*G36</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H110" s="14">
-        <f>C110*H36</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I110" s="14">
-        <f>C110*I36</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J110" s="14">
-        <f>C110*J36</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K110" s="14">
-        <f>C110*K36</f>
+        <f t="shared" si="38"/>
         <v>840</v>
       </c>
       <c r="L110" s="14">
-        <f>C110*L36</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M110" s="14">
-        <f>C110*M36</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>840</v>
       </c>
       <c r="Q110" s="14">
@@ -5736,53 +5736,53 @@
         <v>53</v>
       </c>
       <c r="C111" s="8">
-        <f>C37*2</f>
+        <f t="shared" si="30"/>
         <v>282</v>
       </c>
       <c r="D111" s="8">
-        <f>C111*D37</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E111" s="8">
-        <f>C111*E37</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F111" s="8">
-        <f>C111*F37</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G111" s="8">
-        <f>C111*G37</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H111" s="8">
-        <f>C111*H37</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I111" s="8">
-        <f>C111*I37</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J111" s="8">
-        <f>C111*J37</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K111" s="8">
-        <f>C111*K37</f>
+        <f t="shared" si="38"/>
         <v>282</v>
       </c>
       <c r="L111" s="8">
-        <f>C111*L37</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M111" s="8">
-        <f>C111*M37</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>282</v>
       </c>
       <c r="Q111" s="8">
@@ -5798,53 +5798,53 @@
         <v>55</v>
       </c>
       <c r="C112" s="14">
-        <f>C38*2</f>
+        <f t="shared" si="30"/>
         <v>160</v>
       </c>
       <c r="D112" s="14">
-        <f>C112*D38</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E112" s="14">
-        <f>C112*E38</f>
+        <f t="shared" si="33"/>
         <v>160</v>
       </c>
       <c r="F112" s="14">
-        <f>C112*F38</f>
+        <f t="shared" si="34"/>
         <v>160</v>
       </c>
       <c r="G112" s="14">
-        <f>C112*G38</f>
+        <f t="shared" si="35"/>
         <v>320</v>
       </c>
       <c r="H112" s="14">
-        <f>C112*H38</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I112" s="14">
-        <f>C112*I38</f>
+        <f t="shared" si="36"/>
         <v>480</v>
       </c>
       <c r="J112" s="14">
-        <f>C112*J38</f>
+        <f t="shared" si="37"/>
         <v>160</v>
       </c>
       <c r="K112" s="14">
-        <f>C112*K38</f>
+        <f t="shared" si="38"/>
         <v>160</v>
       </c>
       <c r="L112" s="14">
-        <f>C112*L38</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M112" s="14">
-        <f>C112*M38</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N112" s="14"/>
       <c r="O112" s="14"/>
       <c r="P112" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1440</v>
       </c>
       <c r="Q112" s="14">
@@ -5860,53 +5860,53 @@
         <v>119</v>
       </c>
       <c r="C113" s="8">
-        <f>C39*2</f>
+        <f t="shared" si="30"/>
         <v>1044</v>
       </c>
       <c r="D113" s="8">
-        <f>C113*D39</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E113" s="8">
-        <f>C113*E39</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F113" s="8">
-        <f>C113*F39</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G113" s="8">
-        <f>C113*G39</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H113" s="8">
-        <f>C113*H39</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I113" s="8">
-        <f>C113*I39</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J113" s="8">
-        <f>C113*J39</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K113" s="8">
-        <f>C113*K39</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L113" s="8">
-        <f>C113*L39</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M113" s="8">
-        <f>C113*M39</f>
+        <f t="shared" si="40"/>
         <v>1044</v>
       </c>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1044</v>
       </c>
       <c r="Q113" s="8">
@@ -5922,53 +5922,53 @@
         <v>57</v>
       </c>
       <c r="C114" s="14">
-        <f>C40*2</f>
+        <f t="shared" si="30"/>
         <v>68</v>
       </c>
       <c r="D114" s="14">
-        <f>C114*D40</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E114" s="14">
-        <f>C114*E40</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F114" s="14">
-        <f>C114*F40</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G114" s="14">
-        <f>C114*G40</f>
+        <f t="shared" si="35"/>
         <v>68</v>
       </c>
       <c r="H114" s="14">
-        <f>C114*H40</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I114" s="14">
-        <f>C114*I40</f>
+        <f t="shared" si="36"/>
         <v>136</v>
       </c>
       <c r="J114" s="14">
-        <f>C114*J40</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K114" s="14">
-        <f>C114*K40</f>
+        <f t="shared" si="38"/>
         <v>136</v>
       </c>
       <c r="L114" s="14">
-        <f>C114*L40</f>
+        <f t="shared" si="39"/>
         <v>68</v>
       </c>
       <c r="M114" s="14">
-        <f>C114*M40</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N114" s="14"/>
       <c r="O114" s="14"/>
       <c r="P114" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>408</v>
       </c>
       <c r="Q114" s="14">
@@ -5984,53 +5984,53 @@
         <v>58</v>
       </c>
       <c r="C115" s="14">
-        <f>C41*2</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="D115" s="14">
-        <f>C115*D41</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E115" s="14">
-        <f>C115*E41</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F115" s="14">
-        <f>C115*F41</f>
+        <f t="shared" si="34"/>
         <v>90</v>
       </c>
       <c r="G115" s="14">
-        <f>C115*G41</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H115" s="14">
-        <f>C115*H41</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I115" s="14">
-        <f>C115*I41</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J115" s="14">
-        <f>C115*J41</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K115" s="14">
-        <f>C115*K41</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L115" s="14">
-        <f>C115*L41</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M115" s="14">
-        <f>C115*M41</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N115" s="14"/>
       <c r="O115" s="14"/>
       <c r="P115" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q115" s="14"/>
@@ -6043,53 +6043,53 @@
         <v>60</v>
       </c>
       <c r="C116" s="8">
-        <f>C42*2</f>
+        <f t="shared" si="30"/>
         <v>264</v>
       </c>
       <c r="D116" s="8">
-        <f>C116*D42</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E116" s="8">
-        <f>C116*E42</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F116" s="8">
-        <f>C116*F42</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G116" s="8">
-        <f>C116*G42</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H116" s="8">
-        <f>C116*H42</f>
+        <f t="shared" si="32"/>
         <v>264</v>
       </c>
       <c r="I116" s="8">
-        <f>C116*I42</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J116" s="8">
-        <f>C116*J42</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K116" s="8">
-        <f>C116*K42</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L116" s="8">
-        <f>C116*L42</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M116" s="8">
-        <f>C116*M42</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>264</v>
       </c>
       <c r="Q116" s="8">
@@ -6105,53 +6105,53 @@
         <v>61</v>
       </c>
       <c r="C117" s="8">
-        <f>C43*2</f>
+        <f t="shared" si="30"/>
         <v>262</v>
       </c>
       <c r="D117" s="8">
-        <f>C117*D43</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E117" s="8">
-        <f>C117*E43</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F117" s="8">
-        <f>C117*F43</f>
+        <f t="shared" si="34"/>
         <v>262</v>
       </c>
       <c r="G117" s="8">
-        <f>C117*G43</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H117" s="8">
-        <f>C117*H43</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I117" s="8">
-        <f>C117*I43</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J117" s="8">
-        <f>C117*J43</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K117" s="8">
-        <f>C117*K43</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <f>C117*L43</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M117" s="8">
-        <f>C117*M43</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>262</v>
       </c>
       <c r="Q117" s="8"/>
@@ -6164,53 +6164,53 @@
         <v>62</v>
       </c>
       <c r="C118" s="8">
-        <f>C44*2</f>
+        <f t="shared" si="30"/>
         <v>262</v>
       </c>
       <c r="D118" s="8">
-        <f>C118*D44</f>
+        <f t="shared" si="31"/>
         <v>262</v>
       </c>
       <c r="E118" s="8">
-        <f>C118*E44</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F118" s="8">
-        <f>C118*F44</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G118" s="8">
-        <f>C118*G44</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H118" s="8">
-        <f>C118*H44</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I118" s="8">
-        <f>C118*I44</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J118" s="8">
-        <f>C118*J44</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K118" s="8">
-        <f>C118*K44</f>
+        <f t="shared" si="38"/>
         <v>262</v>
       </c>
       <c r="L118" s="8">
-        <f>C118*L44</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M118" s="8">
-        <f>C118*M44</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>524</v>
       </c>
       <c r="Q118" s="8"/>
@@ -6223,53 +6223,53 @@
         <v>64</v>
       </c>
       <c r="C119" s="14">
-        <f>C45*2</f>
+        <f t="shared" si="30"/>
         <v>272</v>
       </c>
       <c r="D119" s="14">
-        <f>C119*D45</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E119" s="14">
-        <f>C119*E45</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F119" s="14">
-        <f>C119*F45</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G119" s="14">
-        <f>C119*G45</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H119" s="14">
-        <f>C119*H45</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I119" s="14">
-        <f>C119*I45</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J119" s="14">
-        <f>C119*J45</f>
+        <f t="shared" si="37"/>
         <v>544</v>
       </c>
       <c r="K119" s="14">
-        <f>C119*K45</f>
+        <f t="shared" si="38"/>
         <v>272</v>
       </c>
       <c r="L119" s="14">
-        <f>C119*L45</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M119" s="14">
-        <f>C119*M45</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N119" s="14"/>
       <c r="O119" s="14"/>
       <c r="P119" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>816</v>
       </c>
       <c r="Q119" s="14">
@@ -6285,53 +6285,53 @@
         <v>66</v>
       </c>
       <c r="C120" s="8">
-        <f>C46*2</f>
+        <f t="shared" si="30"/>
         <v>266</v>
       </c>
       <c r="D120" s="8">
-        <f>C120*D46</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E120" s="8">
-        <f>C120*E46</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F120" s="8">
-        <f>C120*F46</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <f>C120*G46</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H120" s="8">
-        <f>C120*H46</f>
+        <f t="shared" si="32"/>
         <v>266</v>
       </c>
       <c r="I120" s="8">
-        <f>C120*I46</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J120" s="8">
-        <f>C120*J46</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K120" s="8">
-        <f>C120*K46</f>
+        <f t="shared" si="38"/>
         <v>266</v>
       </c>
       <c r="L120" s="8">
-        <f>C120*L46</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M120" s="8">
-        <f>C120*M46</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>532</v>
       </c>
       <c r="Q120" s="8">
@@ -6347,53 +6347,53 @@
         <v>67</v>
       </c>
       <c r="C121" s="8">
-        <f>C47*2</f>
+        <f t="shared" si="30"/>
         <v>304</v>
       </c>
       <c r="D121" s="8">
-        <f>C121*D47</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f>C121*E47</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f>C121*F47</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G121" s="8">
-        <f>C121*G47</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f>C121*H47</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f>C121*I47</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J121" s="8">
-        <f>C121*J47</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K121" s="8">
-        <f>C121*K47</f>
+        <f t="shared" si="38"/>
         <v>304</v>
       </c>
       <c r="L121" s="8">
-        <f>C121*L47</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <f>C121*M47</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>304</v>
       </c>
       <c r="Q121" s="8"/>
@@ -6406,53 +6406,53 @@
         <v>68</v>
       </c>
       <c r="C122" s="8">
-        <f>C48*2</f>
+        <f t="shared" si="30"/>
         <v>254</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*D48</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E122" s="8">
-        <f>C122*E48</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F122" s="8">
-        <f>C122*F48</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f>C122*G48</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f>C122*H48</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>C122*I48</f>
+        <f t="shared" si="36"/>
         <v>254</v>
       </c>
       <c r="J122" s="8">
-        <f>C122*J48</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K122" s="8">
-        <f>C122*K48</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L122" s="8">
-        <f>C122*L48</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>C122*M48</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>254</v>
       </c>
       <c r="Q122" s="8"/>
@@ -6465,53 +6465,53 @@
         <v>69</v>
       </c>
       <c r="C123" s="8">
-        <f>C49*2</f>
+        <f t="shared" si="30"/>
         <v>306</v>
       </c>
       <c r="D123" s="8">
-        <f>C123*D49</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E123" s="8">
-        <f>C123*E49</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F123" s="8">
-        <f>C123*F49</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G123" s="8">
-        <f>C123*G49</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H123" s="8">
-        <f>C123*H49</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I123" s="8">
-        <f>C123*I49</f>
+        <f t="shared" si="36"/>
         <v>306</v>
       </c>
       <c r="J123" s="8">
-        <f>C123*J49</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K123" s="8">
-        <f>C123*K49</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L123" s="8">
-        <f>C123*L49</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M123" s="8">
-        <f>C123*M49</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
       <c r="Q123" s="8"/>
@@ -6524,53 +6524,53 @@
         <v>71</v>
       </c>
       <c r="C124" s="14">
-        <f>C50*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D124" s="14">
-        <f>C124*D50</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E124" s="14">
-        <f>C124*E50</f>
+        <f t="shared" si="33"/>
         <v>124</v>
       </c>
       <c r="F124" s="14">
-        <f>C124*F50</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G124" s="14">
-        <f>C124*G50</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H124" s="14">
-        <f>C124*H50</f>
+        <f t="shared" si="32"/>
         <v>124</v>
       </c>
       <c r="I124" s="14">
-        <f>C124*I50</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J124" s="14">
-        <f>C124*J50</f>
+        <f t="shared" si="37"/>
         <v>248</v>
       </c>
       <c r="K124" s="14">
-        <f>C124*K50</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L124" s="14">
-        <f>C124*L50</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M124" s="14">
-        <f>C124*M50</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N124" s="14"/>
       <c r="O124" s="14"/>
       <c r="P124" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>496</v>
       </c>
       <c r="Q124" s="14">
@@ -6586,53 +6586,53 @@
         <v>72</v>
       </c>
       <c r="C125" s="14">
-        <f>C51*2</f>
+        <f t="shared" si="30"/>
         <v>130</v>
       </c>
       <c r="D125" s="14">
-        <f>C125*D51</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E125" s="14">
-        <f>C125*E51</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F125" s="14">
-        <f>C125*F51</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G125" s="14">
-        <f>C125*G51</f>
+        <f t="shared" si="35"/>
         <v>260</v>
       </c>
       <c r="H125" s="14">
-        <f>C125*H51</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I125" s="14">
-        <f>C125*I51</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J125" s="14">
-        <f>C125*J51</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K125" s="14">
-        <f>C125*K51</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L125" s="14">
-        <f>C125*L51</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M125" s="14">
-        <f>C125*M51</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N125" s="14"/>
       <c r="O125" s="14"/>
       <c r="P125" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>260</v>
       </c>
       <c r="Q125" s="14"/>
@@ -6645,53 +6645,53 @@
         <v>73</v>
       </c>
       <c r="C126" s="14">
-        <f>C52*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D126" s="14">
-        <f>C126*D52</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E126" s="14">
-        <f>C126*E52</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F126" s="14">
-        <f>C126*F52</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G126" s="14">
-        <f>C126*G52</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H126" s="14">
-        <f>C126*H52</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I126" s="14">
-        <f>C126*I52</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J126" s="14">
-        <f>C126*J52</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K126" s="14">
-        <f>C126*K52</f>
+        <f t="shared" si="38"/>
         <v>124</v>
       </c>
       <c r="L126" s="14">
-        <f>C126*L52</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M126" s="14">
-        <f>C126*M52</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
       <c r="P126" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>124</v>
       </c>
       <c r="Q126" s="14"/>
@@ -6704,53 +6704,53 @@
         <v>124</v>
       </c>
       <c r="C127" s="14">
-        <f>C53*2</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="D127" s="14">
-        <f>C127*D53</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E127" s="14">
-        <f>C127*E53</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F127" s="14">
-        <f>C127*F53</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G127" s="14">
-        <f>C127*G53</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H127" s="14">
-        <f>C127*H53</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I127" s="14">
-        <f>C127*I53</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J127" s="14">
-        <f>C127*J53</f>
+        <f t="shared" si="37"/>
         <v>90</v>
       </c>
       <c r="K127" s="14">
-        <f>C127*K53</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L127" s="14">
-        <f>C127*L53</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M127" s="14">
-        <f>C127*M53</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N127" s="14"/>
       <c r="O127" s="14"/>
       <c r="P127" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q127" s="14">
@@ -6766,53 +6766,53 @@
         <v>76</v>
       </c>
       <c r="C128" s="8">
-        <f>C54*2</f>
+        <f t="shared" si="30"/>
         <v>106</v>
       </c>
       <c r="D128" s="8">
-        <f>C128*D54</f>
+        <f t="shared" si="31"/>
         <v>106</v>
       </c>
       <c r="E128" s="8">
-        <f>C128*E54</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F128" s="8">
-        <f>C128*F54</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G128" s="8">
-        <f>C128*G54</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H128" s="8">
-        <f>C128*H54</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I128" s="8">
-        <f>C128*I54</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J128" s="8">
-        <f>C128*J54</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K128" s="8">
-        <f>C128*K54</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L128" s="8">
-        <f>C128*L54</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M128" s="8">
-        <f>C128*M54</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>106</v>
       </c>
       <c r="Q128" s="8"/>
@@ -6825,53 +6825,53 @@
         <v>77</v>
       </c>
       <c r="C129" s="8">
-        <f>C55*2</f>
+        <f t="shared" si="30"/>
         <v>90</v>
       </c>
       <c r="D129" s="8">
-        <f>C129*D55</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E129" s="8">
-        <f>C129*E55</f>
+        <f t="shared" si="33"/>
         <v>90</v>
       </c>
       <c r="F129" s="8">
-        <f>C129*F55</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G129" s="8">
-        <f>C129*G55</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H129" s="8">
-        <f>C129*H55</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I129" s="8">
-        <f>C129*I55</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J129" s="8">
-        <f>C129*J55</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K129" s="8">
-        <f>C129*K55</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L129" s="8">
-        <f>C129*L55</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M129" s="8">
-        <f>C129*M55</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>90</v>
       </c>
       <c r="Q129" s="8"/>
@@ -6884,53 +6884,53 @@
         <v>79</v>
       </c>
       <c r="C130" s="14">
-        <f>C56*2</f>
+        <f t="shared" si="30"/>
         <v>40</v>
       </c>
       <c r="D130" s="14">
-        <f>C130*D56</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E130" s="14">
-        <f>C130*E56</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F130" s="14">
-        <f>C130*F56</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G130" s="14">
-        <f>C130*G56</f>
+        <f t="shared" si="35"/>
         <v>80</v>
       </c>
       <c r="H130" s="14">
-        <f>C130*H56</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I130" s="14">
-        <f>C130*I56</f>
+        <f t="shared" si="36"/>
         <v>160</v>
       </c>
       <c r="J130" s="14">
-        <f>C130*J56</f>
+        <f t="shared" si="37"/>
         <v>160</v>
       </c>
       <c r="K130" s="14">
-        <f>C130*K56</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L130" s="14">
-        <f>C130*L56</f>
+        <f t="shared" si="39"/>
         <v>40</v>
       </c>
       <c r="M130" s="14">
-        <f>C130*M56</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
       <c r="P130" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>440</v>
       </c>
       <c r="Q130" s="14">
@@ -6946,53 +6946,53 @@
         <v>80</v>
       </c>
       <c r="C131" s="14">
-        <f>C57*2</f>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="D131" s="14">
-        <f>C131*D57</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="E131" s="14">
-        <f>C131*E57</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F131" s="14">
-        <f>C131*F57</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G131" s="14">
-        <f>C131*G57</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H131" s="14">
-        <f>C131*H57</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I131" s="14">
-        <f>C131*I57</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J131" s="14">
-        <f>C131*J57</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K131" s="14">
-        <f>C131*K57</f>
+        <f t="shared" si="38"/>
         <v>136</v>
       </c>
       <c r="L131" s="14">
-        <f>C131*L57</f>
+        <f t="shared" si="39"/>
         <v>68</v>
       </c>
       <c r="M131" s="14">
-        <f>C131*M57</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
       <c r="P131" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>204</v>
       </c>
       <c r="Q131" s="14"/>
@@ -7005,7 +7005,7 @@
         <v>102</v>
       </c>
       <c r="C132" s="14">
-        <f>C58*2</f>
+        <f t="shared" si="30"/>
         <v>34</v>
       </c>
       <c r="D132" s="14">
@@ -7033,17 +7033,17 @@
         <v>0</v>
       </c>
       <c r="L132" s="14">
-        <f>C132*L58</f>
+        <f t="shared" si="39"/>
         <v>68</v>
       </c>
       <c r="M132" s="14">
-        <f>C132*M58</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
       <c r="P132" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>68</v>
       </c>
       <c r="Q132" s="14"/>
@@ -7056,7 +7056,7 @@
         <v>82</v>
       </c>
       <c r="C133" s="8">
-        <f>C59*2</f>
+        <f t="shared" si="30"/>
         <v>248</v>
       </c>
       <c r="D133" s="8">
@@ -7092,17 +7092,17 @@
         <v>0</v>
       </c>
       <c r="L133" s="8">
-        <f>C133*L59</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M133" s="8">
-        <f>C133*M59</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>1240</v>
       </c>
       <c r="Q133" s="8">
@@ -7118,7 +7118,7 @@
         <v>84</v>
       </c>
       <c r="C134" s="14">
-        <f>C60*2</f>
+        <f t="shared" si="30"/>
         <v>124</v>
       </c>
       <c r="D134" s="14">
@@ -7154,17 +7154,17 @@
         <v>0</v>
       </c>
       <c r="L134" s="14">
-        <f>C134*L60</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M134" s="14">
-        <f>C134*M60</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
       <c r="P134" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>248</v>
       </c>
       <c r="Q134" s="14">
@@ -7180,7 +7180,7 @@
         <v>85</v>
       </c>
       <c r="C135" s="14">
-        <f>C61*2</f>
+        <f t="shared" si="30"/>
         <v>118</v>
       </c>
       <c r="D135" s="14">
@@ -7216,17 +7216,17 @@
         <v>0</v>
       </c>
       <c r="L135" s="14">
-        <f>C135*L61</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M135" s="14">
-        <f>C135*M61</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
       <c r="P135" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>118</v>
       </c>
       <c r="Q135" s="14"/>
@@ -7239,7 +7239,7 @@
         <v>86</v>
       </c>
       <c r="C136" s="14">
-        <f>C62*2</f>
+        <f t="shared" si="30"/>
         <v>116</v>
       </c>
       <c r="D136" s="14">
@@ -7275,17 +7275,17 @@
         <v>0</v>
       </c>
       <c r="L136" s="14">
-        <f>C136*L62</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M136" s="14">
-        <f>C136*M62</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
       <c r="P136" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>116</v>
       </c>
       <c r="Q136" s="14"/>
@@ -7298,7 +7298,7 @@
         <v>88</v>
       </c>
       <c r="C137" s="8">
-        <f>C63*2</f>
+        <f t="shared" si="30"/>
         <v>138</v>
       </c>
       <c r="D137" s="8">
@@ -7334,17 +7334,17 @@
         <v>0</v>
       </c>
       <c r="L137" s="8">
-        <f>C137*L63</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M137" s="8">
-        <f>C137*M63</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="15"/>
         <v>138</v>
       </c>
       <c r="Q137" s="8">
@@ -7402,60 +7402,60 @@
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8">
-        <f t="shared" ref="D142:M142" si="8">SUM(D76:D137)</f>
+        <f t="shared" ref="D142:M142" si="41">SUM(D76:D137)</f>
         <v>750</v>
       </c>
       <c r="E142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>892</v>
       </c>
       <c r="F142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1166</v>
       </c>
       <c r="G142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>1830</v>
       </c>
       <c r="H142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>802</v>
       </c>
       <c r="I142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>3046</v>
       </c>
       <c r="J142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>2704</v>
       </c>
       <c r="K142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>4664</v>
       </c>
       <c r="L142" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="41"/>
         <v>2548</v>
       </c>
       <c r="M142" s="8">
-        <f t="shared" si="8"/>
-        <v>4044</v>
+        <f t="shared" si="41"/>
+        <v>4060</v>
       </c>
       <c r="N142" s="8">
         <f>SUM(D142:M142)</f>
-        <v>22446</v>
+        <v>22462</v>
       </c>
       <c r="O142" s="15">
         <f>N142/N65</f>
-        <v>154.80000000000001</v>
+        <v>153.84931506849315</v>
       </c>
       <c r="P142" s="8">
         <f>SUM(P76:P137)</f>
-        <v>22446</v>
+        <v>22462</v>
       </c>
       <c r="Q142" s="8">
         <f>SUM(Q76:Q137)</f>
-        <v>22446</v>
+        <v>22462</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,48 +7463,48 @@
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="16">
-        <f t="shared" ref="D143:N143" si="9">D142/D65</f>
+        <f t="shared" ref="D143:N143" si="42">D142/D65</f>
         <v>150</v>
       </c>
       <c r="E143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>89.2</v>
       </c>
       <c r="F143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>116.6</v>
       </c>
       <c r="G143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>114.375</v>
       </c>
       <c r="H143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>160.4</v>
       </c>
       <c r="I143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>138.45454545454547</v>
       </c>
       <c r="J143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>142.31578947368422</v>
       </c>
       <c r="K143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>172.74074074074073</v>
       </c>
       <c r="L143" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="42"/>
         <v>159.25</v>
       </c>
       <c r="M143" s="16">
-        <f t="shared" si="9"/>
-        <v>269.60000000000002</v>
+        <f t="shared" si="42"/>
+        <v>253.75</v>
       </c>
       <c r="N143" s="16">
-        <f t="shared" si="9"/>
-        <v>154.80000000000001</v>
+        <f t="shared" si="42"/>
+        <v>153.84931506849315</v>
       </c>
       <c r="O143" s="6" t="s">
         <v>97</v>
@@ -7536,11 +7536,11 @@
       </c>
       <c r="D214">
         <f>SUM(N2:N4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E214">
         <f>SUM(P2:P4)</f>
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -7904,11 +7904,11 @@
       <c r="C238" s="1"/>
       <c r="D238" s="1">
         <f>SUM(D214:D236)</f>
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E238" s="1">
         <f>SUM(E214:E236)</f>
-        <v>20414</v>
+        <v>20430</v>
       </c>
     </row>
   </sheetData>

--- a/pelipaikat.xlsx
+++ b/pelipaikat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC951101-B997-4E77-9416-4FC924160B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2389894E-4936-4B7A-8F1C-D5320D17F580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" xr2:uid="{4555F0EC-1DB6-484D-B801-2FC196B7544F}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -583,7 +583,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -902,7 +901,7 @@
   <dimension ref="A1:Q242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1866,8 +1865,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="14">
         <v>1</v>
@@ -2270,7 +2268,7 @@
       <c r="B36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="8">
         <v>70</v>
       </c>
       <c r="D36" s="8"/>
@@ -3496,7 +3494,7 @@
       <c r="O67" s="12"/>
       <c r="P67" s="7">
         <f>SUM(P2:P65)</f>
-        <v>22528</v>
+        <v>22529</v>
       </c>
       <c r="Q67" s="13">
         <f>SUM(Q2:Q65)</f>
@@ -4632,35 +4630,35 @@
         <v>0</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" ref="E93:M93" si="7">D93*E17</f>
+        <f>D93*E17</f>
         <v>0</v>
       </c>
       <c r="F93" s="14">
-        <f t="shared" si="7"/>
+        <f>E93*F17</f>
         <v>0</v>
       </c>
       <c r="G93" s="14">
-        <f t="shared" si="7"/>
+        <f>F93*G17</f>
         <v>0</v>
       </c>
       <c r="H93" s="14">
-        <f t="shared" si="7"/>
+        <f>G93*H17</f>
         <v>0</v>
       </c>
       <c r="I93" s="14">
-        <f t="shared" si="7"/>
+        <f>H93*I17</f>
         <v>0</v>
       </c>
       <c r="J93" s="14">
-        <f t="shared" si="7"/>
+        <f>I93*J17</f>
         <v>0</v>
       </c>
       <c r="K93" s="14">
-        <f t="shared" si="7"/>
+        <f>J93*K17</f>
         <v>0</v>
       </c>
       <c r="L93" s="14">
-        <f t="shared" si="7"/>
+        <f>K93*L17</f>
         <v>0</v>
       </c>
       <c r="M93" s="14">
@@ -5034,7 +5032,7 @@
         <v>800</v>
       </c>
       <c r="Q99" s="14">
-        <f t="shared" ref="Q99:Q104" si="8">P99</f>
+        <f t="shared" ref="Q99:Q104" si="7">P99</f>
         <v>800</v>
       </c>
     </row>
@@ -5096,7 +5094,7 @@
         <v>726</v>
       </c>
       <c r="Q100" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>726</v>
       </c>
     </row>
@@ -5227,35 +5225,35 @@
         <v>418</v>
       </c>
       <c r="D103" s="14">
-        <f t="shared" ref="D103:K103" si="9">C103*D28</f>
+        <f>C103*D28</f>
         <v>0</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" si="9"/>
+        <f>D103*E28</f>
         <v>0</v>
       </c>
       <c r="F103" s="14">
-        <f t="shared" si="9"/>
+        <f>E103*F28</f>
         <v>0</v>
       </c>
       <c r="G103" s="14">
-        <f t="shared" si="9"/>
+        <f>F103*G28</f>
         <v>0</v>
       </c>
       <c r="H103" s="14">
-        <f t="shared" si="9"/>
+        <f>G103*H28</f>
         <v>0</v>
       </c>
       <c r="I103" s="14">
-        <f t="shared" si="9"/>
+        <f>H103*I28</f>
         <v>0</v>
       </c>
       <c r="J103" s="14">
-        <f t="shared" si="9"/>
+        <f>I103*J28</f>
         <v>0</v>
       </c>
       <c r="K103" s="14">
-        <f t="shared" si="9"/>
+        <f>J103*K28</f>
         <v>0</v>
       </c>
       <c r="L103" s="14">
@@ -5273,7 +5271,7 @@
         <v>418</v>
       </c>
       <c r="Q103" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>418</v>
       </c>
     </row>
@@ -5335,7 +5333,7 @@
         <v>516</v>
       </c>
       <c r="Q104" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>516</v>
       </c>
     </row>
@@ -5393,7 +5391,7 @@
       <c r="N105" s="14"/>
       <c r="O105" s="14"/>
       <c r="P105" s="14">
-        <f t="shared" ref="P105:P110" si="10">SUM(D105:M105)</f>
+        <f t="shared" ref="P105:P110" si="8">SUM(D105:M105)</f>
         <v>100</v>
       </c>
       <c r="Q105" s="14">
@@ -5455,7 +5453,7 @@
       <c r="N106" s="14"/>
       <c r="O106" s="14"/>
       <c r="P106" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q106" s="14"/>
@@ -5511,10 +5509,10 @@
         <f>C107*M31</f>
         <v>0</v>
       </c>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
+      <c r="N107" s="20"/>
+      <c r="O107" s="20"/>
       <c r="P107" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="Q107" s="14"/>
@@ -5573,7 +5571,7 @@
       <c r="N108" s="14"/>
       <c r="O108" s="14"/>
       <c r="P108" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Q108" s="14"/>
@@ -5632,7 +5630,7 @@
       <c r="N109" s="14"/>
       <c r="O109" s="14"/>
       <c r="P109" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>378</v>
       </c>
       <c r="Q109" s="14"/>
@@ -5691,7 +5689,7 @@
       <c r="N110" s="14"/>
       <c r="O110" s="14"/>
       <c r="P110" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="Q110" s="14"/>
@@ -6070,47 +6068,47 @@
         <v>119</v>
       </c>
       <c r="C117" s="8">
-        <f>C41*2</f>
+        <f t="shared" ref="C117:C141" si="9">C41*2</f>
         <v>1044</v>
       </c>
       <c r="D117" s="8">
-        <f>C117*D41</f>
+        <f t="shared" ref="D117:D135" si="10">C117*D41</f>
         <v>0</v>
       </c>
       <c r="E117" s="8">
-        <f>C117*E41</f>
+        <f t="shared" ref="E117:E135" si="11">C117*E41</f>
         <v>0</v>
       </c>
       <c r="F117" s="8">
-        <f>C117*F41</f>
+        <f t="shared" ref="F117:F135" si="12">C117*F41</f>
         <v>0</v>
       </c>
       <c r="G117" s="8">
-        <f>C117*G41</f>
+        <f t="shared" ref="G117:G135" si="13">C117*G41</f>
         <v>0</v>
       </c>
       <c r="H117" s="8">
-        <f>C117*H41</f>
+        <f t="shared" ref="H117:H135" si="14">C117*H41</f>
         <v>0</v>
       </c>
       <c r="I117" s="8">
-        <f>C117*I41</f>
+        <f t="shared" ref="I117:I135" si="15">C117*I41</f>
         <v>0</v>
       </c>
       <c r="J117" s="8">
-        <f>C117*J41</f>
+        <f t="shared" ref="J117:J135" si="16">C117*J41</f>
         <v>0</v>
       </c>
       <c r="K117" s="8">
-        <f>C117*K41</f>
+        <f t="shared" ref="K117:K135" si="17">C117*K41</f>
         <v>0</v>
       </c>
       <c r="L117" s="8">
-        <f>C117*L41</f>
+        <f t="shared" ref="L117:L141" si="18">C117*L41</f>
         <v>0</v>
       </c>
       <c r="M117" s="8">
-        <f>C117*M41</f>
+        <f t="shared" ref="M117:M141" si="19">C117*M41</f>
         <v>1044</v>
       </c>
       <c r="N117" s="8"/>
@@ -6132,47 +6130,47 @@
         <v>57</v>
       </c>
       <c r="C118" s="14">
-        <f>C42*2</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D118" s="14">
-        <f>C118*D42</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E118" s="14">
-        <f>C118*E42</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F118" s="14">
-        <f>C118*F42</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G118" s="14">
-        <f>C118*G42</f>
+        <f t="shared" si="13"/>
         <v>68</v>
       </c>
       <c r="H118" s="14">
-        <f>C118*H42</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I118" s="14">
-        <f>C118*I42</f>
+        <f t="shared" si="15"/>
         <v>136</v>
       </c>
       <c r="J118" s="14">
-        <f>C118*J42</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K118" s="14">
-        <f>C118*K42</f>
+        <f t="shared" si="17"/>
         <v>136</v>
       </c>
       <c r="L118" s="14">
-        <f>C118*L42</f>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="M118" s="14">
-        <f>C118*M42</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N118" s="14"/>
@@ -6194,47 +6192,47 @@
         <v>58</v>
       </c>
       <c r="C119" s="14">
-        <f>C43*2</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="D119" s="14">
-        <f>C119*D43</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E119" s="14">
-        <f>C119*E43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F119" s="14">
-        <f>C119*F43</f>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="G119" s="14">
-        <f>C119*G43</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H119" s="14">
-        <f>C119*H43</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I119" s="14">
-        <f>C119*I43</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J119" s="14">
-        <f>C119*J43</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K119" s="14">
-        <f>C119*K43</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L119" s="14">
-        <f>C119*L43</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M119" s="14">
-        <f>C119*M43</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N119" s="14"/>
@@ -6253,47 +6251,47 @@
         <v>60</v>
       </c>
       <c r="C120" s="8">
-        <f>C44*2</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="D120" s="8">
-        <f>C120*D44</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E120" s="8">
-        <f>C120*E44</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F120" s="8">
-        <f>C120*F44</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G120" s="8">
-        <f>C120*G44</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H120" s="8">
-        <f>C120*H44</f>
+        <f t="shared" si="14"/>
         <v>264</v>
       </c>
       <c r="I120" s="8">
-        <f>C120*I44</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J120" s="8">
-        <f>C120*J44</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K120" s="8">
-        <f>C120*K44</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L120" s="8">
-        <f>C120*L44</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M120" s="8">
-        <f>C120*M44</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N120" s="8"/>
@@ -6315,47 +6313,47 @@
         <v>61</v>
       </c>
       <c r="C121" s="8">
-        <f>C45*2</f>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="D121" s="8">
-        <f>C121*D45</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E121" s="8">
-        <f>C121*E45</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F121" s="8">
-        <f>C121*F45</f>
+        <f t="shared" si="12"/>
         <v>262</v>
       </c>
       <c r="G121" s="8">
-        <f>C121*G45</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H121" s="8">
-        <f>C121*H45</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I121" s="8">
-        <f>C121*I45</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J121" s="8">
-        <f>C121*J45</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K121" s="8">
-        <f>C121*K45</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L121" s="8">
-        <f>C121*L45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M121" s="8">
-        <f>C121*M45</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N121" s="8"/>
@@ -6374,47 +6372,47 @@
         <v>62</v>
       </c>
       <c r="C122" s="8">
-        <f>C46*2</f>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="D122" s="8">
-        <f>C122*D46</f>
+        <f t="shared" si="10"/>
         <v>262</v>
       </c>
       <c r="E122" s="8">
-        <f>C122*E46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F122" s="8">
-        <f>C122*F46</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G122" s="8">
-        <f>C122*G46</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H122" s="8">
-        <f>C122*H46</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I122" s="8">
-        <f>C122*I46</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J122" s="8">
-        <f>C122*J46</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K122" s="8">
-        <f>C122*K46</f>
+        <f t="shared" si="17"/>
         <v>262</v>
       </c>
       <c r="L122" s="8">
-        <f>C122*L46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M122" s="8">
-        <f>C122*M46</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N122" s="8"/>
@@ -6433,47 +6431,47 @@
         <v>64</v>
       </c>
       <c r="C123" s="14">
-        <f>C47*2</f>
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="D123" s="14">
-        <f>C123*D47</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E123" s="14">
-        <f>C123*E47</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F123" s="14">
-        <f>C123*F47</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G123" s="14">
-        <f>C123*G47</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H123" s="14">
-        <f>C123*H47</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I123" s="14">
-        <f>C123*I47</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J123" s="14">
-        <f>C123*J47</f>
+        <f t="shared" si="16"/>
         <v>544</v>
       </c>
       <c r="K123" s="14">
-        <f>C123*K47</f>
+        <f t="shared" si="17"/>
         <v>272</v>
       </c>
       <c r="L123" s="14">
-        <f>C123*L47</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M123" s="14">
-        <f>C123*M47</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N123" s="14"/>
@@ -6495,47 +6493,47 @@
         <v>66</v>
       </c>
       <c r="C124" s="8">
-        <f>C48*2</f>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="D124" s="8">
-        <f>C124*D48</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E124" s="8">
-        <f>C124*E48</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F124" s="8">
-        <f>C124*F48</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G124" s="8">
-        <f>C124*G48</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H124" s="8">
-        <f>C124*H48</f>
+        <f t="shared" si="14"/>
         <v>266</v>
       </c>
       <c r="I124" s="8">
-        <f>C124*I48</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J124" s="8">
-        <f>C124*J48</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K124" s="8">
-        <f>C124*K48</f>
+        <f t="shared" si="17"/>
         <v>266</v>
       </c>
       <c r="L124" s="8">
-        <f>C124*L48</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M124" s="8">
-        <f>C124*M48</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N124" s="8"/>
@@ -6557,47 +6555,47 @@
         <v>67</v>
       </c>
       <c r="C125" s="8">
-        <f>C49*2</f>
+        <f t="shared" si="9"/>
         <v>304</v>
       </c>
       <c r="D125" s="8">
-        <f>C125*D49</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E125" s="8">
-        <f>C125*E49</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F125" s="8">
-        <f>C125*F49</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G125" s="8">
-        <f>C125*G49</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H125" s="8">
-        <f>C125*H49</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I125" s="8">
-        <f>C125*I49</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J125" s="8">
-        <f>C125*J49</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K125" s="8">
-        <f>C125*K49</f>
+        <f t="shared" si="17"/>
         <v>304</v>
       </c>
       <c r="L125" s="8">
-        <f>C125*L49</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M125" s="8">
-        <f>C125*M49</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N125" s="8"/>
@@ -6616,47 +6614,47 @@
         <v>68</v>
       </c>
       <c r="C126" s="8">
-        <f>C50*2</f>
+        <f t="shared" si="9"/>
         <v>254</v>
       </c>
       <c r="D126" s="8">
-        <f>C126*D50</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E126" s="8">
-        <f>C126*E50</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F126" s="8">
-        <f>C126*F50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G126" s="8">
-        <f>C126*G50</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H126" s="8">
-        <f>C126*H50</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I126" s="8">
-        <f>C126*I50</f>
+        <f t="shared" si="15"/>
         <v>254</v>
       </c>
       <c r="J126" s="8">
-        <f>C126*J50</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K126" s="8">
-        <f>C126*K50</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L126" s="8">
-        <f>C126*L50</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M126" s="8">
-        <f>C126*M50</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N126" s="8"/>
@@ -6675,47 +6673,47 @@
         <v>69</v>
       </c>
       <c r="C127" s="8">
-        <f>C51*2</f>
+        <f t="shared" si="9"/>
         <v>306</v>
       </c>
       <c r="D127" s="8">
-        <f>C127*D51</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E127" s="8">
-        <f>C127*E51</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F127" s="8">
-        <f>C127*F51</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G127" s="8">
-        <f>C127*G51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H127" s="8">
-        <f>C127*H51</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I127" s="8">
-        <f>C127*I51</f>
+        <f t="shared" si="15"/>
         <v>306</v>
       </c>
       <c r="J127" s="8">
-        <f>C127*J51</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K127" s="8">
-        <f>C127*K51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L127" s="8">
-        <f>C127*L51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M127" s="8">
-        <f>C127*M51</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N127" s="8"/>
@@ -6734,47 +6732,47 @@
         <v>71</v>
       </c>
       <c r="C128" s="14">
-        <f>C52*2</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="D128" s="14">
-        <f>C128*D52</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E128" s="14">
-        <f>C128*E52</f>
+        <f t="shared" si="11"/>
         <v>124</v>
       </c>
       <c r="F128" s="14">
-        <f>C128*F52</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G128" s="14">
-        <f>C128*G52</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H128" s="14">
-        <f>C128*H52</f>
+        <f t="shared" si="14"/>
         <v>124</v>
       </c>
       <c r="I128" s="14">
-        <f>C128*I52</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J128" s="14">
-        <f>C128*J52</f>
+        <f t="shared" si="16"/>
         <v>248</v>
       </c>
       <c r="K128" s="14">
-        <f>C128*K52</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L128" s="14">
-        <f>C128*L52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M128" s="14">
-        <f>C128*M52</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N128" s="14"/>
@@ -6796,47 +6794,47 @@
         <v>72</v>
       </c>
       <c r="C129" s="14">
-        <f>C53*2</f>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="D129" s="14">
-        <f>C129*D53</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E129" s="14">
-        <f>C129*E53</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F129" s="14">
-        <f>C129*F53</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G129" s="14">
-        <f>C129*G53</f>
+        <f t="shared" si="13"/>
         <v>260</v>
       </c>
       <c r="H129" s="14">
-        <f>C129*H53</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I129" s="14">
-        <f>C129*I53</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J129" s="14">
-        <f>C129*J53</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K129" s="14">
-        <f>C129*K53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L129" s="14">
-        <f>C129*L53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M129" s="14">
-        <f>C129*M53</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N129" s="14"/>
@@ -6855,47 +6853,47 @@
         <v>73</v>
       </c>
       <c r="C130" s="14">
-        <f>C54*2</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="D130" s="14">
-        <f>C130*D54</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E130" s="14">
-        <f>C130*E54</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F130" s="14">
-        <f>C130*F54</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G130" s="14">
-        <f>C130*G54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H130" s="14">
-        <f>C130*H54</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I130" s="14">
-        <f>C130*I54</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J130" s="14">
-        <f>C130*J54</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K130" s="14">
-        <f>C130*K54</f>
+        <f t="shared" si="17"/>
         <v>124</v>
       </c>
       <c r="L130" s="14">
-        <f>C130*L54</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M130" s="14">
-        <f>C130*M54</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N130" s="14"/>
@@ -6914,47 +6912,47 @@
         <v>124</v>
       </c>
       <c r="C131" s="8">
-        <f>C55*2</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="D131" s="8">
-        <f>C131*D55</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E131" s="8">
-        <f>C131*E55</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F131" s="8">
-        <f>C131*F55</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G131" s="8">
-        <f>C131*G55</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H131" s="8">
-        <f>C131*H55</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I131" s="8">
-        <f>C131*I55</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J131" s="8">
-        <f>C131*J55</f>
+        <f t="shared" si="16"/>
         <v>90</v>
       </c>
       <c r="K131" s="8">
-        <f>C131*K55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L131" s="8">
-        <f>C131*L55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M131" s="8">
-        <f>C131*M55</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N131" s="8"/>
@@ -6976,47 +6974,47 @@
         <v>76</v>
       </c>
       <c r="C132" s="8">
-        <f>C56*2</f>
+        <f t="shared" si="9"/>
         <v>106</v>
       </c>
       <c r="D132" s="8">
-        <f>C132*D56</f>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="E132" s="8">
-        <f>C132*E56</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F132" s="8">
-        <f>C132*F56</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G132" s="8">
-        <f>C132*G56</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H132" s="8">
-        <f>C132*H56</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I132" s="8">
-        <f>C132*I56</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J132" s="8">
-        <f>C132*J56</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K132" s="8">
-        <f>C132*K56</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L132" s="8">
-        <f>C132*L56</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M132" s="8">
-        <f>C132*M56</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N132" s="8"/>
@@ -7035,47 +7033,47 @@
         <v>77</v>
       </c>
       <c r="C133" s="8">
-        <f>C57*2</f>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="D133" s="8">
-        <f>C133*D57</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E133" s="8">
-        <f>C133*E57</f>
+        <f t="shared" si="11"/>
         <v>90</v>
       </c>
       <c r="F133" s="8">
-        <f>C133*F57</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G133" s="8">
-        <f>C133*G57</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H133" s="8">
-        <f>C133*H57</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I133" s="8">
-        <f>C133*I57</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J133" s="8">
-        <f>C133*J57</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K133" s="8">
-        <f>C133*K57</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L133" s="8">
-        <f>C133*L57</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M133" s="8">
-        <f>C133*M57</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N133" s="8"/>
@@ -7094,47 +7092,47 @@
         <v>79</v>
       </c>
       <c r="C134" s="14">
-        <f>C58*2</f>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D134" s="14">
-        <f>C134*D58</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E134" s="14">
-        <f>C134*E58</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F134" s="14">
-        <f>C134*F58</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G134" s="14">
-        <f>C134*G58</f>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="H134" s="14">
-        <f>C134*H58</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I134" s="14">
-        <f>C134*I58</f>
+        <f t="shared" si="15"/>
         <v>160</v>
       </c>
       <c r="J134" s="14">
-        <f>C134*J58</f>
+        <f t="shared" si="16"/>
         <v>160</v>
       </c>
       <c r="K134" s="14">
-        <f>C134*K58</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L134" s="14">
-        <f>C134*L58</f>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="M134" s="14">
-        <f>C134*M58</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N134" s="14"/>
@@ -7156,47 +7154,47 @@
         <v>80</v>
       </c>
       <c r="C135" s="14">
-        <f>C59*2</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D135" s="14">
-        <f>C135*D59</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E135" s="14">
-        <f>C135*E59</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F135" s="14">
-        <f>C135*F59</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G135" s="14">
-        <f>C135*G59</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H135" s="14">
-        <f>C135*H59</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I135" s="14">
-        <f>C135*I59</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J135" s="14">
-        <f>C135*J59</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K135" s="14">
-        <f>C135*K59</f>
+        <f t="shared" si="17"/>
         <v>136</v>
       </c>
       <c r="L135" s="14">
-        <f>C135*L59</f>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="M135" s="14">
-        <f>C135*M59</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N135" s="14"/>
@@ -7215,7 +7213,7 @@
         <v>102</v>
       </c>
       <c r="C136" s="14">
-        <f>C60*2</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D136" s="14">
@@ -7243,11 +7241,11 @@
         <v>0</v>
       </c>
       <c r="L136" s="14">
-        <f>C136*L60</f>
+        <f t="shared" si="18"/>
         <v>68</v>
       </c>
       <c r="M136" s="14">
-        <f>C136*M60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N136" s="14"/>
@@ -7266,7 +7264,7 @@
         <v>82</v>
       </c>
       <c r="C137" s="8">
-        <f>C61*2</f>
+        <f t="shared" si="9"/>
         <v>248</v>
       </c>
       <c r="D137" s="8">
@@ -7302,11 +7300,11 @@
         <v>0</v>
       </c>
       <c r="L137" s="8">
-        <f>C137*L61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M137" s="8">
-        <f>C137*M61</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N137" s="8"/>
@@ -7328,7 +7326,7 @@
         <v>84</v>
       </c>
       <c r="C138" s="14">
-        <f>C62*2</f>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="D138" s="14">
@@ -7364,11 +7362,11 @@
         <v>0</v>
       </c>
       <c r="L138" s="14">
-        <f>C138*L62</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M138" s="14">
-        <f>C138*M62</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N138" s="14"/>
@@ -7390,7 +7388,7 @@
         <v>85</v>
       </c>
       <c r="C139" s="14">
-        <f>C63*2</f>
+        <f t="shared" si="9"/>
         <v>118</v>
       </c>
       <c r="D139" s="14">
@@ -7426,11 +7424,11 @@
         <v>0</v>
       </c>
       <c r="L139" s="14">
-        <f>C139*L63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M139" s="14">
-        <f>C139*M63</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N139" s="14"/>
@@ -7449,7 +7447,7 @@
         <v>86</v>
       </c>
       <c r="C140" s="14">
-        <f>C64*2</f>
+        <f t="shared" si="9"/>
         <v>116</v>
       </c>
       <c r="D140" s="14">
@@ -7485,11 +7483,11 @@
         <v>0</v>
       </c>
       <c r="L140" s="14">
-        <f>C140*L64</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M140" s="14">
-        <f>C140*M64</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N140" s="14"/>
@@ -7508,7 +7506,7 @@
         <v>88</v>
       </c>
       <c r="C141" s="8">
-        <f>C65*2</f>
+        <f t="shared" si="9"/>
         <v>138</v>
       </c>
       <c r="D141" s="8">
@@ -7544,11 +7542,11 @@
         <v>0</v>
       </c>
       <c r="L141" s="8">
-        <f>C141*L65</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M141" s="8">
-        <f>C141*M65</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N141" s="8"/>
@@ -7612,43 +7610,43 @@
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8">
-        <f t="shared" ref="D146:M146" si="11">SUM(D78:D141)</f>
+        <f t="shared" ref="D146:M146" si="20">SUM(D78:D141)</f>
         <v>750</v>
       </c>
       <c r="E146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>892</v>
       </c>
       <c r="F146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1166</v>
       </c>
       <c r="G146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>1830</v>
       </c>
       <c r="H146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>802</v>
       </c>
       <c r="I146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>3046</v>
       </c>
       <c r="J146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2704</v>
       </c>
       <c r="K146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4664</v>
       </c>
       <c r="L146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>2362</v>
       </c>
       <c r="M146" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>4312</v>
       </c>
       <c r="N146" s="8">
@@ -7673,47 +7671,47 @@
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="16">
-        <f t="shared" ref="D147:N147" si="12">D146/D67</f>
+        <f t="shared" ref="D147:N147" si="21">D146/D67</f>
         <v>150</v>
       </c>
       <c r="E147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>89.2</v>
       </c>
       <c r="F147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>116.6</v>
       </c>
       <c r="G147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>114.375</v>
       </c>
       <c r="H147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>160.4</v>
       </c>
       <c r="I147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>138.45454545454547</v>
       </c>
       <c r="J147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>142.31578947368422</v>
       </c>
       <c r="K147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>172.74074074074073</v>
       </c>
       <c r="L147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>157.46666666666667</v>
       </c>
       <c r="M147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>226.94736842105263</v>
       </c>
       <c r="N147" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>152.21621621621622</v>
       </c>
       <c r="O147" s="6" t="s">
